--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Prep\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D549423-6030-485D-8996-2F7619F4585F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E03C29-0A9F-41ED-8027-7705716454F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="704">
   <si>
     <t>DSA by Shradha Didi &amp; Aman Bhaiya</t>
   </si>
@@ -2170,12 +2170,18 @@
   <si>
     <t>TRIES</t>
   </si>
+  <si>
+    <t>Sliding Window</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2387,6 +2393,13 @@
       <name val="Open Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -2535,7 +2548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2766,6 +2779,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3070,8 +3086,8 @@
   </sheetPr>
   <dimension ref="A1:Z919"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38:F38"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3101,10 +3117,10 @@
       <c r="D1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="81" t="s">
+      <c r="E1" s="82" t="s">
         <v>696</v>
       </c>
-      <c r="F1" s="81"/>
+      <c r="F1" s="82"/>
       <c r="G1" s="21" t="s">
         <v>693</v>
       </c>
@@ -3143,10 +3159,10 @@
         <v>13</v>
       </c>
       <c r="D2" s="26"/>
-      <c r="E2" s="80" t="s">
+      <c r="E2" s="81" t="s">
         <v>690</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="22">
         <v>1</v>
       </c>
@@ -3186,10 +3202,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="26"/>
-      <c r="E3" s="82" t="s">
+      <c r="E3" s="83" t="s">
         <v>690</v>
       </c>
-      <c r="F3" s="83"/>
+      <c r="F3" s="84"/>
       <c r="G3" s="22">
         <v>2</v>
       </c>
@@ -3201,14 +3217,14 @@
         <v>0.53191489361702127</v>
       </c>
       <c r="J3" s="30"/>
-      <c r="K3" s="78" t="s">
+      <c r="K3" s="79" t="s">
         <v>699</v>
       </c>
-      <c r="L3" s="78"/>
-      <c r="M3" s="79" t="s">
+      <c r="L3" s="79"/>
+      <c r="M3" s="80" t="s">
         <v>700</v>
       </c>
-      <c r="N3" s="79"/>
+      <c r="N3" s="80"/>
       <c r="O3" s="30"/>
       <c r="P3" s="30"/>
       <c r="Q3" s="30"/>
@@ -3235,10 +3251,10 @@
       <c r="D4" s="26" t="s">
         <v>694</v>
       </c>
-      <c r="E4" s="82" t="s">
+      <c r="E4" s="83" t="s">
         <v>690</v>
       </c>
-      <c r="F4" s="83"/>
+      <c r="F4" s="84"/>
       <c r="G4" s="22">
         <v>3</v>
       </c>
@@ -3250,10 +3266,10 @@
         <v>0.7978723404255319</v>
       </c>
       <c r="J4" s="30"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
       <c r="O4" s="30"/>
       <c r="P4" s="30"/>
       <c r="Q4" s="30"/>
@@ -3278,10 +3294,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="26"/>
-      <c r="E5" s="82" t="s">
+      <c r="E5" s="83" t="s">
         <v>690</v>
       </c>
-      <c r="F5" s="83"/>
+      <c r="F5" s="84"/>
       <c r="G5" s="22">
         <v>4</v>
       </c>
@@ -3293,16 +3309,16 @@
         <v>1.0638297872340425</v>
       </c>
       <c r="J5" s="30"/>
-      <c r="K5" s="78">
+      <c r="K5" s="79">
         <f>COUNTIF(E:F,"Done")</f>
         <v>27</v>
       </c>
-      <c r="L5" s="78"/>
-      <c r="M5" s="79">
+      <c r="L5" s="79"/>
+      <c r="M5" s="80">
         <f>COUNTIF(E:F,"Not Done")</f>
         <v>348</v>
       </c>
-      <c r="N5" s="79"/>
+      <c r="N5" s="80"/>
       <c r="O5" s="30"/>
       <c r="P5" s="30"/>
       <c r="Q5" s="30"/>
@@ -3327,10 +3343,10 @@
         <v>19</v>
       </c>
       <c r="D6" s="26"/>
-      <c r="E6" s="82" t="s">
+      <c r="E6" s="83" t="s">
         <v>690</v>
       </c>
-      <c r="F6" s="83"/>
+      <c r="F6" s="84"/>
       <c r="G6" s="22">
         <v>5</v>
       </c>
@@ -3342,10 +3358,10 @@
         <v>1.3297872340425532</v>
       </c>
       <c r="J6" s="30"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
       <c r="Q6" s="30"/>
@@ -3369,11 +3385,13 @@
       <c r="C7" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="82" t="s">
+      <c r="D7" s="26" t="s">
+        <v>703</v>
+      </c>
+      <c r="E7" s="83" t="s">
         <v>690</v>
       </c>
-      <c r="F7" s="83"/>
+      <c r="F7" s="84"/>
       <c r="G7" s="22">
         <v>6</v>
       </c>
@@ -3385,10 +3403,10 @@
         <v>1.5957446808510638</v>
       </c>
       <c r="J7" s="30"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="79"/>
-      <c r="N7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
       <c r="O7" s="30"/>
       <c r="P7" s="30"/>
       <c r="Q7" s="30"/>
@@ -3413,10 +3431,10 @@
         <v>23</v>
       </c>
       <c r="D8" s="26"/>
-      <c r="E8" s="82" t="s">
+      <c r="E8" s="83" t="s">
         <v>690</v>
       </c>
-      <c r="F8" s="83"/>
+      <c r="F8" s="84"/>
       <c r="G8" s="22">
         <v>7</v>
       </c>
@@ -3455,11 +3473,13 @@
       <c r="C9" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="82" t="s">
+      <c r="D9" s="78" t="s">
+        <v>702</v>
+      </c>
+      <c r="E9" s="83" t="s">
         <v>690</v>
       </c>
-      <c r="F9" s="83"/>
+      <c r="F9" s="84"/>
       <c r="G9" s="22">
         <v>8</v>
       </c>
@@ -3482,10 +3502,10 @@
         <v>19</v>
       </c>
       <c r="D10" s="22"/>
-      <c r="E10" s="82" t="s">
+      <c r="E10" s="83" t="s">
         <v>690</v>
       </c>
-      <c r="F10" s="83"/>
+      <c r="F10" s="84"/>
       <c r="G10" s="22">
         <v>9</v>
       </c>
@@ -3525,10 +3545,10 @@
         <v>28</v>
       </c>
       <c r="D11" s="22"/>
-      <c r="E11" s="82" t="s">
+      <c r="E11" s="83" t="s">
         <v>690</v>
       </c>
-      <c r="F11" s="83"/>
+      <c r="F11" s="84"/>
       <c r="G11" s="22">
         <v>10</v>
       </c>
@@ -3568,10 +3588,10 @@
         <v>30</v>
       </c>
       <c r="D12" s="26"/>
-      <c r="E12" s="82" t="s">
+      <c r="E12" s="83" t="s">
         <v>690</v>
       </c>
-      <c r="F12" s="83"/>
+      <c r="F12" s="84"/>
       <c r="G12" s="22">
         <v>11</v>
       </c>
@@ -3611,10 +3631,10 @@
         <v>17</v>
       </c>
       <c r="D13" s="26"/>
-      <c r="E13" s="82" t="s">
+      <c r="E13" s="83" t="s">
         <v>690</v>
       </c>
-      <c r="F13" s="83"/>
+      <c r="F13" s="84"/>
       <c r="G13" s="22">
         <v>12</v>
       </c>
@@ -3653,11 +3673,13 @@
       <c r="C14" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="82" t="s">
+      <c r="D14" s="78" t="s">
+        <v>702</v>
+      </c>
+      <c r="E14" s="83" t="s">
         <v>690</v>
       </c>
-      <c r="F14" s="83"/>
+      <c r="F14" s="84"/>
       <c r="G14" s="22">
         <v>13</v>
       </c>
@@ -3697,10 +3719,10 @@
         <v>35</v>
       </c>
       <c r="D15" s="26"/>
-      <c r="E15" s="82" t="s">
+      <c r="E15" s="83" t="s">
         <v>690</v>
       </c>
-      <c r="F15" s="83"/>
+      <c r="F15" s="84"/>
       <c r="G15" s="22">
         <v>14</v>
       </c>
@@ -3740,10 +3762,10 @@
         <v>37</v>
       </c>
       <c r="D16" s="26"/>
-      <c r="E16" s="82" t="s">
+      <c r="E16" s="83" t="s">
         <v>690</v>
       </c>
-      <c r="F16" s="83"/>
+      <c r="F16" s="84"/>
       <c r="G16" s="22">
         <v>15</v>
       </c>
@@ -3783,10 +3805,10 @@
         <v>35</v>
       </c>
       <c r="D17" s="26"/>
-      <c r="E17" s="82" t="s">
+      <c r="E17" s="83" t="s">
         <v>691</v>
       </c>
-      <c r="F17" s="83"/>
+      <c r="F17" s="84"/>
       <c r="G17" s="22">
         <v>16</v>
       </c>
@@ -3825,11 +3847,13 @@
       <c r="C18" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="82" t="s">
+      <c r="D18" s="78" t="s">
+        <v>702</v>
+      </c>
+      <c r="E18" s="83" t="s">
         <v>690</v>
       </c>
-      <c r="F18" s="83"/>
+      <c r="F18" s="84"/>
       <c r="G18" s="22">
         <v>17</v>
       </c>
@@ -3869,10 +3893,10 @@
         <v>42</v>
       </c>
       <c r="D19" s="26"/>
-      <c r="E19" s="82" t="s">
+      <c r="E19" s="83" t="s">
         <v>690</v>
       </c>
-      <c r="F19" s="83"/>
+      <c r="F19" s="84"/>
       <c r="G19" s="22">
         <v>18</v>
       </c>
@@ -3912,10 +3936,10 @@
         <v>13</v>
       </c>
       <c r="D20" s="26"/>
-      <c r="E20" s="82" t="s">
+      <c r="E20" s="83" t="s">
         <v>690</v>
       </c>
-      <c r="F20" s="83"/>
+      <c r="F20" s="84"/>
       <c r="G20" s="22">
         <v>19</v>
       </c>
@@ -3955,10 +3979,10 @@
         <v>45</v>
       </c>
       <c r="D21" s="26"/>
-      <c r="E21" s="82" t="s">
+      <c r="E21" s="83" t="s">
         <v>691</v>
       </c>
-      <c r="F21" s="83"/>
+      <c r="F21" s="84"/>
       <c r="G21" s="22">
         <v>20</v>
       </c>
@@ -3998,10 +4022,10 @@
         <v>47</v>
       </c>
       <c r="D22" s="26"/>
-      <c r="E22" s="82" t="s">
+      <c r="E22" s="83" t="s">
         <v>690</v>
       </c>
-      <c r="F22" s="83"/>
+      <c r="F22" s="84"/>
       <c r="G22" s="22">
         <v>21</v>
       </c>
@@ -4041,10 +4065,10 @@
         <v>49</v>
       </c>
       <c r="D23" s="26"/>
-      <c r="E23" s="82" t="s">
+      <c r="E23" s="83" t="s">
         <v>691</v>
       </c>
-      <c r="F23" s="83"/>
+      <c r="F23" s="84"/>
       <c r="G23" s="22">
         <v>22</v>
       </c>
@@ -4084,10 +4108,10 @@
         <v>47</v>
       </c>
       <c r="D24" s="26"/>
-      <c r="E24" s="82" t="s">
+      <c r="E24" s="83" t="s">
         <v>691</v>
       </c>
-      <c r="F24" s="83"/>
+      <c r="F24" s="84"/>
       <c r="G24" s="22">
         <v>23</v>
       </c>
@@ -4127,10 +4151,10 @@
         <v>52</v>
       </c>
       <c r="D25" s="26"/>
-      <c r="E25" s="82" t="s">
+      <c r="E25" s="83" t="s">
         <v>691</v>
       </c>
-      <c r="F25" s="83"/>
+      <c r="F25" s="84"/>
       <c r="G25" s="22">
         <v>24</v>
       </c>
@@ -4170,10 +4194,10 @@
         <v>47</v>
       </c>
       <c r="D26" s="26"/>
-      <c r="E26" s="82" t="s">
+      <c r="E26" s="83" t="s">
         <v>691</v>
       </c>
-      <c r="F26" s="83"/>
+      <c r="F26" s="84"/>
       <c r="G26" s="22">
         <v>25</v>
       </c>
@@ -4213,10 +4237,10 @@
         <v>55</v>
       </c>
       <c r="D27" s="26"/>
-      <c r="E27" s="82" t="s">
+      <c r="E27" s="83" t="s">
         <v>691</v>
       </c>
-      <c r="F27" s="83"/>
+      <c r="F27" s="84"/>
       <c r="G27" s="22">
         <v>26</v>
       </c>
@@ -4250,8 +4274,8 @@
       <c r="B28" s="23"/>
       <c r="C28" s="41"/>
       <c r="D28" s="32"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="87"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="88"/>
       <c r="G28" s="65"/>
       <c r="H28" s="65"/>
       <c r="I28" s="66">
@@ -4281,8 +4305,8 @@
       <c r="B29" s="23"/>
       <c r="C29" s="41"/>
       <c r="D29" s="32"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="87"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="88"/>
       <c r="G29" s="65"/>
       <c r="H29" s="65"/>
       <c r="I29" s="66">
@@ -4318,10 +4342,10 @@
         <v>58</v>
       </c>
       <c r="D30" s="26"/>
-      <c r="E30" s="84" t="s">
+      <c r="E30" s="85" t="s">
         <v>690</v>
       </c>
-      <c r="F30" s="85"/>
+      <c r="F30" s="86"/>
       <c r="G30" s="24">
         <v>1</v>
       </c>
@@ -4361,10 +4385,10 @@
         <v>60</v>
       </c>
       <c r="D31" s="26"/>
-      <c r="E31" s="84" t="s">
+      <c r="E31" s="85" t="s">
         <v>690</v>
       </c>
-      <c r="F31" s="85"/>
+      <c r="F31" s="86"/>
       <c r="G31" s="24">
         <v>2</v>
       </c>
@@ -4406,10 +4430,10 @@
       <c r="D32" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="E32" s="84" t="s">
+      <c r="E32" s="85" t="s">
         <v>690</v>
       </c>
-      <c r="F32" s="85"/>
+      <c r="F32" s="86"/>
       <c r="G32" s="24">
         <v>3</v>
       </c>
@@ -4449,10 +4473,10 @@
         <v>64</v>
       </c>
       <c r="D33" s="26"/>
-      <c r="E33" s="84" t="s">
+      <c r="E33" s="85" t="s">
         <v>690</v>
       </c>
-      <c r="F33" s="85"/>
+      <c r="F33" s="86"/>
       <c r="G33" s="24">
         <v>4</v>
       </c>
@@ -4494,10 +4518,10 @@
       <c r="D34" s="77" t="s">
         <v>701</v>
       </c>
-      <c r="E34" s="84" t="s">
+      <c r="E34" s="85" t="s">
         <v>690</v>
       </c>
-      <c r="F34" s="85"/>
+      <c r="F34" s="86"/>
       <c r="G34" s="24">
         <v>5</v>
       </c>
@@ -4537,10 +4561,10 @@
         <v>68</v>
       </c>
       <c r="D35" s="77"/>
-      <c r="E35" s="84" t="s">
+      <c r="E35" s="85" t="s">
         <v>690</v>
       </c>
-      <c r="F35" s="85"/>
+      <c r="F35" s="86"/>
       <c r="G35" s="24">
         <v>6</v>
       </c>
@@ -4580,10 +4604,10 @@
         <v>70</v>
       </c>
       <c r="D36" s="26"/>
-      <c r="E36" s="84" t="s">
+      <c r="E36" s="85" t="s">
         <v>690</v>
       </c>
-      <c r="F36" s="85"/>
+      <c r="F36" s="86"/>
       <c r="G36" s="24">
         <v>7</v>
       </c>
@@ -4622,11 +4646,13 @@
       <c r="C37" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="84" t="s">
+      <c r="D37" s="78" t="s">
+        <v>702</v>
+      </c>
+      <c r="E37" s="85" t="s">
         <v>690</v>
       </c>
-      <c r="F37" s="85"/>
+      <c r="F37" s="86"/>
       <c r="G37" s="24">
         <v>8</v>
       </c>
@@ -4665,11 +4691,13 @@
       <c r="C38" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D38" s="26"/>
-      <c r="E38" s="84" t="s">
+      <c r="D38" s="78" t="s">
+        <v>702</v>
+      </c>
+      <c r="E38" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F38" s="85"/>
+      <c r="F38" s="86"/>
       <c r="G38" s="24">
         <v>9</v>
       </c>
@@ -4709,10 +4737,10 @@
         <v>76</v>
       </c>
       <c r="D39" s="26"/>
-      <c r="E39" s="84" t="s">
+      <c r="E39" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F39" s="85"/>
+      <c r="F39" s="86"/>
       <c r="G39" s="24">
         <v>10</v>
       </c>
@@ -4752,10 +4780,10 @@
         <v>78</v>
       </c>
       <c r="D40" s="26"/>
-      <c r="E40" s="84" t="s">
+      <c r="E40" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F40" s="85"/>
+      <c r="F40" s="86"/>
       <c r="G40" s="24">
         <v>11</v>
       </c>
@@ -4795,10 +4823,10 @@
         <v>80</v>
       </c>
       <c r="D41" s="26"/>
-      <c r="E41" s="84" t="s">
+      <c r="E41" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F41" s="85"/>
+      <c r="F41" s="86"/>
       <c r="G41" s="24">
         <v>12</v>
       </c>
@@ -4838,10 +4866,10 @@
         <v>81</v>
       </c>
       <c r="D42" s="26"/>
-      <c r="E42" s="84" t="s">
+      <c r="E42" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F42" s="85"/>
+      <c r="F42" s="86"/>
       <c r="G42" s="24">
         <v>13</v>
       </c>
@@ -4881,10 +4909,10 @@
         <v>83</v>
       </c>
       <c r="D43" s="26"/>
-      <c r="E43" s="84" t="s">
+      <c r="E43" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F43" s="85"/>
+      <c r="F43" s="86"/>
       <c r="G43" s="24">
         <v>14</v>
       </c>
@@ -4924,10 +4952,10 @@
         <v>85</v>
       </c>
       <c r="D44" s="26"/>
-      <c r="E44" s="84" t="s">
+      <c r="E44" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F44" s="85"/>
+      <c r="F44" s="86"/>
       <c r="G44" s="24">
         <v>15</v>
       </c>
@@ -4967,10 +4995,10 @@
         <v>87</v>
       </c>
       <c r="D45" s="26"/>
-      <c r="E45" s="84" t="s">
+      <c r="E45" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F45" s="85"/>
+      <c r="F45" s="86"/>
       <c r="G45" s="24">
         <v>16</v>
       </c>
@@ -5010,10 +5038,10 @@
         <v>89</v>
       </c>
       <c r="D46" s="26"/>
-      <c r="E46" s="84" t="s">
+      <c r="E46" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F46" s="85"/>
+      <c r="F46" s="86"/>
       <c r="G46" s="24">
         <v>17</v>
       </c>
@@ -5053,10 +5081,10 @@
         <v>91</v>
       </c>
       <c r="D47" s="26"/>
-      <c r="E47" s="84" t="s">
+      <c r="E47" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F47" s="85"/>
+      <c r="F47" s="86"/>
       <c r="G47" s="24">
         <v>18</v>
       </c>
@@ -5096,10 +5124,10 @@
         <v>93</v>
       </c>
       <c r="D48" s="26"/>
-      <c r="E48" s="84" t="s">
+      <c r="E48" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F48" s="85"/>
+      <c r="F48" s="86"/>
       <c r="G48" s="24">
         <v>19</v>
       </c>
@@ -5139,10 +5167,10 @@
         <v>95</v>
       </c>
       <c r="D49" s="26"/>
-      <c r="E49" s="84" t="s">
+      <c r="E49" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F49" s="85"/>
+      <c r="F49" s="86"/>
       <c r="G49" s="24">
         <v>20</v>
       </c>
@@ -5182,10 +5210,10 @@
         <v>97</v>
       </c>
       <c r="D50" s="26"/>
-      <c r="E50" s="84" t="s">
+      <c r="E50" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F50" s="85"/>
+      <c r="F50" s="86"/>
       <c r="G50" s="24">
         <v>21</v>
       </c>
@@ -5227,10 +5255,10 @@
       <c r="D51" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="E51" s="84" t="s">
+      <c r="E51" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F51" s="85"/>
+      <c r="F51" s="86"/>
       <c r="G51" s="24">
         <v>22</v>
       </c>
@@ -5264,8 +5292,8 @@
       <c r="B52" s="65"/>
       <c r="C52" s="68"/>
       <c r="D52" s="69"/>
-      <c r="E52" s="88"/>
-      <c r="F52" s="89"/>
+      <c r="E52" s="89"/>
+      <c r="F52" s="90"/>
       <c r="G52" s="65"/>
       <c r="H52" s="65"/>
       <c r="I52" s="66">
@@ -5295,8 +5323,8 @@
       <c r="B53" s="65"/>
       <c r="C53" s="68"/>
       <c r="D53" s="69"/>
-      <c r="E53" s="88"/>
-      <c r="F53" s="89"/>
+      <c r="E53" s="89"/>
+      <c r="F53" s="90"/>
       <c r="G53" s="65"/>
       <c r="H53" s="65"/>
       <c r="I53" s="66">
@@ -5332,10 +5360,10 @@
         <v>102</v>
       </c>
       <c r="D54" s="26"/>
-      <c r="E54" s="84" t="s">
+      <c r="E54" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F54" s="85"/>
+      <c r="F54" s="86"/>
       <c r="G54" s="24">
         <v>1</v>
       </c>
@@ -5375,10 +5403,10 @@
         <v>104</v>
       </c>
       <c r="D55" s="26"/>
-      <c r="E55" s="84" t="s">
+      <c r="E55" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F55" s="85"/>
+      <c r="F55" s="86"/>
       <c r="G55" s="24">
         <v>2</v>
       </c>
@@ -5418,10 +5446,10 @@
         <v>106</v>
       </c>
       <c r="D56" s="26"/>
-      <c r="E56" s="84" t="s">
+      <c r="E56" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F56" s="85"/>
+      <c r="F56" s="86"/>
       <c r="G56" s="24">
         <v>3</v>
       </c>
@@ -5461,10 +5489,10 @@
         <v>108</v>
       </c>
       <c r="D57" s="26"/>
-      <c r="E57" s="84" t="s">
+      <c r="E57" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F57" s="85"/>
+      <c r="F57" s="86"/>
       <c r="G57" s="24">
         <v>4</v>
       </c>
@@ -5504,10 +5532,10 @@
         <v>110</v>
       </c>
       <c r="D58" s="26"/>
-      <c r="E58" s="84" t="s">
+      <c r="E58" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F58" s="85"/>
+      <c r="F58" s="86"/>
       <c r="G58" s="24">
         <v>5</v>
       </c>
@@ -5549,10 +5577,10 @@
       <c r="D59" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="E59" s="84" t="s">
+      <c r="E59" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F59" s="85"/>
+      <c r="F59" s="86"/>
       <c r="G59" s="24">
         <v>6</v>
       </c>
@@ -5592,10 +5620,10 @@
         <v>115</v>
       </c>
       <c r="D60" s="26"/>
-      <c r="E60" s="84" t="s">
+      <c r="E60" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F60" s="85"/>
+      <c r="F60" s="86"/>
       <c r="G60" s="24">
         <v>7</v>
       </c>
@@ -5635,10 +5663,10 @@
         <v>117</v>
       </c>
       <c r="D61" s="26"/>
-      <c r="E61" s="84" t="s">
+      <c r="E61" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F61" s="85"/>
+      <c r="F61" s="86"/>
       <c r="G61" s="24">
         <v>8</v>
       </c>
@@ -5678,10 +5706,10 @@
         <v>119</v>
       </c>
       <c r="D62" s="26"/>
-      <c r="E62" s="84" t="s">
+      <c r="E62" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F62" s="85"/>
+      <c r="F62" s="86"/>
       <c r="G62" s="24">
         <v>9</v>
       </c>
@@ -5721,10 +5749,10 @@
         <v>104</v>
       </c>
       <c r="D63" s="26"/>
-      <c r="E63" s="84" t="s">
+      <c r="E63" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F63" s="85"/>
+      <c r="F63" s="86"/>
       <c r="G63" s="24">
         <v>10</v>
       </c>
@@ -5758,8 +5786,8 @@
       <c r="B64" s="23"/>
       <c r="C64" s="41"/>
       <c r="D64" s="32"/>
-      <c r="E64" s="86"/>
-      <c r="F64" s="87"/>
+      <c r="E64" s="87"/>
+      <c r="F64" s="88"/>
       <c r="G64" s="23"/>
       <c r="H64" s="65"/>
       <c r="I64" s="66">
@@ -5789,8 +5817,8 @@
       <c r="B65" s="23"/>
       <c r="C65" s="41"/>
       <c r="D65" s="32"/>
-      <c r="E65" s="86"/>
-      <c r="F65" s="87"/>
+      <c r="E65" s="87"/>
+      <c r="F65" s="88"/>
       <c r="G65" s="23"/>
       <c r="H65" s="65"/>
       <c r="I65" s="66">
@@ -5826,10 +5854,10 @@
         <v>123</v>
       </c>
       <c r="D66" s="26"/>
-      <c r="E66" s="84" t="s">
+      <c r="E66" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F66" s="85"/>
+      <c r="F66" s="86"/>
       <c r="G66" s="24">
         <v>1</v>
       </c>
@@ -5869,10 +5897,10 @@
         <v>125</v>
       </c>
       <c r="D67" s="26"/>
-      <c r="E67" s="84" t="s">
+      <c r="E67" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F67" s="85"/>
+      <c r="F67" s="86"/>
       <c r="G67" s="24">
         <v>2</v>
       </c>
@@ -5912,10 +5940,10 @@
         <v>117</v>
       </c>
       <c r="D68" s="26"/>
-      <c r="E68" s="84" t="s">
+      <c r="E68" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F68" s="85"/>
+      <c r="F68" s="86"/>
       <c r="G68" s="24">
         <v>3</v>
       </c>
@@ -5955,10 +5983,10 @@
         <v>128</v>
       </c>
       <c r="D69" s="26"/>
-      <c r="E69" s="84" t="s">
+      <c r="E69" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F69" s="85"/>
+      <c r="F69" s="86"/>
       <c r="G69" s="24">
         <v>4</v>
       </c>
@@ -5998,10 +6026,10 @@
         <v>130</v>
       </c>
       <c r="D70" s="26"/>
-      <c r="E70" s="84" t="s">
+      <c r="E70" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F70" s="85"/>
+      <c r="F70" s="86"/>
       <c r="G70" s="24">
         <v>5</v>
       </c>
@@ -6041,10 +6069,10 @@
         <v>132</v>
       </c>
       <c r="D71" s="26"/>
-      <c r="E71" s="84" t="s">
+      <c r="E71" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F71" s="85"/>
+      <c r="F71" s="86"/>
       <c r="G71" s="24">
         <v>6</v>
       </c>
@@ -6084,10 +6112,10 @@
         <v>134</v>
       </c>
       <c r="D72" s="26"/>
-      <c r="E72" s="84" t="s">
+      <c r="E72" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F72" s="85"/>
+      <c r="F72" s="86"/>
       <c r="G72" s="24">
         <v>7</v>
       </c>
@@ -6127,10 +6155,10 @@
         <v>136</v>
       </c>
       <c r="D73" s="26"/>
-      <c r="E73" s="84" t="s">
+      <c r="E73" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F73" s="85"/>
+      <c r="F73" s="86"/>
       <c r="G73" s="24">
         <v>8</v>
       </c>
@@ -6170,10 +6198,10 @@
         <v>138</v>
       </c>
       <c r="D74" s="44"/>
-      <c r="E74" s="84" t="s">
+      <c r="E74" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F74" s="85"/>
+      <c r="F74" s="86"/>
       <c r="G74" s="24">
         <v>9</v>
       </c>
@@ -6213,10 +6241,10 @@
         <v>140</v>
       </c>
       <c r="D75" s="44"/>
-      <c r="E75" s="84" t="s">
+      <c r="E75" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F75" s="85"/>
+      <c r="F75" s="86"/>
       <c r="G75" s="24">
         <v>10</v>
       </c>
@@ -6256,10 +6284,10 @@
         <v>142</v>
       </c>
       <c r="D76" s="26"/>
-      <c r="E76" s="84" t="s">
+      <c r="E76" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F76" s="85"/>
+      <c r="F76" s="86"/>
       <c r="G76" s="24">
         <v>11</v>
       </c>
@@ -6299,10 +6327,10 @@
         <v>144</v>
       </c>
       <c r="D77" s="26"/>
-      <c r="E77" s="84" t="s">
+      <c r="E77" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F77" s="85"/>
+      <c r="F77" s="86"/>
       <c r="G77" s="24">
         <v>12</v>
       </c>
@@ -6342,10 +6370,10 @@
         <v>146</v>
       </c>
       <c r="D78" s="26"/>
-      <c r="E78" s="84" t="s">
+      <c r="E78" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F78" s="85"/>
+      <c r="F78" s="86"/>
       <c r="G78" s="24">
         <v>13</v>
       </c>
@@ -6385,10 +6413,10 @@
         <v>148</v>
       </c>
       <c r="D79" s="26"/>
-      <c r="E79" s="84" t="s">
+      <c r="E79" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F79" s="85"/>
+      <c r="F79" s="86"/>
       <c r="G79" s="24">
         <v>14</v>
       </c>
@@ -6428,10 +6456,10 @@
         <v>47</v>
       </c>
       <c r="D80" s="26"/>
-      <c r="E80" s="84" t="s">
+      <c r="E80" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F80" s="85"/>
+      <c r="F80" s="86"/>
       <c r="G80" s="24">
         <v>15</v>
       </c>
@@ -6471,10 +6499,10 @@
         <v>102</v>
       </c>
       <c r="D81" s="26"/>
-      <c r="E81" s="84" t="s">
+      <c r="E81" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F81" s="85"/>
+      <c r="F81" s="86"/>
       <c r="G81" s="24">
         <v>16</v>
       </c>
@@ -6514,10 +6542,10 @@
         <v>152</v>
       </c>
       <c r="D82" s="26"/>
-      <c r="E82" s="84" t="s">
+      <c r="E82" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F82" s="85"/>
+      <c r="F82" s="86"/>
       <c r="G82" s="24">
         <v>17</v>
       </c>
@@ -6557,10 +6585,10 @@
         <v>154</v>
       </c>
       <c r="D83" s="26"/>
-      <c r="E83" s="84" t="s">
+      <c r="E83" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F83" s="85"/>
+      <c r="F83" s="86"/>
       <c r="G83" s="24">
         <v>18</v>
       </c>
@@ -6600,10 +6628,10 @@
         <v>156</v>
       </c>
       <c r="D84" s="26"/>
-      <c r="E84" s="84" t="s">
+      <c r="E84" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F84" s="85"/>
+      <c r="F84" s="86"/>
       <c r="G84" s="24">
         <v>19</v>
       </c>
@@ -6643,10 +6671,10 @@
         <v>158</v>
       </c>
       <c r="D85" s="26"/>
-      <c r="E85" s="84" t="s">
+      <c r="E85" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F85" s="85"/>
+      <c r="F85" s="86"/>
       <c r="G85" s="24">
         <v>20</v>
       </c>
@@ -6686,10 +6714,10 @@
         <v>160</v>
       </c>
       <c r="D86" s="26"/>
-      <c r="E86" s="84" t="s">
+      <c r="E86" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F86" s="85"/>
+      <c r="F86" s="86"/>
       <c r="G86" s="24">
         <v>21</v>
       </c>
@@ -6729,10 +6757,10 @@
         <v>162</v>
       </c>
       <c r="D87" s="26"/>
-      <c r="E87" s="84" t="s">
+      <c r="E87" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F87" s="85"/>
+      <c r="F87" s="86"/>
       <c r="G87" s="24">
         <v>22</v>
       </c>
@@ -6772,10 +6800,10 @@
         <v>156</v>
       </c>
       <c r="D88" s="26"/>
-      <c r="E88" s="84" t="s">
+      <c r="E88" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F88" s="85"/>
+      <c r="F88" s="86"/>
       <c r="G88" s="24">
         <v>23</v>
       </c>
@@ -6809,8 +6837,8 @@
       <c r="B89" s="23"/>
       <c r="C89" s="41"/>
       <c r="D89" s="32"/>
-      <c r="E89" s="86"/>
-      <c r="F89" s="87"/>
+      <c r="E89" s="87"/>
+      <c r="F89" s="88"/>
       <c r="G89" s="23"/>
       <c r="H89" s="65"/>
       <c r="I89" s="66">
@@ -6840,8 +6868,8 @@
       <c r="B90" s="23"/>
       <c r="C90" s="41"/>
       <c r="D90" s="32"/>
-      <c r="E90" s="86"/>
-      <c r="F90" s="87"/>
+      <c r="E90" s="87"/>
+      <c r="F90" s="88"/>
       <c r="G90" s="23"/>
       <c r="H90" s="65"/>
       <c r="I90" s="66">
@@ -6877,10 +6905,10 @@
         <v>166</v>
       </c>
       <c r="D91" s="26"/>
-      <c r="E91" s="84" t="s">
+      <c r="E91" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F91" s="85"/>
+      <c r="F91" s="86"/>
       <c r="G91" s="24">
         <v>1</v>
       </c>
@@ -6920,10 +6948,10 @@
         <v>168</v>
       </c>
       <c r="D92" s="26"/>
-      <c r="E92" s="84" t="s">
+      <c r="E92" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F92" s="85"/>
+      <c r="F92" s="86"/>
       <c r="G92" s="24">
         <v>2</v>
       </c>
@@ -6963,10 +6991,10 @@
         <v>55</v>
       </c>
       <c r="D93" s="26"/>
-      <c r="E93" s="84" t="s">
+      <c r="E93" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F93" s="85"/>
+      <c r="F93" s="86"/>
       <c r="G93" s="24">
         <v>3</v>
       </c>
@@ -7006,10 +7034,10 @@
         <v>55</v>
       </c>
       <c r="D94" s="26"/>
-      <c r="E94" s="84" t="s">
+      <c r="E94" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F94" s="85"/>
+      <c r="F94" s="86"/>
       <c r="G94" s="24">
         <v>4</v>
       </c>
@@ -7049,10 +7077,10 @@
         <v>172</v>
       </c>
       <c r="D95" s="26"/>
-      <c r="E95" s="84" t="s">
+      <c r="E95" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F95" s="85"/>
+      <c r="F95" s="86"/>
       <c r="G95" s="24">
         <v>5</v>
       </c>
@@ -7092,10 +7120,10 @@
         <v>174</v>
       </c>
       <c r="D96" s="26"/>
-      <c r="E96" s="84" t="s">
+      <c r="E96" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F96" s="85"/>
+      <c r="F96" s="86"/>
       <c r="G96" s="24">
         <v>6</v>
       </c>
@@ -7135,10 +7163,10 @@
         <v>176</v>
       </c>
       <c r="D97" s="26"/>
-      <c r="E97" s="84" t="s">
+      <c r="E97" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F97" s="85"/>
+      <c r="F97" s="86"/>
       <c r="G97" s="24">
         <v>7</v>
       </c>
@@ -7178,10 +7206,10 @@
         <v>47</v>
       </c>
       <c r="D98" s="26"/>
-      <c r="E98" s="84" t="s">
+      <c r="E98" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F98" s="85"/>
+      <c r="F98" s="86"/>
       <c r="G98" s="24">
         <v>8</v>
       </c>
@@ -7221,10 +7249,10 @@
         <v>179</v>
       </c>
       <c r="D99" s="44"/>
-      <c r="E99" s="84" t="s">
+      <c r="E99" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F99" s="85"/>
+      <c r="F99" s="86"/>
       <c r="G99" s="24">
         <v>9</v>
       </c>
@@ -7264,10 +7292,10 @@
         <v>176</v>
       </c>
       <c r="D100" s="44"/>
-      <c r="E100" s="84" t="s">
+      <c r="E100" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F100" s="85"/>
+      <c r="F100" s="86"/>
       <c r="G100" s="24">
         <v>10</v>
       </c>
@@ -7307,10 +7335,10 @@
         <v>182</v>
       </c>
       <c r="D101" s="44"/>
-      <c r="E101" s="84" t="s">
+      <c r="E101" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F101" s="85"/>
+      <c r="F101" s="86"/>
       <c r="G101" s="24">
         <v>11</v>
       </c>
@@ -7348,10 +7376,10 @@
       </c>
       <c r="C102" s="22"/>
       <c r="D102" s="44"/>
-      <c r="E102" s="84" t="s">
+      <c r="E102" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F102" s="85"/>
+      <c r="F102" s="86"/>
       <c r="G102" s="24">
         <v>12</v>
       </c>
@@ -7391,10 +7419,10 @@
         <v>185</v>
       </c>
       <c r="D103" s="44"/>
-      <c r="E103" s="84" t="s">
+      <c r="E103" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F103" s="85"/>
+      <c r="F103" s="86"/>
       <c r="G103" s="24">
         <v>13</v>
       </c>
@@ -7434,10 +7462,10 @@
         <v>185</v>
       </c>
       <c r="D104" s="44"/>
-      <c r="E104" s="84" t="s">
+      <c r="E104" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F104" s="85"/>
+      <c r="F104" s="86"/>
       <c r="G104" s="24">
         <v>14</v>
       </c>
@@ -7477,10 +7505,10 @@
         <v>47</v>
       </c>
       <c r="D105" s="26"/>
-      <c r="E105" s="84" t="s">
+      <c r="E105" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F105" s="85"/>
+      <c r="F105" s="86"/>
       <c r="G105" s="24">
         <v>15</v>
       </c>
@@ -7520,10 +7548,10 @@
         <v>47</v>
       </c>
       <c r="D106" s="26"/>
-      <c r="E106" s="84" t="s">
+      <c r="E106" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F106" s="85"/>
+      <c r="F106" s="86"/>
       <c r="G106" s="24">
         <v>16</v>
       </c>
@@ -7563,10 +7591,10 @@
         <v>190</v>
       </c>
       <c r="D107" s="26"/>
-      <c r="E107" s="84" t="s">
+      <c r="E107" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F107" s="85"/>
+      <c r="F107" s="86"/>
       <c r="G107" s="24">
         <v>17</v>
       </c>
@@ -7606,10 +7634,10 @@
         <v>176</v>
       </c>
       <c r="D108" s="26"/>
-      <c r="E108" s="84" t="s">
+      <c r="E108" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F108" s="85"/>
+      <c r="F108" s="86"/>
       <c r="G108" s="24">
         <v>18</v>
       </c>
@@ -7649,10 +7677,10 @@
         <v>193</v>
       </c>
       <c r="D109" s="44"/>
-      <c r="E109" s="84" t="s">
+      <c r="E109" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F109" s="85"/>
+      <c r="F109" s="86"/>
       <c r="G109" s="24">
         <v>19</v>
       </c>
@@ -7692,10 +7720,10 @@
         <v>195</v>
       </c>
       <c r="D110" s="44"/>
-      <c r="E110" s="84" t="s">
+      <c r="E110" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F110" s="85"/>
+      <c r="F110" s="86"/>
       <c r="G110" s="24">
         <v>20</v>
       </c>
@@ -7735,10 +7763,10 @@
         <v>197</v>
       </c>
       <c r="D111" s="44"/>
-      <c r="E111" s="84" t="s">
+      <c r="E111" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F111" s="85"/>
+      <c r="F111" s="86"/>
       <c r="G111" s="24">
         <v>21</v>
       </c>
@@ -7772,8 +7800,8 @@
       <c r="B112" s="23"/>
       <c r="C112" s="41"/>
       <c r="D112" s="46"/>
-      <c r="E112" s="86"/>
-      <c r="F112" s="87"/>
+      <c r="E112" s="87"/>
+      <c r="F112" s="88"/>
       <c r="G112" s="23"/>
       <c r="H112" s="65"/>
       <c r="I112" s="66">
@@ -7803,8 +7831,8 @@
       <c r="B113" s="23"/>
       <c r="C113" s="41"/>
       <c r="D113" s="46"/>
-      <c r="E113" s="86"/>
-      <c r="F113" s="87"/>
+      <c r="E113" s="87"/>
+      <c r="F113" s="88"/>
       <c r="G113" s="23"/>
       <c r="H113" s="65"/>
       <c r="I113" s="66">
@@ -7840,10 +7868,10 @@
         <v>200</v>
       </c>
       <c r="D114" s="22"/>
-      <c r="E114" s="84" t="s">
+      <c r="E114" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F114" s="85"/>
+      <c r="F114" s="86"/>
       <c r="G114" s="24">
         <v>1</v>
       </c>
@@ -7883,10 +7911,10 @@
         <v>202</v>
       </c>
       <c r="D115" s="22"/>
-      <c r="E115" s="84" t="s">
+      <c r="E115" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F115" s="85"/>
+      <c r="F115" s="86"/>
       <c r="G115" s="24">
         <v>2</v>
       </c>
@@ -7926,10 +7954,10 @@
         <v>204</v>
       </c>
       <c r="D116" s="22"/>
-      <c r="E116" s="84" t="s">
+      <c r="E116" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F116" s="85"/>
+      <c r="F116" s="86"/>
       <c r="G116" s="24">
         <v>3</v>
       </c>
@@ -7969,10 +7997,10 @@
         <v>206</v>
       </c>
       <c r="D117" s="22"/>
-      <c r="E117" s="84" t="s">
+      <c r="E117" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F117" s="85"/>
+      <c r="F117" s="86"/>
       <c r="G117" s="24">
         <v>4</v>
       </c>
@@ -8012,10 +8040,10 @@
         <v>208</v>
       </c>
       <c r="D118" s="22"/>
-      <c r="E118" s="84" t="s">
+      <c r="E118" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F118" s="85"/>
+      <c r="F118" s="86"/>
       <c r="G118" s="24">
         <v>5</v>
       </c>
@@ -8055,10 +8083,10 @@
         <v>210</v>
       </c>
       <c r="D119" s="22"/>
-      <c r="E119" s="84" t="s">
+      <c r="E119" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F119" s="85"/>
+      <c r="F119" s="86"/>
       <c r="G119" s="24">
         <v>6</v>
       </c>
@@ -8098,10 +8126,10 @@
         <v>102</v>
       </c>
       <c r="D120" s="22"/>
-      <c r="E120" s="84" t="s">
+      <c r="E120" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F120" s="85"/>
+      <c r="F120" s="86"/>
       <c r="G120" s="24">
         <v>7</v>
       </c>
@@ -8141,10 +8169,10 @@
         <v>213</v>
       </c>
       <c r="D121" s="22"/>
-      <c r="E121" s="84" t="s">
+      <c r="E121" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F121" s="85"/>
+      <c r="F121" s="86"/>
       <c r="G121" s="24">
         <v>8</v>
       </c>
@@ -8184,10 +8212,10 @@
         <v>215</v>
       </c>
       <c r="D122" s="22"/>
-      <c r="E122" s="84" t="s">
+      <c r="E122" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F122" s="85"/>
+      <c r="F122" s="86"/>
       <c r="G122" s="24">
         <v>9</v>
       </c>
@@ -8227,10 +8255,10 @@
         <v>202</v>
       </c>
       <c r="D123" s="22"/>
-      <c r="E123" s="84" t="s">
+      <c r="E123" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F123" s="85"/>
+      <c r="F123" s="86"/>
       <c r="G123" s="24">
         <v>10</v>
       </c>
@@ -8270,10 +8298,10 @@
         <v>47</v>
       </c>
       <c r="D124" s="22"/>
-      <c r="E124" s="84" t="s">
+      <c r="E124" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F124" s="85"/>
+      <c r="F124" s="86"/>
       <c r="G124" s="24">
         <v>11</v>
       </c>
@@ -8313,10 +8341,10 @@
         <v>219</v>
       </c>
       <c r="D125" s="26"/>
-      <c r="E125" s="84" t="s">
+      <c r="E125" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F125" s="85"/>
+      <c r="F125" s="86"/>
       <c r="G125" s="24">
         <v>12</v>
       </c>
@@ -8356,10 +8384,10 @@
         <v>221</v>
       </c>
       <c r="D126" s="26"/>
-      <c r="E126" s="84" t="s">
+      <c r="E126" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F126" s="85"/>
+      <c r="F126" s="86"/>
       <c r="G126" s="24">
         <v>13</v>
       </c>
@@ -8399,10 +8427,10 @@
         <v>223</v>
       </c>
       <c r="D127" s="26"/>
-      <c r="E127" s="84" t="s">
+      <c r="E127" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F127" s="85"/>
+      <c r="F127" s="86"/>
       <c r="G127" s="24">
         <v>14</v>
       </c>
@@ -8442,10 +8470,10 @@
         <v>47</v>
       </c>
       <c r="D128" s="26"/>
-      <c r="E128" s="84" t="s">
+      <c r="E128" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F128" s="85"/>
+      <c r="F128" s="86"/>
       <c r="G128" s="24">
         <v>15</v>
       </c>
@@ -8485,10 +8513,10 @@
         <v>223</v>
       </c>
       <c r="D129" s="26"/>
-      <c r="E129" s="84" t="s">
+      <c r="E129" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F129" s="85"/>
+      <c r="F129" s="86"/>
       <c r="G129" s="24">
         <v>16</v>
       </c>
@@ -8528,10 +8556,10 @@
         <v>227</v>
       </c>
       <c r="D130" s="26"/>
-      <c r="E130" s="84" t="s">
+      <c r="E130" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F130" s="85"/>
+      <c r="F130" s="86"/>
       <c r="G130" s="24">
         <v>17</v>
       </c>
@@ -8571,10 +8599,10 @@
         <v>229</v>
       </c>
       <c r="D131" s="26"/>
-      <c r="E131" s="84" t="s">
+      <c r="E131" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F131" s="85"/>
+      <c r="F131" s="86"/>
       <c r="G131" s="24">
         <v>18</v>
       </c>
@@ -8614,10 +8642,10 @@
         <v>231</v>
       </c>
       <c r="D132" s="26"/>
-      <c r="E132" s="84" t="s">
+      <c r="E132" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F132" s="85"/>
+      <c r="F132" s="86"/>
       <c r="G132" s="24">
         <v>19</v>
       </c>
@@ -8657,10 +8685,10 @@
         <v>233</v>
       </c>
       <c r="D133" s="26"/>
-      <c r="E133" s="84" t="s">
+      <c r="E133" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F133" s="85"/>
+      <c r="F133" s="86"/>
       <c r="G133" s="24">
         <v>20</v>
       </c>
@@ -8702,10 +8730,10 @@
       <c r="D134" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="E134" s="84" t="s">
+      <c r="E134" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F134" s="85"/>
+      <c r="F134" s="86"/>
       <c r="G134" s="24">
         <v>21</v>
       </c>
@@ -8747,10 +8775,10 @@
       <c r="D135" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="E135" s="84" t="s">
+      <c r="E135" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F135" s="85"/>
+      <c r="F135" s="86"/>
       <c r="G135" s="24">
         <v>22</v>
       </c>
@@ -8790,10 +8818,10 @@
         <v>240</v>
       </c>
       <c r="D136" s="26"/>
-      <c r="E136" s="84" t="s">
+      <c r="E136" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F136" s="85"/>
+      <c r="F136" s="86"/>
       <c r="G136" s="24">
         <v>23</v>
       </c>
@@ -8833,10 +8861,10 @@
         <v>242</v>
       </c>
       <c r="D137" s="26"/>
-      <c r="E137" s="84" t="s">
+      <c r="E137" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F137" s="85"/>
+      <c r="F137" s="86"/>
       <c r="G137" s="24">
         <v>24</v>
       </c>
@@ -8876,10 +8904,10 @@
         <v>244</v>
       </c>
       <c r="D138" s="26"/>
-      <c r="E138" s="84" t="s">
+      <c r="E138" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F138" s="85"/>
+      <c r="F138" s="86"/>
       <c r="G138" s="24">
         <v>25</v>
       </c>
@@ -8919,10 +8947,10 @@
         <v>246</v>
       </c>
       <c r="D139" s="26"/>
-      <c r="E139" s="84" t="s">
+      <c r="E139" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F139" s="85"/>
+      <c r="F139" s="86"/>
       <c r="G139" s="24">
         <v>26</v>
       </c>
@@ -9021,10 +9049,10 @@
         <v>249</v>
       </c>
       <c r="D142" s="26"/>
-      <c r="E142" s="84" t="s">
+      <c r="E142" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F142" s="85"/>
+      <c r="F142" s="86"/>
       <c r="G142" s="24">
         <v>1</v>
       </c>
@@ -9064,10 +9092,10 @@
         <v>251</v>
       </c>
       <c r="D143" s="35"/>
-      <c r="E143" s="84" t="s">
+      <c r="E143" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F143" s="85"/>
+      <c r="F143" s="86"/>
       <c r="G143" s="24">
         <v>2</v>
       </c>
@@ -9107,10 +9135,10 @@
         <v>253</v>
       </c>
       <c r="D144" s="35"/>
-      <c r="E144" s="84" t="s">
+      <c r="E144" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F144" s="85"/>
+      <c r="F144" s="86"/>
       <c r="G144" s="24">
         <v>3</v>
       </c>
@@ -9150,10 +9178,10 @@
         <v>255</v>
       </c>
       <c r="D145" s="35"/>
-      <c r="E145" s="84" t="s">
+      <c r="E145" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F145" s="85"/>
+      <c r="F145" s="86"/>
       <c r="G145" s="24">
         <v>4</v>
       </c>
@@ -9193,10 +9221,10 @@
         <v>257</v>
       </c>
       <c r="D146" s="35"/>
-      <c r="E146" s="84" t="s">
+      <c r="E146" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F146" s="85"/>
+      <c r="F146" s="86"/>
       <c r="G146" s="24">
         <v>5</v>
       </c>
@@ -9236,10 +9264,10 @@
         <v>259</v>
       </c>
       <c r="D147" s="35"/>
-      <c r="E147" s="84" t="s">
+      <c r="E147" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F147" s="85"/>
+      <c r="F147" s="86"/>
       <c r="G147" s="24">
         <v>6</v>
       </c>
@@ -9279,10 +9307,10 @@
         <v>261</v>
       </c>
       <c r="D148" s="35"/>
-      <c r="E148" s="84" t="s">
+      <c r="E148" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F148" s="85"/>
+      <c r="F148" s="86"/>
       <c r="G148" s="24">
         <v>7</v>
       </c>
@@ -9322,10 +9350,10 @@
         <v>263</v>
       </c>
       <c r="D149" s="35"/>
-      <c r="E149" s="84" t="s">
+      <c r="E149" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F149" s="85"/>
+      <c r="F149" s="86"/>
       <c r="G149" s="24">
         <v>8</v>
       </c>
@@ -9365,10 +9393,10 @@
         <v>265</v>
       </c>
       <c r="D150" s="35"/>
-      <c r="E150" s="84" t="s">
+      <c r="E150" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F150" s="85"/>
+      <c r="F150" s="86"/>
       <c r="G150" s="24">
         <v>9</v>
       </c>
@@ -9408,10 +9436,10 @@
         <v>267</v>
       </c>
       <c r="D151" s="44"/>
-      <c r="E151" s="84" t="s">
+      <c r="E151" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F151" s="85"/>
+      <c r="F151" s="86"/>
       <c r="G151" s="24">
         <v>10</v>
       </c>
@@ -9451,10 +9479,10 @@
         <v>269</v>
       </c>
       <c r="D152" s="44"/>
-      <c r="E152" s="84" t="s">
+      <c r="E152" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F152" s="85"/>
+      <c r="F152" s="86"/>
       <c r="G152" s="24">
         <v>11</v>
       </c>
@@ -9494,10 +9522,10 @@
         <v>271</v>
       </c>
       <c r="D153" s="44"/>
-      <c r="E153" s="84" t="s">
+      <c r="E153" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F153" s="85"/>
+      <c r="F153" s="86"/>
       <c r="G153" s="24">
         <v>12</v>
       </c>
@@ -9537,10 +9565,10 @@
         <v>47</v>
       </c>
       <c r="D154" s="44"/>
-      <c r="E154" s="84" t="s">
+      <c r="E154" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F154" s="85"/>
+      <c r="F154" s="86"/>
       <c r="G154" s="24">
         <v>13</v>
       </c>
@@ -9580,10 +9608,10 @@
         <v>274</v>
       </c>
       <c r="D155" s="44"/>
-      <c r="E155" s="84" t="s">
+      <c r="E155" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F155" s="85"/>
+      <c r="F155" s="86"/>
       <c r="G155" s="24">
         <v>14</v>
       </c>
@@ -9623,10 +9651,10 @@
         <v>276</v>
       </c>
       <c r="D156" s="44"/>
-      <c r="E156" s="84" t="s">
+      <c r="E156" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F156" s="85"/>
+      <c r="F156" s="86"/>
       <c r="G156" s="24">
         <v>15</v>
       </c>
@@ -9666,10 +9694,10 @@
         <v>278</v>
       </c>
       <c r="D157" s="44"/>
-      <c r="E157" s="84" t="s">
+      <c r="E157" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F157" s="85"/>
+      <c r="F157" s="86"/>
       <c r="G157" s="24">
         <v>16</v>
       </c>
@@ -9709,10 +9737,10 @@
         <v>271</v>
       </c>
       <c r="D158" s="44"/>
-      <c r="E158" s="84" t="s">
+      <c r="E158" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F158" s="85"/>
+      <c r="F158" s="86"/>
       <c r="G158" s="24">
         <v>17</v>
       </c>
@@ -9752,10 +9780,10 @@
         <v>281</v>
       </c>
       <c r="D159" s="44"/>
-      <c r="E159" s="84" t="s">
+      <c r="E159" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F159" s="85"/>
+      <c r="F159" s="86"/>
       <c r="G159" s="24">
         <v>18</v>
       </c>
@@ -9795,10 +9823,10 @@
         <v>253</v>
       </c>
       <c r="D160" s="44"/>
-      <c r="E160" s="84" t="s">
+      <c r="E160" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F160" s="85"/>
+      <c r="F160" s="86"/>
       <c r="G160" s="24">
         <v>19</v>
       </c>
@@ -9838,10 +9866,10 @@
         <v>284</v>
       </c>
       <c r="D161" s="44"/>
-      <c r="E161" s="84" t="s">
+      <c r="E161" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F161" s="85"/>
+      <c r="F161" s="86"/>
       <c r="G161" s="24">
         <v>20</v>
       </c>
@@ -9881,10 +9909,10 @@
         <v>286</v>
       </c>
       <c r="D162" s="44"/>
-      <c r="E162" s="84" t="s">
+      <c r="E162" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F162" s="85"/>
+      <c r="F162" s="86"/>
       <c r="G162" s="24">
         <v>21</v>
       </c>
@@ -9924,10 +9952,10 @@
         <v>197</v>
       </c>
       <c r="D163" s="44"/>
-      <c r="E163" s="84" t="s">
+      <c r="E163" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F163" s="85"/>
+      <c r="F163" s="86"/>
       <c r="G163" s="24">
         <v>22</v>
       </c>
@@ -9967,10 +9995,10 @@
         <v>278</v>
       </c>
       <c r="D164" s="44"/>
-      <c r="E164" s="84" t="s">
+      <c r="E164" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F164" s="85"/>
+      <c r="F164" s="86"/>
       <c r="G164" s="24">
         <v>23</v>
       </c>
@@ -10010,10 +10038,10 @@
         <v>276</v>
       </c>
       <c r="D165" s="44"/>
-      <c r="E165" s="84" t="s">
+      <c r="E165" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F165" s="85"/>
+      <c r="F165" s="86"/>
       <c r="G165" s="24">
         <v>24</v>
       </c>
@@ -10053,10 +10081,10 @@
         <v>291</v>
       </c>
       <c r="D166" s="44"/>
-      <c r="E166" s="84" t="s">
+      <c r="E166" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F166" s="85"/>
+      <c r="F166" s="86"/>
       <c r="G166" s="24">
         <v>25</v>
       </c>
@@ -10096,10 +10124,10 @@
         <v>293</v>
       </c>
       <c r="D167" s="36"/>
-      <c r="E167" s="84" t="s">
+      <c r="E167" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F167" s="85"/>
+      <c r="F167" s="86"/>
       <c r="G167" s="24">
         <v>26</v>
       </c>
@@ -10139,10 +10167,10 @@
         <v>182</v>
       </c>
       <c r="D168" s="36"/>
-      <c r="E168" s="84" t="s">
+      <c r="E168" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F168" s="85"/>
+      <c r="F168" s="86"/>
       <c r="G168" s="24">
         <v>27</v>
       </c>
@@ -10176,8 +10204,8 @@
       <c r="B169" s="53"/>
       <c r="C169" s="41"/>
       <c r="D169" s="37"/>
-      <c r="E169" s="86"/>
-      <c r="F169" s="87"/>
+      <c r="E169" s="87"/>
+      <c r="F169" s="88"/>
       <c r="G169" s="23"/>
       <c r="H169" s="58"/>
       <c r="I169" s="66">
@@ -10207,8 +10235,8 @@
       <c r="B170" s="23"/>
       <c r="C170" s="41"/>
       <c r="D170" s="32"/>
-      <c r="E170" s="86"/>
-      <c r="F170" s="87"/>
+      <c r="E170" s="87"/>
+      <c r="F170" s="88"/>
       <c r="G170" s="23"/>
       <c r="H170" s="58"/>
       <c r="I170" s="66">
@@ -10244,10 +10272,10 @@
         <v>297</v>
       </c>
       <c r="D171" s="26"/>
-      <c r="E171" s="84" t="s">
+      <c r="E171" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F171" s="85"/>
+      <c r="F171" s="86"/>
       <c r="G171" s="24">
         <v>1</v>
       </c>
@@ -10287,10 +10315,10 @@
         <v>299</v>
       </c>
       <c r="D172" s="26"/>
-      <c r="E172" s="84" t="s">
+      <c r="E172" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F172" s="85"/>
+      <c r="F172" s="86"/>
       <c r="G172" s="24">
         <v>2</v>
       </c>
@@ -10330,10 +10358,10 @@
         <v>115</v>
       </c>
       <c r="D173" s="26"/>
-      <c r="E173" s="84" t="s">
+      <c r="E173" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F173" s="85"/>
+      <c r="F173" s="86"/>
       <c r="G173" s="24">
         <v>3</v>
       </c>
@@ -10373,10 +10401,10 @@
         <v>102</v>
       </c>
       <c r="D174" s="26"/>
-      <c r="E174" s="84" t="s">
+      <c r="E174" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F174" s="85"/>
+      <c r="F174" s="86"/>
       <c r="G174" s="24">
         <v>4</v>
       </c>
@@ -10416,10 +10444,10 @@
         <v>303</v>
       </c>
       <c r="D175" s="26"/>
-      <c r="E175" s="84" t="s">
+      <c r="E175" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F175" s="85"/>
+      <c r="F175" s="86"/>
       <c r="G175" s="24">
         <v>5</v>
       </c>
@@ -10457,10 +10485,10 @@
       </c>
       <c r="C176" s="54"/>
       <c r="D176" s="44"/>
-      <c r="E176" s="84" t="s">
+      <c r="E176" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F176" s="85"/>
+      <c r="F176" s="86"/>
       <c r="G176" s="24">
         <v>6</v>
       </c>
@@ -10500,10 +10528,10 @@
         <v>306</v>
       </c>
       <c r="D177" s="44"/>
-      <c r="E177" s="84" t="s">
+      <c r="E177" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F177" s="85"/>
+      <c r="F177" s="86"/>
       <c r="G177" s="24">
         <v>7</v>
       </c>
@@ -10543,10 +10571,10 @@
         <v>308</v>
       </c>
       <c r="D178" s="44"/>
-      <c r="E178" s="84" t="s">
+      <c r="E178" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F178" s="85"/>
+      <c r="F178" s="86"/>
       <c r="G178" s="24">
         <v>8</v>
       </c>
@@ -10584,10 +10612,10 @@
       </c>
       <c r="C179" s="54"/>
       <c r="D179" s="44"/>
-      <c r="E179" s="84" t="s">
+      <c r="E179" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F179" s="85"/>
+      <c r="F179" s="86"/>
       <c r="G179" s="24">
         <v>9</v>
       </c>
@@ -10627,10 +10655,10 @@
         <v>91</v>
       </c>
       <c r="D180" s="44"/>
-      <c r="E180" s="84" t="s">
+      <c r="E180" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F180" s="85"/>
+      <c r="F180" s="86"/>
       <c r="G180" s="24">
         <v>10</v>
       </c>
@@ -10670,10 +10698,10 @@
         <v>312</v>
       </c>
       <c r="D181" s="44"/>
-      <c r="E181" s="84" t="s">
+      <c r="E181" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F181" s="85"/>
+      <c r="F181" s="86"/>
       <c r="G181" s="24">
         <v>11</v>
       </c>
@@ -10713,10 +10741,10 @@
         <v>314</v>
       </c>
       <c r="D182" s="44"/>
-      <c r="E182" s="84" t="s">
+      <c r="E182" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F182" s="85"/>
+      <c r="F182" s="86"/>
       <c r="G182" s="24">
         <v>12</v>
       </c>
@@ -10756,10 +10784,10 @@
         <v>316</v>
       </c>
       <c r="D183" s="44"/>
-      <c r="E183" s="84" t="s">
+      <c r="E183" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F183" s="85"/>
+      <c r="F183" s="86"/>
       <c r="G183" s="24">
         <v>13</v>
       </c>
@@ -10799,10 +10827,10 @@
         <v>115</v>
       </c>
       <c r="D184" s="44"/>
-      <c r="E184" s="84" t="s">
+      <c r="E184" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F184" s="85"/>
+      <c r="F184" s="86"/>
       <c r="G184" s="24">
         <v>14</v>
       </c>
@@ -10842,10 +10870,10 @@
         <v>47</v>
       </c>
       <c r="D185" s="44"/>
-      <c r="E185" s="84" t="s">
+      <c r="E185" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F185" s="85"/>
+      <c r="F185" s="86"/>
       <c r="G185" s="24">
         <v>15</v>
       </c>
@@ -10885,10 +10913,10 @@
         <v>320</v>
       </c>
       <c r="D186" s="44"/>
-      <c r="E186" s="84" t="s">
+      <c r="E186" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F186" s="85"/>
+      <c r="F186" s="86"/>
       <c r="G186" s="24">
         <v>16</v>
       </c>
@@ -10926,10 +10954,10 @@
       </c>
       <c r="C187" s="22"/>
       <c r="D187" s="44"/>
-      <c r="E187" s="84" t="s">
+      <c r="E187" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F187" s="85"/>
+      <c r="F187" s="86"/>
       <c r="G187" s="24">
         <v>17</v>
       </c>
@@ -10969,10 +10997,10 @@
         <v>323</v>
       </c>
       <c r="D188" s="44"/>
-      <c r="E188" s="84" t="s">
+      <c r="E188" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F188" s="85"/>
+      <c r="F188" s="86"/>
       <c r="G188" s="24">
         <v>18</v>
       </c>
@@ -11012,10 +11040,10 @@
         <v>312</v>
       </c>
       <c r="D189" s="44"/>
-      <c r="E189" s="84" t="s">
+      <c r="E189" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F189" s="85"/>
+      <c r="F189" s="86"/>
       <c r="G189" s="24">
         <v>19</v>
       </c>
@@ -11053,10 +11081,10 @@
       </c>
       <c r="C190" s="22"/>
       <c r="D190" s="44"/>
-      <c r="E190" s="84" t="s">
+      <c r="E190" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F190" s="85"/>
+      <c r="F190" s="86"/>
       <c r="G190" s="24">
         <v>20</v>
       </c>
@@ -11094,10 +11122,10 @@
       </c>
       <c r="C191" s="22"/>
       <c r="D191" s="44"/>
-      <c r="E191" s="84" t="s">
+      <c r="E191" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F191" s="85"/>
+      <c r="F191" s="86"/>
       <c r="G191" s="24">
         <v>21</v>
       </c>
@@ -11137,10 +11165,10 @@
         <v>316</v>
       </c>
       <c r="D192" s="44"/>
-      <c r="E192" s="84" t="s">
+      <c r="E192" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F192" s="85"/>
+      <c r="F192" s="86"/>
       <c r="G192" s="24">
         <v>22</v>
       </c>
@@ -11174,8 +11202,8 @@
       <c r="B193" s="23"/>
       <c r="C193" s="41"/>
       <c r="D193" s="32"/>
-      <c r="E193" s="86"/>
-      <c r="F193" s="87"/>
+      <c r="E193" s="87"/>
+      <c r="F193" s="88"/>
       <c r="G193" s="23"/>
       <c r="H193" s="58"/>
       <c r="I193" s="66">
@@ -11205,8 +11233,8 @@
       <c r="B194" s="23"/>
       <c r="C194" s="41"/>
       <c r="D194" s="32"/>
-      <c r="E194" s="86"/>
-      <c r="F194" s="87"/>
+      <c r="E194" s="87"/>
+      <c r="F194" s="88"/>
       <c r="G194" s="23"/>
       <c r="H194" s="58"/>
       <c r="I194" s="66">
@@ -11242,10 +11270,10 @@
         <v>330</v>
       </c>
       <c r="D195" s="26"/>
-      <c r="E195" s="84" t="s">
+      <c r="E195" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F195" s="85"/>
+      <c r="F195" s="86"/>
       <c r="G195" s="24">
         <v>1</v>
       </c>
@@ -11285,10 +11313,10 @@
         <v>332</v>
       </c>
       <c r="D196" s="26"/>
-      <c r="E196" s="84" t="s">
+      <c r="E196" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F196" s="85"/>
+      <c r="F196" s="86"/>
       <c r="G196" s="24">
         <v>2</v>
       </c>
@@ -11328,10 +11356,10 @@
         <v>334</v>
       </c>
       <c r="D197" s="26"/>
-      <c r="E197" s="84" t="s">
+      <c r="E197" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F197" s="85"/>
+      <c r="F197" s="86"/>
       <c r="G197" s="24">
         <v>3</v>
       </c>
@@ -11371,10 +11399,10 @@
         <v>336</v>
       </c>
       <c r="D198" s="26"/>
-      <c r="E198" s="84" t="s">
+      <c r="E198" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F198" s="85"/>
+      <c r="F198" s="86"/>
       <c r="G198" s="24">
         <v>4</v>
       </c>
@@ -11414,10 +11442,10 @@
         <v>338</v>
       </c>
       <c r="D199" s="26"/>
-      <c r="E199" s="84" t="s">
+      <c r="E199" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F199" s="85"/>
+      <c r="F199" s="86"/>
       <c r="G199" s="24">
         <v>5</v>
       </c>
@@ -11457,10 +11485,10 @@
         <v>340</v>
       </c>
       <c r="D200" s="26"/>
-      <c r="E200" s="84" t="s">
+      <c r="E200" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F200" s="85"/>
+      <c r="F200" s="86"/>
       <c r="G200" s="24">
         <v>6</v>
       </c>
@@ -11500,10 +11528,10 @@
         <v>97</v>
       </c>
       <c r="D201" s="44"/>
-      <c r="E201" s="84" t="s">
+      <c r="E201" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F201" s="85"/>
+      <c r="F201" s="86"/>
       <c r="G201" s="24">
         <v>7</v>
       </c>
@@ -11543,10 +11571,10 @@
         <v>343</v>
       </c>
       <c r="D202" s="44"/>
-      <c r="E202" s="84" t="s">
+      <c r="E202" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F202" s="85"/>
+      <c r="F202" s="86"/>
       <c r="G202" s="24">
         <v>8</v>
       </c>
@@ -11586,10 +11614,10 @@
         <v>345</v>
       </c>
       <c r="D203" s="44"/>
-      <c r="E203" s="84" t="s">
+      <c r="E203" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F203" s="85"/>
+      <c r="F203" s="86"/>
       <c r="G203" s="24">
         <v>9</v>
       </c>
@@ -11629,10 +11657,10 @@
         <v>102</v>
       </c>
       <c r="D204" s="44"/>
-      <c r="E204" s="84" t="s">
+      <c r="E204" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F204" s="85"/>
+      <c r="F204" s="86"/>
       <c r="G204" s="24">
         <v>10</v>
       </c>
@@ -11672,10 +11700,10 @@
         <v>348</v>
       </c>
       <c r="D205" s="44"/>
-      <c r="E205" s="84" t="s">
+      <c r="E205" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F205" s="85"/>
+      <c r="F205" s="86"/>
       <c r="G205" s="24">
         <v>11</v>
       </c>
@@ -11715,10 +11743,10 @@
         <v>350</v>
       </c>
       <c r="D206" s="44"/>
-      <c r="E206" s="84" t="s">
+      <c r="E206" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F206" s="85"/>
+      <c r="F206" s="86"/>
       <c r="G206" s="24">
         <v>12</v>
       </c>
@@ -11758,10 +11786,10 @@
         <v>312</v>
       </c>
       <c r="D207" s="44"/>
-      <c r="E207" s="84" t="s">
+      <c r="E207" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F207" s="85"/>
+      <c r="F207" s="86"/>
       <c r="G207" s="24">
         <v>13</v>
       </c>
@@ -11801,10 +11829,10 @@
         <v>291</v>
       </c>
       <c r="D208" s="44"/>
-      <c r="E208" s="84" t="s">
+      <c r="E208" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F208" s="85"/>
+      <c r="F208" s="86"/>
       <c r="G208" s="24">
         <v>14</v>
       </c>
@@ -11844,10 +11872,10 @@
         <v>354</v>
       </c>
       <c r="D209" s="26"/>
-      <c r="E209" s="84" t="s">
+      <c r="E209" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F209" s="85"/>
+      <c r="F209" s="86"/>
       <c r="G209" s="24">
         <v>15</v>
       </c>
@@ -11887,10 +11915,10 @@
         <v>330</v>
       </c>
       <c r="D210" s="26"/>
-      <c r="E210" s="84" t="s">
+      <c r="E210" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F210" s="85"/>
+      <c r="F210" s="86"/>
       <c r="G210" s="24">
         <v>16</v>
       </c>
@@ -11930,10 +11958,10 @@
         <v>357</v>
       </c>
       <c r="D211" s="26"/>
-      <c r="E211" s="84" t="s">
+      <c r="E211" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F211" s="85"/>
+      <c r="F211" s="86"/>
       <c r="G211" s="24">
         <v>17</v>
       </c>
@@ -11973,10 +12001,10 @@
         <v>359</v>
       </c>
       <c r="D212" s="26"/>
-      <c r="E212" s="84" t="s">
+      <c r="E212" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F212" s="85"/>
+      <c r="F212" s="86"/>
       <c r="G212" s="24">
         <v>18</v>
       </c>
@@ -12016,10 +12044,10 @@
         <v>361</v>
       </c>
       <c r="D213" s="26"/>
-      <c r="E213" s="84" t="s">
+      <c r="E213" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F213" s="85"/>
+      <c r="F213" s="86"/>
       <c r="G213" s="24">
         <v>19</v>
       </c>
@@ -12059,10 +12087,10 @@
         <v>312</v>
       </c>
       <c r="D214" s="26"/>
-      <c r="E214" s="84" t="s">
+      <c r="E214" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F214" s="85"/>
+      <c r="F214" s="86"/>
       <c r="G214" s="24">
         <v>20</v>
       </c>
@@ -12102,10 +12130,10 @@
         <v>364</v>
       </c>
       <c r="D215" s="26"/>
-      <c r="E215" s="84" t="s">
+      <c r="E215" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F215" s="85"/>
+      <c r="F215" s="86"/>
       <c r="G215" s="24">
         <v>21</v>
       </c>
@@ -12145,10 +12173,10 @@
         <v>366</v>
       </c>
       <c r="D216" s="26"/>
-      <c r="E216" s="84" t="s">
+      <c r="E216" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F216" s="85"/>
+      <c r="F216" s="86"/>
       <c r="G216" s="24">
         <v>22</v>
       </c>
@@ -12188,10 +12216,10 @@
         <v>368</v>
       </c>
       <c r="D217" s="26"/>
-      <c r="E217" s="84" t="s">
+      <c r="E217" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F217" s="85"/>
+      <c r="F217" s="86"/>
       <c r="G217" s="24">
         <v>23</v>
       </c>
@@ -12231,10 +12259,10 @@
         <v>115</v>
       </c>
       <c r="D218" s="26"/>
-      <c r="E218" s="84" t="s">
+      <c r="E218" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F218" s="85"/>
+      <c r="F218" s="86"/>
       <c r="G218" s="24">
         <v>24</v>
       </c>
@@ -12274,10 +12302,10 @@
         <v>371</v>
       </c>
       <c r="D219" s="26"/>
-      <c r="E219" s="84" t="s">
+      <c r="E219" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F219" s="85"/>
+      <c r="F219" s="86"/>
       <c r="G219" s="24">
         <v>25</v>
       </c>
@@ -12317,10 +12345,10 @@
         <v>373</v>
       </c>
       <c r="D220" s="26"/>
-      <c r="E220" s="84" t="s">
+      <c r="E220" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F220" s="85"/>
+      <c r="F220" s="86"/>
       <c r="G220" s="24">
         <v>26</v>
       </c>
@@ -12360,10 +12388,10 @@
         <v>375</v>
       </c>
       <c r="D221" s="26"/>
-      <c r="E221" s="84" t="s">
+      <c r="E221" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F221" s="85"/>
+      <c r="F221" s="86"/>
       <c r="G221" s="24">
         <v>27</v>
       </c>
@@ -12403,10 +12431,10 @@
         <v>377</v>
       </c>
       <c r="D222" s="26"/>
-      <c r="E222" s="84" t="s">
+      <c r="E222" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F222" s="85"/>
+      <c r="F222" s="86"/>
       <c r="G222" s="24">
         <v>28</v>
       </c>
@@ -12446,10 +12474,10 @@
         <v>379</v>
       </c>
       <c r="D223" s="26"/>
-      <c r="E223" s="84" t="s">
+      <c r="E223" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F223" s="85"/>
+      <c r="F223" s="86"/>
       <c r="G223" s="24">
         <v>29</v>
       </c>
@@ -12489,10 +12517,10 @@
         <v>381</v>
       </c>
       <c r="D224" s="26"/>
-      <c r="E224" s="84" t="s">
+      <c r="E224" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F224" s="85"/>
+      <c r="F224" s="86"/>
       <c r="G224" s="24">
         <v>30</v>
       </c>
@@ -12532,10 +12560,10 @@
         <v>383</v>
       </c>
       <c r="D225" s="26"/>
-      <c r="E225" s="84" t="s">
+      <c r="E225" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F225" s="85"/>
+      <c r="F225" s="86"/>
       <c r="G225" s="24">
         <v>31</v>
       </c>
@@ -12575,10 +12603,10 @@
         <v>385</v>
       </c>
       <c r="D226" s="26"/>
-      <c r="E226" s="84" t="s">
+      <c r="E226" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F226" s="85"/>
+      <c r="F226" s="86"/>
       <c r="G226" s="24">
         <v>32</v>
       </c>
@@ -12618,10 +12646,10 @@
         <v>387</v>
       </c>
       <c r="D227" s="26"/>
-      <c r="E227" s="84" t="s">
+      <c r="E227" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F227" s="85"/>
+      <c r="F227" s="86"/>
       <c r="G227" s="24">
         <v>33</v>
       </c>
@@ -12655,8 +12683,8 @@
       <c r="B228" s="23"/>
       <c r="C228" s="41"/>
       <c r="D228" s="32"/>
-      <c r="E228" s="86"/>
-      <c r="F228" s="87"/>
+      <c r="E228" s="87"/>
+      <c r="F228" s="88"/>
       <c r="G228" s="23"/>
       <c r="H228" s="58"/>
       <c r="I228" s="66">
@@ -12686,8 +12714,8 @@
       <c r="B229" s="23"/>
       <c r="C229" s="41"/>
       <c r="D229" s="32"/>
-      <c r="E229" s="86"/>
-      <c r="F229" s="87"/>
+      <c r="E229" s="87"/>
+      <c r="F229" s="88"/>
       <c r="G229" s="23"/>
       <c r="H229" s="58"/>
       <c r="I229" s="66">
@@ -12723,10 +12751,10 @@
         <v>390</v>
       </c>
       <c r="D230" s="26"/>
-      <c r="E230" s="84" t="s">
+      <c r="E230" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F230" s="85"/>
+      <c r="F230" s="86"/>
       <c r="G230" s="24">
         <v>1</v>
       </c>
@@ -12766,10 +12794,10 @@
         <v>392</v>
       </c>
       <c r="D231" s="26"/>
-      <c r="E231" s="84" t="s">
+      <c r="E231" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F231" s="85"/>
+      <c r="F231" s="86"/>
       <c r="G231" s="24">
         <v>2</v>
       </c>
@@ -12809,10 +12837,10 @@
         <v>91</v>
       </c>
       <c r="D232" s="26"/>
-      <c r="E232" s="84" t="s">
+      <c r="E232" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F232" s="85"/>
+      <c r="F232" s="86"/>
       <c r="G232" s="24">
         <v>3</v>
       </c>
@@ -12852,10 +12880,10 @@
         <v>395</v>
       </c>
       <c r="D233" s="22"/>
-      <c r="E233" s="84" t="s">
+      <c r="E233" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F233" s="85"/>
+      <c r="F233" s="86"/>
       <c r="G233" s="24">
         <v>4</v>
       </c>
@@ -12895,10 +12923,10 @@
         <v>223</v>
       </c>
       <c r="D234" s="22"/>
-      <c r="E234" s="84" t="s">
+      <c r="E234" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F234" s="85"/>
+      <c r="F234" s="86"/>
       <c r="G234" s="24">
         <v>5</v>
       </c>
@@ -12938,10 +12966,10 @@
         <v>398</v>
       </c>
       <c r="D235" s="22"/>
-      <c r="E235" s="84" t="s">
+      <c r="E235" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F235" s="85"/>
+      <c r="F235" s="86"/>
       <c r="G235" s="24">
         <v>6</v>
       </c>
@@ -12981,10 +13009,10 @@
         <v>400</v>
       </c>
       <c r="D236" s="22"/>
-      <c r="E236" s="84" t="s">
+      <c r="E236" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F236" s="85"/>
+      <c r="F236" s="86"/>
       <c r="G236" s="24">
         <v>7</v>
       </c>
@@ -13024,10 +13052,10 @@
         <v>402</v>
       </c>
       <c r="D237" s="22"/>
-      <c r="E237" s="84" t="s">
+      <c r="E237" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F237" s="85"/>
+      <c r="F237" s="86"/>
       <c r="G237" s="24">
         <v>8</v>
       </c>
@@ -13067,10 +13095,10 @@
         <v>404</v>
       </c>
       <c r="D238" s="22"/>
-      <c r="E238" s="84" t="s">
+      <c r="E238" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F238" s="85"/>
+      <c r="F238" s="86"/>
       <c r="G238" s="24">
         <v>9</v>
       </c>
@@ -13110,10 +13138,10 @@
         <v>406</v>
       </c>
       <c r="D239" s="22"/>
-      <c r="E239" s="84" t="s">
+      <c r="E239" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F239" s="85"/>
+      <c r="F239" s="86"/>
       <c r="G239" s="24">
         <v>10</v>
       </c>
@@ -13153,10 +13181,10 @@
         <v>91</v>
       </c>
       <c r="D240" s="22"/>
-      <c r="E240" s="84" t="s">
+      <c r="E240" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F240" s="85"/>
+      <c r="F240" s="86"/>
       <c r="G240" s="24">
         <v>11</v>
       </c>
@@ -13196,10 +13224,10 @@
         <v>409</v>
       </c>
       <c r="D241" s="22"/>
-      <c r="E241" s="84" t="s">
+      <c r="E241" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F241" s="85"/>
+      <c r="F241" s="86"/>
       <c r="G241" s="24">
         <v>12</v>
       </c>
@@ -13239,10 +13267,10 @@
         <v>411</v>
       </c>
       <c r="D242" s="22"/>
-      <c r="E242" s="84" t="s">
+      <c r="E242" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F242" s="85"/>
+      <c r="F242" s="86"/>
       <c r="G242" s="24">
         <v>13</v>
       </c>
@@ -13282,10 +13310,10 @@
         <v>413</v>
       </c>
       <c r="D243" s="22"/>
-      <c r="E243" s="84" t="s">
+      <c r="E243" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F243" s="85"/>
+      <c r="F243" s="86"/>
       <c r="G243" s="24">
         <v>14</v>
       </c>
@@ -13325,10 +13353,10 @@
         <v>238</v>
       </c>
       <c r="D244" s="22"/>
-      <c r="E244" s="84" t="s">
+      <c r="E244" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F244" s="85"/>
+      <c r="F244" s="86"/>
       <c r="G244" s="24">
         <v>15</v>
       </c>
@@ -13368,10 +13396,10 @@
         <v>361</v>
       </c>
       <c r="D245" s="22"/>
-      <c r="E245" s="84" t="s">
+      <c r="E245" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F245" s="85"/>
+      <c r="F245" s="86"/>
       <c r="G245" s="24">
         <v>16</v>
       </c>
@@ -13411,10 +13439,10 @@
         <v>123</v>
       </c>
       <c r="D246" s="22"/>
-      <c r="E246" s="84" t="s">
+      <c r="E246" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F246" s="85"/>
+      <c r="F246" s="86"/>
       <c r="G246" s="24">
         <v>17</v>
       </c>
@@ -13454,10 +13482,10 @@
         <v>123</v>
       </c>
       <c r="D247" s="22"/>
-      <c r="E247" s="84" t="s">
+      <c r="E247" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F247" s="85"/>
+      <c r="F247" s="86"/>
       <c r="G247" s="24">
         <v>18</v>
       </c>
@@ -13497,10 +13525,10 @@
         <v>419</v>
       </c>
       <c r="D248" s="22"/>
-      <c r="E248" s="84" t="s">
+      <c r="E248" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F248" s="85"/>
+      <c r="F248" s="86"/>
       <c r="G248" s="24">
         <v>19</v>
       </c>
@@ -13540,10 +13568,10 @@
         <v>102</v>
       </c>
       <c r="D249" s="26"/>
-      <c r="E249" s="84" t="s">
+      <c r="E249" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F249" s="85"/>
+      <c r="F249" s="86"/>
       <c r="G249" s="24">
         <v>20</v>
       </c>
@@ -13585,10 +13613,10 @@
       <c r="D250" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="E250" s="84" t="s">
+      <c r="E250" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F250" s="85"/>
+      <c r="F250" s="86"/>
       <c r="G250" s="24">
         <v>21</v>
       </c>
@@ -13622,8 +13650,8 @@
       <c r="B251" s="23"/>
       <c r="C251" s="41"/>
       <c r="D251" s="32"/>
-      <c r="E251" s="86"/>
-      <c r="F251" s="87"/>
+      <c r="E251" s="87"/>
+      <c r="F251" s="88"/>
       <c r="G251" s="23"/>
       <c r="H251" s="58"/>
       <c r="I251" s="66">
@@ -13653,8 +13681,8 @@
       <c r="B252" s="23"/>
       <c r="C252" s="41"/>
       <c r="D252" s="32"/>
-      <c r="E252" s="86"/>
-      <c r="F252" s="87"/>
+      <c r="E252" s="87"/>
+      <c r="F252" s="88"/>
       <c r="G252" s="23"/>
       <c r="H252" s="58"/>
       <c r="I252" s="66">
@@ -13688,10 +13716,10 @@
       </c>
       <c r="C253" s="22"/>
       <c r="D253" s="26"/>
-      <c r="E253" s="84" t="s">
+      <c r="E253" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F253" s="85"/>
+      <c r="F253" s="86"/>
       <c r="G253" s="24">
         <v>1</v>
       </c>
@@ -13731,10 +13759,10 @@
         <v>160</v>
       </c>
       <c r="D254" s="35"/>
-      <c r="E254" s="84" t="s">
+      <c r="E254" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F254" s="85"/>
+      <c r="F254" s="86"/>
       <c r="G254" s="24">
         <v>2</v>
       </c>
@@ -13774,10 +13802,10 @@
         <v>312</v>
       </c>
       <c r="D255" s="35"/>
-      <c r="E255" s="84" t="s">
+      <c r="E255" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F255" s="85"/>
+      <c r="F255" s="86"/>
       <c r="G255" s="24">
         <v>3</v>
       </c>
@@ -13817,10 +13845,10 @@
         <v>28</v>
       </c>
       <c r="D256" s="35"/>
-      <c r="E256" s="84" t="s">
+      <c r="E256" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F256" s="85"/>
+      <c r="F256" s="86"/>
       <c r="G256" s="24">
         <v>4</v>
       </c>
@@ -13860,10 +13888,10 @@
         <v>429</v>
       </c>
       <c r="D257" s="35"/>
-      <c r="E257" s="84" t="s">
+      <c r="E257" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F257" s="85"/>
+      <c r="F257" s="86"/>
       <c r="G257" s="24">
         <v>5</v>
       </c>
@@ -13903,10 +13931,10 @@
         <v>13</v>
       </c>
       <c r="D258" s="35"/>
-      <c r="E258" s="84" t="s">
+      <c r="E258" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F258" s="85"/>
+      <c r="F258" s="86"/>
       <c r="G258" s="24">
         <v>6</v>
       </c>
@@ -13946,10 +13974,10 @@
         <v>432</v>
       </c>
       <c r="D259" s="35"/>
-      <c r="E259" s="84" t="s">
+      <c r="E259" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F259" s="85"/>
+      <c r="F259" s="86"/>
       <c r="G259" s="24">
         <v>7</v>
       </c>
@@ -13989,10 +14017,10 @@
         <v>13</v>
       </c>
       <c r="D260" s="35"/>
-      <c r="E260" s="84" t="s">
+      <c r="E260" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F260" s="85"/>
+      <c r="F260" s="86"/>
       <c r="G260" s="24">
         <v>8</v>
       </c>
@@ -14032,10 +14060,10 @@
         <v>435</v>
       </c>
       <c r="D261" s="35"/>
-      <c r="E261" s="84" t="s">
+      <c r="E261" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F261" s="85"/>
+      <c r="F261" s="86"/>
       <c r="G261" s="24">
         <v>9</v>
       </c>
@@ -14075,10 +14103,10 @@
         <v>437</v>
       </c>
       <c r="D262" s="35"/>
-      <c r="E262" s="84" t="s">
+      <c r="E262" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F262" s="85"/>
+      <c r="F262" s="86"/>
       <c r="G262" s="24">
         <v>10</v>
       </c>
@@ -14118,10 +14146,10 @@
         <v>439</v>
       </c>
       <c r="D263" s="35"/>
-      <c r="E263" s="84" t="s">
+      <c r="E263" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F263" s="85"/>
+      <c r="F263" s="86"/>
       <c r="G263" s="24">
         <v>11</v>
       </c>
@@ -14161,10 +14189,10 @@
         <v>441</v>
       </c>
       <c r="D264" s="35"/>
-      <c r="E264" s="84" t="s">
+      <c r="E264" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F264" s="85"/>
+      <c r="F264" s="86"/>
       <c r="G264" s="24">
         <v>12</v>
       </c>
@@ -14204,10 +14232,10 @@
         <v>443</v>
       </c>
       <c r="D265" s="35"/>
-      <c r="E265" s="84" t="s">
+      <c r="E265" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F265" s="85"/>
+      <c r="F265" s="86"/>
       <c r="G265" s="24">
         <v>13</v>
       </c>
@@ -14247,10 +14275,10 @@
         <v>445</v>
       </c>
       <c r="D266" s="35"/>
-      <c r="E266" s="84" t="s">
+      <c r="E266" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F266" s="85"/>
+      <c r="F266" s="86"/>
       <c r="G266" s="24">
         <v>14</v>
       </c>
@@ -14290,10 +14318,10 @@
         <v>354</v>
       </c>
       <c r="D267" s="35"/>
-      <c r="E267" s="84" t="s">
+      <c r="E267" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F267" s="85"/>
+      <c r="F267" s="86"/>
       <c r="G267" s="24">
         <v>15</v>
       </c>
@@ -14333,10 +14361,10 @@
         <v>448</v>
       </c>
       <c r="D268" s="35"/>
-      <c r="E268" s="84" t="s">
+      <c r="E268" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F268" s="85"/>
+      <c r="F268" s="86"/>
       <c r="G268" s="24">
         <v>16</v>
       </c>
@@ -14376,10 +14404,10 @@
         <v>443</v>
       </c>
       <c r="D269" s="35"/>
-      <c r="E269" s="84" t="s">
+      <c r="E269" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F269" s="85"/>
+      <c r="F269" s="86"/>
       <c r="G269" s="24">
         <v>17</v>
       </c>
@@ -14419,10 +14447,10 @@
         <v>451</v>
       </c>
       <c r="D270" s="35"/>
-      <c r="E270" s="84" t="s">
+      <c r="E270" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F270" s="85"/>
+      <c r="F270" s="86"/>
       <c r="G270" s="24">
         <v>18</v>
       </c>
@@ -14462,10 +14490,10 @@
         <v>453</v>
       </c>
       <c r="D271" s="44"/>
-      <c r="E271" s="84" t="s">
+      <c r="E271" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F271" s="85"/>
+      <c r="F271" s="86"/>
       <c r="G271" s="24">
         <v>19</v>
       </c>
@@ -14505,10 +14533,10 @@
         <v>455</v>
       </c>
       <c r="D272" s="44"/>
-      <c r="E272" s="84" t="s">
+      <c r="E272" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F272" s="85"/>
+      <c r="F272" s="86"/>
       <c r="G272" s="24">
         <v>20</v>
       </c>
@@ -14548,10 +14576,10 @@
         <v>457</v>
       </c>
       <c r="D273" s="44"/>
-      <c r="E273" s="84" t="s">
+      <c r="E273" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F273" s="85"/>
+      <c r="F273" s="86"/>
       <c r="G273" s="24">
         <v>21</v>
       </c>
@@ -14591,10 +14619,10 @@
         <v>459</v>
       </c>
       <c r="D274" s="44"/>
-      <c r="E274" s="84" t="s">
+      <c r="E274" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F274" s="85"/>
+      <c r="F274" s="86"/>
       <c r="G274" s="24">
         <v>22</v>
       </c>
@@ -14634,10 +14662,10 @@
         <v>58</v>
       </c>
       <c r="D275" s="44"/>
-      <c r="E275" s="84" t="s">
+      <c r="E275" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F275" s="85"/>
+      <c r="F275" s="86"/>
       <c r="G275" s="24">
         <v>23</v>
       </c>
@@ -14677,10 +14705,10 @@
         <v>462</v>
       </c>
       <c r="D276" s="44"/>
-      <c r="E276" s="84" t="s">
+      <c r="E276" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F276" s="85"/>
+      <c r="F276" s="86"/>
       <c r="G276" s="24">
         <v>24</v>
       </c>
@@ -14720,10 +14748,10 @@
         <v>457</v>
       </c>
       <c r="D277" s="44"/>
-      <c r="E277" s="84" t="s">
+      <c r="E277" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F277" s="85"/>
+      <c r="F277" s="86"/>
       <c r="G277" s="24">
         <v>25</v>
       </c>
@@ -14763,10 +14791,10 @@
         <v>443</v>
       </c>
       <c r="D278" s="44"/>
-      <c r="E278" s="84" t="s">
+      <c r="E278" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F278" s="85"/>
+      <c r="F278" s="86"/>
       <c r="G278" s="24">
         <v>26</v>
       </c>
@@ -14806,10 +14834,10 @@
         <v>466</v>
       </c>
       <c r="D279" s="44"/>
-      <c r="E279" s="84" t="s">
+      <c r="E279" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F279" s="85"/>
+      <c r="F279" s="86"/>
       <c r="G279" s="24">
         <v>27</v>
       </c>
@@ -14849,10 +14877,10 @@
         <v>102</v>
       </c>
       <c r="D280" s="44"/>
-      <c r="E280" s="84" t="s">
+      <c r="E280" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F280" s="85"/>
+      <c r="F280" s="86"/>
       <c r="G280" s="24">
         <v>28</v>
       </c>
@@ -14886,8 +14914,8 @@
       <c r="B281" s="23"/>
       <c r="C281" s="41"/>
       <c r="D281" s="46"/>
-      <c r="E281" s="86"/>
-      <c r="F281" s="87"/>
+      <c r="E281" s="87"/>
+      <c r="F281" s="88"/>
       <c r="G281" s="23"/>
       <c r="H281" s="58"/>
       <c r="I281" s="66">
@@ -14917,8 +14945,8 @@
       <c r="B282" s="23"/>
       <c r="C282" s="41"/>
       <c r="D282" s="32"/>
-      <c r="E282" s="86"/>
-      <c r="F282" s="87"/>
+      <c r="E282" s="87"/>
+      <c r="F282" s="88"/>
       <c r="G282" s="23"/>
       <c r="H282" s="58"/>
       <c r="I282" s="66">
@@ -14954,10 +14982,10 @@
         <v>470</v>
       </c>
       <c r="D283" s="36"/>
-      <c r="E283" s="84" t="s">
+      <c r="E283" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F283" s="85"/>
+      <c r="F283" s="86"/>
       <c r="G283" s="24">
         <v>1</v>
       </c>
@@ -14997,10 +15025,10 @@
         <v>472</v>
       </c>
       <c r="D284" s="36"/>
-      <c r="E284" s="84" t="s">
+      <c r="E284" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F284" s="85"/>
+      <c r="F284" s="86"/>
       <c r="G284" s="24">
         <v>2</v>
       </c>
@@ -15040,10 +15068,10 @@
         <v>474</v>
       </c>
       <c r="D285" s="36"/>
-      <c r="E285" s="84" t="s">
+      <c r="E285" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F285" s="85"/>
+      <c r="F285" s="86"/>
       <c r="G285" s="24">
         <v>3</v>
       </c>
@@ -15083,10 +15111,10 @@
         <v>179</v>
       </c>
       <c r="D286" s="36"/>
-      <c r="E286" s="84" t="s">
+      <c r="E286" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F286" s="85"/>
+      <c r="F286" s="86"/>
       <c r="G286" s="24">
         <v>4</v>
       </c>
@@ -15126,10 +15154,10 @@
         <v>477</v>
       </c>
       <c r="D287" s="36"/>
-      <c r="E287" s="84" t="s">
+      <c r="E287" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F287" s="85"/>
+      <c r="F287" s="86"/>
       <c r="G287" s="24">
         <v>5</v>
       </c>
@@ -15169,10 +15197,10 @@
         <v>123</v>
       </c>
       <c r="D288" s="36"/>
-      <c r="E288" s="84" t="s">
+      <c r="E288" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F288" s="85"/>
+      <c r="F288" s="86"/>
       <c r="G288" s="24">
         <v>6</v>
       </c>
@@ -15212,10 +15240,10 @@
         <v>480</v>
       </c>
       <c r="D289" s="36"/>
-      <c r="E289" s="84" t="s">
+      <c r="E289" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F289" s="85"/>
+      <c r="F289" s="86"/>
       <c r="G289" s="24">
         <v>7</v>
       </c>
@@ -15255,10 +15283,10 @@
         <v>482</v>
       </c>
       <c r="D290" s="36"/>
-      <c r="E290" s="84" t="s">
+      <c r="E290" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F290" s="85"/>
+      <c r="F290" s="86"/>
       <c r="G290" s="24">
         <v>8</v>
       </c>
@@ -15298,10 +15326,10 @@
         <v>484</v>
       </c>
       <c r="D291" s="36"/>
-      <c r="E291" s="84" t="s">
+      <c r="E291" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F291" s="85"/>
+      <c r="F291" s="86"/>
       <c r="G291" s="24">
         <v>9</v>
       </c>
@@ -15341,10 +15369,10 @@
         <v>482</v>
       </c>
       <c r="D292" s="36"/>
-      <c r="E292" s="84" t="s">
+      <c r="E292" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F292" s="85"/>
+      <c r="F292" s="86"/>
       <c r="G292" s="24">
         <v>10</v>
       </c>
@@ -15384,10 +15412,10 @@
         <v>487</v>
       </c>
       <c r="D293" s="36"/>
-      <c r="E293" s="84" t="s">
+      <c r="E293" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F293" s="85"/>
+      <c r="F293" s="86"/>
       <c r="G293" s="24">
         <v>11</v>
       </c>
@@ -15427,10 +15455,10 @@
         <v>489</v>
       </c>
       <c r="D294" s="36"/>
-      <c r="E294" s="84" t="s">
+      <c r="E294" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F294" s="85"/>
+      <c r="F294" s="86"/>
       <c r="G294" s="24">
         <v>12</v>
       </c>
@@ -15470,10 +15498,10 @@
         <v>480</v>
       </c>
       <c r="D295" s="36"/>
-      <c r="E295" s="84" t="s">
+      <c r="E295" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F295" s="85"/>
+      <c r="F295" s="86"/>
       <c r="G295" s="24">
         <v>13</v>
       </c>
@@ -15513,10 +15541,10 @@
         <v>47</v>
       </c>
       <c r="D296" s="36"/>
-      <c r="E296" s="84" t="s">
+      <c r="E296" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F296" s="85"/>
+      <c r="F296" s="86"/>
       <c r="G296" s="24">
         <v>14</v>
       </c>
@@ -15556,10 +15584,10 @@
         <v>493</v>
       </c>
       <c r="D297" s="36"/>
-      <c r="E297" s="84" t="s">
+      <c r="E297" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F297" s="85"/>
+      <c r="F297" s="86"/>
       <c r="G297" s="24">
         <v>15</v>
       </c>
@@ -15599,10 +15627,10 @@
         <v>495</v>
       </c>
       <c r="D298" s="36"/>
-      <c r="E298" s="84" t="s">
+      <c r="E298" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F298" s="85"/>
+      <c r="F298" s="86"/>
       <c r="G298" s="24">
         <v>16</v>
       </c>
@@ -15642,10 +15670,10 @@
         <v>271</v>
       </c>
       <c r="D299" s="36"/>
-      <c r="E299" s="84" t="s">
+      <c r="E299" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F299" s="85"/>
+      <c r="F299" s="86"/>
       <c r="G299" s="24">
         <v>17</v>
       </c>
@@ -15685,10 +15713,10 @@
         <v>47</v>
       </c>
       <c r="D300" s="36"/>
-      <c r="E300" s="84" t="s">
+      <c r="E300" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F300" s="85"/>
+      <c r="F300" s="86"/>
       <c r="G300" s="24">
         <v>18</v>
       </c>
@@ -15728,10 +15756,10 @@
         <v>498</v>
       </c>
       <c r="D301" s="36"/>
-      <c r="E301" s="84" t="s">
+      <c r="E301" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F301" s="85"/>
+      <c r="F301" s="86"/>
       <c r="G301" s="24">
         <v>19</v>
       </c>
@@ -15771,10 +15799,10 @@
         <v>231</v>
       </c>
       <c r="D302" s="36"/>
-      <c r="E302" s="84" t="s">
+      <c r="E302" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F302" s="85"/>
+      <c r="F302" s="86"/>
       <c r="G302" s="24">
         <v>20</v>
       </c>
@@ -15814,10 +15842,10 @@
         <v>501</v>
       </c>
       <c r="D303" s="36"/>
-      <c r="E303" s="84" t="s">
+      <c r="E303" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F303" s="85"/>
+      <c r="F303" s="86"/>
       <c r="G303" s="24">
         <v>21</v>
       </c>
@@ -15857,10 +15885,10 @@
         <v>503</v>
       </c>
       <c r="D304" s="36"/>
-      <c r="E304" s="84" t="s">
+      <c r="E304" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F304" s="85"/>
+      <c r="F304" s="86"/>
       <c r="G304" s="24">
         <v>22</v>
       </c>
@@ -15900,10 +15928,10 @@
         <v>505</v>
       </c>
       <c r="D305" s="36"/>
-      <c r="E305" s="84" t="s">
+      <c r="E305" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F305" s="85"/>
+      <c r="F305" s="86"/>
       <c r="G305" s="24">
         <v>23</v>
       </c>
@@ -15943,10 +15971,10 @@
         <v>507</v>
       </c>
       <c r="D306" s="36"/>
-      <c r="E306" s="84" t="s">
+      <c r="E306" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F306" s="85"/>
+      <c r="F306" s="86"/>
       <c r="G306" s="24">
         <v>24</v>
       </c>
@@ -15986,10 +16014,10 @@
         <v>182</v>
       </c>
       <c r="D307" s="36"/>
-      <c r="E307" s="84" t="s">
+      <c r="E307" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F307" s="85"/>
+      <c r="F307" s="86"/>
       <c r="G307" s="24">
         <v>25</v>
       </c>
@@ -16029,10 +16057,10 @@
         <v>509</v>
       </c>
       <c r="D308" s="36"/>
-      <c r="E308" s="84" t="s">
+      <c r="E308" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F308" s="85"/>
+      <c r="F308" s="86"/>
       <c r="G308" s="24">
         <v>26</v>
       </c>
@@ -16072,10 +16100,10 @@
         <v>511</v>
       </c>
       <c r="D309" s="36"/>
-      <c r="E309" s="84" t="s">
+      <c r="E309" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F309" s="85"/>
+      <c r="F309" s="86"/>
       <c r="G309" s="24">
         <v>27</v>
       </c>
@@ -16115,10 +16143,10 @@
         <v>480</v>
       </c>
       <c r="D310" s="36"/>
-      <c r="E310" s="84" t="s">
+      <c r="E310" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F310" s="85"/>
+      <c r="F310" s="86"/>
       <c r="G310" s="24">
         <v>28</v>
       </c>
@@ -16158,10 +16186,10 @@
         <v>514</v>
       </c>
       <c r="D311" s="36"/>
-      <c r="E311" s="84" t="s">
+      <c r="E311" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F311" s="85"/>
+      <c r="F311" s="86"/>
       <c r="G311" s="24">
         <v>29</v>
       </c>
@@ -16201,10 +16229,10 @@
         <v>55</v>
       </c>
       <c r="D312" s="36"/>
-      <c r="E312" s="84" t="s">
+      <c r="E312" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F312" s="85"/>
+      <c r="F312" s="86"/>
       <c r="G312" s="24">
         <v>30</v>
       </c>
@@ -16244,10 +16272,10 @@
         <v>123</v>
       </c>
       <c r="D313" s="36"/>
-      <c r="E313" s="84" t="s">
+      <c r="E313" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F313" s="85"/>
+      <c r="F313" s="86"/>
       <c r="G313" s="24">
         <v>31</v>
       </c>
@@ -16289,10 +16317,10 @@
       <c r="D314" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="E314" s="84" t="s">
+      <c r="E314" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F314" s="85"/>
+      <c r="F314" s="86"/>
       <c r="G314" s="24">
         <v>32</v>
       </c>
@@ -16332,10 +16360,10 @@
         <v>520</v>
       </c>
       <c r="D315" s="36"/>
-      <c r="E315" s="84" t="s">
+      <c r="E315" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F315" s="85"/>
+      <c r="F315" s="86"/>
       <c r="G315" s="24">
         <v>33</v>
       </c>
@@ -16377,10 +16405,10 @@
       <c r="D316" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="E316" s="84" t="s">
+      <c r="E316" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F316" s="85"/>
+      <c r="F316" s="86"/>
       <c r="G316" s="24">
         <v>34</v>
       </c>
@@ -16420,10 +16448,10 @@
         <v>190</v>
       </c>
       <c r="D317" s="36"/>
-      <c r="E317" s="84" t="s">
+      <c r="E317" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F317" s="85"/>
+      <c r="F317" s="86"/>
       <c r="G317" s="24">
         <v>35</v>
       </c>
@@ -16463,10 +16491,10 @@
         <v>55</v>
       </c>
       <c r="D318" s="36"/>
-      <c r="E318" s="84" t="s">
+      <c r="E318" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F318" s="85"/>
+      <c r="F318" s="86"/>
       <c r="G318" s="24">
         <v>36</v>
       </c>
@@ -16506,10 +16534,10 @@
         <v>526</v>
       </c>
       <c r="D319" s="36"/>
-      <c r="E319" s="84" t="s">
+      <c r="E319" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F319" s="85"/>
+      <c r="F319" s="86"/>
       <c r="G319" s="24">
         <v>37</v>
       </c>
@@ -16549,10 +16577,10 @@
         <v>507</v>
       </c>
       <c r="D320" s="36"/>
-      <c r="E320" s="84" t="s">
+      <c r="E320" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F320" s="85"/>
+      <c r="F320" s="86"/>
       <c r="G320" s="24">
         <v>38</v>
       </c>
@@ -16592,10 +16620,10 @@
         <v>526</v>
       </c>
       <c r="D321" s="36"/>
-      <c r="E321" s="84" t="s">
+      <c r="E321" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F321" s="85"/>
+      <c r="F321" s="86"/>
       <c r="G321" s="24">
         <v>39</v>
       </c>
@@ -16635,10 +16663,10 @@
         <v>530</v>
       </c>
       <c r="D322" s="36"/>
-      <c r="E322" s="84" t="s">
+      <c r="E322" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F322" s="85"/>
+      <c r="F322" s="86"/>
       <c r="G322" s="24">
         <v>40</v>
       </c>
@@ -16672,8 +16700,8 @@
       <c r="B323" s="23"/>
       <c r="C323" s="55"/>
       <c r="D323" s="37"/>
-      <c r="E323" s="86"/>
-      <c r="F323" s="87"/>
+      <c r="E323" s="87"/>
+      <c r="F323" s="88"/>
       <c r="G323" s="23"/>
       <c r="H323" s="58"/>
       <c r="I323" s="66">
@@ -16703,8 +16731,8 @@
       <c r="B324" s="23"/>
       <c r="C324" s="55"/>
       <c r="D324" s="32"/>
-      <c r="E324" s="86"/>
-      <c r="F324" s="87"/>
+      <c r="E324" s="87"/>
+      <c r="F324" s="88"/>
       <c r="G324" s="23"/>
       <c r="H324" s="58"/>
       <c r="I324" s="66">
@@ -16740,10 +16768,10 @@
         <v>533</v>
       </c>
       <c r="D325" s="26"/>
-      <c r="E325" s="84" t="s">
+      <c r="E325" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F325" s="85"/>
+      <c r="F325" s="86"/>
       <c r="G325" s="24">
         <v>1</v>
       </c>
@@ -16783,10 +16811,10 @@
         <v>535</v>
       </c>
       <c r="D326" s="26"/>
-      <c r="E326" s="84" t="s">
+      <c r="E326" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F326" s="85"/>
+      <c r="F326" s="86"/>
       <c r="G326" s="24">
         <v>2</v>
       </c>
@@ -16826,10 +16854,10 @@
         <v>537</v>
       </c>
       <c r="D327" s="26"/>
-      <c r="E327" s="84" t="s">
+      <c r="E327" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F327" s="85"/>
+      <c r="F327" s="86"/>
       <c r="G327" s="24">
         <v>3</v>
       </c>
@@ -16869,10 +16897,10 @@
         <v>539</v>
       </c>
       <c r="D328" s="26"/>
-      <c r="E328" s="84" t="s">
+      <c r="E328" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F328" s="85"/>
+      <c r="F328" s="86"/>
       <c r="G328" s="24">
         <v>4</v>
       </c>
@@ -16912,10 +16940,10 @@
         <v>541</v>
       </c>
       <c r="D329" s="26"/>
-      <c r="E329" s="84" t="s">
+      <c r="E329" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F329" s="85"/>
+      <c r="F329" s="86"/>
       <c r="G329" s="24">
         <v>5</v>
       </c>
@@ -16955,10 +16983,10 @@
         <v>543</v>
       </c>
       <c r="D330" s="26"/>
-      <c r="E330" s="84" t="s">
+      <c r="E330" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F330" s="85"/>
+      <c r="F330" s="86"/>
       <c r="G330" s="24">
         <v>6</v>
       </c>
@@ -16992,8 +17020,8 @@
       <c r="B331" s="23"/>
       <c r="C331" s="41"/>
       <c r="D331" s="32"/>
-      <c r="E331" s="86"/>
-      <c r="F331" s="87"/>
+      <c r="E331" s="87"/>
+      <c r="F331" s="88"/>
       <c r="G331" s="23"/>
       <c r="H331" s="58"/>
       <c r="I331" s="66">
@@ -17023,8 +17051,8 @@
       <c r="B332" s="23"/>
       <c r="C332" s="41"/>
       <c r="D332" s="32"/>
-      <c r="E332" s="86"/>
-      <c r="F332" s="87"/>
+      <c r="E332" s="87"/>
+      <c r="F332" s="88"/>
       <c r="G332" s="23"/>
       <c r="H332" s="58"/>
       <c r="I332" s="66">
@@ -17060,10 +17088,10 @@
         <v>47</v>
       </c>
       <c r="D333" s="26"/>
-      <c r="E333" s="84" t="s">
+      <c r="E333" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F333" s="85"/>
+      <c r="F333" s="86"/>
       <c r="G333" s="24">
         <v>1</v>
       </c>
@@ -17103,10 +17131,10 @@
         <v>55</v>
       </c>
       <c r="D334" s="26"/>
-      <c r="E334" s="84" t="s">
+      <c r="E334" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F334" s="85"/>
+      <c r="F334" s="86"/>
       <c r="G334" s="24">
         <v>2</v>
       </c>
@@ -17146,10 +17174,10 @@
         <v>123</v>
       </c>
       <c r="D335" s="26"/>
-      <c r="E335" s="84" t="s">
+      <c r="E335" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F335" s="85"/>
+      <c r="F335" s="86"/>
       <c r="G335" s="24">
         <v>3</v>
       </c>
@@ -17189,10 +17217,10 @@
         <v>377</v>
       </c>
       <c r="D336" s="26"/>
-      <c r="E336" s="84" t="s">
+      <c r="E336" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F336" s="85"/>
+      <c r="F336" s="86"/>
       <c r="G336" s="24">
         <v>4</v>
       </c>
@@ -17232,10 +17260,10 @@
         <v>507</v>
       </c>
       <c r="D337" s="26"/>
-      <c r="E337" s="84" t="s">
+      <c r="E337" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F337" s="85"/>
+      <c r="F337" s="86"/>
       <c r="G337" s="24">
         <v>5</v>
       </c>
@@ -17275,10 +17303,10 @@
         <v>47</v>
       </c>
       <c r="D338" s="26"/>
-      <c r="E338" s="84" t="s">
+      <c r="E338" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F338" s="85"/>
+      <c r="F338" s="86"/>
       <c r="G338" s="24">
         <v>6</v>
       </c>
@@ -17318,10 +17346,10 @@
         <v>552</v>
       </c>
       <c r="D339" s="26"/>
-      <c r="E339" s="84" t="s">
+      <c r="E339" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F339" s="85"/>
+      <c r="F339" s="86"/>
       <c r="G339" s="24">
         <v>7</v>
       </c>
@@ -17361,10 +17389,10 @@
         <v>377</v>
       </c>
       <c r="D340" s="26"/>
-      <c r="E340" s="84" t="s">
+      <c r="E340" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F340" s="85"/>
+      <c r="F340" s="86"/>
       <c r="G340" s="24">
         <v>8</v>
       </c>
@@ -17404,10 +17432,10 @@
         <v>47</v>
       </c>
       <c r="D341" s="26"/>
-      <c r="E341" s="84" t="s">
+      <c r="E341" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F341" s="85"/>
+      <c r="F341" s="86"/>
       <c r="G341" s="24">
         <v>9</v>
       </c>
@@ -17447,10 +17475,10 @@
         <v>556</v>
       </c>
       <c r="D342" s="26"/>
-      <c r="E342" s="84" t="s">
+      <c r="E342" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F342" s="85"/>
+      <c r="F342" s="86"/>
       <c r="G342" s="24">
         <v>10</v>
       </c>
@@ -17490,10 +17518,10 @@
         <v>558</v>
       </c>
       <c r="D343" s="26"/>
-      <c r="E343" s="84" t="s">
+      <c r="E343" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F343" s="85"/>
+      <c r="F343" s="86"/>
       <c r="G343" s="24">
         <v>11</v>
       </c>
@@ -17533,10 +17561,10 @@
         <v>560</v>
       </c>
       <c r="D344" s="26"/>
-      <c r="E344" s="84" t="s">
+      <c r="E344" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F344" s="85"/>
+      <c r="F344" s="86"/>
       <c r="G344" s="24">
         <v>12</v>
       </c>
@@ -17576,10 +17604,10 @@
         <v>562</v>
       </c>
       <c r="D345" s="26"/>
-      <c r="E345" s="84" t="s">
+      <c r="E345" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F345" s="85"/>
+      <c r="F345" s="86"/>
       <c r="G345" s="24">
         <v>13</v>
       </c>
@@ -17619,10 +17647,10 @@
         <v>564</v>
       </c>
       <c r="D346" s="26"/>
-      <c r="E346" s="84" t="s">
+      <c r="E346" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F346" s="85"/>
+      <c r="F346" s="86"/>
       <c r="G346" s="24">
         <v>14</v>
       </c>
@@ -17662,10 +17690,10 @@
         <v>566</v>
       </c>
       <c r="D347" s="26"/>
-      <c r="E347" s="84" t="s">
+      <c r="E347" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F347" s="85"/>
+      <c r="F347" s="86"/>
       <c r="G347" s="24">
         <v>15</v>
       </c>
@@ -17705,10 +17733,10 @@
         <v>568</v>
       </c>
       <c r="D348" s="26"/>
-      <c r="E348" s="84" t="s">
+      <c r="E348" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F348" s="85"/>
+      <c r="F348" s="86"/>
       <c r="G348" s="24">
         <v>16</v>
       </c>
@@ -17748,10 +17776,10 @@
         <v>570</v>
       </c>
       <c r="D349" s="26"/>
-      <c r="E349" s="84" t="s">
+      <c r="E349" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F349" s="85"/>
+      <c r="F349" s="86"/>
       <c r="G349" s="24">
         <v>17</v>
       </c>
@@ -17791,10 +17819,10 @@
         <v>572</v>
       </c>
       <c r="D350" s="26"/>
-      <c r="E350" s="84" t="s">
+      <c r="E350" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F350" s="85"/>
+      <c r="F350" s="86"/>
       <c r="G350" s="24">
         <v>18</v>
       </c>
@@ -17834,10 +17862,10 @@
         <v>574</v>
       </c>
       <c r="D351" s="26"/>
-      <c r="E351" s="84" t="s">
+      <c r="E351" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F351" s="85"/>
+      <c r="F351" s="86"/>
       <c r="G351" s="24">
         <v>19</v>
       </c>
@@ -17877,10 +17905,10 @@
         <v>576</v>
       </c>
       <c r="D352" s="26"/>
-      <c r="E352" s="84" t="s">
+      <c r="E352" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F352" s="85"/>
+      <c r="F352" s="86"/>
       <c r="G352" s="24">
         <v>20</v>
       </c>
@@ -17920,10 +17948,10 @@
         <v>190</v>
       </c>
       <c r="D353" s="26"/>
-      <c r="E353" s="84" t="s">
+      <c r="E353" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F353" s="85"/>
+      <c r="F353" s="86"/>
       <c r="G353" s="24">
         <v>21</v>
       </c>
@@ -17963,10 +17991,10 @@
         <v>156</v>
       </c>
       <c r="D354" s="26"/>
-      <c r="E354" s="84" t="s">
+      <c r="E354" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F354" s="85"/>
+      <c r="F354" s="86"/>
       <c r="G354" s="24">
         <v>22</v>
       </c>
@@ -18006,10 +18034,10 @@
         <v>580</v>
       </c>
       <c r="D355" s="26"/>
-      <c r="E355" s="84" t="s">
+      <c r="E355" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F355" s="85"/>
+      <c r="F355" s="86"/>
       <c r="G355" s="24">
         <v>23</v>
       </c>
@@ -18049,10 +18077,10 @@
         <v>156</v>
       </c>
       <c r="D356" s="26"/>
-      <c r="E356" s="84" t="s">
+      <c r="E356" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F356" s="85"/>
+      <c r="F356" s="86"/>
       <c r="G356" s="24">
         <v>24</v>
       </c>
@@ -18092,10 +18120,10 @@
         <v>123</v>
       </c>
       <c r="D357" s="26"/>
-      <c r="E357" s="84" t="s">
+      <c r="E357" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="F357" s="85"/>
+      <c r="F357" s="86"/>
       <c r="G357" s="24">
         <v>25</v>
       </c>
@@ -18135,10 +18163,10 @@
         <v>193</v>
       </c>
       <c r="D358" s="26"/>
-      <c r="E358" s="90" t="s">
+      <c r="E358" s="91" t="s">
         <v>691</v>
       </c>
-      <c r="F358" s="90"/>
+      <c r="F358" s="91"/>
       <c r="G358" s="24">
         <v>26</v>
       </c>
@@ -18178,10 +18206,10 @@
         <v>585</v>
       </c>
       <c r="D359" s="26"/>
-      <c r="E359" s="90" t="s">
+      <c r="E359" s="91" t="s">
         <v>691</v>
       </c>
-      <c r="F359" s="90"/>
+      <c r="F359" s="91"/>
       <c r="G359" s="24">
         <v>27</v>
       </c>
@@ -18221,10 +18249,10 @@
         <v>587</v>
       </c>
       <c r="D360" s="26"/>
-      <c r="E360" s="90" t="s">
+      <c r="E360" s="91" t="s">
         <v>691</v>
       </c>
-      <c r="F360" s="90"/>
+      <c r="F360" s="91"/>
       <c r="G360" s="24">
         <v>28</v>
       </c>
@@ -18264,10 +18292,10 @@
         <v>589</v>
       </c>
       <c r="D361" s="26"/>
-      <c r="E361" s="90" t="s">
+      <c r="E361" s="91" t="s">
         <v>691</v>
       </c>
-      <c r="F361" s="90"/>
+      <c r="F361" s="91"/>
       <c r="G361" s="24">
         <v>29</v>
       </c>
@@ -18307,10 +18335,10 @@
         <v>587</v>
       </c>
       <c r="D362" s="26"/>
-      <c r="E362" s="90" t="s">
+      <c r="E362" s="91" t="s">
         <v>691</v>
       </c>
-      <c r="F362" s="90"/>
+      <c r="F362" s="91"/>
       <c r="G362" s="24">
         <v>30</v>
       </c>
@@ -18350,10 +18378,10 @@
         <v>592</v>
       </c>
       <c r="D363" s="26"/>
-      <c r="E363" s="90" t="s">
+      <c r="E363" s="91" t="s">
         <v>691</v>
       </c>
-      <c r="F363" s="90"/>
+      <c r="F363" s="91"/>
       <c r="G363" s="24">
         <v>31</v>
       </c>
@@ -18393,10 +18421,10 @@
         <v>312</v>
       </c>
       <c r="D364" s="26"/>
-      <c r="E364" s="90" t="s">
+      <c r="E364" s="91" t="s">
         <v>691</v>
       </c>
-      <c r="F364" s="90"/>
+      <c r="F364" s="91"/>
       <c r="G364" s="24">
         <v>32</v>
       </c>
@@ -18436,10 +18464,10 @@
         <v>595</v>
       </c>
       <c r="D365" s="26"/>
-      <c r="E365" s="90" t="s">
+      <c r="E365" s="91" t="s">
         <v>691</v>
       </c>
-      <c r="F365" s="90"/>
+      <c r="F365" s="91"/>
       <c r="G365" s="24">
         <v>33</v>
       </c>
@@ -18479,10 +18507,10 @@
         <v>597</v>
       </c>
       <c r="D366" s="26"/>
-      <c r="E366" s="90" t="s">
+      <c r="E366" s="91" t="s">
         <v>691</v>
       </c>
-      <c r="F366" s="90"/>
+      <c r="F366" s="91"/>
       <c r="G366" s="24">
         <v>34</v>
       </c>
@@ -18522,10 +18550,10 @@
         <v>599</v>
       </c>
       <c r="D367" s="26"/>
-      <c r="E367" s="90" t="s">
+      <c r="E367" s="91" t="s">
         <v>691</v>
       </c>
-      <c r="F367" s="90"/>
+      <c r="F367" s="91"/>
       <c r="G367" s="24">
         <v>35</v>
       </c>
@@ -18565,10 +18593,10 @@
         <v>102</v>
       </c>
       <c r="D368" s="26"/>
-      <c r="E368" s="90" t="s">
+      <c r="E368" s="91" t="s">
         <v>691</v>
       </c>
-      <c r="F368" s="90"/>
+      <c r="F368" s="91"/>
       <c r="G368" s="24">
         <v>36</v>
       </c>
@@ -18608,10 +18636,10 @@
         <v>602</v>
       </c>
       <c r="D369" s="26"/>
-      <c r="E369" s="90" t="s">
+      <c r="E369" s="91" t="s">
         <v>691</v>
       </c>
-      <c r="F369" s="90"/>
+      <c r="F369" s="91"/>
       <c r="G369" s="24">
         <v>37</v>
       </c>
@@ -18651,10 +18679,10 @@
         <v>603</v>
       </c>
       <c r="D370" s="26"/>
-      <c r="E370" s="90" t="s">
+      <c r="E370" s="91" t="s">
         <v>691</v>
       </c>
-      <c r="F370" s="90"/>
+      <c r="F370" s="91"/>
       <c r="G370" s="24">
         <v>38</v>
       </c>
@@ -18694,10 +18722,10 @@
         <v>74</v>
       </c>
       <c r="D371" s="26"/>
-      <c r="E371" s="90" t="s">
+      <c r="E371" s="91" t="s">
         <v>691</v>
       </c>
-      <c r="F371" s="90"/>
+      <c r="F371" s="91"/>
       <c r="G371" s="24">
         <v>39</v>
       </c>
@@ -18737,10 +18765,10 @@
         <v>606</v>
       </c>
       <c r="D372" s="26"/>
-      <c r="E372" s="90" t="s">
+      <c r="E372" s="91" t="s">
         <v>691</v>
       </c>
-      <c r="F372" s="90"/>
+      <c r="F372" s="91"/>
       <c r="G372" s="24">
         <v>40</v>
       </c>
@@ -18780,10 +18808,10 @@
         <v>607</v>
       </c>
       <c r="D373" s="26"/>
-      <c r="E373" s="90" t="s">
+      <c r="E373" s="91" t="s">
         <v>691</v>
       </c>
-      <c r="F373" s="90"/>
+      <c r="F373" s="91"/>
       <c r="G373" s="24">
         <v>41</v>
       </c>
@@ -18823,10 +18851,10 @@
         <v>377</v>
       </c>
       <c r="D374" s="26"/>
-      <c r="E374" s="90" t="s">
+      <c r="E374" s="91" t="s">
         <v>691</v>
       </c>
-      <c r="F374" s="90"/>
+      <c r="F374" s="91"/>
       <c r="G374" s="24">
         <v>42</v>
       </c>
@@ -18866,10 +18894,10 @@
         <v>507</v>
       </c>
       <c r="D375" s="26"/>
-      <c r="E375" s="90" t="s">
+      <c r="E375" s="91" t="s">
         <v>691</v>
       </c>
-      <c r="F375" s="90"/>
+      <c r="F375" s="91"/>
       <c r="G375" s="24">
         <v>43</v>
       </c>
@@ -18909,10 +18937,10 @@
         <v>611</v>
       </c>
       <c r="D376" s="26"/>
-      <c r="E376" s="90" t="s">
+      <c r="E376" s="91" t="s">
         <v>691</v>
       </c>
-      <c r="F376" s="90"/>
+      <c r="F376" s="91"/>
       <c r="G376" s="24">
         <v>44</v>
       </c>
@@ -18952,10 +18980,10 @@
         <v>377</v>
       </c>
       <c r="D377" s="26"/>
-      <c r="E377" s="90" t="s">
+      <c r="E377" s="91" t="s">
         <v>691</v>
       </c>
-      <c r="F377" s="90"/>
+      <c r="F377" s="91"/>
       <c r="G377" s="24">
         <v>45</v>
       </c>
@@ -18995,10 +19023,10 @@
         <v>614</v>
       </c>
       <c r="D378" s="26"/>
-      <c r="E378" s="90" t="s">
+      <c r="E378" s="91" t="s">
         <v>691</v>
       </c>
-      <c r="F378" s="90"/>
+      <c r="F378" s="91"/>
       <c r="G378" s="24">
         <v>46</v>
       </c>
@@ -19038,10 +19066,10 @@
         <v>55</v>
       </c>
       <c r="D379" s="26"/>
-      <c r="E379" s="90" t="s">
+      <c r="E379" s="91" t="s">
         <v>691</v>
       </c>
-      <c r="F379" s="90"/>
+      <c r="F379" s="91"/>
       <c r="G379" s="24">
         <v>47</v>
       </c>
@@ -19081,10 +19109,10 @@
         <v>312</v>
       </c>
       <c r="D380" s="26"/>
-      <c r="E380" s="90" t="s">
+      <c r="E380" s="91" t="s">
         <v>691</v>
       </c>
-      <c r="F380" s="90"/>
+      <c r="F380" s="91"/>
       <c r="G380" s="24">
         <v>48</v>
       </c>
@@ -19124,10 +19152,10 @@
         <v>312</v>
       </c>
       <c r="D381" s="26"/>
-      <c r="E381" s="90" t="s">
+      <c r="E381" s="91" t="s">
         <v>691</v>
       </c>
-      <c r="F381" s="90"/>
+      <c r="F381" s="91"/>
       <c r="G381" s="24">
         <v>49</v>
       </c>
@@ -19167,10 +19195,10 @@
         <v>618</v>
       </c>
       <c r="D382" s="26"/>
-      <c r="E382" s="90" t="s">
+      <c r="E382" s="91" t="s">
         <v>691</v>
       </c>
-      <c r="F382" s="90"/>
+      <c r="F382" s="91"/>
       <c r="G382" s="24">
         <v>50</v>
       </c>
@@ -19210,10 +19238,10 @@
         <v>354</v>
       </c>
       <c r="D383" s="26"/>
-      <c r="E383" s="90" t="s">
+      <c r="E383" s="91" t="s">
         <v>691</v>
       </c>
-      <c r="F383" s="90"/>
+      <c r="F383" s="91"/>
       <c r="G383" s="24">
         <v>51</v>
       </c>
@@ -19253,10 +19281,10 @@
         <v>190</v>
       </c>
       <c r="D384" s="26"/>
-      <c r="E384" s="90" t="s">
+      <c r="E384" s="91" t="s">
         <v>691</v>
       </c>
-      <c r="F384" s="90"/>
+      <c r="F384" s="91"/>
       <c r="G384" s="24">
         <v>52</v>
       </c>
@@ -19296,10 +19324,10 @@
         <v>445</v>
       </c>
       <c r="D385" s="26"/>
-      <c r="E385" s="90" t="s">
+      <c r="E385" s="91" t="s">
         <v>691</v>
       </c>
-      <c r="F385" s="90"/>
+      <c r="F385" s="91"/>
       <c r="G385" s="24">
         <v>53</v>
       </c>
@@ -19339,10 +19367,10 @@
         <v>623</v>
       </c>
       <c r="D386" s="26"/>
-      <c r="E386" s="90" t="s">
+      <c r="E386" s="91" t="s">
         <v>691</v>
       </c>
-      <c r="F386" s="90"/>
+      <c r="F386" s="91"/>
       <c r="G386" s="24">
         <v>54</v>
       </c>
@@ -19376,8 +19404,8 @@
       <c r="B387" s="53"/>
       <c r="C387" s="41"/>
       <c r="D387" s="32"/>
-      <c r="E387" s="92"/>
-      <c r="F387" s="92"/>
+      <c r="E387" s="93"/>
+      <c r="F387" s="93"/>
       <c r="G387" s="23"/>
       <c r="H387" s="58"/>
       <c r="I387" s="66">
@@ -19407,8 +19435,8 @@
       <c r="B388" s="23"/>
       <c r="C388" s="41"/>
       <c r="D388" s="32"/>
-      <c r="E388" s="92"/>
-      <c r="F388" s="92"/>
+      <c r="E388" s="93"/>
+      <c r="F388" s="93"/>
       <c r="G388" s="23"/>
       <c r="H388" s="58"/>
       <c r="I388" s="66">
@@ -19444,10 +19472,10 @@
         <v>626</v>
       </c>
       <c r="D389" s="44"/>
-      <c r="E389" s="90" t="s">
+      <c r="E389" s="91" t="s">
         <v>691</v>
       </c>
-      <c r="F389" s="90"/>
+      <c r="F389" s="91"/>
       <c r="G389" s="24">
         <v>1</v>
       </c>
@@ -19487,10 +19515,10 @@
         <v>628</v>
       </c>
       <c r="D390" s="44"/>
-      <c r="E390" s="90" t="s">
+      <c r="E390" s="91" t="s">
         <v>691</v>
       </c>
-      <c r="F390" s="90"/>
+      <c r="F390" s="91"/>
       <c r="G390" s="24">
         <v>2</v>
       </c>
@@ -19530,10 +19558,10 @@
         <v>160</v>
       </c>
       <c r="D391" s="44"/>
-      <c r="E391" s="90" t="s">
+      <c r="E391" s="91" t="s">
         <v>691</v>
       </c>
-      <c r="F391" s="90"/>
+      <c r="F391" s="91"/>
       <c r="G391" s="24">
         <v>3</v>
       </c>
@@ -19573,10 +19601,10 @@
         <v>55</v>
       </c>
       <c r="D392" s="44"/>
-      <c r="E392" s="90" t="s">
+      <c r="E392" s="91" t="s">
         <v>691</v>
       </c>
-      <c r="F392" s="90"/>
+      <c r="F392" s="91"/>
       <c r="G392" s="24">
         <v>4</v>
       </c>
@@ -19616,10 +19644,10 @@
         <v>632</v>
       </c>
       <c r="D393" s="44"/>
-      <c r="E393" s="90" t="s">
+      <c r="E393" s="91" t="s">
         <v>691</v>
       </c>
-      <c r="F393" s="90"/>
+      <c r="F393" s="91"/>
       <c r="G393" s="24">
         <v>5</v>
       </c>
@@ -19659,10 +19687,10 @@
         <v>55</v>
       </c>
       <c r="D394" s="44"/>
-      <c r="E394" s="90" t="s">
+      <c r="E394" s="91" t="s">
         <v>691</v>
       </c>
-      <c r="F394" s="90"/>
+      <c r="F394" s="91"/>
       <c r="G394" s="24">
         <v>6</v>
       </c>
@@ -19702,10 +19730,10 @@
         <v>253</v>
       </c>
       <c r="D395" s="44"/>
-      <c r="E395" s="90" t="s">
+      <c r="E395" s="91" t="s">
         <v>691</v>
       </c>
-      <c r="F395" s="90"/>
+      <c r="F395" s="91"/>
       <c r="G395" s="24">
         <v>7</v>
       </c>
@@ -19745,10 +19773,10 @@
         <v>47</v>
       </c>
       <c r="D396" s="44"/>
-      <c r="E396" s="90" t="s">
+      <c r="E396" s="91" t="s">
         <v>691</v>
       </c>
-      <c r="F396" s="90"/>
+      <c r="F396" s="91"/>
       <c r="G396" s="24">
         <v>8</v>
       </c>
@@ -19788,10 +19816,10 @@
         <v>55</v>
       </c>
       <c r="D397" s="44"/>
-      <c r="E397" s="90" t="s">
+      <c r="E397" s="91" t="s">
         <v>691</v>
       </c>
-      <c r="F397" s="90"/>
+      <c r="F397" s="91"/>
       <c r="G397" s="24">
         <v>9</v>
       </c>
@@ -19831,10 +19859,10 @@
         <v>638</v>
       </c>
       <c r="D398" s="44"/>
-      <c r="E398" s="90" t="s">
+      <c r="E398" s="91" t="s">
         <v>691</v>
       </c>
-      <c r="F398" s="90"/>
+      <c r="F398" s="91"/>
       <c r="G398" s="24">
         <v>10</v>
       </c>
@@ -19868,8 +19896,8 @@
       <c r="B399" s="23"/>
       <c r="C399" s="41"/>
       <c r="D399" s="46"/>
-      <c r="E399" s="92"/>
-      <c r="F399" s="92"/>
+      <c r="E399" s="93"/>
+      <c r="F399" s="93"/>
       <c r="G399" s="23">
         <v>11</v>
       </c>
@@ -19901,8 +19929,8 @@
       <c r="B400" s="23"/>
       <c r="C400" s="41"/>
       <c r="D400" s="46"/>
-      <c r="E400" s="92"/>
-      <c r="F400" s="92"/>
+      <c r="E400" s="93"/>
+      <c r="F400" s="93"/>
       <c r="G400" s="23"/>
       <c r="H400" s="58"/>
       <c r="I400" s="66">
@@ -19936,10 +19964,10 @@
       </c>
       <c r="C401" s="22"/>
       <c r="D401" s="44"/>
-      <c r="E401" s="90" t="s">
+      <c r="E401" s="91" t="s">
         <v>691</v>
       </c>
-      <c r="F401" s="90"/>
+      <c r="F401" s="91"/>
       <c r="G401" s="24">
         <v>1</v>
       </c>
@@ -19979,10 +20007,10 @@
         <v>45</v>
       </c>
       <c r="D402" s="44"/>
-      <c r="E402" s="90" t="s">
+      <c r="E402" s="91" t="s">
         <v>691</v>
       </c>
-      <c r="F402" s="90"/>
+      <c r="F402" s="91"/>
       <c r="G402" s="24">
         <v>2</v>
       </c>
@@ -20022,10 +20050,10 @@
         <v>643</v>
       </c>
       <c r="D403" s="44"/>
-      <c r="E403" s="90" t="s">
+      <c r="E403" s="91" t="s">
         <v>691</v>
       </c>
-      <c r="F403" s="90"/>
+      <c r="F403" s="91"/>
       <c r="G403" s="24">
         <v>3</v>
       </c>
@@ -20065,10 +20093,10 @@
         <v>645</v>
       </c>
       <c r="D404" s="44"/>
-      <c r="E404" s="90" t="s">
+      <c r="E404" s="91" t="s">
         <v>691</v>
       </c>
-      <c r="F404" s="90"/>
+      <c r="F404" s="91"/>
       <c r="G404" s="24">
         <v>4</v>
       </c>
@@ -20108,10 +20136,10 @@
         <v>223</v>
       </c>
       <c r="D405" s="26"/>
-      <c r="E405" s="90" t="s">
+      <c r="E405" s="91" t="s">
         <v>691</v>
       </c>
-      <c r="F405" s="90"/>
+      <c r="F405" s="91"/>
       <c r="G405" s="24">
         <v>5</v>
       </c>
@@ -20151,10 +20179,10 @@
         <v>648</v>
       </c>
       <c r="D406" s="26"/>
-      <c r="E406" s="90" t="s">
+      <c r="E406" s="91" t="s">
         <v>691</v>
       </c>
-      <c r="F406" s="90"/>
+      <c r="F406" s="91"/>
       <c r="G406" s="24">
         <v>6</v>
       </c>
@@ -20398,8 +20426,8 @@
       <c r="B417" s="34"/>
       <c r="C417" s="56"/>
       <c r="D417" s="34"/>
-      <c r="E417" s="91"/>
-      <c r="F417" s="91"/>
+      <c r="E417" s="92"/>
+      <c r="F417" s="92"/>
       <c r="G417" s="34"/>
       <c r="H417" s="58"/>
       <c r="I417" s="66"/>
@@ -34481,19 +34509,19 @@
   <customSheetViews>
     <customSheetView guid="{9757AB7B-9CD0-4C18-B841-847CE545533D}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{912E3F1A-F04C-40E0-9824-3CA7244E707C}"/>
+      <autoFilter ref="A11:C37" xr:uid="{1DF9DEED-E9F2-47A6-996F-320D1C6022C7}"/>
     </customSheetView>
     <customSheetView guid="{0112C507-3E33-4AF5-84E8-B9519F068338}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{EF06F2DC-353E-4834-BF90-E73605768571}"/>
+      <autoFilter ref="A11:D37" xr:uid="{8423A2C9-A6F9-46ED-BF1E-D597B69A2D54}"/>
     </customSheetView>
     <customSheetView guid="{75E94446-E183-4110-91B1-B47AD553172E}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{900AC021-A06D-469F-AE92-3C7A6DB0A883}"/>
+      <autoFilter ref="A11:D37" xr:uid="{D3FB87D0-D3C3-41C6-A910-8AE30DB00913}"/>
     </customSheetView>
     <customSheetView guid="{D81AFC7C-3E13-42F5-9951-ED21F0A4BFD9}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{21264B68-721F-4EB1-AF7D-4F57D25B4CC0}"/>
+      <autoFilter ref="A293:C332" xr:uid="{5BA6999D-CE04-43A7-9861-2501C9FEB396}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="409">
@@ -35325,28 +35353,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24.6">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
     </row>
     <row r="2" spans="1:3" ht="13.2">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A3" s="94"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
+      <c r="A3" s="95"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A4" s="94"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="6"/>
@@ -35423,7 +35451,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="17.399999999999999">
+    <row r="17" spans="1:2" ht="15.6">
       <c r="A17" s="10" t="s">
         <v>121</v>
       </c>
@@ -35431,7 +35459,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="17.399999999999999">
+    <row r="18" spans="1:2" ht="15.6">
       <c r="A18" s="10" t="s">
         <v>121</v>
       </c>
@@ -35439,7 +35467,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="17.399999999999999">
+    <row r="19" spans="1:2" ht="15.6">
       <c r="A19" s="12" t="s">
         <v>121</v>
       </c>
@@ -35447,7 +35475,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="17.399999999999999">
+    <row r="20" spans="1:2" ht="15.6">
       <c r="A20" s="12" t="s">
         <v>121</v>
       </c>
@@ -35455,7 +35483,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="17.399999999999999">
+    <row r="21" spans="1:2" ht="15.6">
       <c r="A21" s="12" t="s">
         <v>121</v>
       </c>

--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Prep\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E03C29-0A9F-41ED-8027-7705716454F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FADB67-B15B-4FC3-B7A3-2D0D1B74B991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="707">
   <si>
     <t>DSA by Shradha Didi &amp; Aman Bhaiya</t>
   </si>
@@ -2175,6 +2175,15 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Hashing</t>
+  </si>
+  <si>
+    <t>hashing</t>
+  </si>
+  <si>
+    <t>Sliding Window [Variable]</t>
   </si>
 </sst>
 </file>
@@ -2548,7 +2557,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2784,6 +2793,9 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2835,6 +2847,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3086,8 +3107,8 @@
   </sheetPr>
   <dimension ref="A1:Z919"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3117,10 +3138,10 @@
       <c r="D1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="83" t="s">
         <v>696</v>
       </c>
-      <c r="F1" s="82"/>
+      <c r="F1" s="83"/>
       <c r="G1" s="21" t="s">
         <v>693</v>
       </c>
@@ -3159,10 +3180,10 @@
         <v>13</v>
       </c>
       <c r="D2" s="26"/>
-      <c r="E2" s="81" t="s">
+      <c r="E2" s="82" t="s">
         <v>690</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="22">
         <v>1</v>
       </c>
@@ -3202,10 +3223,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="26"/>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="84" t="s">
         <v>690</v>
       </c>
-      <c r="F3" s="84"/>
+      <c r="F3" s="85"/>
       <c r="G3" s="22">
         <v>2</v>
       </c>
@@ -3217,14 +3238,14 @@
         <v>0.53191489361702127</v>
       </c>
       <c r="J3" s="30"/>
-      <c r="K3" s="79" t="s">
+      <c r="K3" s="80" t="s">
         <v>699</v>
       </c>
-      <c r="L3" s="79"/>
-      <c r="M3" s="80" t="s">
+      <c r="L3" s="80"/>
+      <c r="M3" s="81" t="s">
         <v>700</v>
       </c>
-      <c r="N3" s="80"/>
+      <c r="N3" s="81"/>
       <c r="O3" s="30"/>
       <c r="P3" s="30"/>
       <c r="Q3" s="30"/>
@@ -3251,10 +3272,10 @@
       <c r="D4" s="26" t="s">
         <v>694</v>
       </c>
-      <c r="E4" s="83" t="s">
+      <c r="E4" s="84" t="s">
         <v>690</v>
       </c>
-      <c r="F4" s="84"/>
+      <c r="F4" s="85"/>
       <c r="G4" s="22">
         <v>3</v>
       </c>
@@ -3266,10 +3287,10 @@
         <v>0.7978723404255319</v>
       </c>
       <c r="J4" s="30"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
       <c r="O4" s="30"/>
       <c r="P4" s="30"/>
       <c r="Q4" s="30"/>
@@ -3294,10 +3315,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="26"/>
-      <c r="E5" s="83" t="s">
+      <c r="E5" s="84" t="s">
         <v>690</v>
       </c>
-      <c r="F5" s="84"/>
+      <c r="F5" s="85"/>
       <c r="G5" s="22">
         <v>4</v>
       </c>
@@ -3309,16 +3330,16 @@
         <v>1.0638297872340425</v>
       </c>
       <c r="J5" s="30"/>
-      <c r="K5" s="79">
+      <c r="K5" s="80">
         <f>COUNTIF(E:F,"Done")</f>
         <v>27</v>
       </c>
-      <c r="L5" s="79"/>
-      <c r="M5" s="80">
+      <c r="L5" s="80"/>
+      <c r="M5" s="81">
         <f>COUNTIF(E:F,"Not Done")</f>
         <v>348</v>
       </c>
-      <c r="N5" s="80"/>
+      <c r="N5" s="81"/>
       <c r="O5" s="30"/>
       <c r="P5" s="30"/>
       <c r="Q5" s="30"/>
@@ -3343,10 +3364,10 @@
         <v>19</v>
       </c>
       <c r="D6" s="26"/>
-      <c r="E6" s="83" t="s">
+      <c r="E6" s="84" t="s">
         <v>690</v>
       </c>
-      <c r="F6" s="84"/>
+      <c r="F6" s="85"/>
       <c r="G6" s="22">
         <v>5</v>
       </c>
@@ -3358,10 +3379,10 @@
         <v>1.3297872340425532</v>
       </c>
       <c r="J6" s="30"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="80"/>
-      <c r="N6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="81"/>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
       <c r="Q6" s="30"/>
@@ -3388,10 +3409,10 @@
       <c r="D7" s="26" t="s">
         <v>703</v>
       </c>
-      <c r="E7" s="83" t="s">
+      <c r="E7" s="84" t="s">
         <v>690</v>
       </c>
-      <c r="F7" s="84"/>
+      <c r="F7" s="85"/>
       <c r="G7" s="22">
         <v>6</v>
       </c>
@@ -3403,10 +3424,10 @@
         <v>1.5957446808510638</v>
       </c>
       <c r="J7" s="30"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="81"/>
       <c r="O7" s="30"/>
       <c r="P7" s="30"/>
       <c r="Q7" s="30"/>
@@ -3431,10 +3452,10 @@
         <v>23</v>
       </c>
       <c r="D8" s="26"/>
-      <c r="E8" s="83" t="s">
+      <c r="E8" s="84" t="s">
         <v>690</v>
       </c>
-      <c r="F8" s="84"/>
+      <c r="F8" s="85"/>
       <c r="G8" s="22">
         <v>7</v>
       </c>
@@ -3474,12 +3495,12 @@
         <v>25</v>
       </c>
       <c r="D9" s="78" t="s">
-        <v>702</v>
-      </c>
-      <c r="E9" s="83" t="s">
+        <v>706</v>
+      </c>
+      <c r="E9" s="84" t="s">
         <v>690</v>
       </c>
-      <c r="F9" s="84"/>
+      <c r="F9" s="85"/>
       <c r="G9" s="22">
         <v>8</v>
       </c>
@@ -3502,10 +3523,10 @@
         <v>19</v>
       </c>
       <c r="D10" s="22"/>
-      <c r="E10" s="83" t="s">
+      <c r="E10" s="84" t="s">
         <v>690</v>
       </c>
-      <c r="F10" s="84"/>
+      <c r="F10" s="85"/>
       <c r="G10" s="22">
         <v>9</v>
       </c>
@@ -3545,10 +3566,10 @@
         <v>28</v>
       </c>
       <c r="D11" s="22"/>
-      <c r="E11" s="83" t="s">
+      <c r="E11" s="84" t="s">
         <v>690</v>
       </c>
-      <c r="F11" s="84"/>
+      <c r="F11" s="85"/>
       <c r="G11" s="22">
         <v>10</v>
       </c>
@@ -3588,10 +3609,10 @@
         <v>30</v>
       </c>
       <c r="D12" s="26"/>
-      <c r="E12" s="83" t="s">
+      <c r="E12" s="84" t="s">
         <v>690</v>
       </c>
-      <c r="F12" s="84"/>
+      <c r="F12" s="85"/>
       <c r="G12" s="22">
         <v>11</v>
       </c>
@@ -3631,10 +3652,10 @@
         <v>17</v>
       </c>
       <c r="D13" s="26"/>
-      <c r="E13" s="83" t="s">
+      <c r="E13" s="84" t="s">
         <v>690</v>
       </c>
-      <c r="F13" s="84"/>
+      <c r="F13" s="85"/>
       <c r="G13" s="22">
         <v>12</v>
       </c>
@@ -3674,12 +3695,12 @@
         <v>33</v>
       </c>
       <c r="D14" s="78" t="s">
-        <v>702</v>
-      </c>
-      <c r="E14" s="83" t="s">
+        <v>706</v>
+      </c>
+      <c r="E14" s="84" t="s">
         <v>690</v>
       </c>
-      <c r="F14" s="84"/>
+      <c r="F14" s="85"/>
       <c r="G14" s="22">
         <v>13</v>
       </c>
@@ -3719,10 +3740,10 @@
         <v>35</v>
       </c>
       <c r="D15" s="26"/>
-      <c r="E15" s="83" t="s">
+      <c r="E15" s="84" t="s">
         <v>690</v>
       </c>
-      <c r="F15" s="84"/>
+      <c r="F15" s="85"/>
       <c r="G15" s="22">
         <v>14</v>
       </c>
@@ -3762,10 +3783,10 @@
         <v>37</v>
       </c>
       <c r="D16" s="26"/>
-      <c r="E16" s="83" t="s">
+      <c r="E16" s="84" t="s">
         <v>690</v>
       </c>
-      <c r="F16" s="84"/>
+      <c r="F16" s="85"/>
       <c r="G16" s="22">
         <v>15</v>
       </c>
@@ -3805,10 +3826,10 @@
         <v>35</v>
       </c>
       <c r="D17" s="26"/>
-      <c r="E17" s="83" t="s">
+      <c r="E17" s="84" t="s">
         <v>691</v>
       </c>
-      <c r="F17" s="84"/>
+      <c r="F17" s="85"/>
       <c r="G17" s="22">
         <v>16</v>
       </c>
@@ -3837,50 +3858,50 @@
       <c r="Y17" s="30"/>
       <c r="Z17" s="30"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1">
+    <row r="18" spans="1:26" s="100" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="27" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="79" t="s">
         <v>40</v>
       </c>
       <c r="D18" s="78" t="s">
-        <v>702</v>
-      </c>
-      <c r="E18" s="83" t="s">
+        <v>706</v>
+      </c>
+      <c r="E18" s="84" t="s">
         <v>690</v>
       </c>
-      <c r="F18" s="84"/>
-      <c r="G18" s="22">
+      <c r="F18" s="85"/>
+      <c r="G18" s="79">
         <v>17</v>
       </c>
-      <c r="H18" s="57">
+      <c r="H18" s="79">
         <v>17</v>
       </c>
-      <c r="I18" s="63">
+      <c r="I18" s="98">
         <f t="shared" si="0"/>
         <v>4.5212765957446814</v>
       </c>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="30"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="99"/>
+      <c r="M18" s="99"/>
+      <c r="N18" s="99"/>
+      <c r="O18" s="99"/>
+      <c r="P18" s="99"/>
+      <c r="Q18" s="99"/>
+      <c r="R18" s="99"/>
+      <c r="S18" s="99"/>
+      <c r="T18" s="99"/>
+      <c r="U18" s="99"/>
+      <c r="V18" s="99"/>
+      <c r="W18" s="99"/>
+      <c r="X18" s="99"/>
+      <c r="Y18" s="99"/>
+      <c r="Z18" s="99"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1">
       <c r="A19" s="27" t="s">
@@ -3893,10 +3914,10 @@
         <v>42</v>
       </c>
       <c r="D19" s="26"/>
-      <c r="E19" s="83" t="s">
+      <c r="E19" s="84" t="s">
         <v>690</v>
       </c>
-      <c r="F19" s="84"/>
+      <c r="F19" s="85"/>
       <c r="G19" s="22">
         <v>18</v>
       </c>
@@ -3936,10 +3957,10 @@
         <v>13</v>
       </c>
       <c r="D20" s="26"/>
-      <c r="E20" s="83" t="s">
+      <c r="E20" s="84" t="s">
         <v>690</v>
       </c>
-      <c r="F20" s="84"/>
+      <c r="F20" s="85"/>
       <c r="G20" s="22">
         <v>19</v>
       </c>
@@ -3979,10 +4000,10 @@
         <v>45</v>
       </c>
       <c r="D21" s="26"/>
-      <c r="E21" s="83" t="s">
+      <c r="E21" s="84" t="s">
         <v>691</v>
       </c>
-      <c r="F21" s="84"/>
+      <c r="F21" s="85"/>
       <c r="G21" s="22">
         <v>20</v>
       </c>
@@ -4022,10 +4043,10 @@
         <v>47</v>
       </c>
       <c r="D22" s="26"/>
-      <c r="E22" s="83" t="s">
+      <c r="E22" s="84" t="s">
         <v>690</v>
       </c>
-      <c r="F22" s="84"/>
+      <c r="F22" s="85"/>
       <c r="G22" s="22">
         <v>21</v>
       </c>
@@ -4065,10 +4086,10 @@
         <v>49</v>
       </c>
       <c r="D23" s="26"/>
-      <c r="E23" s="83" t="s">
+      <c r="E23" s="84" t="s">
         <v>691</v>
       </c>
-      <c r="F23" s="84"/>
+      <c r="F23" s="85"/>
       <c r="G23" s="22">
         <v>22</v>
       </c>
@@ -4108,10 +4129,10 @@
         <v>47</v>
       </c>
       <c r="D24" s="26"/>
-      <c r="E24" s="83" t="s">
+      <c r="E24" s="84" t="s">
         <v>691</v>
       </c>
-      <c r="F24" s="84"/>
+      <c r="F24" s="85"/>
       <c r="G24" s="22">
         <v>23</v>
       </c>
@@ -4151,10 +4172,10 @@
         <v>52</v>
       </c>
       <c r="D25" s="26"/>
-      <c r="E25" s="83" t="s">
+      <c r="E25" s="84" t="s">
         <v>691</v>
       </c>
-      <c r="F25" s="84"/>
+      <c r="F25" s="85"/>
       <c r="G25" s="22">
         <v>24</v>
       </c>
@@ -4194,10 +4215,10 @@
         <v>47</v>
       </c>
       <c r="D26" s="26"/>
-      <c r="E26" s="83" t="s">
+      <c r="E26" s="84" t="s">
         <v>691</v>
       </c>
-      <c r="F26" s="84"/>
+      <c r="F26" s="85"/>
       <c r="G26" s="22">
         <v>25</v>
       </c>
@@ -4237,10 +4258,10 @@
         <v>55</v>
       </c>
       <c r="D27" s="26"/>
-      <c r="E27" s="83" t="s">
+      <c r="E27" s="84" t="s">
         <v>691</v>
       </c>
-      <c r="F27" s="84"/>
+      <c r="F27" s="85"/>
       <c r="G27" s="22">
         <v>26</v>
       </c>
@@ -4274,8 +4295,8 @@
       <c r="B28" s="23"/>
       <c r="C28" s="41"/>
       <c r="D28" s="32"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="88"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="89"/>
       <c r="G28" s="65"/>
       <c r="H28" s="65"/>
       <c r="I28" s="66">
@@ -4305,8 +4326,8 @@
       <c r="B29" s="23"/>
       <c r="C29" s="41"/>
       <c r="D29" s="32"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="88"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="89"/>
       <c r="G29" s="65"/>
       <c r="H29" s="65"/>
       <c r="I29" s="66">
@@ -4342,10 +4363,10 @@
         <v>58</v>
       </c>
       <c r="D30" s="26"/>
-      <c r="E30" s="85" t="s">
+      <c r="E30" s="86" t="s">
         <v>690</v>
       </c>
-      <c r="F30" s="86"/>
+      <c r="F30" s="87"/>
       <c r="G30" s="24">
         <v>1</v>
       </c>
@@ -4385,10 +4406,10 @@
         <v>60</v>
       </c>
       <c r="D31" s="26"/>
-      <c r="E31" s="85" t="s">
+      <c r="E31" s="86" t="s">
         <v>690</v>
       </c>
-      <c r="F31" s="86"/>
+      <c r="F31" s="87"/>
       <c r="G31" s="24">
         <v>2</v>
       </c>
@@ -4430,10 +4451,10 @@
       <c r="D32" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="E32" s="85" t="s">
+      <c r="E32" s="86" t="s">
         <v>690</v>
       </c>
-      <c r="F32" s="86"/>
+      <c r="F32" s="87"/>
       <c r="G32" s="24">
         <v>3</v>
       </c>
@@ -4473,10 +4494,10 @@
         <v>64</v>
       </c>
       <c r="D33" s="26"/>
-      <c r="E33" s="85" t="s">
+      <c r="E33" s="86" t="s">
         <v>690</v>
       </c>
-      <c r="F33" s="86"/>
+      <c r="F33" s="87"/>
       <c r="G33" s="24">
         <v>4</v>
       </c>
@@ -4518,10 +4539,10 @@
       <c r="D34" s="77" t="s">
         <v>701</v>
       </c>
-      <c r="E34" s="85" t="s">
+      <c r="E34" s="86" t="s">
         <v>690</v>
       </c>
-      <c r="F34" s="86"/>
+      <c r="F34" s="87"/>
       <c r="G34" s="24">
         <v>5</v>
       </c>
@@ -4560,11 +4581,13 @@
       <c r="C35" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="77"/>
-      <c r="E35" s="85" t="s">
+      <c r="D35" s="77" t="s">
+        <v>704</v>
+      </c>
+      <c r="E35" s="86" t="s">
         <v>690</v>
       </c>
-      <c r="F35" s="86"/>
+      <c r="F35" s="87"/>
       <c r="G35" s="24">
         <v>6</v>
       </c>
@@ -4603,11 +4626,13 @@
       <c r="C36" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="26"/>
-      <c r="E36" s="85" t="s">
+      <c r="D36" s="26" t="s">
+        <v>705</v>
+      </c>
+      <c r="E36" s="86" t="s">
         <v>690</v>
       </c>
-      <c r="F36" s="86"/>
+      <c r="F36" s="87"/>
       <c r="G36" s="24">
         <v>7</v>
       </c>
@@ -4649,10 +4674,10 @@
       <c r="D37" s="78" t="s">
         <v>702</v>
       </c>
-      <c r="E37" s="85" t="s">
+      <c r="E37" s="86" t="s">
         <v>690</v>
       </c>
-      <c r="F37" s="86"/>
+      <c r="F37" s="87"/>
       <c r="G37" s="24">
         <v>8</v>
       </c>
@@ -4694,10 +4719,10 @@
       <c r="D38" s="78" t="s">
         <v>702</v>
       </c>
-      <c r="E38" s="85" t="s">
+      <c r="E38" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F38" s="86"/>
+      <c r="F38" s="87"/>
       <c r="G38" s="24">
         <v>9</v>
       </c>
@@ -4737,10 +4762,10 @@
         <v>76</v>
       </c>
       <c r="D39" s="26"/>
-      <c r="E39" s="85" t="s">
+      <c r="E39" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F39" s="86"/>
+      <c r="F39" s="87"/>
       <c r="G39" s="24">
         <v>10</v>
       </c>
@@ -4780,10 +4805,10 @@
         <v>78</v>
       </c>
       <c r="D40" s="26"/>
-      <c r="E40" s="85" t="s">
+      <c r="E40" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F40" s="86"/>
+      <c r="F40" s="87"/>
       <c r="G40" s="24">
         <v>11</v>
       </c>
@@ -4823,10 +4848,10 @@
         <v>80</v>
       </c>
       <c r="D41" s="26"/>
-      <c r="E41" s="85" t="s">
+      <c r="E41" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F41" s="86"/>
+      <c r="F41" s="87"/>
       <c r="G41" s="24">
         <v>12</v>
       </c>
@@ -4866,10 +4891,10 @@
         <v>81</v>
       </c>
       <c r="D42" s="26"/>
-      <c r="E42" s="85" t="s">
+      <c r="E42" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F42" s="86"/>
+      <c r="F42" s="87"/>
       <c r="G42" s="24">
         <v>13</v>
       </c>
@@ -4909,10 +4934,10 @@
         <v>83</v>
       </c>
       <c r="D43" s="26"/>
-      <c r="E43" s="85" t="s">
+      <c r="E43" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F43" s="86"/>
+      <c r="F43" s="87"/>
       <c r="G43" s="24">
         <v>14</v>
       </c>
@@ -4952,10 +4977,10 @@
         <v>85</v>
       </c>
       <c r="D44" s="26"/>
-      <c r="E44" s="85" t="s">
+      <c r="E44" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F44" s="86"/>
+      <c r="F44" s="87"/>
       <c r="G44" s="24">
         <v>15</v>
       </c>
@@ -4995,10 +5020,10 @@
         <v>87</v>
       </c>
       <c r="D45" s="26"/>
-      <c r="E45" s="85" t="s">
+      <c r="E45" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F45" s="86"/>
+      <c r="F45" s="87"/>
       <c r="G45" s="24">
         <v>16</v>
       </c>
@@ -5038,10 +5063,10 @@
         <v>89</v>
       </c>
       <c r="D46" s="26"/>
-      <c r="E46" s="85" t="s">
+      <c r="E46" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F46" s="86"/>
+      <c r="F46" s="87"/>
       <c r="G46" s="24">
         <v>17</v>
       </c>
@@ -5081,10 +5106,10 @@
         <v>91</v>
       </c>
       <c r="D47" s="26"/>
-      <c r="E47" s="85" t="s">
+      <c r="E47" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F47" s="86"/>
+      <c r="F47" s="87"/>
       <c r="G47" s="24">
         <v>18</v>
       </c>
@@ -5124,10 +5149,10 @@
         <v>93</v>
       </c>
       <c r="D48" s="26"/>
-      <c r="E48" s="85" t="s">
+      <c r="E48" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F48" s="86"/>
+      <c r="F48" s="87"/>
       <c r="G48" s="24">
         <v>19</v>
       </c>
@@ -5167,10 +5192,10 @@
         <v>95</v>
       </c>
       <c r="D49" s="26"/>
-      <c r="E49" s="85" t="s">
+      <c r="E49" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F49" s="86"/>
+      <c r="F49" s="87"/>
       <c r="G49" s="24">
         <v>20</v>
       </c>
@@ -5210,10 +5235,10 @@
         <v>97</v>
       </c>
       <c r="D50" s="26"/>
-      <c r="E50" s="85" t="s">
+      <c r="E50" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F50" s="86"/>
+      <c r="F50" s="87"/>
       <c r="G50" s="24">
         <v>21</v>
       </c>
@@ -5255,10 +5280,10 @@
       <c r="D51" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="E51" s="85" t="s">
+      <c r="E51" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F51" s="86"/>
+      <c r="F51" s="87"/>
       <c r="G51" s="24">
         <v>22</v>
       </c>
@@ -5292,8 +5317,8 @@
       <c r="B52" s="65"/>
       <c r="C52" s="68"/>
       <c r="D52" s="69"/>
-      <c r="E52" s="89"/>
-      <c r="F52" s="90"/>
+      <c r="E52" s="90"/>
+      <c r="F52" s="91"/>
       <c r="G52" s="65"/>
       <c r="H52" s="65"/>
       <c r="I52" s="66">
@@ -5323,8 +5348,8 @@
       <c r="B53" s="65"/>
       <c r="C53" s="68"/>
       <c r="D53" s="69"/>
-      <c r="E53" s="89"/>
-      <c r="F53" s="90"/>
+      <c r="E53" s="90"/>
+      <c r="F53" s="91"/>
       <c r="G53" s="65"/>
       <c r="H53" s="65"/>
       <c r="I53" s="66">
@@ -5360,10 +5385,10 @@
         <v>102</v>
       </c>
       <c r="D54" s="26"/>
-      <c r="E54" s="85" t="s">
+      <c r="E54" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F54" s="86"/>
+      <c r="F54" s="87"/>
       <c r="G54" s="24">
         <v>1</v>
       </c>
@@ -5403,10 +5428,10 @@
         <v>104</v>
       </c>
       <c r="D55" s="26"/>
-      <c r="E55" s="85" t="s">
+      <c r="E55" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F55" s="86"/>
+      <c r="F55" s="87"/>
       <c r="G55" s="24">
         <v>2</v>
       </c>
@@ -5446,10 +5471,10 @@
         <v>106</v>
       </c>
       <c r="D56" s="26"/>
-      <c r="E56" s="85" t="s">
+      <c r="E56" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F56" s="86"/>
+      <c r="F56" s="87"/>
       <c r="G56" s="24">
         <v>3</v>
       </c>
@@ -5489,10 +5514,10 @@
         <v>108</v>
       </c>
       <c r="D57" s="26"/>
-      <c r="E57" s="85" t="s">
+      <c r="E57" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F57" s="86"/>
+      <c r="F57" s="87"/>
       <c r="G57" s="24">
         <v>4</v>
       </c>
@@ -5532,10 +5557,10 @@
         <v>110</v>
       </c>
       <c r="D58" s="26"/>
-      <c r="E58" s="85" t="s">
+      <c r="E58" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F58" s="86"/>
+      <c r="F58" s="87"/>
       <c r="G58" s="24">
         <v>5</v>
       </c>
@@ -5577,10 +5602,10 @@
       <c r="D59" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="E59" s="85" t="s">
+      <c r="E59" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F59" s="86"/>
+      <c r="F59" s="87"/>
       <c r="G59" s="24">
         <v>6</v>
       </c>
@@ -5620,10 +5645,10 @@
         <v>115</v>
       </c>
       <c r="D60" s="26"/>
-      <c r="E60" s="85" t="s">
+      <c r="E60" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F60" s="86"/>
+      <c r="F60" s="87"/>
       <c r="G60" s="24">
         <v>7</v>
       </c>
@@ -5663,10 +5688,10 @@
         <v>117</v>
       </c>
       <c r="D61" s="26"/>
-      <c r="E61" s="85" t="s">
+      <c r="E61" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F61" s="86"/>
+      <c r="F61" s="87"/>
       <c r="G61" s="24">
         <v>8</v>
       </c>
@@ -5706,10 +5731,10 @@
         <v>119</v>
       </c>
       <c r="D62" s="26"/>
-      <c r="E62" s="85" t="s">
+      <c r="E62" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F62" s="86"/>
+      <c r="F62" s="87"/>
       <c r="G62" s="24">
         <v>9</v>
       </c>
@@ -5749,10 +5774,10 @@
         <v>104</v>
       </c>
       <c r="D63" s="26"/>
-      <c r="E63" s="85" t="s">
+      <c r="E63" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F63" s="86"/>
+      <c r="F63" s="87"/>
       <c r="G63" s="24">
         <v>10</v>
       </c>
@@ -5786,8 +5811,8 @@
       <c r="B64" s="23"/>
       <c r="C64" s="41"/>
       <c r="D64" s="32"/>
-      <c r="E64" s="87"/>
-      <c r="F64" s="88"/>
+      <c r="E64" s="88"/>
+      <c r="F64" s="89"/>
       <c r="G64" s="23"/>
       <c r="H64" s="65"/>
       <c r="I64" s="66">
@@ -5817,8 +5842,8 @@
       <c r="B65" s="23"/>
       <c r="C65" s="41"/>
       <c r="D65" s="32"/>
-      <c r="E65" s="87"/>
-      <c r="F65" s="88"/>
+      <c r="E65" s="88"/>
+      <c r="F65" s="89"/>
       <c r="G65" s="23"/>
       <c r="H65" s="65"/>
       <c r="I65" s="66">
@@ -5854,10 +5879,10 @@
         <v>123</v>
       </c>
       <c r="D66" s="26"/>
-      <c r="E66" s="85" t="s">
+      <c r="E66" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F66" s="86"/>
+      <c r="F66" s="87"/>
       <c r="G66" s="24">
         <v>1</v>
       </c>
@@ -5897,10 +5922,10 @@
         <v>125</v>
       </c>
       <c r="D67" s="26"/>
-      <c r="E67" s="85" t="s">
+      <c r="E67" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F67" s="86"/>
+      <c r="F67" s="87"/>
       <c r="G67" s="24">
         <v>2</v>
       </c>
@@ -5940,10 +5965,10 @@
         <v>117</v>
       </c>
       <c r="D68" s="26"/>
-      <c r="E68" s="85" t="s">
+      <c r="E68" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F68" s="86"/>
+      <c r="F68" s="87"/>
       <c r="G68" s="24">
         <v>3</v>
       </c>
@@ -5983,10 +6008,10 @@
         <v>128</v>
       </c>
       <c r="D69" s="26"/>
-      <c r="E69" s="85" t="s">
+      <c r="E69" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F69" s="86"/>
+      <c r="F69" s="87"/>
       <c r="G69" s="24">
         <v>4</v>
       </c>
@@ -6026,10 +6051,10 @@
         <v>130</v>
       </c>
       <c r="D70" s="26"/>
-      <c r="E70" s="85" t="s">
+      <c r="E70" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F70" s="86"/>
+      <c r="F70" s="87"/>
       <c r="G70" s="24">
         <v>5</v>
       </c>
@@ -6069,10 +6094,10 @@
         <v>132</v>
       </c>
       <c r="D71" s="26"/>
-      <c r="E71" s="85" t="s">
+      <c r="E71" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F71" s="86"/>
+      <c r="F71" s="87"/>
       <c r="G71" s="24">
         <v>6</v>
       </c>
@@ -6112,10 +6137,10 @@
         <v>134</v>
       </c>
       <c r="D72" s="26"/>
-      <c r="E72" s="85" t="s">
+      <c r="E72" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F72" s="86"/>
+      <c r="F72" s="87"/>
       <c r="G72" s="24">
         <v>7</v>
       </c>
@@ -6155,10 +6180,10 @@
         <v>136</v>
       </c>
       <c r="D73" s="26"/>
-      <c r="E73" s="85" t="s">
+      <c r="E73" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F73" s="86"/>
+      <c r="F73" s="87"/>
       <c r="G73" s="24">
         <v>8</v>
       </c>
@@ -6198,10 +6223,10 @@
         <v>138</v>
       </c>
       <c r="D74" s="44"/>
-      <c r="E74" s="85" t="s">
+      <c r="E74" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F74" s="86"/>
+      <c r="F74" s="87"/>
       <c r="G74" s="24">
         <v>9</v>
       </c>
@@ -6241,10 +6266,10 @@
         <v>140</v>
       </c>
       <c r="D75" s="44"/>
-      <c r="E75" s="85" t="s">
+      <c r="E75" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F75" s="86"/>
+      <c r="F75" s="87"/>
       <c r="G75" s="24">
         <v>10</v>
       </c>
@@ -6284,10 +6309,10 @@
         <v>142</v>
       </c>
       <c r="D76" s="26"/>
-      <c r="E76" s="85" t="s">
+      <c r="E76" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F76" s="86"/>
+      <c r="F76" s="87"/>
       <c r="G76" s="24">
         <v>11</v>
       </c>
@@ -6327,10 +6352,10 @@
         <v>144</v>
       </c>
       <c r="D77" s="26"/>
-      <c r="E77" s="85" t="s">
+      <c r="E77" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F77" s="86"/>
+      <c r="F77" s="87"/>
       <c r="G77" s="24">
         <v>12</v>
       </c>
@@ -6370,10 +6395,10 @@
         <v>146</v>
       </c>
       <c r="D78" s="26"/>
-      <c r="E78" s="85" t="s">
+      <c r="E78" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F78" s="86"/>
+      <c r="F78" s="87"/>
       <c r="G78" s="24">
         <v>13</v>
       </c>
@@ -6413,10 +6438,10 @@
         <v>148</v>
       </c>
       <c r="D79" s="26"/>
-      <c r="E79" s="85" t="s">
+      <c r="E79" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F79" s="86"/>
+      <c r="F79" s="87"/>
       <c r="G79" s="24">
         <v>14</v>
       </c>
@@ -6456,10 +6481,10 @@
         <v>47</v>
       </c>
       <c r="D80" s="26"/>
-      <c r="E80" s="85" t="s">
+      <c r="E80" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F80" s="86"/>
+      <c r="F80" s="87"/>
       <c r="G80" s="24">
         <v>15</v>
       </c>
@@ -6499,10 +6524,10 @@
         <v>102</v>
       </c>
       <c r="D81" s="26"/>
-      <c r="E81" s="85" t="s">
+      <c r="E81" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F81" s="86"/>
+      <c r="F81" s="87"/>
       <c r="G81" s="24">
         <v>16</v>
       </c>
@@ -6542,10 +6567,10 @@
         <v>152</v>
       </c>
       <c r="D82" s="26"/>
-      <c r="E82" s="85" t="s">
+      <c r="E82" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F82" s="86"/>
+      <c r="F82" s="87"/>
       <c r="G82" s="24">
         <v>17</v>
       </c>
@@ -6585,10 +6610,10 @@
         <v>154</v>
       </c>
       <c r="D83" s="26"/>
-      <c r="E83" s="85" t="s">
+      <c r="E83" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F83" s="86"/>
+      <c r="F83" s="87"/>
       <c r="G83" s="24">
         <v>18</v>
       </c>
@@ -6628,10 +6653,10 @@
         <v>156</v>
       </c>
       <c r="D84" s="26"/>
-      <c r="E84" s="85" t="s">
+      <c r="E84" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F84" s="86"/>
+      <c r="F84" s="87"/>
       <c r="G84" s="24">
         <v>19</v>
       </c>
@@ -6671,10 +6696,10 @@
         <v>158</v>
       </c>
       <c r="D85" s="26"/>
-      <c r="E85" s="85" t="s">
+      <c r="E85" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F85" s="86"/>
+      <c r="F85" s="87"/>
       <c r="G85" s="24">
         <v>20</v>
       </c>
@@ -6714,10 +6739,10 @@
         <v>160</v>
       </c>
       <c r="D86" s="26"/>
-      <c r="E86" s="85" t="s">
+      <c r="E86" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F86" s="86"/>
+      <c r="F86" s="87"/>
       <c r="G86" s="24">
         <v>21</v>
       </c>
@@ -6757,10 +6782,10 @@
         <v>162</v>
       </c>
       <c r="D87" s="26"/>
-      <c r="E87" s="85" t="s">
+      <c r="E87" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F87" s="86"/>
+      <c r="F87" s="87"/>
       <c r="G87" s="24">
         <v>22</v>
       </c>
@@ -6800,10 +6825,10 @@
         <v>156</v>
       </c>
       <c r="D88" s="26"/>
-      <c r="E88" s="85" t="s">
+      <c r="E88" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F88" s="86"/>
+      <c r="F88" s="87"/>
       <c r="G88" s="24">
         <v>23</v>
       </c>
@@ -6837,8 +6862,8 @@
       <c r="B89" s="23"/>
       <c r="C89" s="41"/>
       <c r="D89" s="32"/>
-      <c r="E89" s="87"/>
-      <c r="F89" s="88"/>
+      <c r="E89" s="88"/>
+      <c r="F89" s="89"/>
       <c r="G89" s="23"/>
       <c r="H89" s="65"/>
       <c r="I89" s="66">
@@ -6868,8 +6893,8 @@
       <c r="B90" s="23"/>
       <c r="C90" s="41"/>
       <c r="D90" s="32"/>
-      <c r="E90" s="87"/>
-      <c r="F90" s="88"/>
+      <c r="E90" s="88"/>
+      <c r="F90" s="89"/>
       <c r="G90" s="23"/>
       <c r="H90" s="65"/>
       <c r="I90" s="66">
@@ -6905,10 +6930,10 @@
         <v>166</v>
       </c>
       <c r="D91" s="26"/>
-      <c r="E91" s="85" t="s">
+      <c r="E91" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F91" s="86"/>
+      <c r="F91" s="87"/>
       <c r="G91" s="24">
         <v>1</v>
       </c>
@@ -6948,10 +6973,10 @@
         <v>168</v>
       </c>
       <c r="D92" s="26"/>
-      <c r="E92" s="85" t="s">
+      <c r="E92" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F92" s="86"/>
+      <c r="F92" s="87"/>
       <c r="G92" s="24">
         <v>2</v>
       </c>
@@ -6991,10 +7016,10 @@
         <v>55</v>
       </c>
       <c r="D93" s="26"/>
-      <c r="E93" s="85" t="s">
+      <c r="E93" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F93" s="86"/>
+      <c r="F93" s="87"/>
       <c r="G93" s="24">
         <v>3</v>
       </c>
@@ -7034,10 +7059,10 @@
         <v>55</v>
       </c>
       <c r="D94" s="26"/>
-      <c r="E94" s="85" t="s">
+      <c r="E94" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F94" s="86"/>
+      <c r="F94" s="87"/>
       <c r="G94" s="24">
         <v>4</v>
       </c>
@@ -7077,10 +7102,10 @@
         <v>172</v>
       </c>
       <c r="D95" s="26"/>
-      <c r="E95" s="85" t="s">
+      <c r="E95" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F95" s="86"/>
+      <c r="F95" s="87"/>
       <c r="G95" s="24">
         <v>5</v>
       </c>
@@ -7120,10 +7145,10 @@
         <v>174</v>
       </c>
       <c r="D96" s="26"/>
-      <c r="E96" s="85" t="s">
+      <c r="E96" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F96" s="86"/>
+      <c r="F96" s="87"/>
       <c r="G96" s="24">
         <v>6</v>
       </c>
@@ -7163,10 +7188,10 @@
         <v>176</v>
       </c>
       <c r="D97" s="26"/>
-      <c r="E97" s="85" t="s">
+      <c r="E97" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F97" s="86"/>
+      <c r="F97" s="87"/>
       <c r="G97" s="24">
         <v>7</v>
       </c>
@@ -7206,10 +7231,10 @@
         <v>47</v>
       </c>
       <c r="D98" s="26"/>
-      <c r="E98" s="85" t="s">
+      <c r="E98" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F98" s="86"/>
+      <c r="F98" s="87"/>
       <c r="G98" s="24">
         <v>8</v>
       </c>
@@ -7249,10 +7274,10 @@
         <v>179</v>
       </c>
       <c r="D99" s="44"/>
-      <c r="E99" s="85" t="s">
+      <c r="E99" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F99" s="86"/>
+      <c r="F99" s="87"/>
       <c r="G99" s="24">
         <v>9</v>
       </c>
@@ -7292,10 +7317,10 @@
         <v>176</v>
       </c>
       <c r="D100" s="44"/>
-      <c r="E100" s="85" t="s">
+      <c r="E100" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F100" s="86"/>
+      <c r="F100" s="87"/>
       <c r="G100" s="24">
         <v>10</v>
       </c>
@@ -7335,10 +7360,10 @@
         <v>182</v>
       </c>
       <c r="D101" s="44"/>
-      <c r="E101" s="85" t="s">
+      <c r="E101" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F101" s="86"/>
+      <c r="F101" s="87"/>
       <c r="G101" s="24">
         <v>11</v>
       </c>
@@ -7376,10 +7401,10 @@
       </c>
       <c r="C102" s="22"/>
       <c r="D102" s="44"/>
-      <c r="E102" s="85" t="s">
+      <c r="E102" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F102" s="86"/>
+      <c r="F102" s="87"/>
       <c r="G102" s="24">
         <v>12</v>
       </c>
@@ -7419,10 +7444,10 @@
         <v>185</v>
       </c>
       <c r="D103" s="44"/>
-      <c r="E103" s="85" t="s">
+      <c r="E103" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F103" s="86"/>
+      <c r="F103" s="87"/>
       <c r="G103" s="24">
         <v>13</v>
       </c>
@@ -7462,10 +7487,10 @@
         <v>185</v>
       </c>
       <c r="D104" s="44"/>
-      <c r="E104" s="85" t="s">
+      <c r="E104" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F104" s="86"/>
+      <c r="F104" s="87"/>
       <c r="G104" s="24">
         <v>14</v>
       </c>
@@ -7505,10 +7530,10 @@
         <v>47</v>
       </c>
       <c r="D105" s="26"/>
-      <c r="E105" s="85" t="s">
+      <c r="E105" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F105" s="86"/>
+      <c r="F105" s="87"/>
       <c r="G105" s="24">
         <v>15</v>
       </c>
@@ -7548,10 +7573,10 @@
         <v>47</v>
       </c>
       <c r="D106" s="26"/>
-      <c r="E106" s="85" t="s">
+      <c r="E106" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F106" s="86"/>
+      <c r="F106" s="87"/>
       <c r="G106" s="24">
         <v>16</v>
       </c>
@@ -7591,10 +7616,10 @@
         <v>190</v>
       </c>
       <c r="D107" s="26"/>
-      <c r="E107" s="85" t="s">
+      <c r="E107" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F107" s="86"/>
+      <c r="F107" s="87"/>
       <c r="G107" s="24">
         <v>17</v>
       </c>
@@ -7634,10 +7659,10 @@
         <v>176</v>
       </c>
       <c r="D108" s="26"/>
-      <c r="E108" s="85" t="s">
+      <c r="E108" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F108" s="86"/>
+      <c r="F108" s="87"/>
       <c r="G108" s="24">
         <v>18</v>
       </c>
@@ -7677,10 +7702,10 @@
         <v>193</v>
       </c>
       <c r="D109" s="44"/>
-      <c r="E109" s="85" t="s">
+      <c r="E109" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F109" s="86"/>
+      <c r="F109" s="87"/>
       <c r="G109" s="24">
         <v>19</v>
       </c>
@@ -7720,10 +7745,10 @@
         <v>195</v>
       </c>
       <c r="D110" s="44"/>
-      <c r="E110" s="85" t="s">
+      <c r="E110" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F110" s="86"/>
+      <c r="F110" s="87"/>
       <c r="G110" s="24">
         <v>20</v>
       </c>
@@ -7763,10 +7788,10 @@
         <v>197</v>
       </c>
       <c r="D111" s="44"/>
-      <c r="E111" s="85" t="s">
+      <c r="E111" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F111" s="86"/>
+      <c r="F111" s="87"/>
       <c r="G111" s="24">
         <v>21</v>
       </c>
@@ -7800,8 +7825,8 @@
       <c r="B112" s="23"/>
       <c r="C112" s="41"/>
       <c r="D112" s="46"/>
-      <c r="E112" s="87"/>
-      <c r="F112" s="88"/>
+      <c r="E112" s="88"/>
+      <c r="F112" s="89"/>
       <c r="G112" s="23"/>
       <c r="H112" s="65"/>
       <c r="I112" s="66">
@@ -7831,8 +7856,8 @@
       <c r="B113" s="23"/>
       <c r="C113" s="41"/>
       <c r="D113" s="46"/>
-      <c r="E113" s="87"/>
-      <c r="F113" s="88"/>
+      <c r="E113" s="88"/>
+      <c r="F113" s="89"/>
       <c r="G113" s="23"/>
       <c r="H113" s="65"/>
       <c r="I113" s="66">
@@ -7868,10 +7893,10 @@
         <v>200</v>
       </c>
       <c r="D114" s="22"/>
-      <c r="E114" s="85" t="s">
+      <c r="E114" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F114" s="86"/>
+      <c r="F114" s="87"/>
       <c r="G114" s="24">
         <v>1</v>
       </c>
@@ -7911,10 +7936,10 @@
         <v>202</v>
       </c>
       <c r="D115" s="22"/>
-      <c r="E115" s="85" t="s">
+      <c r="E115" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F115" s="86"/>
+      <c r="F115" s="87"/>
       <c r="G115" s="24">
         <v>2</v>
       </c>
@@ -7954,10 +7979,10 @@
         <v>204</v>
       </c>
       <c r="D116" s="22"/>
-      <c r="E116" s="85" t="s">
+      <c r="E116" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F116" s="86"/>
+      <c r="F116" s="87"/>
       <c r="G116" s="24">
         <v>3</v>
       </c>
@@ -7997,10 +8022,10 @@
         <v>206</v>
       </c>
       <c r="D117" s="22"/>
-      <c r="E117" s="85" t="s">
+      <c r="E117" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F117" s="86"/>
+      <c r="F117" s="87"/>
       <c r="G117" s="24">
         <v>4</v>
       </c>
@@ -8040,10 +8065,10 @@
         <v>208</v>
       </c>
       <c r="D118" s="22"/>
-      <c r="E118" s="85" t="s">
+      <c r="E118" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F118" s="86"/>
+      <c r="F118" s="87"/>
       <c r="G118" s="24">
         <v>5</v>
       </c>
@@ -8083,10 +8108,10 @@
         <v>210</v>
       </c>
       <c r="D119" s="22"/>
-      <c r="E119" s="85" t="s">
+      <c r="E119" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F119" s="86"/>
+      <c r="F119" s="87"/>
       <c r="G119" s="24">
         <v>6</v>
       </c>
@@ -8126,10 +8151,10 @@
         <v>102</v>
       </c>
       <c r="D120" s="22"/>
-      <c r="E120" s="85" t="s">
+      <c r="E120" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F120" s="86"/>
+      <c r="F120" s="87"/>
       <c r="G120" s="24">
         <v>7</v>
       </c>
@@ -8169,10 +8194,10 @@
         <v>213</v>
       </c>
       <c r="D121" s="22"/>
-      <c r="E121" s="85" t="s">
+      <c r="E121" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F121" s="86"/>
+      <c r="F121" s="87"/>
       <c r="G121" s="24">
         <v>8</v>
       </c>
@@ -8212,10 +8237,10 @@
         <v>215</v>
       </c>
       <c r="D122" s="22"/>
-      <c r="E122" s="85" t="s">
+      <c r="E122" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F122" s="86"/>
+      <c r="F122" s="87"/>
       <c r="G122" s="24">
         <v>9</v>
       </c>
@@ -8255,10 +8280,10 @@
         <v>202</v>
       </c>
       <c r="D123" s="22"/>
-      <c r="E123" s="85" t="s">
+      <c r="E123" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F123" s="86"/>
+      <c r="F123" s="87"/>
       <c r="G123" s="24">
         <v>10</v>
       </c>
@@ -8298,10 +8323,10 @@
         <v>47</v>
       </c>
       <c r="D124" s="22"/>
-      <c r="E124" s="85" t="s">
+      <c r="E124" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F124" s="86"/>
+      <c r="F124" s="87"/>
       <c r="G124" s="24">
         <v>11</v>
       </c>
@@ -8341,10 +8366,10 @@
         <v>219</v>
       </c>
       <c r="D125" s="26"/>
-      <c r="E125" s="85" t="s">
+      <c r="E125" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F125" s="86"/>
+      <c r="F125" s="87"/>
       <c r="G125" s="24">
         <v>12</v>
       </c>
@@ -8384,10 +8409,10 @@
         <v>221</v>
       </c>
       <c r="D126" s="26"/>
-      <c r="E126" s="85" t="s">
+      <c r="E126" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F126" s="86"/>
+      <c r="F126" s="87"/>
       <c r="G126" s="24">
         <v>13</v>
       </c>
@@ -8427,10 +8452,10 @@
         <v>223</v>
       </c>
       <c r="D127" s="26"/>
-      <c r="E127" s="85" t="s">
+      <c r="E127" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F127" s="86"/>
+      <c r="F127" s="87"/>
       <c r="G127" s="24">
         <v>14</v>
       </c>
@@ -8470,10 +8495,10 @@
         <v>47</v>
       </c>
       <c r="D128" s="26"/>
-      <c r="E128" s="85" t="s">
+      <c r="E128" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F128" s="86"/>
+      <c r="F128" s="87"/>
       <c r="G128" s="24">
         <v>15</v>
       </c>
@@ -8513,10 +8538,10 @@
         <v>223</v>
       </c>
       <c r="D129" s="26"/>
-      <c r="E129" s="85" t="s">
+      <c r="E129" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F129" s="86"/>
+      <c r="F129" s="87"/>
       <c r="G129" s="24">
         <v>16</v>
       </c>
@@ -8556,10 +8581,10 @@
         <v>227</v>
       </c>
       <c r="D130" s="26"/>
-      <c r="E130" s="85" t="s">
+      <c r="E130" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F130" s="86"/>
+      <c r="F130" s="87"/>
       <c r="G130" s="24">
         <v>17</v>
       </c>
@@ -8599,10 +8624,10 @@
         <v>229</v>
       </c>
       <c r="D131" s="26"/>
-      <c r="E131" s="85" t="s">
+      <c r="E131" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F131" s="86"/>
+      <c r="F131" s="87"/>
       <c r="G131" s="24">
         <v>18</v>
       </c>
@@ -8642,10 +8667,10 @@
         <v>231</v>
       </c>
       <c r="D132" s="26"/>
-      <c r="E132" s="85" t="s">
+      <c r="E132" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F132" s="86"/>
+      <c r="F132" s="87"/>
       <c r="G132" s="24">
         <v>19</v>
       </c>
@@ -8685,10 +8710,10 @@
         <v>233</v>
       </c>
       <c r="D133" s="26"/>
-      <c r="E133" s="85" t="s">
+      <c r="E133" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F133" s="86"/>
+      <c r="F133" s="87"/>
       <c r="G133" s="24">
         <v>20</v>
       </c>
@@ -8730,10 +8755,10 @@
       <c r="D134" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="E134" s="85" t="s">
+      <c r="E134" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F134" s="86"/>
+      <c r="F134" s="87"/>
       <c r="G134" s="24">
         <v>21</v>
       </c>
@@ -8775,10 +8800,10 @@
       <c r="D135" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="E135" s="85" t="s">
+      <c r="E135" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F135" s="86"/>
+      <c r="F135" s="87"/>
       <c r="G135" s="24">
         <v>22</v>
       </c>
@@ -8818,10 +8843,10 @@
         <v>240</v>
       </c>
       <c r="D136" s="26"/>
-      <c r="E136" s="85" t="s">
+      <c r="E136" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F136" s="86"/>
+      <c r="F136" s="87"/>
       <c r="G136" s="24">
         <v>23</v>
       </c>
@@ -8861,10 +8886,10 @@
         <v>242</v>
       </c>
       <c r="D137" s="26"/>
-      <c r="E137" s="85" t="s">
+      <c r="E137" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F137" s="86"/>
+      <c r="F137" s="87"/>
       <c r="G137" s="24">
         <v>24</v>
       </c>
@@ -8904,10 +8929,10 @@
         <v>244</v>
       </c>
       <c r="D138" s="26"/>
-      <c r="E138" s="85" t="s">
+      <c r="E138" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F138" s="86"/>
+      <c r="F138" s="87"/>
       <c r="G138" s="24">
         <v>25</v>
       </c>
@@ -8947,10 +8972,10 @@
         <v>246</v>
       </c>
       <c r="D139" s="26"/>
-      <c r="E139" s="85" t="s">
+      <c r="E139" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F139" s="86"/>
+      <c r="F139" s="87"/>
       <c r="G139" s="24">
         <v>26</v>
       </c>
@@ -9049,10 +9074,10 @@
         <v>249</v>
       </c>
       <c r="D142" s="26"/>
-      <c r="E142" s="85" t="s">
+      <c r="E142" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F142" s="86"/>
+      <c r="F142" s="87"/>
       <c r="G142" s="24">
         <v>1</v>
       </c>
@@ -9092,10 +9117,10 @@
         <v>251</v>
       </c>
       <c r="D143" s="35"/>
-      <c r="E143" s="85" t="s">
+      <c r="E143" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F143" s="86"/>
+      <c r="F143" s="87"/>
       <c r="G143" s="24">
         <v>2</v>
       </c>
@@ -9135,10 +9160,10 @@
         <v>253</v>
       </c>
       <c r="D144" s="35"/>
-      <c r="E144" s="85" t="s">
+      <c r="E144" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F144" s="86"/>
+      <c r="F144" s="87"/>
       <c r="G144" s="24">
         <v>3</v>
       </c>
@@ -9178,10 +9203,10 @@
         <v>255</v>
       </c>
       <c r="D145" s="35"/>
-      <c r="E145" s="85" t="s">
+      <c r="E145" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F145" s="86"/>
+      <c r="F145" s="87"/>
       <c r="G145" s="24">
         <v>4</v>
       </c>
@@ -9221,10 +9246,10 @@
         <v>257</v>
       </c>
       <c r="D146" s="35"/>
-      <c r="E146" s="85" t="s">
+      <c r="E146" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F146" s="86"/>
+      <c r="F146" s="87"/>
       <c r="G146" s="24">
         <v>5</v>
       </c>
@@ -9264,10 +9289,10 @@
         <v>259</v>
       </c>
       <c r="D147" s="35"/>
-      <c r="E147" s="85" t="s">
+      <c r="E147" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F147" s="86"/>
+      <c r="F147" s="87"/>
       <c r="G147" s="24">
         <v>6</v>
       </c>
@@ -9307,10 +9332,10 @@
         <v>261</v>
       </c>
       <c r="D148" s="35"/>
-      <c r="E148" s="85" t="s">
+      <c r="E148" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F148" s="86"/>
+      <c r="F148" s="87"/>
       <c r="G148" s="24">
         <v>7</v>
       </c>
@@ -9350,10 +9375,10 @@
         <v>263</v>
       </c>
       <c r="D149" s="35"/>
-      <c r="E149" s="85" t="s">
+      <c r="E149" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F149" s="86"/>
+      <c r="F149" s="87"/>
       <c r="G149" s="24">
         <v>8</v>
       </c>
@@ -9393,10 +9418,10 @@
         <v>265</v>
       </c>
       <c r="D150" s="35"/>
-      <c r="E150" s="85" t="s">
+      <c r="E150" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F150" s="86"/>
+      <c r="F150" s="87"/>
       <c r="G150" s="24">
         <v>9</v>
       </c>
@@ -9436,10 +9461,10 @@
         <v>267</v>
       </c>
       <c r="D151" s="44"/>
-      <c r="E151" s="85" t="s">
+      <c r="E151" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F151" s="86"/>
+      <c r="F151" s="87"/>
       <c r="G151" s="24">
         <v>10</v>
       </c>
@@ -9479,10 +9504,10 @@
         <v>269</v>
       </c>
       <c r="D152" s="44"/>
-      <c r="E152" s="85" t="s">
+      <c r="E152" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F152" s="86"/>
+      <c r="F152" s="87"/>
       <c r="G152" s="24">
         <v>11</v>
       </c>
@@ -9522,10 +9547,10 @@
         <v>271</v>
       </c>
       <c r="D153" s="44"/>
-      <c r="E153" s="85" t="s">
+      <c r="E153" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F153" s="86"/>
+      <c r="F153" s="87"/>
       <c r="G153" s="24">
         <v>12</v>
       </c>
@@ -9565,10 +9590,10 @@
         <v>47</v>
       </c>
       <c r="D154" s="44"/>
-      <c r="E154" s="85" t="s">
+      <c r="E154" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F154" s="86"/>
+      <c r="F154" s="87"/>
       <c r="G154" s="24">
         <v>13</v>
       </c>
@@ -9608,10 +9633,10 @@
         <v>274</v>
       </c>
       <c r="D155" s="44"/>
-      <c r="E155" s="85" t="s">
+      <c r="E155" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F155" s="86"/>
+      <c r="F155" s="87"/>
       <c r="G155" s="24">
         <v>14</v>
       </c>
@@ -9651,10 +9676,10 @@
         <v>276</v>
       </c>
       <c r="D156" s="44"/>
-      <c r="E156" s="85" t="s">
+      <c r="E156" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F156" s="86"/>
+      <c r="F156" s="87"/>
       <c r="G156" s="24">
         <v>15</v>
       </c>
@@ -9694,10 +9719,10 @@
         <v>278</v>
       </c>
       <c r="D157" s="44"/>
-      <c r="E157" s="85" t="s">
+      <c r="E157" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F157" s="86"/>
+      <c r="F157" s="87"/>
       <c r="G157" s="24">
         <v>16</v>
       </c>
@@ -9737,10 +9762,10 @@
         <v>271</v>
       </c>
       <c r="D158" s="44"/>
-      <c r="E158" s="85" t="s">
+      <c r="E158" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F158" s="86"/>
+      <c r="F158" s="87"/>
       <c r="G158" s="24">
         <v>17</v>
       </c>
@@ -9780,10 +9805,10 @@
         <v>281</v>
       </c>
       <c r="D159" s="44"/>
-      <c r="E159" s="85" t="s">
+      <c r="E159" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F159" s="86"/>
+      <c r="F159" s="87"/>
       <c r="G159" s="24">
         <v>18</v>
       </c>
@@ -9823,10 +9848,10 @@
         <v>253</v>
       </c>
       <c r="D160" s="44"/>
-      <c r="E160" s="85" t="s">
+      <c r="E160" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F160" s="86"/>
+      <c r="F160" s="87"/>
       <c r="G160" s="24">
         <v>19</v>
       </c>
@@ -9866,10 +9891,10 @@
         <v>284</v>
       </c>
       <c r="D161" s="44"/>
-      <c r="E161" s="85" t="s">
+      <c r="E161" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F161" s="86"/>
+      <c r="F161" s="87"/>
       <c r="G161" s="24">
         <v>20</v>
       </c>
@@ -9909,10 +9934,10 @@
         <v>286</v>
       </c>
       <c r="D162" s="44"/>
-      <c r="E162" s="85" t="s">
+      <c r="E162" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F162" s="86"/>
+      <c r="F162" s="87"/>
       <c r="G162" s="24">
         <v>21</v>
       </c>
@@ -9952,10 +9977,10 @@
         <v>197</v>
       </c>
       <c r="D163" s="44"/>
-      <c r="E163" s="85" t="s">
+      <c r="E163" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F163" s="86"/>
+      <c r="F163" s="87"/>
       <c r="G163" s="24">
         <v>22</v>
       </c>
@@ -9995,10 +10020,10 @@
         <v>278</v>
       </c>
       <c r="D164" s="44"/>
-      <c r="E164" s="85" t="s">
+      <c r="E164" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F164" s="86"/>
+      <c r="F164" s="87"/>
       <c r="G164" s="24">
         <v>23</v>
       </c>
@@ -10038,10 +10063,10 @@
         <v>276</v>
       </c>
       <c r="D165" s="44"/>
-      <c r="E165" s="85" t="s">
+      <c r="E165" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F165" s="86"/>
+      <c r="F165" s="87"/>
       <c r="G165" s="24">
         <v>24</v>
       </c>
@@ -10081,10 +10106,10 @@
         <v>291</v>
       </c>
       <c r="D166" s="44"/>
-      <c r="E166" s="85" t="s">
+      <c r="E166" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F166" s="86"/>
+      <c r="F166" s="87"/>
       <c r="G166" s="24">
         <v>25</v>
       </c>
@@ -10124,10 +10149,10 @@
         <v>293</v>
       </c>
       <c r="D167" s="36"/>
-      <c r="E167" s="85" t="s">
+      <c r="E167" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F167" s="86"/>
+      <c r="F167" s="87"/>
       <c r="G167" s="24">
         <v>26</v>
       </c>
@@ -10167,10 +10192,10 @@
         <v>182</v>
       </c>
       <c r="D168" s="36"/>
-      <c r="E168" s="85" t="s">
+      <c r="E168" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F168" s="86"/>
+      <c r="F168" s="87"/>
       <c r="G168" s="24">
         <v>27</v>
       </c>
@@ -10204,8 +10229,8 @@
       <c r="B169" s="53"/>
       <c r="C169" s="41"/>
       <c r="D169" s="37"/>
-      <c r="E169" s="87"/>
-      <c r="F169" s="88"/>
+      <c r="E169" s="88"/>
+      <c r="F169" s="89"/>
       <c r="G169" s="23"/>
       <c r="H169" s="58"/>
       <c r="I169" s="66">
@@ -10235,8 +10260,8 @@
       <c r="B170" s="23"/>
       <c r="C170" s="41"/>
       <c r="D170" s="32"/>
-      <c r="E170" s="87"/>
-      <c r="F170" s="88"/>
+      <c r="E170" s="88"/>
+      <c r="F170" s="89"/>
       <c r="G170" s="23"/>
       <c r="H170" s="58"/>
       <c r="I170" s="66">
@@ -10272,10 +10297,10 @@
         <v>297</v>
       </c>
       <c r="D171" s="26"/>
-      <c r="E171" s="85" t="s">
+      <c r="E171" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F171" s="86"/>
+      <c r="F171" s="87"/>
       <c r="G171" s="24">
         <v>1</v>
       </c>
@@ -10315,10 +10340,10 @@
         <v>299</v>
       </c>
       <c r="D172" s="26"/>
-      <c r="E172" s="85" t="s">
+      <c r="E172" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F172" s="86"/>
+      <c r="F172" s="87"/>
       <c r="G172" s="24">
         <v>2</v>
       </c>
@@ -10358,10 +10383,10 @@
         <v>115</v>
       </c>
       <c r="D173" s="26"/>
-      <c r="E173" s="85" t="s">
+      <c r="E173" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F173" s="86"/>
+      <c r="F173" s="87"/>
       <c r="G173" s="24">
         <v>3</v>
       </c>
@@ -10401,10 +10426,10 @@
         <v>102</v>
       </c>
       <c r="D174" s="26"/>
-      <c r="E174" s="85" t="s">
+      <c r="E174" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F174" s="86"/>
+      <c r="F174" s="87"/>
       <c r="G174" s="24">
         <v>4</v>
       </c>
@@ -10444,10 +10469,10 @@
         <v>303</v>
       </c>
       <c r="D175" s="26"/>
-      <c r="E175" s="85" t="s">
+      <c r="E175" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F175" s="86"/>
+      <c r="F175" s="87"/>
       <c r="G175" s="24">
         <v>5</v>
       </c>
@@ -10485,10 +10510,10 @@
       </c>
       <c r="C176" s="54"/>
       <c r="D176" s="44"/>
-      <c r="E176" s="85" t="s">
+      <c r="E176" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F176" s="86"/>
+      <c r="F176" s="87"/>
       <c r="G176" s="24">
         <v>6</v>
       </c>
@@ -10528,10 +10553,10 @@
         <v>306</v>
       </c>
       <c r="D177" s="44"/>
-      <c r="E177" s="85" t="s">
+      <c r="E177" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F177" s="86"/>
+      <c r="F177" s="87"/>
       <c r="G177" s="24">
         <v>7</v>
       </c>
@@ -10571,10 +10596,10 @@
         <v>308</v>
       </c>
       <c r="D178" s="44"/>
-      <c r="E178" s="85" t="s">
+      <c r="E178" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F178" s="86"/>
+      <c r="F178" s="87"/>
       <c r="G178" s="24">
         <v>8</v>
       </c>
@@ -10612,10 +10637,10 @@
       </c>
       <c r="C179" s="54"/>
       <c r="D179" s="44"/>
-      <c r="E179" s="85" t="s">
+      <c r="E179" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F179" s="86"/>
+      <c r="F179" s="87"/>
       <c r="G179" s="24">
         <v>9</v>
       </c>
@@ -10655,10 +10680,10 @@
         <v>91</v>
       </c>
       <c r="D180" s="44"/>
-      <c r="E180" s="85" t="s">
+      <c r="E180" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F180" s="86"/>
+      <c r="F180" s="87"/>
       <c r="G180" s="24">
         <v>10</v>
       </c>
@@ -10698,10 +10723,10 @@
         <v>312</v>
       </c>
       <c r="D181" s="44"/>
-      <c r="E181" s="85" t="s">
+      <c r="E181" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F181" s="86"/>
+      <c r="F181" s="87"/>
       <c r="G181" s="24">
         <v>11</v>
       </c>
@@ -10741,10 +10766,10 @@
         <v>314</v>
       </c>
       <c r="D182" s="44"/>
-      <c r="E182" s="85" t="s">
+      <c r="E182" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F182" s="86"/>
+      <c r="F182" s="87"/>
       <c r="G182" s="24">
         <v>12</v>
       </c>
@@ -10784,10 +10809,10 @@
         <v>316</v>
       </c>
       <c r="D183" s="44"/>
-      <c r="E183" s="85" t="s">
+      <c r="E183" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F183" s="86"/>
+      <c r="F183" s="87"/>
       <c r="G183" s="24">
         <v>13</v>
       </c>
@@ -10827,10 +10852,10 @@
         <v>115</v>
       </c>
       <c r="D184" s="44"/>
-      <c r="E184" s="85" t="s">
+      <c r="E184" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F184" s="86"/>
+      <c r="F184" s="87"/>
       <c r="G184" s="24">
         <v>14</v>
       </c>
@@ -10870,10 +10895,10 @@
         <v>47</v>
       </c>
       <c r="D185" s="44"/>
-      <c r="E185" s="85" t="s">
+      <c r="E185" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F185" s="86"/>
+      <c r="F185" s="87"/>
       <c r="G185" s="24">
         <v>15</v>
       </c>
@@ -10913,10 +10938,10 @@
         <v>320</v>
       </c>
       <c r="D186" s="44"/>
-      <c r="E186" s="85" t="s">
+      <c r="E186" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F186" s="86"/>
+      <c r="F186" s="87"/>
       <c r="G186" s="24">
         <v>16</v>
       </c>
@@ -10954,10 +10979,10 @@
       </c>
       <c r="C187" s="22"/>
       <c r="D187" s="44"/>
-      <c r="E187" s="85" t="s">
+      <c r="E187" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F187" s="86"/>
+      <c r="F187" s="87"/>
       <c r="G187" s="24">
         <v>17</v>
       </c>
@@ -10997,10 +11022,10 @@
         <v>323</v>
       </c>
       <c r="D188" s="44"/>
-      <c r="E188" s="85" t="s">
+      <c r="E188" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F188" s="86"/>
+      <c r="F188" s="87"/>
       <c r="G188" s="24">
         <v>18</v>
       </c>
@@ -11040,10 +11065,10 @@
         <v>312</v>
       </c>
       <c r="D189" s="44"/>
-      <c r="E189" s="85" t="s">
+      <c r="E189" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F189" s="86"/>
+      <c r="F189" s="87"/>
       <c r="G189" s="24">
         <v>19</v>
       </c>
@@ -11081,10 +11106,10 @@
       </c>
       <c r="C190" s="22"/>
       <c r="D190" s="44"/>
-      <c r="E190" s="85" t="s">
+      <c r="E190" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F190" s="86"/>
+      <c r="F190" s="87"/>
       <c r="G190" s="24">
         <v>20</v>
       </c>
@@ -11122,10 +11147,10 @@
       </c>
       <c r="C191" s="22"/>
       <c r="D191" s="44"/>
-      <c r="E191" s="85" t="s">
+      <c r="E191" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F191" s="86"/>
+      <c r="F191" s="87"/>
       <c r="G191" s="24">
         <v>21</v>
       </c>
@@ -11165,10 +11190,10 @@
         <v>316</v>
       </c>
       <c r="D192" s="44"/>
-      <c r="E192" s="85" t="s">
+      <c r="E192" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F192" s="86"/>
+      <c r="F192" s="87"/>
       <c r="G192" s="24">
         <v>22</v>
       </c>
@@ -11202,8 +11227,8 @@
       <c r="B193" s="23"/>
       <c r="C193" s="41"/>
       <c r="D193" s="32"/>
-      <c r="E193" s="87"/>
-      <c r="F193" s="88"/>
+      <c r="E193" s="88"/>
+      <c r="F193" s="89"/>
       <c r="G193" s="23"/>
       <c r="H193" s="58"/>
       <c r="I193" s="66">
@@ -11233,8 +11258,8 @@
       <c r="B194" s="23"/>
       <c r="C194" s="41"/>
       <c r="D194" s="32"/>
-      <c r="E194" s="87"/>
-      <c r="F194" s="88"/>
+      <c r="E194" s="88"/>
+      <c r="F194" s="89"/>
       <c r="G194" s="23"/>
       <c r="H194" s="58"/>
       <c r="I194" s="66">
@@ -11270,10 +11295,10 @@
         <v>330</v>
       </c>
       <c r="D195" s="26"/>
-      <c r="E195" s="85" t="s">
+      <c r="E195" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F195" s="86"/>
+      <c r="F195" s="87"/>
       <c r="G195" s="24">
         <v>1</v>
       </c>
@@ -11313,10 +11338,10 @@
         <v>332</v>
       </c>
       <c r="D196" s="26"/>
-      <c r="E196" s="85" t="s">
+      <c r="E196" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F196" s="86"/>
+      <c r="F196" s="87"/>
       <c r="G196" s="24">
         <v>2</v>
       </c>
@@ -11356,10 +11381,10 @@
         <v>334</v>
       </c>
       <c r="D197" s="26"/>
-      <c r="E197" s="85" t="s">
+      <c r="E197" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F197" s="86"/>
+      <c r="F197" s="87"/>
       <c r="G197" s="24">
         <v>3</v>
       </c>
@@ -11399,10 +11424,10 @@
         <v>336</v>
       </c>
       <c r="D198" s="26"/>
-      <c r="E198" s="85" t="s">
+      <c r="E198" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F198" s="86"/>
+      <c r="F198" s="87"/>
       <c r="G198" s="24">
         <v>4</v>
       </c>
@@ -11442,10 +11467,10 @@
         <v>338</v>
       </c>
       <c r="D199" s="26"/>
-      <c r="E199" s="85" t="s">
+      <c r="E199" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F199" s="86"/>
+      <c r="F199" s="87"/>
       <c r="G199" s="24">
         <v>5</v>
       </c>
@@ -11485,10 +11510,10 @@
         <v>340</v>
       </c>
       <c r="D200" s="26"/>
-      <c r="E200" s="85" t="s">
+      <c r="E200" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F200" s="86"/>
+      <c r="F200" s="87"/>
       <c r="G200" s="24">
         <v>6</v>
       </c>
@@ -11528,10 +11553,10 @@
         <v>97</v>
       </c>
       <c r="D201" s="44"/>
-      <c r="E201" s="85" t="s">
+      <c r="E201" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F201" s="86"/>
+      <c r="F201" s="87"/>
       <c r="G201" s="24">
         <v>7</v>
       </c>
@@ -11571,10 +11596,10 @@
         <v>343</v>
       </c>
       <c r="D202" s="44"/>
-      <c r="E202" s="85" t="s">
+      <c r="E202" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F202" s="86"/>
+      <c r="F202" s="87"/>
       <c r="G202" s="24">
         <v>8</v>
       </c>
@@ -11614,10 +11639,10 @@
         <v>345</v>
       </c>
       <c r="D203" s="44"/>
-      <c r="E203" s="85" t="s">
+      <c r="E203" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F203" s="86"/>
+      <c r="F203" s="87"/>
       <c r="G203" s="24">
         <v>9</v>
       </c>
@@ -11657,10 +11682,10 @@
         <v>102</v>
       </c>
       <c r="D204" s="44"/>
-      <c r="E204" s="85" t="s">
+      <c r="E204" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F204" s="86"/>
+      <c r="F204" s="87"/>
       <c r="G204" s="24">
         <v>10</v>
       </c>
@@ -11700,10 +11725,10 @@
         <v>348</v>
       </c>
       <c r="D205" s="44"/>
-      <c r="E205" s="85" t="s">
+      <c r="E205" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F205" s="86"/>
+      <c r="F205" s="87"/>
       <c r="G205" s="24">
         <v>11</v>
       </c>
@@ -11743,10 +11768,10 @@
         <v>350</v>
       </c>
       <c r="D206" s="44"/>
-      <c r="E206" s="85" t="s">
+      <c r="E206" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F206" s="86"/>
+      <c r="F206" s="87"/>
       <c r="G206" s="24">
         <v>12</v>
       </c>
@@ -11786,10 +11811,10 @@
         <v>312</v>
       </c>
       <c r="D207" s="44"/>
-      <c r="E207" s="85" t="s">
+      <c r="E207" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F207" s="86"/>
+      <c r="F207" s="87"/>
       <c r="G207" s="24">
         <v>13</v>
       </c>
@@ -11829,10 +11854,10 @@
         <v>291</v>
       </c>
       <c r="D208" s="44"/>
-      <c r="E208" s="85" t="s">
+      <c r="E208" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F208" s="86"/>
+      <c r="F208" s="87"/>
       <c r="G208" s="24">
         <v>14</v>
       </c>
@@ -11872,10 +11897,10 @@
         <v>354</v>
       </c>
       <c r="D209" s="26"/>
-      <c r="E209" s="85" t="s">
+      <c r="E209" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F209" s="86"/>
+      <c r="F209" s="87"/>
       <c r="G209" s="24">
         <v>15</v>
       </c>
@@ -11915,10 +11940,10 @@
         <v>330</v>
       </c>
       <c r="D210" s="26"/>
-      <c r="E210" s="85" t="s">
+      <c r="E210" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F210" s="86"/>
+      <c r="F210" s="87"/>
       <c r="G210" s="24">
         <v>16</v>
       </c>
@@ -11958,10 +11983,10 @@
         <v>357</v>
       </c>
       <c r="D211" s="26"/>
-      <c r="E211" s="85" t="s">
+      <c r="E211" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F211" s="86"/>
+      <c r="F211" s="87"/>
       <c r="G211" s="24">
         <v>17</v>
       </c>
@@ -12001,10 +12026,10 @@
         <v>359</v>
       </c>
       <c r="D212" s="26"/>
-      <c r="E212" s="85" t="s">
+      <c r="E212" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F212" s="86"/>
+      <c r="F212" s="87"/>
       <c r="G212" s="24">
         <v>18</v>
       </c>
@@ -12044,10 +12069,10 @@
         <v>361</v>
       </c>
       <c r="D213" s="26"/>
-      <c r="E213" s="85" t="s">
+      <c r="E213" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F213" s="86"/>
+      <c r="F213" s="87"/>
       <c r="G213" s="24">
         <v>19</v>
       </c>
@@ -12087,10 +12112,10 @@
         <v>312</v>
       </c>
       <c r="D214" s="26"/>
-      <c r="E214" s="85" t="s">
+      <c r="E214" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F214" s="86"/>
+      <c r="F214" s="87"/>
       <c r="G214" s="24">
         <v>20</v>
       </c>
@@ -12130,10 +12155,10 @@
         <v>364</v>
       </c>
       <c r="D215" s="26"/>
-      <c r="E215" s="85" t="s">
+      <c r="E215" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F215" s="86"/>
+      <c r="F215" s="87"/>
       <c r="G215" s="24">
         <v>21</v>
       </c>
@@ -12173,10 +12198,10 @@
         <v>366</v>
       </c>
       <c r="D216" s="26"/>
-      <c r="E216" s="85" t="s">
+      <c r="E216" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F216" s="86"/>
+      <c r="F216" s="87"/>
       <c r="G216" s="24">
         <v>22</v>
       </c>
@@ -12216,10 +12241,10 @@
         <v>368</v>
       </c>
       <c r="D217" s="26"/>
-      <c r="E217" s="85" t="s">
+      <c r="E217" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F217" s="86"/>
+      <c r="F217" s="87"/>
       <c r="G217" s="24">
         <v>23</v>
       </c>
@@ -12259,10 +12284,10 @@
         <v>115</v>
       </c>
       <c r="D218" s="26"/>
-      <c r="E218" s="85" t="s">
+      <c r="E218" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F218" s="86"/>
+      <c r="F218" s="87"/>
       <c r="G218" s="24">
         <v>24</v>
       </c>
@@ -12302,10 +12327,10 @@
         <v>371</v>
       </c>
       <c r="D219" s="26"/>
-      <c r="E219" s="85" t="s">
+      <c r="E219" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F219" s="86"/>
+      <c r="F219" s="87"/>
       <c r="G219" s="24">
         <v>25</v>
       </c>
@@ -12345,10 +12370,10 @@
         <v>373</v>
       </c>
       <c r="D220" s="26"/>
-      <c r="E220" s="85" t="s">
+      <c r="E220" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F220" s="86"/>
+      <c r="F220" s="87"/>
       <c r="G220" s="24">
         <v>26</v>
       </c>
@@ -12388,10 +12413,10 @@
         <v>375</v>
       </c>
       <c r="D221" s="26"/>
-      <c r="E221" s="85" t="s">
+      <c r="E221" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F221" s="86"/>
+      <c r="F221" s="87"/>
       <c r="G221" s="24">
         <v>27</v>
       </c>
@@ -12431,10 +12456,10 @@
         <v>377</v>
       </c>
       <c r="D222" s="26"/>
-      <c r="E222" s="85" t="s">
+      <c r="E222" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F222" s="86"/>
+      <c r="F222" s="87"/>
       <c r="G222" s="24">
         <v>28</v>
       </c>
@@ -12474,10 +12499,10 @@
         <v>379</v>
       </c>
       <c r="D223" s="26"/>
-      <c r="E223" s="85" t="s">
+      <c r="E223" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F223" s="86"/>
+      <c r="F223" s="87"/>
       <c r="G223" s="24">
         <v>29</v>
       </c>
@@ -12517,10 +12542,10 @@
         <v>381</v>
       </c>
       <c r="D224" s="26"/>
-      <c r="E224" s="85" t="s">
+      <c r="E224" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F224" s="86"/>
+      <c r="F224" s="87"/>
       <c r="G224" s="24">
         <v>30</v>
       </c>
@@ -12560,10 +12585,10 @@
         <v>383</v>
       </c>
       <c r="D225" s="26"/>
-      <c r="E225" s="85" t="s">
+      <c r="E225" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F225" s="86"/>
+      <c r="F225" s="87"/>
       <c r="G225" s="24">
         <v>31</v>
       </c>
@@ -12603,10 +12628,10 @@
         <v>385</v>
       </c>
       <c r="D226" s="26"/>
-      <c r="E226" s="85" t="s">
+      <c r="E226" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F226" s="86"/>
+      <c r="F226" s="87"/>
       <c r="G226" s="24">
         <v>32</v>
       </c>
@@ -12646,10 +12671,10 @@
         <v>387</v>
       </c>
       <c r="D227" s="26"/>
-      <c r="E227" s="85" t="s">
+      <c r="E227" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F227" s="86"/>
+      <c r="F227" s="87"/>
       <c r="G227" s="24">
         <v>33</v>
       </c>
@@ -12683,8 +12708,8 @@
       <c r="B228" s="23"/>
       <c r="C228" s="41"/>
       <c r="D228" s="32"/>
-      <c r="E228" s="87"/>
-      <c r="F228" s="88"/>
+      <c r="E228" s="88"/>
+      <c r="F228" s="89"/>
       <c r="G228" s="23"/>
       <c r="H228" s="58"/>
       <c r="I228" s="66">
@@ -12714,8 +12739,8 @@
       <c r="B229" s="23"/>
       <c r="C229" s="41"/>
       <c r="D229" s="32"/>
-      <c r="E229" s="87"/>
-      <c r="F229" s="88"/>
+      <c r="E229" s="88"/>
+      <c r="F229" s="89"/>
       <c r="G229" s="23"/>
       <c r="H229" s="58"/>
       <c r="I229" s="66">
@@ -12751,10 +12776,10 @@
         <v>390</v>
       </c>
       <c r="D230" s="26"/>
-      <c r="E230" s="85" t="s">
+      <c r="E230" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F230" s="86"/>
+      <c r="F230" s="87"/>
       <c r="G230" s="24">
         <v>1</v>
       </c>
@@ -12794,10 +12819,10 @@
         <v>392</v>
       </c>
       <c r="D231" s="26"/>
-      <c r="E231" s="85" t="s">
+      <c r="E231" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F231" s="86"/>
+      <c r="F231" s="87"/>
       <c r="G231" s="24">
         <v>2</v>
       </c>
@@ -12837,10 +12862,10 @@
         <v>91</v>
       </c>
       <c r="D232" s="26"/>
-      <c r="E232" s="85" t="s">
+      <c r="E232" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F232" s="86"/>
+      <c r="F232" s="87"/>
       <c r="G232" s="24">
         <v>3</v>
       </c>
@@ -12880,10 +12905,10 @@
         <v>395</v>
       </c>
       <c r="D233" s="22"/>
-      <c r="E233" s="85" t="s">
+      <c r="E233" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F233" s="86"/>
+      <c r="F233" s="87"/>
       <c r="G233" s="24">
         <v>4</v>
       </c>
@@ -12923,10 +12948,10 @@
         <v>223</v>
       </c>
       <c r="D234" s="22"/>
-      <c r="E234" s="85" t="s">
+      <c r="E234" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F234" s="86"/>
+      <c r="F234" s="87"/>
       <c r="G234" s="24">
         <v>5</v>
       </c>
@@ -12966,10 +12991,10 @@
         <v>398</v>
       </c>
       <c r="D235" s="22"/>
-      <c r="E235" s="85" t="s">
+      <c r="E235" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F235" s="86"/>
+      <c r="F235" s="87"/>
       <c r="G235" s="24">
         <v>6</v>
       </c>
@@ -13009,10 +13034,10 @@
         <v>400</v>
       </c>
       <c r="D236" s="22"/>
-      <c r="E236" s="85" t="s">
+      <c r="E236" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F236" s="86"/>
+      <c r="F236" s="87"/>
       <c r="G236" s="24">
         <v>7</v>
       </c>
@@ -13052,10 +13077,10 @@
         <v>402</v>
       </c>
       <c r="D237" s="22"/>
-      <c r="E237" s="85" t="s">
+      <c r="E237" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F237" s="86"/>
+      <c r="F237" s="87"/>
       <c r="G237" s="24">
         <v>8</v>
       </c>
@@ -13095,10 +13120,10 @@
         <v>404</v>
       </c>
       <c r="D238" s="22"/>
-      <c r="E238" s="85" t="s">
+      <c r="E238" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F238" s="86"/>
+      <c r="F238" s="87"/>
       <c r="G238" s="24">
         <v>9</v>
       </c>
@@ -13138,10 +13163,10 @@
         <v>406</v>
       </c>
       <c r="D239" s="22"/>
-      <c r="E239" s="85" t="s">
+      <c r="E239" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F239" s="86"/>
+      <c r="F239" s="87"/>
       <c r="G239" s="24">
         <v>10</v>
       </c>
@@ -13181,10 +13206,10 @@
         <v>91</v>
       </c>
       <c r="D240" s="22"/>
-      <c r="E240" s="85" t="s">
+      <c r="E240" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F240" s="86"/>
+      <c r="F240" s="87"/>
       <c r="G240" s="24">
         <v>11</v>
       </c>
@@ -13224,10 +13249,10 @@
         <v>409</v>
       </c>
       <c r="D241" s="22"/>
-      <c r="E241" s="85" t="s">
+      <c r="E241" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F241" s="86"/>
+      <c r="F241" s="87"/>
       <c r="G241" s="24">
         <v>12</v>
       </c>
@@ -13267,10 +13292,10 @@
         <v>411</v>
       </c>
       <c r="D242" s="22"/>
-      <c r="E242" s="85" t="s">
+      <c r="E242" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F242" s="86"/>
+      <c r="F242" s="87"/>
       <c r="G242" s="24">
         <v>13</v>
       </c>
@@ -13310,10 +13335,10 @@
         <v>413</v>
       </c>
       <c r="D243" s="22"/>
-      <c r="E243" s="85" t="s">
+      <c r="E243" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F243" s="86"/>
+      <c r="F243" s="87"/>
       <c r="G243" s="24">
         <v>14</v>
       </c>
@@ -13353,10 +13378,10 @@
         <v>238</v>
       </c>
       <c r="D244" s="22"/>
-      <c r="E244" s="85" t="s">
+      <c r="E244" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F244" s="86"/>
+      <c r="F244" s="87"/>
       <c r="G244" s="24">
         <v>15</v>
       </c>
@@ -13396,10 +13421,10 @@
         <v>361</v>
       </c>
       <c r="D245" s="22"/>
-      <c r="E245" s="85" t="s">
+      <c r="E245" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F245" s="86"/>
+      <c r="F245" s="87"/>
       <c r="G245" s="24">
         <v>16</v>
       </c>
@@ -13439,10 +13464,10 @@
         <v>123</v>
       </c>
       <c r="D246" s="22"/>
-      <c r="E246" s="85" t="s">
+      <c r="E246" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F246" s="86"/>
+      <c r="F246" s="87"/>
       <c r="G246" s="24">
         <v>17</v>
       </c>
@@ -13482,10 +13507,10 @@
         <v>123</v>
       </c>
       <c r="D247" s="22"/>
-      <c r="E247" s="85" t="s">
+      <c r="E247" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F247" s="86"/>
+      <c r="F247" s="87"/>
       <c r="G247" s="24">
         <v>18</v>
       </c>
@@ -13525,10 +13550,10 @@
         <v>419</v>
       </c>
       <c r="D248" s="22"/>
-      <c r="E248" s="85" t="s">
+      <c r="E248" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F248" s="86"/>
+      <c r="F248" s="87"/>
       <c r="G248" s="24">
         <v>19</v>
       </c>
@@ -13568,10 +13593,10 @@
         <v>102</v>
       </c>
       <c r="D249" s="26"/>
-      <c r="E249" s="85" t="s">
+      <c r="E249" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F249" s="86"/>
+      <c r="F249" s="87"/>
       <c r="G249" s="24">
         <v>20</v>
       </c>
@@ -13613,10 +13638,10 @@
       <c r="D250" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="E250" s="85" t="s">
+      <c r="E250" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F250" s="86"/>
+      <c r="F250" s="87"/>
       <c r="G250" s="24">
         <v>21</v>
       </c>
@@ -13650,8 +13675,8 @@
       <c r="B251" s="23"/>
       <c r="C251" s="41"/>
       <c r="D251" s="32"/>
-      <c r="E251" s="87"/>
-      <c r="F251" s="88"/>
+      <c r="E251" s="88"/>
+      <c r="F251" s="89"/>
       <c r="G251" s="23"/>
       <c r="H251" s="58"/>
       <c r="I251" s="66">
@@ -13681,8 +13706,8 @@
       <c r="B252" s="23"/>
       <c r="C252" s="41"/>
       <c r="D252" s="32"/>
-      <c r="E252" s="87"/>
-      <c r="F252" s="88"/>
+      <c r="E252" s="88"/>
+      <c r="F252" s="89"/>
       <c r="G252" s="23"/>
       <c r="H252" s="58"/>
       <c r="I252" s="66">
@@ -13716,10 +13741,10 @@
       </c>
       <c r="C253" s="22"/>
       <c r="D253" s="26"/>
-      <c r="E253" s="85" t="s">
+      <c r="E253" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F253" s="86"/>
+      <c r="F253" s="87"/>
       <c r="G253" s="24">
         <v>1</v>
       </c>
@@ -13759,10 +13784,10 @@
         <v>160</v>
       </c>
       <c r="D254" s="35"/>
-      <c r="E254" s="85" t="s">
+      <c r="E254" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F254" s="86"/>
+      <c r="F254" s="87"/>
       <c r="G254" s="24">
         <v>2</v>
       </c>
@@ -13802,10 +13827,10 @@
         <v>312</v>
       </c>
       <c r="D255" s="35"/>
-      <c r="E255" s="85" t="s">
+      <c r="E255" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F255" s="86"/>
+      <c r="F255" s="87"/>
       <c r="G255" s="24">
         <v>3</v>
       </c>
@@ -13845,10 +13870,10 @@
         <v>28</v>
       </c>
       <c r="D256" s="35"/>
-      <c r="E256" s="85" t="s">
+      <c r="E256" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F256" s="86"/>
+      <c r="F256" s="87"/>
       <c r="G256" s="24">
         <v>4</v>
       </c>
@@ -13888,10 +13913,10 @@
         <v>429</v>
       </c>
       <c r="D257" s="35"/>
-      <c r="E257" s="85" t="s">
+      <c r="E257" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F257" s="86"/>
+      <c r="F257" s="87"/>
       <c r="G257" s="24">
         <v>5</v>
       </c>
@@ -13931,10 +13956,10 @@
         <v>13</v>
       </c>
       <c r="D258" s="35"/>
-      <c r="E258" s="85" t="s">
+      <c r="E258" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F258" s="86"/>
+      <c r="F258" s="87"/>
       <c r="G258" s="24">
         <v>6</v>
       </c>
@@ -13974,10 +13999,10 @@
         <v>432</v>
       </c>
       <c r="D259" s="35"/>
-      <c r="E259" s="85" t="s">
+      <c r="E259" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F259" s="86"/>
+      <c r="F259" s="87"/>
       <c r="G259" s="24">
         <v>7</v>
       </c>
@@ -14017,10 +14042,10 @@
         <v>13</v>
       </c>
       <c r="D260" s="35"/>
-      <c r="E260" s="85" t="s">
+      <c r="E260" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F260" s="86"/>
+      <c r="F260" s="87"/>
       <c r="G260" s="24">
         <v>8</v>
       </c>
@@ -14060,10 +14085,10 @@
         <v>435</v>
       </c>
       <c r="D261" s="35"/>
-      <c r="E261" s="85" t="s">
+      <c r="E261" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F261" s="86"/>
+      <c r="F261" s="87"/>
       <c r="G261" s="24">
         <v>9</v>
       </c>
@@ -14103,10 +14128,10 @@
         <v>437</v>
       </c>
       <c r="D262" s="35"/>
-      <c r="E262" s="85" t="s">
+      <c r="E262" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F262" s="86"/>
+      <c r="F262" s="87"/>
       <c r="G262" s="24">
         <v>10</v>
       </c>
@@ -14146,10 +14171,10 @@
         <v>439</v>
       </c>
       <c r="D263" s="35"/>
-      <c r="E263" s="85" t="s">
+      <c r="E263" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F263" s="86"/>
+      <c r="F263" s="87"/>
       <c r="G263" s="24">
         <v>11</v>
       </c>
@@ -14189,10 +14214,10 @@
         <v>441</v>
       </c>
       <c r="D264" s="35"/>
-      <c r="E264" s="85" t="s">
+      <c r="E264" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F264" s="86"/>
+      <c r="F264" s="87"/>
       <c r="G264" s="24">
         <v>12</v>
       </c>
@@ -14232,10 +14257,10 @@
         <v>443</v>
       </c>
       <c r="D265" s="35"/>
-      <c r="E265" s="85" t="s">
+      <c r="E265" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F265" s="86"/>
+      <c r="F265" s="87"/>
       <c r="G265" s="24">
         <v>13</v>
       </c>
@@ -14275,10 +14300,10 @@
         <v>445</v>
       </c>
       <c r="D266" s="35"/>
-      <c r="E266" s="85" t="s">
+      <c r="E266" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F266" s="86"/>
+      <c r="F266" s="87"/>
       <c r="G266" s="24">
         <v>14</v>
       </c>
@@ -14318,10 +14343,10 @@
         <v>354</v>
       </c>
       <c r="D267" s="35"/>
-      <c r="E267" s="85" t="s">
+      <c r="E267" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F267" s="86"/>
+      <c r="F267" s="87"/>
       <c r="G267" s="24">
         <v>15</v>
       </c>
@@ -14361,10 +14386,10 @@
         <v>448</v>
       </c>
       <c r="D268" s="35"/>
-      <c r="E268" s="85" t="s">
+      <c r="E268" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F268" s="86"/>
+      <c r="F268" s="87"/>
       <c r="G268" s="24">
         <v>16</v>
       </c>
@@ -14404,10 +14429,10 @@
         <v>443</v>
       </c>
       <c r="D269" s="35"/>
-      <c r="E269" s="85" t="s">
+      <c r="E269" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F269" s="86"/>
+      <c r="F269" s="87"/>
       <c r="G269" s="24">
         <v>17</v>
       </c>
@@ -14447,10 +14472,10 @@
         <v>451</v>
       </c>
       <c r="D270" s="35"/>
-      <c r="E270" s="85" t="s">
+      <c r="E270" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F270" s="86"/>
+      <c r="F270" s="87"/>
       <c r="G270" s="24">
         <v>18</v>
       </c>
@@ -14490,10 +14515,10 @@
         <v>453</v>
       </c>
       <c r="D271" s="44"/>
-      <c r="E271" s="85" t="s">
+      <c r="E271" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F271" s="86"/>
+      <c r="F271" s="87"/>
       <c r="G271" s="24">
         <v>19</v>
       </c>
@@ -14533,10 +14558,10 @@
         <v>455</v>
       </c>
       <c r="D272" s="44"/>
-      <c r="E272" s="85" t="s">
+      <c r="E272" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F272" s="86"/>
+      <c r="F272" s="87"/>
       <c r="G272" s="24">
         <v>20</v>
       </c>
@@ -14576,10 +14601,10 @@
         <v>457</v>
       </c>
       <c r="D273" s="44"/>
-      <c r="E273" s="85" t="s">
+      <c r="E273" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F273" s="86"/>
+      <c r="F273" s="87"/>
       <c r="G273" s="24">
         <v>21</v>
       </c>
@@ -14619,10 +14644,10 @@
         <v>459</v>
       </c>
       <c r="D274" s="44"/>
-      <c r="E274" s="85" t="s">
+      <c r="E274" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F274" s="86"/>
+      <c r="F274" s="87"/>
       <c r="G274" s="24">
         <v>22</v>
       </c>
@@ -14662,10 +14687,10 @@
         <v>58</v>
       </c>
       <c r="D275" s="44"/>
-      <c r="E275" s="85" t="s">
+      <c r="E275" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F275" s="86"/>
+      <c r="F275" s="87"/>
       <c r="G275" s="24">
         <v>23</v>
       </c>
@@ -14705,10 +14730,10 @@
         <v>462</v>
       </c>
       <c r="D276" s="44"/>
-      <c r="E276" s="85" t="s">
+      <c r="E276" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F276" s="86"/>
+      <c r="F276" s="87"/>
       <c r="G276" s="24">
         <v>24</v>
       </c>
@@ -14748,10 +14773,10 @@
         <v>457</v>
       </c>
       <c r="D277" s="44"/>
-      <c r="E277" s="85" t="s">
+      <c r="E277" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F277" s="86"/>
+      <c r="F277" s="87"/>
       <c r="G277" s="24">
         <v>25</v>
       </c>
@@ -14791,10 +14816,10 @@
         <v>443</v>
       </c>
       <c r="D278" s="44"/>
-      <c r="E278" s="85" t="s">
+      <c r="E278" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F278" s="86"/>
+      <c r="F278" s="87"/>
       <c r="G278" s="24">
         <v>26</v>
       </c>
@@ -14834,10 +14859,10 @@
         <v>466</v>
       </c>
       <c r="D279" s="44"/>
-      <c r="E279" s="85" t="s">
+      <c r="E279" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F279" s="86"/>
+      <c r="F279" s="87"/>
       <c r="G279" s="24">
         <v>27</v>
       </c>
@@ -14877,10 +14902,10 @@
         <v>102</v>
       </c>
       <c r="D280" s="44"/>
-      <c r="E280" s="85" t="s">
+      <c r="E280" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F280" s="86"/>
+      <c r="F280" s="87"/>
       <c r="G280" s="24">
         <v>28</v>
       </c>
@@ -14914,8 +14939,8 @@
       <c r="B281" s="23"/>
       <c r="C281" s="41"/>
       <c r="D281" s="46"/>
-      <c r="E281" s="87"/>
-      <c r="F281" s="88"/>
+      <c r="E281" s="88"/>
+      <c r="F281" s="89"/>
       <c r="G281" s="23"/>
       <c r="H281" s="58"/>
       <c r="I281" s="66">
@@ -14945,8 +14970,8 @@
       <c r="B282" s="23"/>
       <c r="C282" s="41"/>
       <c r="D282" s="32"/>
-      <c r="E282" s="87"/>
-      <c r="F282" s="88"/>
+      <c r="E282" s="88"/>
+      <c r="F282" s="89"/>
       <c r="G282" s="23"/>
       <c r="H282" s="58"/>
       <c r="I282" s="66">
@@ -14982,10 +15007,10 @@
         <v>470</v>
       </c>
       <c r="D283" s="36"/>
-      <c r="E283" s="85" t="s">
+      <c r="E283" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F283" s="86"/>
+      <c r="F283" s="87"/>
       <c r="G283" s="24">
         <v>1</v>
       </c>
@@ -15025,10 +15050,10 @@
         <v>472</v>
       </c>
       <c r="D284" s="36"/>
-      <c r="E284" s="85" t="s">
+      <c r="E284" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F284" s="86"/>
+      <c r="F284" s="87"/>
       <c r="G284" s="24">
         <v>2</v>
       </c>
@@ -15068,10 +15093,10 @@
         <v>474</v>
       </c>
       <c r="D285" s="36"/>
-      <c r="E285" s="85" t="s">
+      <c r="E285" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F285" s="86"/>
+      <c r="F285" s="87"/>
       <c r="G285" s="24">
         <v>3</v>
       </c>
@@ -15111,10 +15136,10 @@
         <v>179</v>
       </c>
       <c r="D286" s="36"/>
-      <c r="E286" s="85" t="s">
+      <c r="E286" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F286" s="86"/>
+      <c r="F286" s="87"/>
       <c r="G286" s="24">
         <v>4</v>
       </c>
@@ -15154,10 +15179,10 @@
         <v>477</v>
       </c>
       <c r="D287" s="36"/>
-      <c r="E287" s="85" t="s">
+      <c r="E287" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F287" s="86"/>
+      <c r="F287" s="87"/>
       <c r="G287" s="24">
         <v>5</v>
       </c>
@@ -15197,10 +15222,10 @@
         <v>123</v>
       </c>
       <c r="D288" s="36"/>
-      <c r="E288" s="85" t="s">
+      <c r="E288" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F288" s="86"/>
+      <c r="F288" s="87"/>
       <c r="G288" s="24">
         <v>6</v>
       </c>
@@ -15240,10 +15265,10 @@
         <v>480</v>
       </c>
       <c r="D289" s="36"/>
-      <c r="E289" s="85" t="s">
+      <c r="E289" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F289" s="86"/>
+      <c r="F289" s="87"/>
       <c r="G289" s="24">
         <v>7</v>
       </c>
@@ -15283,10 +15308,10 @@
         <v>482</v>
       </c>
       <c r="D290" s="36"/>
-      <c r="E290" s="85" t="s">
+      <c r="E290" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F290" s="86"/>
+      <c r="F290" s="87"/>
       <c r="G290" s="24">
         <v>8</v>
       </c>
@@ -15326,10 +15351,10 @@
         <v>484</v>
       </c>
       <c r="D291" s="36"/>
-      <c r="E291" s="85" t="s">
+      <c r="E291" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F291" s="86"/>
+      <c r="F291" s="87"/>
       <c r="G291" s="24">
         <v>9</v>
       </c>
@@ -15369,10 +15394,10 @@
         <v>482</v>
       </c>
       <c r="D292" s="36"/>
-      <c r="E292" s="85" t="s">
+      <c r="E292" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F292" s="86"/>
+      <c r="F292" s="87"/>
       <c r="G292" s="24">
         <v>10</v>
       </c>
@@ -15412,10 +15437,10 @@
         <v>487</v>
       </c>
       <c r="D293" s="36"/>
-      <c r="E293" s="85" t="s">
+      <c r="E293" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F293" s="86"/>
+      <c r="F293" s="87"/>
       <c r="G293" s="24">
         <v>11</v>
       </c>
@@ -15455,10 +15480,10 @@
         <v>489</v>
       </c>
       <c r="D294" s="36"/>
-      <c r="E294" s="85" t="s">
+      <c r="E294" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F294" s="86"/>
+      <c r="F294" s="87"/>
       <c r="G294" s="24">
         <v>12</v>
       </c>
@@ -15498,10 +15523,10 @@
         <v>480</v>
       </c>
       <c r="D295" s="36"/>
-      <c r="E295" s="85" t="s">
+      <c r="E295" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F295" s="86"/>
+      <c r="F295" s="87"/>
       <c r="G295" s="24">
         <v>13</v>
       </c>
@@ -15541,10 +15566,10 @@
         <v>47</v>
       </c>
       <c r="D296" s="36"/>
-      <c r="E296" s="85" t="s">
+      <c r="E296" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F296" s="86"/>
+      <c r="F296" s="87"/>
       <c r="G296" s="24">
         <v>14</v>
       </c>
@@ -15584,10 +15609,10 @@
         <v>493</v>
       </c>
       <c r="D297" s="36"/>
-      <c r="E297" s="85" t="s">
+      <c r="E297" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F297" s="86"/>
+      <c r="F297" s="87"/>
       <c r="G297" s="24">
         <v>15</v>
       </c>
@@ -15627,10 +15652,10 @@
         <v>495</v>
       </c>
       <c r="D298" s="36"/>
-      <c r="E298" s="85" t="s">
+      <c r="E298" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F298" s="86"/>
+      <c r="F298" s="87"/>
       <c r="G298" s="24">
         <v>16</v>
       </c>
@@ -15670,10 +15695,10 @@
         <v>271</v>
       </c>
       <c r="D299" s="36"/>
-      <c r="E299" s="85" t="s">
+      <c r="E299" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F299" s="86"/>
+      <c r="F299" s="87"/>
       <c r="G299" s="24">
         <v>17</v>
       </c>
@@ -15713,10 +15738,10 @@
         <v>47</v>
       </c>
       <c r="D300" s="36"/>
-      <c r="E300" s="85" t="s">
+      <c r="E300" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F300" s="86"/>
+      <c r="F300" s="87"/>
       <c r="G300" s="24">
         <v>18</v>
       </c>
@@ -15756,10 +15781,10 @@
         <v>498</v>
       </c>
       <c r="D301" s="36"/>
-      <c r="E301" s="85" t="s">
+      <c r="E301" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F301" s="86"/>
+      <c r="F301" s="87"/>
       <c r="G301" s="24">
         <v>19</v>
       </c>
@@ -15799,10 +15824,10 @@
         <v>231</v>
       </c>
       <c r="D302" s="36"/>
-      <c r="E302" s="85" t="s">
+      <c r="E302" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F302" s="86"/>
+      <c r="F302" s="87"/>
       <c r="G302" s="24">
         <v>20</v>
       </c>
@@ -15842,10 +15867,10 @@
         <v>501</v>
       </c>
       <c r="D303" s="36"/>
-      <c r="E303" s="85" t="s">
+      <c r="E303" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F303" s="86"/>
+      <c r="F303" s="87"/>
       <c r="G303" s="24">
         <v>21</v>
       </c>
@@ -15885,10 +15910,10 @@
         <v>503</v>
       </c>
       <c r="D304" s="36"/>
-      <c r="E304" s="85" t="s">
+      <c r="E304" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F304" s="86"/>
+      <c r="F304" s="87"/>
       <c r="G304" s="24">
         <v>22</v>
       </c>
@@ -15928,10 +15953,10 @@
         <v>505</v>
       </c>
       <c r="D305" s="36"/>
-      <c r="E305" s="85" t="s">
+      <c r="E305" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F305" s="86"/>
+      <c r="F305" s="87"/>
       <c r="G305" s="24">
         <v>23</v>
       </c>
@@ -15971,10 +15996,10 @@
         <v>507</v>
       </c>
       <c r="D306" s="36"/>
-      <c r="E306" s="85" t="s">
+      <c r="E306" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F306" s="86"/>
+      <c r="F306" s="87"/>
       <c r="G306" s="24">
         <v>24</v>
       </c>
@@ -16014,10 +16039,10 @@
         <v>182</v>
       </c>
       <c r="D307" s="36"/>
-      <c r="E307" s="85" t="s">
+      <c r="E307" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F307" s="86"/>
+      <c r="F307" s="87"/>
       <c r="G307" s="24">
         <v>25</v>
       </c>
@@ -16057,10 +16082,10 @@
         <v>509</v>
       </c>
       <c r="D308" s="36"/>
-      <c r="E308" s="85" t="s">
+      <c r="E308" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F308" s="86"/>
+      <c r="F308" s="87"/>
       <c r="G308" s="24">
         <v>26</v>
       </c>
@@ -16100,10 +16125,10 @@
         <v>511</v>
       </c>
       <c r="D309" s="36"/>
-      <c r="E309" s="85" t="s">
+      <c r="E309" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F309" s="86"/>
+      <c r="F309" s="87"/>
       <c r="G309" s="24">
         <v>27</v>
       </c>
@@ -16143,10 +16168,10 @@
         <v>480</v>
       </c>
       <c r="D310" s="36"/>
-      <c r="E310" s="85" t="s">
+      <c r="E310" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F310" s="86"/>
+      <c r="F310" s="87"/>
       <c r="G310" s="24">
         <v>28</v>
       </c>
@@ -16186,10 +16211,10 @@
         <v>514</v>
       </c>
       <c r="D311" s="36"/>
-      <c r="E311" s="85" t="s">
+      <c r="E311" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F311" s="86"/>
+      <c r="F311" s="87"/>
       <c r="G311" s="24">
         <v>29</v>
       </c>
@@ -16229,10 +16254,10 @@
         <v>55</v>
       </c>
       <c r="D312" s="36"/>
-      <c r="E312" s="85" t="s">
+      <c r="E312" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F312" s="86"/>
+      <c r="F312" s="87"/>
       <c r="G312" s="24">
         <v>30</v>
       </c>
@@ -16272,10 +16297,10 @@
         <v>123</v>
       </c>
       <c r="D313" s="36"/>
-      <c r="E313" s="85" t="s">
+      <c r="E313" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F313" s="86"/>
+      <c r="F313" s="87"/>
       <c r="G313" s="24">
         <v>31</v>
       </c>
@@ -16317,10 +16342,10 @@
       <c r="D314" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="E314" s="85" t="s">
+      <c r="E314" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F314" s="86"/>
+      <c r="F314" s="87"/>
       <c r="G314" s="24">
         <v>32</v>
       </c>
@@ -16360,10 +16385,10 @@
         <v>520</v>
       </c>
       <c r="D315" s="36"/>
-      <c r="E315" s="85" t="s">
+      <c r="E315" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F315" s="86"/>
+      <c r="F315" s="87"/>
       <c r="G315" s="24">
         <v>33</v>
       </c>
@@ -16405,10 +16430,10 @@
       <c r="D316" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="E316" s="85" t="s">
+      <c r="E316" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F316" s="86"/>
+      <c r="F316" s="87"/>
       <c r="G316" s="24">
         <v>34</v>
       </c>
@@ -16448,10 +16473,10 @@
         <v>190</v>
       </c>
       <c r="D317" s="36"/>
-      <c r="E317" s="85" t="s">
+      <c r="E317" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F317" s="86"/>
+      <c r="F317" s="87"/>
       <c r="G317" s="24">
         <v>35</v>
       </c>
@@ -16491,10 +16516,10 @@
         <v>55</v>
       </c>
       <c r="D318" s="36"/>
-      <c r="E318" s="85" t="s">
+      <c r="E318" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F318" s="86"/>
+      <c r="F318" s="87"/>
       <c r="G318" s="24">
         <v>36</v>
       </c>
@@ -16534,10 +16559,10 @@
         <v>526</v>
       </c>
       <c r="D319" s="36"/>
-      <c r="E319" s="85" t="s">
+      <c r="E319" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F319" s="86"/>
+      <c r="F319" s="87"/>
       <c r="G319" s="24">
         <v>37</v>
       </c>
@@ -16577,10 +16602,10 @@
         <v>507</v>
       </c>
       <c r="D320" s="36"/>
-      <c r="E320" s="85" t="s">
+      <c r="E320" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F320" s="86"/>
+      <c r="F320" s="87"/>
       <c r="G320" s="24">
         <v>38</v>
       </c>
@@ -16620,10 +16645,10 @@
         <v>526</v>
       </c>
       <c r="D321" s="36"/>
-      <c r="E321" s="85" t="s">
+      <c r="E321" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F321" s="86"/>
+      <c r="F321" s="87"/>
       <c r="G321" s="24">
         <v>39</v>
       </c>
@@ -16663,10 +16688,10 @@
         <v>530</v>
       </c>
       <c r="D322" s="36"/>
-      <c r="E322" s="85" t="s">
+      <c r="E322" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F322" s="86"/>
+      <c r="F322" s="87"/>
       <c r="G322" s="24">
         <v>40</v>
       </c>
@@ -16700,8 +16725,8 @@
       <c r="B323" s="23"/>
       <c r="C323" s="55"/>
       <c r="D323" s="37"/>
-      <c r="E323" s="87"/>
-      <c r="F323" s="88"/>
+      <c r="E323" s="88"/>
+      <c r="F323" s="89"/>
       <c r="G323" s="23"/>
       <c r="H323" s="58"/>
       <c r="I323" s="66">
@@ -16731,8 +16756,8 @@
       <c r="B324" s="23"/>
       <c r="C324" s="55"/>
       <c r="D324" s="32"/>
-      <c r="E324" s="87"/>
-      <c r="F324" s="88"/>
+      <c r="E324" s="88"/>
+      <c r="F324" s="89"/>
       <c r="G324" s="23"/>
       <c r="H324" s="58"/>
       <c r="I324" s="66">
@@ -16768,10 +16793,10 @@
         <v>533</v>
       </c>
       <c r="D325" s="26"/>
-      <c r="E325" s="85" t="s">
+      <c r="E325" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F325" s="86"/>
+      <c r="F325" s="87"/>
       <c r="G325" s="24">
         <v>1</v>
       </c>
@@ -16811,10 +16836,10 @@
         <v>535</v>
       </c>
       <c r="D326" s="26"/>
-      <c r="E326" s="85" t="s">
+      <c r="E326" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F326" s="86"/>
+      <c r="F326" s="87"/>
       <c r="G326" s="24">
         <v>2</v>
       </c>
@@ -16854,10 +16879,10 @@
         <v>537</v>
       </c>
       <c r="D327" s="26"/>
-      <c r="E327" s="85" t="s">
+      <c r="E327" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F327" s="86"/>
+      <c r="F327" s="87"/>
       <c r="G327" s="24">
         <v>3</v>
       </c>
@@ -16897,10 +16922,10 @@
         <v>539</v>
       </c>
       <c r="D328" s="26"/>
-      <c r="E328" s="85" t="s">
+      <c r="E328" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F328" s="86"/>
+      <c r="F328" s="87"/>
       <c r="G328" s="24">
         <v>4</v>
       </c>
@@ -16940,10 +16965,10 @@
         <v>541</v>
       </c>
       <c r="D329" s="26"/>
-      <c r="E329" s="85" t="s">
+      <c r="E329" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F329" s="86"/>
+      <c r="F329" s="87"/>
       <c r="G329" s="24">
         <v>5</v>
       </c>
@@ -16983,10 +17008,10 @@
         <v>543</v>
       </c>
       <c r="D330" s="26"/>
-      <c r="E330" s="85" t="s">
+      <c r="E330" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F330" s="86"/>
+      <c r="F330" s="87"/>
       <c r="G330" s="24">
         <v>6</v>
       </c>
@@ -17020,8 +17045,8 @@
       <c r="B331" s="23"/>
       <c r="C331" s="41"/>
       <c r="D331" s="32"/>
-      <c r="E331" s="87"/>
-      <c r="F331" s="88"/>
+      <c r="E331" s="88"/>
+      <c r="F331" s="89"/>
       <c r="G331" s="23"/>
       <c r="H331" s="58"/>
       <c r="I331" s="66">
@@ -17051,8 +17076,8 @@
       <c r="B332" s="23"/>
       <c r="C332" s="41"/>
       <c r="D332" s="32"/>
-      <c r="E332" s="87"/>
-      <c r="F332" s="88"/>
+      <c r="E332" s="88"/>
+      <c r="F332" s="89"/>
       <c r="G332" s="23"/>
       <c r="H332" s="58"/>
       <c r="I332" s="66">
@@ -17088,10 +17113,10 @@
         <v>47</v>
       </c>
       <c r="D333" s="26"/>
-      <c r="E333" s="85" t="s">
+      <c r="E333" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F333" s="86"/>
+      <c r="F333" s="87"/>
       <c r="G333" s="24">
         <v>1</v>
       </c>
@@ -17131,10 +17156,10 @@
         <v>55</v>
       </c>
       <c r="D334" s="26"/>
-      <c r="E334" s="85" t="s">
+      <c r="E334" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F334" s="86"/>
+      <c r="F334" s="87"/>
       <c r="G334" s="24">
         <v>2</v>
       </c>
@@ -17174,10 +17199,10 @@
         <v>123</v>
       </c>
       <c r="D335" s="26"/>
-      <c r="E335" s="85" t="s">
+      <c r="E335" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F335" s="86"/>
+      <c r="F335" s="87"/>
       <c r="G335" s="24">
         <v>3</v>
       </c>
@@ -17217,10 +17242,10 @@
         <v>377</v>
       </c>
       <c r="D336" s="26"/>
-      <c r="E336" s="85" t="s">
+      <c r="E336" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F336" s="86"/>
+      <c r="F336" s="87"/>
       <c r="G336" s="24">
         <v>4</v>
       </c>
@@ -17260,10 +17285,10 @@
         <v>507</v>
       </c>
       <c r="D337" s="26"/>
-      <c r="E337" s="85" t="s">
+      <c r="E337" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F337" s="86"/>
+      <c r="F337" s="87"/>
       <c r="G337" s="24">
         <v>5</v>
       </c>
@@ -17303,10 +17328,10 @@
         <v>47</v>
       </c>
       <c r="D338" s="26"/>
-      <c r="E338" s="85" t="s">
+      <c r="E338" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F338" s="86"/>
+      <c r="F338" s="87"/>
       <c r="G338" s="24">
         <v>6</v>
       </c>
@@ -17346,10 +17371,10 @@
         <v>552</v>
       </c>
       <c r="D339" s="26"/>
-      <c r="E339" s="85" t="s">
+      <c r="E339" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F339" s="86"/>
+      <c r="F339" s="87"/>
       <c r="G339" s="24">
         <v>7</v>
       </c>
@@ -17389,10 +17414,10 @@
         <v>377</v>
       </c>
       <c r="D340" s="26"/>
-      <c r="E340" s="85" t="s">
+      <c r="E340" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F340" s="86"/>
+      <c r="F340" s="87"/>
       <c r="G340" s="24">
         <v>8</v>
       </c>
@@ -17432,10 +17457,10 @@
         <v>47</v>
       </c>
       <c r="D341" s="26"/>
-      <c r="E341" s="85" t="s">
+      <c r="E341" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F341" s="86"/>
+      <c r="F341" s="87"/>
       <c r="G341" s="24">
         <v>9</v>
       </c>
@@ -17475,10 +17500,10 @@
         <v>556</v>
       </c>
       <c r="D342" s="26"/>
-      <c r="E342" s="85" t="s">
+      <c r="E342" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F342" s="86"/>
+      <c r="F342" s="87"/>
       <c r="G342" s="24">
         <v>10</v>
       </c>
@@ -17518,10 +17543,10 @@
         <v>558</v>
       </c>
       <c r="D343" s="26"/>
-      <c r="E343" s="85" t="s">
+      <c r="E343" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F343" s="86"/>
+      <c r="F343" s="87"/>
       <c r="G343" s="24">
         <v>11</v>
       </c>
@@ -17561,10 +17586,10 @@
         <v>560</v>
       </c>
       <c r="D344" s="26"/>
-      <c r="E344" s="85" t="s">
+      <c r="E344" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F344" s="86"/>
+      <c r="F344" s="87"/>
       <c r="G344" s="24">
         <v>12</v>
       </c>
@@ -17604,10 +17629,10 @@
         <v>562</v>
       </c>
       <c r="D345" s="26"/>
-      <c r="E345" s="85" t="s">
+      <c r="E345" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F345" s="86"/>
+      <c r="F345" s="87"/>
       <c r="G345" s="24">
         <v>13</v>
       </c>
@@ -17647,10 +17672,10 @@
         <v>564</v>
       </c>
       <c r="D346" s="26"/>
-      <c r="E346" s="85" t="s">
+      <c r="E346" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F346" s="86"/>
+      <c r="F346" s="87"/>
       <c r="G346" s="24">
         <v>14</v>
       </c>
@@ -17690,10 +17715,10 @@
         <v>566</v>
       </c>
       <c r="D347" s="26"/>
-      <c r="E347" s="85" t="s">
+      <c r="E347" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F347" s="86"/>
+      <c r="F347" s="87"/>
       <c r="G347" s="24">
         <v>15</v>
       </c>
@@ -17733,10 +17758,10 @@
         <v>568</v>
       </c>
       <c r="D348" s="26"/>
-      <c r="E348" s="85" t="s">
+      <c r="E348" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F348" s="86"/>
+      <c r="F348" s="87"/>
       <c r="G348" s="24">
         <v>16</v>
       </c>
@@ -17776,10 +17801,10 @@
         <v>570</v>
       </c>
       <c r="D349" s="26"/>
-      <c r="E349" s="85" t="s">
+      <c r="E349" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F349" s="86"/>
+      <c r="F349" s="87"/>
       <c r="G349" s="24">
         <v>17</v>
       </c>
@@ -17819,10 +17844,10 @@
         <v>572</v>
       </c>
       <c r="D350" s="26"/>
-      <c r="E350" s="85" t="s">
+      <c r="E350" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F350" s="86"/>
+      <c r="F350" s="87"/>
       <c r="G350" s="24">
         <v>18</v>
       </c>
@@ -17862,10 +17887,10 @@
         <v>574</v>
       </c>
       <c r="D351" s="26"/>
-      <c r="E351" s="85" t="s">
+      <c r="E351" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F351" s="86"/>
+      <c r="F351" s="87"/>
       <c r="G351" s="24">
         <v>19</v>
       </c>
@@ -17905,10 +17930,10 @@
         <v>576</v>
       </c>
       <c r="D352" s="26"/>
-      <c r="E352" s="85" t="s">
+      <c r="E352" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F352" s="86"/>
+      <c r="F352" s="87"/>
       <c r="G352" s="24">
         <v>20</v>
       </c>
@@ -17948,10 +17973,10 @@
         <v>190</v>
       </c>
       <c r="D353" s="26"/>
-      <c r="E353" s="85" t="s">
+      <c r="E353" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F353" s="86"/>
+      <c r="F353" s="87"/>
       <c r="G353" s="24">
         <v>21</v>
       </c>
@@ -17991,10 +18016,10 @@
         <v>156</v>
       </c>
       <c r="D354" s="26"/>
-      <c r="E354" s="85" t="s">
+      <c r="E354" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F354" s="86"/>
+      <c r="F354" s="87"/>
       <c r="G354" s="24">
         <v>22</v>
       </c>
@@ -18034,10 +18059,10 @@
         <v>580</v>
       </c>
       <c r="D355" s="26"/>
-      <c r="E355" s="85" t="s">
+      <c r="E355" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F355" s="86"/>
+      <c r="F355" s="87"/>
       <c r="G355" s="24">
         <v>23</v>
       </c>
@@ -18077,10 +18102,10 @@
         <v>156</v>
       </c>
       <c r="D356" s="26"/>
-      <c r="E356" s="85" t="s">
+      <c r="E356" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F356" s="86"/>
+      <c r="F356" s="87"/>
       <c r="G356" s="24">
         <v>24</v>
       </c>
@@ -18120,10 +18145,10 @@
         <v>123</v>
       </c>
       <c r="D357" s="26"/>
-      <c r="E357" s="85" t="s">
+      <c r="E357" s="86" t="s">
         <v>691</v>
       </c>
-      <c r="F357" s="86"/>
+      <c r="F357" s="87"/>
       <c r="G357" s="24">
         <v>25</v>
       </c>
@@ -18163,10 +18188,10 @@
         <v>193</v>
       </c>
       <c r="D358" s="26"/>
-      <c r="E358" s="91" t="s">
+      <c r="E358" s="92" t="s">
         <v>691</v>
       </c>
-      <c r="F358" s="91"/>
+      <c r="F358" s="92"/>
       <c r="G358" s="24">
         <v>26</v>
       </c>
@@ -18206,10 +18231,10 @@
         <v>585</v>
       </c>
       <c r="D359" s="26"/>
-      <c r="E359" s="91" t="s">
+      <c r="E359" s="92" t="s">
         <v>691</v>
       </c>
-      <c r="F359" s="91"/>
+      <c r="F359" s="92"/>
       <c r="G359" s="24">
         <v>27</v>
       </c>
@@ -18249,10 +18274,10 @@
         <v>587</v>
       </c>
       <c r="D360" s="26"/>
-      <c r="E360" s="91" t="s">
+      <c r="E360" s="92" t="s">
         <v>691</v>
       </c>
-      <c r="F360" s="91"/>
+      <c r="F360" s="92"/>
       <c r="G360" s="24">
         <v>28</v>
       </c>
@@ -18292,10 +18317,10 @@
         <v>589</v>
       </c>
       <c r="D361" s="26"/>
-      <c r="E361" s="91" t="s">
+      <c r="E361" s="92" t="s">
         <v>691</v>
       </c>
-      <c r="F361" s="91"/>
+      <c r="F361" s="92"/>
       <c r="G361" s="24">
         <v>29</v>
       </c>
@@ -18335,10 +18360,10 @@
         <v>587</v>
       </c>
       <c r="D362" s="26"/>
-      <c r="E362" s="91" t="s">
+      <c r="E362" s="92" t="s">
         <v>691</v>
       </c>
-      <c r="F362" s="91"/>
+      <c r="F362" s="92"/>
       <c r="G362" s="24">
         <v>30</v>
       </c>
@@ -18378,10 +18403,10 @@
         <v>592</v>
       </c>
       <c r="D363" s="26"/>
-      <c r="E363" s="91" t="s">
+      <c r="E363" s="92" t="s">
         <v>691</v>
       </c>
-      <c r="F363" s="91"/>
+      <c r="F363" s="92"/>
       <c r="G363" s="24">
         <v>31</v>
       </c>
@@ -18421,10 +18446,10 @@
         <v>312</v>
       </c>
       <c r="D364" s="26"/>
-      <c r="E364" s="91" t="s">
+      <c r="E364" s="92" t="s">
         <v>691</v>
       </c>
-      <c r="F364" s="91"/>
+      <c r="F364" s="92"/>
       <c r="G364" s="24">
         <v>32</v>
       </c>
@@ -18464,10 +18489,10 @@
         <v>595</v>
       </c>
       <c r="D365" s="26"/>
-      <c r="E365" s="91" t="s">
+      <c r="E365" s="92" t="s">
         <v>691</v>
       </c>
-      <c r="F365" s="91"/>
+      <c r="F365" s="92"/>
       <c r="G365" s="24">
         <v>33</v>
       </c>
@@ -18507,10 +18532,10 @@
         <v>597</v>
       </c>
       <c r="D366" s="26"/>
-      <c r="E366" s="91" t="s">
+      <c r="E366" s="92" t="s">
         <v>691</v>
       </c>
-      <c r="F366" s="91"/>
+      <c r="F366" s="92"/>
       <c r="G366" s="24">
         <v>34</v>
       </c>
@@ -18550,10 +18575,10 @@
         <v>599</v>
       </c>
       <c r="D367" s="26"/>
-      <c r="E367" s="91" t="s">
+      <c r="E367" s="92" t="s">
         <v>691</v>
       </c>
-      <c r="F367" s="91"/>
+      <c r="F367" s="92"/>
       <c r="G367" s="24">
         <v>35</v>
       </c>
@@ -18593,10 +18618,10 @@
         <v>102</v>
       </c>
       <c r="D368" s="26"/>
-      <c r="E368" s="91" t="s">
+      <c r="E368" s="92" t="s">
         <v>691</v>
       </c>
-      <c r="F368" s="91"/>
+      <c r="F368" s="92"/>
       <c r="G368" s="24">
         <v>36</v>
       </c>
@@ -18636,10 +18661,10 @@
         <v>602</v>
       </c>
       <c r="D369" s="26"/>
-      <c r="E369" s="91" t="s">
+      <c r="E369" s="92" t="s">
         <v>691</v>
       </c>
-      <c r="F369" s="91"/>
+      <c r="F369" s="92"/>
       <c r="G369" s="24">
         <v>37</v>
       </c>
@@ -18679,10 +18704,10 @@
         <v>603</v>
       </c>
       <c r="D370" s="26"/>
-      <c r="E370" s="91" t="s">
+      <c r="E370" s="92" t="s">
         <v>691</v>
       </c>
-      <c r="F370" s="91"/>
+      <c r="F370" s="92"/>
       <c r="G370" s="24">
         <v>38</v>
       </c>
@@ -18722,10 +18747,10 @@
         <v>74</v>
       </c>
       <c r="D371" s="26"/>
-      <c r="E371" s="91" t="s">
+      <c r="E371" s="92" t="s">
         <v>691</v>
       </c>
-      <c r="F371" s="91"/>
+      <c r="F371" s="92"/>
       <c r="G371" s="24">
         <v>39</v>
       </c>
@@ -18765,10 +18790,10 @@
         <v>606</v>
       </c>
       <c r="D372" s="26"/>
-      <c r="E372" s="91" t="s">
+      <c r="E372" s="92" t="s">
         <v>691</v>
       </c>
-      <c r="F372" s="91"/>
+      <c r="F372" s="92"/>
       <c r="G372" s="24">
         <v>40</v>
       </c>
@@ -18808,10 +18833,10 @@
         <v>607</v>
       </c>
       <c r="D373" s="26"/>
-      <c r="E373" s="91" t="s">
+      <c r="E373" s="92" t="s">
         <v>691</v>
       </c>
-      <c r="F373" s="91"/>
+      <c r="F373" s="92"/>
       <c r="G373" s="24">
         <v>41</v>
       </c>
@@ -18851,10 +18876,10 @@
         <v>377</v>
       </c>
       <c r="D374" s="26"/>
-      <c r="E374" s="91" t="s">
+      <c r="E374" s="92" t="s">
         <v>691</v>
       </c>
-      <c r="F374" s="91"/>
+      <c r="F374" s="92"/>
       <c r="G374" s="24">
         <v>42</v>
       </c>
@@ -18894,10 +18919,10 @@
         <v>507</v>
       </c>
       <c r="D375" s="26"/>
-      <c r="E375" s="91" t="s">
+      <c r="E375" s="92" t="s">
         <v>691</v>
       </c>
-      <c r="F375" s="91"/>
+      <c r="F375" s="92"/>
       <c r="G375" s="24">
         <v>43</v>
       </c>
@@ -18937,10 +18962,10 @@
         <v>611</v>
       </c>
       <c r="D376" s="26"/>
-      <c r="E376" s="91" t="s">
+      <c r="E376" s="92" t="s">
         <v>691</v>
       </c>
-      <c r="F376" s="91"/>
+      <c r="F376" s="92"/>
       <c r="G376" s="24">
         <v>44</v>
       </c>
@@ -18980,10 +19005,10 @@
         <v>377</v>
       </c>
       <c r="D377" s="26"/>
-      <c r="E377" s="91" t="s">
+      <c r="E377" s="92" t="s">
         <v>691</v>
       </c>
-      <c r="F377" s="91"/>
+      <c r="F377" s="92"/>
       <c r="G377" s="24">
         <v>45</v>
       </c>
@@ -19023,10 +19048,10 @@
         <v>614</v>
       </c>
       <c r="D378" s="26"/>
-      <c r="E378" s="91" t="s">
+      <c r="E378" s="92" t="s">
         <v>691</v>
       </c>
-      <c r="F378" s="91"/>
+      <c r="F378" s="92"/>
       <c r="G378" s="24">
         <v>46</v>
       </c>
@@ -19066,10 +19091,10 @@
         <v>55</v>
       </c>
       <c r="D379" s="26"/>
-      <c r="E379" s="91" t="s">
+      <c r="E379" s="92" t="s">
         <v>691</v>
       </c>
-      <c r="F379" s="91"/>
+      <c r="F379" s="92"/>
       <c r="G379" s="24">
         <v>47</v>
       </c>
@@ -19109,10 +19134,10 @@
         <v>312</v>
       </c>
       <c r="D380" s="26"/>
-      <c r="E380" s="91" t="s">
+      <c r="E380" s="92" t="s">
         <v>691</v>
       </c>
-      <c r="F380" s="91"/>
+      <c r="F380" s="92"/>
       <c r="G380" s="24">
         <v>48</v>
       </c>
@@ -19152,10 +19177,10 @@
         <v>312</v>
       </c>
       <c r="D381" s="26"/>
-      <c r="E381" s="91" t="s">
+      <c r="E381" s="92" t="s">
         <v>691</v>
       </c>
-      <c r="F381" s="91"/>
+      <c r="F381" s="92"/>
       <c r="G381" s="24">
         <v>49</v>
       </c>
@@ -19195,10 +19220,10 @@
         <v>618</v>
       </c>
       <c r="D382" s="26"/>
-      <c r="E382" s="91" t="s">
+      <c r="E382" s="92" t="s">
         <v>691</v>
       </c>
-      <c r="F382" s="91"/>
+      <c r="F382" s="92"/>
       <c r="G382" s="24">
         <v>50</v>
       </c>
@@ -19238,10 +19263,10 @@
         <v>354</v>
       </c>
       <c r="D383" s="26"/>
-      <c r="E383" s="91" t="s">
+      <c r="E383" s="92" t="s">
         <v>691</v>
       </c>
-      <c r="F383" s="91"/>
+      <c r="F383" s="92"/>
       <c r="G383" s="24">
         <v>51</v>
       </c>
@@ -19281,10 +19306,10 @@
         <v>190</v>
       </c>
       <c r="D384" s="26"/>
-      <c r="E384" s="91" t="s">
+      <c r="E384" s="92" t="s">
         <v>691</v>
       </c>
-      <c r="F384" s="91"/>
+      <c r="F384" s="92"/>
       <c r="G384" s="24">
         <v>52</v>
       </c>
@@ -19324,10 +19349,10 @@
         <v>445</v>
       </c>
       <c r="D385" s="26"/>
-      <c r="E385" s="91" t="s">
+      <c r="E385" s="92" t="s">
         <v>691</v>
       </c>
-      <c r="F385" s="91"/>
+      <c r="F385" s="92"/>
       <c r="G385" s="24">
         <v>53</v>
       </c>
@@ -19367,10 +19392,10 @@
         <v>623</v>
       </c>
       <c r="D386" s="26"/>
-      <c r="E386" s="91" t="s">
+      <c r="E386" s="92" t="s">
         <v>691</v>
       </c>
-      <c r="F386" s="91"/>
+      <c r="F386" s="92"/>
       <c r="G386" s="24">
         <v>54</v>
       </c>
@@ -19404,8 +19429,8 @@
       <c r="B387" s="53"/>
       <c r="C387" s="41"/>
       <c r="D387" s="32"/>
-      <c r="E387" s="93"/>
-      <c r="F387" s="93"/>
+      <c r="E387" s="94"/>
+      <c r="F387" s="94"/>
       <c r="G387" s="23"/>
       <c r="H387" s="58"/>
       <c r="I387" s="66">
@@ -19435,8 +19460,8 @@
       <c r="B388" s="23"/>
       <c r="C388" s="41"/>
       <c r="D388" s="32"/>
-      <c r="E388" s="93"/>
-      <c r="F388" s="93"/>
+      <c r="E388" s="94"/>
+      <c r="F388" s="94"/>
       <c r="G388" s="23"/>
       <c r="H388" s="58"/>
       <c r="I388" s="66">
@@ -19472,10 +19497,10 @@
         <v>626</v>
       </c>
       <c r="D389" s="44"/>
-      <c r="E389" s="91" t="s">
+      <c r="E389" s="92" t="s">
         <v>691</v>
       </c>
-      <c r="F389" s="91"/>
+      <c r="F389" s="92"/>
       <c r="G389" s="24">
         <v>1</v>
       </c>
@@ -19515,10 +19540,10 @@
         <v>628</v>
       </c>
       <c r="D390" s="44"/>
-      <c r="E390" s="91" t="s">
+      <c r="E390" s="92" t="s">
         <v>691</v>
       </c>
-      <c r="F390" s="91"/>
+      <c r="F390" s="92"/>
       <c r="G390" s="24">
         <v>2</v>
       </c>
@@ -19558,10 +19583,10 @@
         <v>160</v>
       </c>
       <c r="D391" s="44"/>
-      <c r="E391" s="91" t="s">
+      <c r="E391" s="92" t="s">
         <v>691</v>
       </c>
-      <c r="F391" s="91"/>
+      <c r="F391" s="92"/>
       <c r="G391" s="24">
         <v>3</v>
       </c>
@@ -19601,10 +19626,10 @@
         <v>55</v>
       </c>
       <c r="D392" s="44"/>
-      <c r="E392" s="91" t="s">
+      <c r="E392" s="92" t="s">
         <v>691</v>
       </c>
-      <c r="F392" s="91"/>
+      <c r="F392" s="92"/>
       <c r="G392" s="24">
         <v>4</v>
       </c>
@@ -19644,10 +19669,10 @@
         <v>632</v>
       </c>
       <c r="D393" s="44"/>
-      <c r="E393" s="91" t="s">
+      <c r="E393" s="92" t="s">
         <v>691</v>
       </c>
-      <c r="F393" s="91"/>
+      <c r="F393" s="92"/>
       <c r="G393" s="24">
         <v>5</v>
       </c>
@@ -19687,10 +19712,10 @@
         <v>55</v>
       </c>
       <c r="D394" s="44"/>
-      <c r="E394" s="91" t="s">
+      <c r="E394" s="92" t="s">
         <v>691</v>
       </c>
-      <c r="F394" s="91"/>
+      <c r="F394" s="92"/>
       <c r="G394" s="24">
         <v>6</v>
       </c>
@@ -19730,10 +19755,10 @@
         <v>253</v>
       </c>
       <c r="D395" s="44"/>
-      <c r="E395" s="91" t="s">
+      <c r="E395" s="92" t="s">
         <v>691</v>
       </c>
-      <c r="F395" s="91"/>
+      <c r="F395" s="92"/>
       <c r="G395" s="24">
         <v>7</v>
       </c>
@@ -19773,10 +19798,10 @@
         <v>47</v>
       </c>
       <c r="D396" s="44"/>
-      <c r="E396" s="91" t="s">
+      <c r="E396" s="92" t="s">
         <v>691</v>
       </c>
-      <c r="F396" s="91"/>
+      <c r="F396" s="92"/>
       <c r="G396" s="24">
         <v>8</v>
       </c>
@@ -19816,10 +19841,10 @@
         <v>55</v>
       </c>
       <c r="D397" s="44"/>
-      <c r="E397" s="91" t="s">
+      <c r="E397" s="92" t="s">
         <v>691</v>
       </c>
-      <c r="F397" s="91"/>
+      <c r="F397" s="92"/>
       <c r="G397" s="24">
         <v>9</v>
       </c>
@@ -19859,10 +19884,10 @@
         <v>638</v>
       </c>
       <c r="D398" s="44"/>
-      <c r="E398" s="91" t="s">
+      <c r="E398" s="92" t="s">
         <v>691</v>
       </c>
-      <c r="F398" s="91"/>
+      <c r="F398" s="92"/>
       <c r="G398" s="24">
         <v>10</v>
       </c>
@@ -19896,8 +19921,8 @@
       <c r="B399" s="23"/>
       <c r="C399" s="41"/>
       <c r="D399" s="46"/>
-      <c r="E399" s="93"/>
-      <c r="F399" s="93"/>
+      <c r="E399" s="94"/>
+      <c r="F399" s="94"/>
       <c r="G399" s="23">
         <v>11</v>
       </c>
@@ -19929,8 +19954,8 @@
       <c r="B400" s="23"/>
       <c r="C400" s="41"/>
       <c r="D400" s="46"/>
-      <c r="E400" s="93"/>
-      <c r="F400" s="93"/>
+      <c r="E400" s="94"/>
+      <c r="F400" s="94"/>
       <c r="G400" s="23"/>
       <c r="H400" s="58"/>
       <c r="I400" s="66">
@@ -19964,10 +19989,10 @@
       </c>
       <c r="C401" s="22"/>
       <c r="D401" s="44"/>
-      <c r="E401" s="91" t="s">
+      <c r="E401" s="92" t="s">
         <v>691</v>
       </c>
-      <c r="F401" s="91"/>
+      <c r="F401" s="92"/>
       <c r="G401" s="24">
         <v>1</v>
       </c>
@@ -20007,10 +20032,10 @@
         <v>45</v>
       </c>
       <c r="D402" s="44"/>
-      <c r="E402" s="91" t="s">
+      <c r="E402" s="92" t="s">
         <v>691</v>
       </c>
-      <c r="F402" s="91"/>
+      <c r="F402" s="92"/>
       <c r="G402" s="24">
         <v>2</v>
       </c>
@@ -20050,10 +20075,10 @@
         <v>643</v>
       </c>
       <c r="D403" s="44"/>
-      <c r="E403" s="91" t="s">
+      <c r="E403" s="92" t="s">
         <v>691</v>
       </c>
-      <c r="F403" s="91"/>
+      <c r="F403" s="92"/>
       <c r="G403" s="24">
         <v>3</v>
       </c>
@@ -20093,10 +20118,10 @@
         <v>645</v>
       </c>
       <c r="D404" s="44"/>
-      <c r="E404" s="91" t="s">
+      <c r="E404" s="92" t="s">
         <v>691</v>
       </c>
-      <c r="F404" s="91"/>
+      <c r="F404" s="92"/>
       <c r="G404" s="24">
         <v>4</v>
       </c>
@@ -20136,10 +20161,10 @@
         <v>223</v>
       </c>
       <c r="D405" s="26"/>
-      <c r="E405" s="91" t="s">
+      <c r="E405" s="92" t="s">
         <v>691</v>
       </c>
-      <c r="F405" s="91"/>
+      <c r="F405" s="92"/>
       <c r="G405" s="24">
         <v>5</v>
       </c>
@@ -20179,10 +20204,10 @@
         <v>648</v>
       </c>
       <c r="D406" s="26"/>
-      <c r="E406" s="91" t="s">
+      <c r="E406" s="92" t="s">
         <v>691</v>
       </c>
-      <c r="F406" s="91"/>
+      <c r="F406" s="92"/>
       <c r="G406" s="24">
         <v>6</v>
       </c>
@@ -20426,8 +20451,8 @@
       <c r="B417" s="34"/>
       <c r="C417" s="56"/>
       <c r="D417" s="34"/>
-      <c r="E417" s="92"/>
-      <c r="F417" s="92"/>
+      <c r="E417" s="93"/>
+      <c r="F417" s="93"/>
       <c r="G417" s="34"/>
       <c r="H417" s="58"/>
       <c r="I417" s="66"/>
@@ -34509,19 +34534,19 @@
   <customSheetViews>
     <customSheetView guid="{9757AB7B-9CD0-4C18-B841-847CE545533D}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{1DF9DEED-E9F2-47A6-996F-320D1C6022C7}"/>
+      <autoFilter ref="A11:C37" xr:uid="{16470D30-6231-438F-B3EA-5C3F3CBD12D9}"/>
     </customSheetView>
     <customSheetView guid="{0112C507-3E33-4AF5-84E8-B9519F068338}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{8423A2C9-A6F9-46ED-BF1E-D597B69A2D54}"/>
+      <autoFilter ref="A11:D37" xr:uid="{73C155FD-992D-4654-82C4-0AA2553C7CB2}"/>
     </customSheetView>
     <customSheetView guid="{75E94446-E183-4110-91B1-B47AD553172E}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{D3FB87D0-D3C3-41C6-A910-8AE30DB00913}"/>
+      <autoFilter ref="A11:D37" xr:uid="{4B54D28C-09A8-4457-99C1-080A48E62182}"/>
     </customSheetView>
     <customSheetView guid="{D81AFC7C-3E13-42F5-9951-ED21F0A4BFD9}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{5BA6999D-CE04-43A7-9861-2501C9FEB396}"/>
+      <autoFilter ref="A293:C332" xr:uid="{4EB78344-813C-425D-9377-6FAA74948314}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="409">
@@ -35353,28 +35378,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24.6">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
     </row>
     <row r="2" spans="1:3" ht="13.2">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
+      <c r="A3" s="96"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A4" s="95"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="6"/>

--- a/DSA_Sheet.xlsx
+++ b/DSA_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Prep\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571A10AF-D1BB-4BE3-A15D-8536F682D00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197AD7A5-4403-48B8-ABFD-DF1F42A29C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,10 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{D81AFC7C-3E13-42F5-9951-ED21F0A4BFD9}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{0112C507-3E33-4AF5-84E8-B9519F068338}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{9757AB7B-9CD0-4C18-B841-847CE545533D}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 4" guid="{75E94446-E183-4110-91B1-B47AD553172E}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{9757AB7B-9CD0-4C18-B841-847CE545533D}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{0112C507-3E33-4AF5-84E8-B9519F068338}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{D81AFC7C-3E13-42F5-9951-ED21F0A4BFD9}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -2431,7 +2431,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2495,6 +2495,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2839,14 +2845,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2866,23 +2884,14 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2891,10 +2900,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3148,8 +3154,8 @@
   </sheetPr>
   <dimension ref="A1:Z920"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3179,10 +3185,10 @@
       <c r="D1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="101" t="s">
+      <c r="E1" s="91" t="s">
         <v>696</v>
       </c>
-      <c r="F1" s="101"/>
+      <c r="F1" s="91"/>
       <c r="G1" s="21" t="s">
         <v>693</v>
       </c>
@@ -3221,10 +3227,10 @@
         <v>13</v>
       </c>
       <c r="D2" s="26"/>
-      <c r="E2" s="100" t="s">
+      <c r="E2" s="90" t="s">
         <v>690</v>
       </c>
-      <c r="F2" s="100"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="22">
         <v>1</v>
       </c>
@@ -3264,10 +3270,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="26"/>
-      <c r="E3" s="96" t="s">
+      <c r="E3" s="92" t="s">
         <v>690</v>
       </c>
-      <c r="F3" s="97"/>
+      <c r="F3" s="93"/>
       <c r="G3" s="22">
         <v>2</v>
       </c>
@@ -3279,14 +3285,14 @@
         <v>0.53191489361702127</v>
       </c>
       <c r="J3" s="30"/>
-      <c r="K3" s="98" t="s">
+      <c r="K3" s="88" t="s">
         <v>699</v>
       </c>
-      <c r="L3" s="98"/>
-      <c r="M3" s="99" t="s">
+      <c r="L3" s="88"/>
+      <c r="M3" s="89" t="s">
         <v>700</v>
       </c>
-      <c r="N3" s="99"/>
+      <c r="N3" s="89"/>
       <c r="O3" s="30"/>
       <c r="P3" s="30"/>
       <c r="Q3" s="30"/>
@@ -3313,10 +3319,10 @@
       <c r="D4" s="26" t="s">
         <v>694</v>
       </c>
-      <c r="E4" s="96" t="s">
+      <c r="E4" s="92" t="s">
         <v>690</v>
       </c>
-      <c r="F4" s="97"/>
+      <c r="F4" s="93"/>
       <c r="G4" s="22">
         <v>3</v>
       </c>
@@ -3328,10 +3334,10 @@
         <v>0.7978723404255319</v>
       </c>
       <c r="J4" s="30"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
       <c r="O4" s="30"/>
       <c r="P4" s="30"/>
       <c r="Q4" s="30"/>
@@ -3356,10 +3362,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="26"/>
-      <c r="E5" s="96" t="s">
+      <c r="E5" s="92" t="s">
         <v>690</v>
       </c>
-      <c r="F5" s="97"/>
+      <c r="F5" s="93"/>
       <c r="G5" s="22">
         <v>4</v>
       </c>
@@ -3371,16 +3377,16 @@
         <v>1.0638297872340425</v>
       </c>
       <c r="J5" s="30"/>
-      <c r="K5" s="98">
+      <c r="K5" s="88">
         <f>COUNTIF(E:F,"Done")</f>
         <v>27</v>
       </c>
-      <c r="L5" s="98"/>
-      <c r="M5" s="99">
+      <c r="L5" s="88"/>
+      <c r="M5" s="89">
         <f>COUNTIF(E:F,"Not Done")</f>
         <v>348</v>
       </c>
-      <c r="N5" s="99"/>
+      <c r="N5" s="89"/>
       <c r="O5" s="30"/>
       <c r="P5" s="30"/>
       <c r="Q5" s="30"/>
@@ -3405,10 +3411,10 @@
         <v>19</v>
       </c>
       <c r="D6" s="26"/>
-      <c r="E6" s="96" t="s">
+      <c r="E6" s="92" t="s">
         <v>690</v>
       </c>
-      <c r="F6" s="97"/>
+      <c r="F6" s="93"/>
       <c r="G6" s="22">
         <v>5</v>
       </c>
@@ -3420,10 +3426,10 @@
         <v>1.3297872340425532</v>
       </c>
       <c r="J6" s="30"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="99"/>
-      <c r="N6" s="99"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="89"/>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
       <c r="Q6" s="30"/>
@@ -3450,10 +3456,10 @@
       <c r="D7" s="26" t="s">
         <v>703</v>
       </c>
-      <c r="E7" s="96" t="s">
+      <c r="E7" s="92" t="s">
         <v>690</v>
       </c>
-      <c r="F7" s="97"/>
+      <c r="F7" s="93"/>
       <c r="G7" s="22">
         <v>6</v>
       </c>
@@ -3465,10 +3471,10 @@
         <v>1.5957446808510638</v>
       </c>
       <c r="J7" s="30"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="99"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="89"/>
       <c r="O7" s="30"/>
       <c r="P7" s="30"/>
       <c r="Q7" s="30"/>
@@ -3493,10 +3499,10 @@
         <v>23</v>
       </c>
       <c r="D8" s="26"/>
-      <c r="E8" s="96" t="s">
+      <c r="E8" s="92" t="s">
         <v>690</v>
       </c>
-      <c r="F8" s="97"/>
+      <c r="F8" s="93"/>
       <c r="G8" s="22">
         <v>7</v>
       </c>
@@ -3538,10 +3544,10 @@
       <c r="D9" s="78" t="s">
         <v>706</v>
       </c>
-      <c r="E9" s="96" t="s">
+      <c r="E9" s="92" t="s">
         <v>690</v>
       </c>
-      <c r="F9" s="97"/>
+      <c r="F9" s="93"/>
       <c r="G9" s="22">
         <v>8</v>
       </c>
@@ -3560,7 +3566,7 @@
       <c r="B10" s="106" t="s">
         <v>707</v>
       </c>
-      <c r="C10" s="105" t="s">
+      <c r="C10" s="87" t="s">
         <v>708</v>
       </c>
       <c r="D10" s="78" t="s">
@@ -3583,10 +3589,10 @@
         <v>19</v>
       </c>
       <c r="D11" s="22"/>
-      <c r="E11" s="96" t="s">
+      <c r="E11" s="92" t="s">
         <v>690</v>
       </c>
-      <c r="F11" s="97"/>
+      <c r="F11" s="93"/>
       <c r="G11" s="22">
         <v>9</v>
       </c>
@@ -3626,10 +3632,10 @@
         <v>28</v>
       </c>
       <c r="D12" s="22"/>
-      <c r="E12" s="96" t="s">
+      <c r="E12" s="92" t="s">
         <v>690</v>
       </c>
-      <c r="F12" s="97"/>
+      <c r="F12" s="93"/>
       <c r="G12" s="22">
         <v>10</v>
       </c>
@@ -3669,10 +3675,10 @@
         <v>30</v>
       </c>
       <c r="D13" s="26"/>
-      <c r="E13" s="96" t="s">
+      <c r="E13" s="92" t="s">
         <v>690</v>
       </c>
-      <c r="F13" s="97"/>
+      <c r="F13" s="93"/>
       <c r="G13" s="22">
         <v>11</v>
       </c>
@@ -3712,10 +3718,10 @@
         <v>17</v>
       </c>
       <c r="D14" s="26"/>
-      <c r="E14" s="96" t="s">
+      <c r="E14" s="92" t="s">
         <v>690</v>
       </c>
-      <c r="F14" s="97"/>
+      <c r="F14" s="93"/>
       <c r="G14" s="22">
         <v>12</v>
       </c>
@@ -3757,10 +3763,10 @@
       <c r="D15" s="78" t="s">
         <v>706</v>
       </c>
-      <c r="E15" s="96" t="s">
+      <c r="E15" s="92" t="s">
         <v>690</v>
       </c>
-      <c r="F15" s="97"/>
+      <c r="F15" s="93"/>
       <c r="G15" s="22">
         <v>13</v>
       </c>
@@ -3800,10 +3806,10 @@
         <v>35</v>
       </c>
       <c r="D16" s="26"/>
-      <c r="E16" s="96" t="s">
+      <c r="E16" s="92" t="s">
         <v>690</v>
       </c>
-      <c r="F16" s="97"/>
+      <c r="F16" s="93"/>
       <c r="G16" s="22">
         <v>14</v>
       </c>
@@ -3843,10 +3849,10 @@
         <v>37</v>
       </c>
       <c r="D17" s="26"/>
-      <c r="E17" s="96" t="s">
+      <c r="E17" s="92" t="s">
         <v>690</v>
       </c>
-      <c r="F17" s="97"/>
+      <c r="F17" s="93"/>
       <c r="G17" s="22">
         <v>15</v>
       </c>
@@ -3886,10 +3892,10 @@
         <v>35</v>
       </c>
       <c r="D18" s="26"/>
-      <c r="E18" s="96" t="s">
+      <c r="E18" s="92" t="s">
         <v>691</v>
       </c>
-      <c r="F18" s="97"/>
+      <c r="F18" s="93"/>
       <c r="G18" s="22">
         <v>16</v>
       </c>
@@ -3931,10 +3937,10 @@
       <c r="D19" s="78" t="s">
         <v>706</v>
       </c>
-      <c r="E19" s="96" t="s">
+      <c r="E19" s="92" t="s">
         <v>690</v>
       </c>
-      <c r="F19" s="97"/>
+      <c r="F19" s="93"/>
       <c r="G19" s="79">
         <v>17</v>
       </c>
@@ -3974,10 +3980,10 @@
         <v>42</v>
       </c>
       <c r="D20" s="26"/>
-      <c r="E20" s="96" t="s">
+      <c r="E20" s="92" t="s">
         <v>690</v>
       </c>
-      <c r="F20" s="97"/>
+      <c r="F20" s="93"/>
       <c r="G20" s="22">
         <v>18</v>
       </c>
@@ -4017,10 +4023,10 @@
         <v>13</v>
       </c>
       <c r="D21" s="26"/>
-      <c r="E21" s="96" t="s">
+      <c r="E21" s="92" t="s">
         <v>690</v>
       </c>
-      <c r="F21" s="97"/>
+      <c r="F21" s="93"/>
       <c r="G21" s="22">
         <v>19</v>
       </c>
@@ -4060,10 +4066,10 @@
         <v>45</v>
       </c>
       <c r="D22" s="26"/>
-      <c r="E22" s="96" t="s">
+      <c r="E22" s="92" t="s">
         <v>691</v>
       </c>
-      <c r="F22" s="97"/>
+      <c r="F22" s="93"/>
       <c r="G22" s="22">
         <v>20</v>
       </c>
@@ -4103,10 +4109,10 @@
         <v>47</v>
       </c>
       <c r="D23" s="26"/>
-      <c r="E23" s="96" t="s">
+      <c r="E23" s="92" t="s">
         <v>690</v>
       </c>
-      <c r="F23" s="97"/>
+      <c r="F23" s="93"/>
       <c r="G23" s="22">
         <v>21</v>
       </c>
@@ -4146,10 +4152,10 @@
         <v>49</v>
       </c>
       <c r="D24" s="26"/>
-      <c r="E24" s="96" t="s">
+      <c r="E24" s="92" t="s">
         <v>691</v>
       </c>
-      <c r="F24" s="97"/>
+      <c r="F24" s="93"/>
       <c r="G24" s="22">
         <v>22</v>
       </c>
@@ -4189,10 +4195,10 @@
         <v>47</v>
       </c>
       <c r="D25" s="26"/>
-      <c r="E25" s="96" t="s">
+      <c r="E25" s="92" t="s">
         <v>691</v>
       </c>
-      <c r="F25" s="97"/>
+      <c r="F25" s="93"/>
       <c r="G25" s="22">
         <v>23</v>
       </c>
@@ -4232,10 +4238,10 @@
         <v>52</v>
       </c>
       <c r="D26" s="26"/>
-      <c r="E26" s="96" t="s">
+      <c r="E26" s="92" t="s">
         <v>691</v>
       </c>
-      <c r="F26" s="97"/>
+      <c r="F26" s="93"/>
       <c r="G26" s="22">
         <v>24</v>
       </c>
@@ -4275,10 +4281,10 @@
         <v>47</v>
       </c>
       <c r="D27" s="26"/>
-      <c r="E27" s="96" t="s">
+      <c r="E27" s="92" t="s">
         <v>691</v>
       </c>
-      <c r="F27" s="97"/>
+      <c r="F27" s="93"/>
       <c r="G27" s="22">
         <v>25</v>
       </c>
@@ -4318,10 +4324,10 @@
         <v>55</v>
       </c>
       <c r="D28" s="26"/>
-      <c r="E28" s="96" t="s">
+      <c r="E28" s="92" t="s">
         <v>691</v>
       </c>
-      <c r="F28" s="97"/>
+      <c r="F28" s="93"/>
       <c r="G28" s="22">
         <v>26</v>
       </c>
@@ -4355,8 +4361,8 @@
       <c r="B29" s="23"/>
       <c r="C29" s="41"/>
       <c r="D29" s="32"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="93"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="97"/>
       <c r="G29" s="65"/>
       <c r="H29" s="65"/>
       <c r="I29" s="66">
@@ -4386,8 +4392,8 @@
       <c r="B30" s="23"/>
       <c r="C30" s="41"/>
       <c r="D30" s="32"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="93"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="97"/>
       <c r="G30" s="65"/>
       <c r="H30" s="65"/>
       <c r="I30" s="66">
@@ -4423,10 +4429,10 @@
         <v>58</v>
       </c>
       <c r="D31" s="26"/>
-      <c r="E31" s="90" t="s">
+      <c r="E31" s="94" t="s">
         <v>690</v>
       </c>
-      <c r="F31" s="91"/>
+      <c r="F31" s="95"/>
       <c r="G31" s="24">
         <v>1</v>
       </c>
@@ -4466,10 +4472,10 @@
         <v>60</v>
       </c>
       <c r="D32" s="26"/>
-      <c r="E32" s="90" t="s">
+      <c r="E32" s="94" t="s">
         <v>690</v>
       </c>
-      <c r="F32" s="91"/>
+      <c r="F32" s="95"/>
       <c r="G32" s="24">
         <v>2</v>
       </c>
@@ -4511,10 +4517,10 @@
       <c r="D33" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="E33" s="90" t="s">
+      <c r="E33" s="94" t="s">
         <v>690</v>
       </c>
-      <c r="F33" s="91"/>
+      <c r="F33" s="95"/>
       <c r="G33" s="24">
         <v>3</v>
       </c>
@@ -4554,10 +4560,10 @@
         <v>64</v>
       </c>
       <c r="D34" s="26"/>
-      <c r="E34" s="90" t="s">
+      <c r="E34" s="94" t="s">
         <v>690</v>
       </c>
-      <c r="F34" s="91"/>
+      <c r="F34" s="95"/>
       <c r="G34" s="24">
         <v>4</v>
       </c>
@@ -4599,10 +4605,10 @@
       <c r="D35" s="77" t="s">
         <v>701</v>
       </c>
-      <c r="E35" s="90" t="s">
+      <c r="E35" s="94" t="s">
         <v>690</v>
       </c>
-      <c r="F35" s="91"/>
+      <c r="F35" s="95"/>
       <c r="G35" s="24">
         <v>5</v>
       </c>
@@ -4644,10 +4650,10 @@
       <c r="D36" s="77" t="s">
         <v>704</v>
       </c>
-      <c r="E36" s="90" t="s">
+      <c r="E36" s="94" t="s">
         <v>690</v>
       </c>
-      <c r="F36" s="91"/>
+      <c r="F36" s="95"/>
       <c r="G36" s="24">
         <v>6</v>
       </c>
@@ -4689,10 +4695,10 @@
       <c r="D37" s="26" t="s">
         <v>705</v>
       </c>
-      <c r="E37" s="90" t="s">
+      <c r="E37" s="94" t="s">
         <v>690</v>
       </c>
-      <c r="F37" s="91"/>
+      <c r="F37" s="95"/>
       <c r="G37" s="24">
         <v>7</v>
       </c>
@@ -4734,10 +4740,10 @@
       <c r="D38" s="78" t="s">
         <v>702</v>
       </c>
-      <c r="E38" s="90" t="s">
+      <c r="E38" s="94" t="s">
         <v>690</v>
       </c>
-      <c r="F38" s="91"/>
+      <c r="F38" s="95"/>
       <c r="G38" s="24">
         <v>8</v>
       </c>
@@ -4779,10 +4785,10 @@
       <c r="D39" s="78" t="s">
         <v>702</v>
       </c>
-      <c r="E39" s="90" t="s">
+      <c r="E39" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F39" s="91"/>
+      <c r="F39" s="95"/>
       <c r="G39" s="24">
         <v>9</v>
       </c>
@@ -4822,10 +4828,10 @@
         <v>76</v>
       </c>
       <c r="D40" s="26"/>
-      <c r="E40" s="90" t="s">
+      <c r="E40" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F40" s="91"/>
+      <c r="F40" s="95"/>
       <c r="G40" s="24">
         <v>10</v>
       </c>
@@ -4865,10 +4871,10 @@
         <v>78</v>
       </c>
       <c r="D41" s="26"/>
-      <c r="E41" s="90" t="s">
+      <c r="E41" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F41" s="91"/>
+      <c r="F41" s="95"/>
       <c r="G41" s="24">
         <v>11</v>
       </c>
@@ -4908,10 +4914,10 @@
         <v>80</v>
       </c>
       <c r="D42" s="26"/>
-      <c r="E42" s="90" t="s">
+      <c r="E42" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F42" s="91"/>
+      <c r="F42" s="95"/>
       <c r="G42" s="24">
         <v>12</v>
       </c>
@@ -4951,10 +4957,10 @@
         <v>81</v>
       </c>
       <c r="D43" s="26"/>
-      <c r="E43" s="90" t="s">
+      <c r="E43" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F43" s="91"/>
+      <c r="F43" s="95"/>
       <c r="G43" s="24">
         <v>13</v>
       </c>
@@ -4994,10 +5000,10 @@
         <v>83</v>
       </c>
       <c r="D44" s="26"/>
-      <c r="E44" s="90" t="s">
+      <c r="E44" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F44" s="91"/>
+      <c r="F44" s="95"/>
       <c r="G44" s="24">
         <v>14</v>
       </c>
@@ -5037,10 +5043,10 @@
         <v>85</v>
       </c>
       <c r="D45" s="26"/>
-      <c r="E45" s="90" t="s">
+      <c r="E45" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F45" s="91"/>
+      <c r="F45" s="95"/>
       <c r="G45" s="24">
         <v>15</v>
       </c>
@@ -5080,10 +5086,10 @@
         <v>87</v>
       </c>
       <c r="D46" s="26"/>
-      <c r="E46" s="90" t="s">
+      <c r="E46" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F46" s="91"/>
+      <c r="F46" s="95"/>
       <c r="G46" s="24">
         <v>16</v>
       </c>
@@ -5123,10 +5129,10 @@
         <v>89</v>
       </c>
       <c r="D47" s="26"/>
-      <c r="E47" s="90" t="s">
+      <c r="E47" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F47" s="91"/>
+      <c r="F47" s="95"/>
       <c r="G47" s="24">
         <v>17</v>
       </c>
@@ -5166,10 +5172,10 @@
         <v>91</v>
       </c>
       <c r="D48" s="26"/>
-      <c r="E48" s="90" t="s">
+      <c r="E48" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F48" s="91"/>
+      <c r="F48" s="95"/>
       <c r="G48" s="24">
         <v>18</v>
       </c>
@@ -5209,10 +5215,10 @@
         <v>93</v>
       </c>
       <c r="D49" s="26"/>
-      <c r="E49" s="90" t="s">
+      <c r="E49" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F49" s="91"/>
+      <c r="F49" s="95"/>
       <c r="G49" s="24">
         <v>19</v>
       </c>
@@ -5252,10 +5258,10 @@
         <v>95</v>
       </c>
       <c r="D50" s="26"/>
-      <c r="E50" s="90" t="s">
+      <c r="E50" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F50" s="91"/>
+      <c r="F50" s="95"/>
       <c r="G50" s="24">
         <v>20</v>
       </c>
@@ -5295,10 +5301,10 @@
         <v>97</v>
       </c>
       <c r="D51" s="26"/>
-      <c r="E51" s="90" t="s">
+      <c r="E51" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F51" s="91"/>
+      <c r="F51" s="95"/>
       <c r="G51" s="24">
         <v>21</v>
       </c>
@@ -5340,10 +5346,10 @@
       <c r="D52" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="E52" s="90" t="s">
+      <c r="E52" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F52" s="91"/>
+      <c r="F52" s="95"/>
       <c r="G52" s="24">
         <v>22</v>
       </c>
@@ -5377,8 +5383,8 @@
       <c r="B53" s="65"/>
       <c r="C53" s="68"/>
       <c r="D53" s="69"/>
-      <c r="E53" s="94"/>
-      <c r="F53" s="95"/>
+      <c r="E53" s="98"/>
+      <c r="F53" s="99"/>
       <c r="G53" s="65"/>
       <c r="H53" s="65"/>
       <c r="I53" s="66">
@@ -5408,8 +5414,8 @@
       <c r="B54" s="65"/>
       <c r="C54" s="68"/>
       <c r="D54" s="69"/>
-      <c r="E54" s="94"/>
-      <c r="F54" s="95"/>
+      <c r="E54" s="98"/>
+      <c r="F54" s="99"/>
       <c r="G54" s="65"/>
       <c r="H54" s="65"/>
       <c r="I54" s="66">
@@ -5445,10 +5451,10 @@
         <v>102</v>
       </c>
       <c r="D55" s="26"/>
-      <c r="E55" s="90" t="s">
+      <c r="E55" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F55" s="91"/>
+      <c r="F55" s="95"/>
       <c r="G55" s="24">
         <v>1</v>
       </c>
@@ -5488,10 +5494,10 @@
         <v>104</v>
       </c>
       <c r="D56" s="26"/>
-      <c r="E56" s="90" t="s">
+      <c r="E56" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F56" s="91"/>
+      <c r="F56" s="95"/>
       <c r="G56" s="24">
         <v>2</v>
       </c>
@@ -5531,10 +5537,10 @@
         <v>106</v>
       </c>
       <c r="D57" s="26"/>
-      <c r="E57" s="90" t="s">
+      <c r="E57" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F57" s="91"/>
+      <c r="F57" s="95"/>
       <c r="G57" s="24">
         <v>3</v>
       </c>
@@ -5574,10 +5580,10 @@
         <v>108</v>
       </c>
       <c r="D58" s="26"/>
-      <c r="E58" s="90" t="s">
+      <c r="E58" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F58" s="91"/>
+      <c r="F58" s="95"/>
       <c r="G58" s="24">
         <v>4</v>
       </c>
@@ -5617,10 +5623,10 @@
         <v>110</v>
       </c>
       <c r="D59" s="26"/>
-      <c r="E59" s="90" t="s">
+      <c r="E59" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F59" s="91"/>
+      <c r="F59" s="95"/>
       <c r="G59" s="24">
         <v>5</v>
       </c>
@@ -5662,10 +5668,10 @@
       <c r="D60" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="E60" s="90" t="s">
+      <c r="E60" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F60" s="91"/>
+      <c r="F60" s="95"/>
       <c r="G60" s="24">
         <v>6</v>
       </c>
@@ -5705,10 +5711,10 @@
         <v>115</v>
       </c>
       <c r="D61" s="26"/>
-      <c r="E61" s="90" t="s">
+      <c r="E61" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F61" s="91"/>
+      <c r="F61" s="95"/>
       <c r="G61" s="24">
         <v>7</v>
       </c>
@@ -5748,10 +5754,10 @@
         <v>117</v>
       </c>
       <c r="D62" s="26"/>
-      <c r="E62" s="90" t="s">
+      <c r="E62" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F62" s="91"/>
+      <c r="F62" s="95"/>
       <c r="G62" s="24">
         <v>8</v>
       </c>
@@ -5791,10 +5797,10 @@
         <v>119</v>
       </c>
       <c r="D63" s="26"/>
-      <c r="E63" s="90" t="s">
+      <c r="E63" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F63" s="91"/>
+      <c r="F63" s="95"/>
       <c r="G63" s="24">
         <v>9</v>
       </c>
@@ -5834,10 +5840,10 @@
         <v>104</v>
       </c>
       <c r="D64" s="26"/>
-      <c r="E64" s="90" t="s">
+      <c r="E64" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F64" s="91"/>
+      <c r="F64" s="95"/>
       <c r="G64" s="24">
         <v>10</v>
       </c>
@@ -5871,8 +5877,8 @@
       <c r="B65" s="23"/>
       <c r="C65" s="41"/>
       <c r="D65" s="32"/>
-      <c r="E65" s="92"/>
-      <c r="F65" s="93"/>
+      <c r="E65" s="96"/>
+      <c r="F65" s="97"/>
       <c r="G65" s="23"/>
       <c r="H65" s="65"/>
       <c r="I65" s="66">
@@ -5902,8 +5908,8 @@
       <c r="B66" s="23"/>
       <c r="C66" s="41"/>
       <c r="D66" s="32"/>
-      <c r="E66" s="92"/>
-      <c r="F66" s="93"/>
+      <c r="E66" s="96"/>
+      <c r="F66" s="97"/>
       <c r="G66" s="23"/>
       <c r="H66" s="65"/>
       <c r="I66" s="66">
@@ -5939,10 +5945,10 @@
         <v>123</v>
       </c>
       <c r="D67" s="26"/>
-      <c r="E67" s="90" t="s">
+      <c r="E67" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F67" s="91"/>
+      <c r="F67" s="95"/>
       <c r="G67" s="24">
         <v>1</v>
       </c>
@@ -5982,10 +5988,10 @@
         <v>125</v>
       </c>
       <c r="D68" s="26"/>
-      <c r="E68" s="90" t="s">
+      <c r="E68" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F68" s="91"/>
+      <c r="F68" s="95"/>
       <c r="G68" s="24">
         <v>2</v>
       </c>
@@ -6025,10 +6031,10 @@
         <v>117</v>
       </c>
       <c r="D69" s="26"/>
-      <c r="E69" s="90" t="s">
+      <c r="E69" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F69" s="91"/>
+      <c r="F69" s="95"/>
       <c r="G69" s="24">
         <v>3</v>
       </c>
@@ -6068,10 +6074,10 @@
         <v>128</v>
       </c>
       <c r="D70" s="26"/>
-      <c r="E70" s="90" t="s">
+      <c r="E70" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F70" s="91"/>
+      <c r="F70" s="95"/>
       <c r="G70" s="24">
         <v>4</v>
       </c>
@@ -6111,10 +6117,10 @@
         <v>130</v>
       </c>
       <c r="D71" s="26"/>
-      <c r="E71" s="90" t="s">
+      <c r="E71" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F71" s="91"/>
+      <c r="F71" s="95"/>
       <c r="G71" s="24">
         <v>5</v>
       </c>
@@ -6154,10 +6160,10 @@
         <v>132</v>
       </c>
       <c r="D72" s="26"/>
-      <c r="E72" s="90" t="s">
+      <c r="E72" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F72" s="91"/>
+      <c r="F72" s="95"/>
       <c r="G72" s="24">
         <v>6</v>
       </c>
@@ -6197,10 +6203,10 @@
         <v>134</v>
       </c>
       <c r="D73" s="26"/>
-      <c r="E73" s="90" t="s">
+      <c r="E73" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F73" s="91"/>
+      <c r="F73" s="95"/>
       <c r="G73" s="24">
         <v>7</v>
       </c>
@@ -6240,10 +6246,10 @@
         <v>136</v>
       </c>
       <c r="D74" s="26"/>
-      <c r="E74" s="90" t="s">
+      <c r="E74" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F74" s="91"/>
+      <c r="F74" s="95"/>
       <c r="G74" s="24">
         <v>8</v>
       </c>
@@ -6283,10 +6289,10 @@
         <v>138</v>
       </c>
       <c r="D75" s="44"/>
-      <c r="E75" s="90" t="s">
+      <c r="E75" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F75" s="91"/>
+      <c r="F75" s="95"/>
       <c r="G75" s="24">
         <v>9</v>
       </c>
@@ -6326,10 +6332,10 @@
         <v>140</v>
       </c>
       <c r="D76" s="44"/>
-      <c r="E76" s="90" t="s">
+      <c r="E76" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F76" s="91"/>
+      <c r="F76" s="95"/>
       <c r="G76" s="24">
         <v>10</v>
       </c>
@@ -6369,10 +6375,10 @@
         <v>142</v>
       </c>
       <c r="D77" s="26"/>
-      <c r="E77" s="90" t="s">
+      <c r="E77" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F77" s="91"/>
+      <c r="F77" s="95"/>
       <c r="G77" s="24">
         <v>11</v>
       </c>
@@ -6412,10 +6418,10 @@
         <v>144</v>
       </c>
       <c r="D78" s="26"/>
-      <c r="E78" s="90" t="s">
+      <c r="E78" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F78" s="91"/>
+      <c r="F78" s="95"/>
       <c r="G78" s="24">
         <v>12</v>
       </c>
@@ -6455,10 +6461,10 @@
         <v>146</v>
       </c>
       <c r="D79" s="26"/>
-      <c r="E79" s="90" t="s">
+      <c r="E79" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F79" s="91"/>
+      <c r="F79" s="95"/>
       <c r="G79" s="24">
         <v>13</v>
       </c>
@@ -6498,10 +6504,10 @@
         <v>148</v>
       </c>
       <c r="D80" s="26"/>
-      <c r="E80" s="90" t="s">
+      <c r="E80" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F80" s="91"/>
+      <c r="F80" s="95"/>
       <c r="G80" s="24">
         <v>14</v>
       </c>
@@ -6541,10 +6547,10 @@
         <v>47</v>
       </c>
       <c r="D81" s="26"/>
-      <c r="E81" s="90" t="s">
+      <c r="E81" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F81" s="91"/>
+      <c r="F81" s="95"/>
       <c r="G81" s="24">
         <v>15</v>
       </c>
@@ -6584,10 +6590,10 @@
         <v>102</v>
       </c>
       <c r="D82" s="26"/>
-      <c r="E82" s="90" t="s">
+      <c r="E82" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F82" s="91"/>
+      <c r="F82" s="95"/>
       <c r="G82" s="24">
         <v>16</v>
       </c>
@@ -6627,10 +6633,10 @@
         <v>152</v>
       </c>
       <c r="D83" s="26"/>
-      <c r="E83" s="90" t="s">
+      <c r="E83" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F83" s="91"/>
+      <c r="F83" s="95"/>
       <c r="G83" s="24">
         <v>17</v>
       </c>
@@ -6670,10 +6676,10 @@
         <v>154</v>
       </c>
       <c r="D84" s="26"/>
-      <c r="E84" s="90" t="s">
+      <c r="E84" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F84" s="91"/>
+      <c r="F84" s="95"/>
       <c r="G84" s="24">
         <v>18</v>
       </c>
@@ -6713,10 +6719,10 @@
         <v>156</v>
       </c>
       <c r="D85" s="26"/>
-      <c r="E85" s="90" t="s">
+      <c r="E85" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F85" s="91"/>
+      <c r="F85" s="95"/>
       <c r="G85" s="24">
         <v>19</v>
       </c>
@@ -6756,10 +6762,10 @@
         <v>158</v>
       </c>
       <c r="D86" s="26"/>
-      <c r="E86" s="90" t="s">
+      <c r="E86" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F86" s="91"/>
+      <c r="F86" s="95"/>
       <c r="G86" s="24">
         <v>20</v>
       </c>
@@ -6799,10 +6805,10 @@
         <v>160</v>
       </c>
       <c r="D87" s="26"/>
-      <c r="E87" s="90" t="s">
+      <c r="E87" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F87" s="91"/>
+      <c r="F87" s="95"/>
       <c r="G87" s="24">
         <v>21</v>
       </c>
@@ -6842,10 +6848,10 @@
         <v>162</v>
       </c>
       <c r="D88" s="26"/>
-      <c r="E88" s="90" t="s">
+      <c r="E88" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F88" s="91"/>
+      <c r="F88" s="95"/>
       <c r="G88" s="24">
         <v>22</v>
       </c>
@@ -6885,10 +6891,10 @@
         <v>156</v>
       </c>
       <c r="D89" s="26"/>
-      <c r="E89" s="90" t="s">
+      <c r="E89" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F89" s="91"/>
+      <c r="F89" s="95"/>
       <c r="G89" s="24">
         <v>23</v>
       </c>
@@ -6922,8 +6928,8 @@
       <c r="B90" s="23"/>
       <c r="C90" s="41"/>
       <c r="D90" s="32"/>
-      <c r="E90" s="92"/>
-      <c r="F90" s="93"/>
+      <c r="E90" s="96"/>
+      <c r="F90" s="97"/>
       <c r="G90" s="23"/>
       <c r="H90" s="65"/>
       <c r="I90" s="66">
@@ -6953,8 +6959,8 @@
       <c r="B91" s="23"/>
       <c r="C91" s="41"/>
       <c r="D91" s="32"/>
-      <c r="E91" s="92"/>
-      <c r="F91" s="93"/>
+      <c r="E91" s="96"/>
+      <c r="F91" s="97"/>
       <c r="G91" s="23"/>
       <c r="H91" s="65"/>
       <c r="I91" s="66">
@@ -6990,10 +6996,10 @@
         <v>166</v>
       </c>
       <c r="D92" s="26"/>
-      <c r="E92" s="90" t="s">
+      <c r="E92" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F92" s="91"/>
+      <c r="F92" s="95"/>
       <c r="G92" s="24">
         <v>1</v>
       </c>
@@ -7033,10 +7039,10 @@
         <v>168</v>
       </c>
       <c r="D93" s="26"/>
-      <c r="E93" s="90" t="s">
+      <c r="E93" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F93" s="91"/>
+      <c r="F93" s="95"/>
       <c r="G93" s="24">
         <v>2</v>
       </c>
@@ -7076,10 +7082,10 @@
         <v>55</v>
       </c>
       <c r="D94" s="26"/>
-      <c r="E94" s="90" t="s">
+      <c r="E94" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F94" s="91"/>
+      <c r="F94" s="95"/>
       <c r="G94" s="24">
         <v>3</v>
       </c>
@@ -7119,10 +7125,10 @@
         <v>55</v>
       </c>
       <c r="D95" s="26"/>
-      <c r="E95" s="90" t="s">
+      <c r="E95" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F95" s="91"/>
+      <c r="F95" s="95"/>
       <c r="G95" s="24">
         <v>4</v>
       </c>
@@ -7162,10 +7168,10 @@
         <v>172</v>
       </c>
       <c r="D96" s="26"/>
-      <c r="E96" s="90" t="s">
+      <c r="E96" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F96" s="91"/>
+      <c r="F96" s="95"/>
       <c r="G96" s="24">
         <v>5</v>
       </c>
@@ -7205,10 +7211,10 @@
         <v>174</v>
       </c>
       <c r="D97" s="26"/>
-      <c r="E97" s="90" t="s">
+      <c r="E97" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F97" s="91"/>
+      <c r="F97" s="95"/>
       <c r="G97" s="24">
         <v>6</v>
       </c>
@@ -7248,10 +7254,10 @@
         <v>176</v>
       </c>
       <c r="D98" s="26"/>
-      <c r="E98" s="90" t="s">
+      <c r="E98" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F98" s="91"/>
+      <c r="F98" s="95"/>
       <c r="G98" s="24">
         <v>7</v>
       </c>
@@ -7291,10 +7297,10 @@
         <v>47</v>
       </c>
       <c r="D99" s="26"/>
-      <c r="E99" s="90" t="s">
+      <c r="E99" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F99" s="91"/>
+      <c r="F99" s="95"/>
       <c r="G99" s="24">
         <v>8</v>
       </c>
@@ -7334,10 +7340,10 @@
         <v>179</v>
       </c>
       <c r="D100" s="44"/>
-      <c r="E100" s="90" t="s">
+      <c r="E100" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F100" s="91"/>
+      <c r="F100" s="95"/>
       <c r="G100" s="24">
         <v>9</v>
       </c>
@@ -7377,10 +7383,10 @@
         <v>176</v>
       </c>
       <c r="D101" s="44"/>
-      <c r="E101" s="90" t="s">
+      <c r="E101" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F101" s="91"/>
+      <c r="F101" s="95"/>
       <c r="G101" s="24">
         <v>10</v>
       </c>
@@ -7420,10 +7426,10 @@
         <v>182</v>
       </c>
       <c r="D102" s="44"/>
-      <c r="E102" s="90" t="s">
+      <c r="E102" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F102" s="91"/>
+      <c r="F102" s="95"/>
       <c r="G102" s="24">
         <v>11</v>
       </c>
@@ -7461,10 +7467,10 @@
       </c>
       <c r="C103" s="22"/>
       <c r="D103" s="44"/>
-      <c r="E103" s="90" t="s">
+      <c r="E103" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F103" s="91"/>
+      <c r="F103" s="95"/>
       <c r="G103" s="24">
         <v>12</v>
       </c>
@@ -7504,10 +7510,10 @@
         <v>185</v>
       </c>
       <c r="D104" s="44"/>
-      <c r="E104" s="90" t="s">
+      <c r="E104" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F104" s="91"/>
+      <c r="F104" s="95"/>
       <c r="G104" s="24">
         <v>13</v>
       </c>
@@ -7547,10 +7553,10 @@
         <v>185</v>
       </c>
       <c r="D105" s="44"/>
-      <c r="E105" s="90" t="s">
+      <c r="E105" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F105" s="91"/>
+      <c r="F105" s="95"/>
       <c r="G105" s="24">
         <v>14</v>
       </c>
@@ -7590,10 +7596,10 @@
         <v>47</v>
       </c>
       <c r="D106" s="26"/>
-      <c r="E106" s="90" t="s">
+      <c r="E106" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F106" s="91"/>
+      <c r="F106" s="95"/>
       <c r="G106" s="24">
         <v>15</v>
       </c>
@@ -7633,10 +7639,10 @@
         <v>47</v>
       </c>
       <c r="D107" s="26"/>
-      <c r="E107" s="90" t="s">
+      <c r="E107" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F107" s="91"/>
+      <c r="F107" s="95"/>
       <c r="G107" s="24">
         <v>16</v>
       </c>
@@ -7676,10 +7682,10 @@
         <v>190</v>
       </c>
       <c r="D108" s="26"/>
-      <c r="E108" s="90" t="s">
+      <c r="E108" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F108" s="91"/>
+      <c r="F108" s="95"/>
       <c r="G108" s="24">
         <v>17</v>
       </c>
@@ -7719,10 +7725,10 @@
         <v>176</v>
       </c>
       <c r="D109" s="26"/>
-      <c r="E109" s="90" t="s">
+      <c r="E109" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F109" s="91"/>
+      <c r="F109" s="95"/>
       <c r="G109" s="24">
         <v>18</v>
       </c>
@@ -7762,10 +7768,10 @@
         <v>193</v>
       </c>
       <c r="D110" s="44"/>
-      <c r="E110" s="90" t="s">
+      <c r="E110" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F110" s="91"/>
+      <c r="F110" s="95"/>
       <c r="G110" s="24">
         <v>19</v>
       </c>
@@ -7805,10 +7811,10 @@
         <v>195</v>
       </c>
       <c r="D111" s="44"/>
-      <c r="E111" s="90" t="s">
+      <c r="E111" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F111" s="91"/>
+      <c r="F111" s="95"/>
       <c r="G111" s="24">
         <v>20</v>
       </c>
@@ -7848,10 +7854,10 @@
         <v>197</v>
       </c>
       <c r="D112" s="44"/>
-      <c r="E112" s="90" t="s">
+      <c r="E112" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F112" s="91"/>
+      <c r="F112" s="95"/>
       <c r="G112" s="24">
         <v>21</v>
       </c>
@@ -7885,8 +7891,8 @@
       <c r="B113" s="23"/>
       <c r="C113" s="41"/>
       <c r="D113" s="46"/>
-      <c r="E113" s="92"/>
-      <c r="F113" s="93"/>
+      <c r="E113" s="96"/>
+      <c r="F113" s="97"/>
       <c r="G113" s="23"/>
       <c r="H113" s="65"/>
       <c r="I113" s="66">
@@ -7916,8 +7922,8 @@
       <c r="B114" s="23"/>
       <c r="C114" s="41"/>
       <c r="D114" s="46"/>
-      <c r="E114" s="92"/>
-      <c r="F114" s="93"/>
+      <c r="E114" s="96"/>
+      <c r="F114" s="97"/>
       <c r="G114" s="23"/>
       <c r="H114" s="65"/>
       <c r="I114" s="66">
@@ -7953,10 +7959,10 @@
         <v>200</v>
       </c>
       <c r="D115" s="22"/>
-      <c r="E115" s="90" t="s">
+      <c r="E115" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F115" s="91"/>
+      <c r="F115" s="95"/>
       <c r="G115" s="24">
         <v>1</v>
       </c>
@@ -7996,10 +8002,10 @@
         <v>202</v>
       </c>
       <c r="D116" s="22"/>
-      <c r="E116" s="90" t="s">
+      <c r="E116" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F116" s="91"/>
+      <c r="F116" s="95"/>
       <c r="G116" s="24">
         <v>2</v>
       </c>
@@ -8039,10 +8045,10 @@
         <v>204</v>
       </c>
       <c r="D117" s="22"/>
-      <c r="E117" s="90" t="s">
+      <c r="E117" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F117" s="91"/>
+      <c r="F117" s="95"/>
       <c r="G117" s="24">
         <v>3</v>
       </c>
@@ -8082,10 +8088,10 @@
         <v>206</v>
       </c>
       <c r="D118" s="22"/>
-      <c r="E118" s="90" t="s">
+      <c r="E118" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F118" s="91"/>
+      <c r="F118" s="95"/>
       <c r="G118" s="24">
         <v>4</v>
       </c>
@@ -8125,10 +8131,10 @@
         <v>208</v>
       </c>
       <c r="D119" s="22"/>
-      <c r="E119" s="90" t="s">
+      <c r="E119" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F119" s="91"/>
+      <c r="F119" s="95"/>
       <c r="G119" s="24">
         <v>5</v>
       </c>
@@ -8168,10 +8174,10 @@
         <v>210</v>
       </c>
       <c r="D120" s="22"/>
-      <c r="E120" s="90" t="s">
+      <c r="E120" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F120" s="91"/>
+      <c r="F120" s="95"/>
       <c r="G120" s="24">
         <v>6</v>
       </c>
@@ -8211,10 +8217,10 @@
         <v>102</v>
       </c>
       <c r="D121" s="22"/>
-      <c r="E121" s="90" t="s">
+      <c r="E121" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F121" s="91"/>
+      <c r="F121" s="95"/>
       <c r="G121" s="24">
         <v>7</v>
       </c>
@@ -8254,10 +8260,10 @@
         <v>213</v>
       </c>
       <c r="D122" s="22"/>
-      <c r="E122" s="90" t="s">
+      <c r="E122" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F122" s="91"/>
+      <c r="F122" s="95"/>
       <c r="G122" s="24">
         <v>8</v>
       </c>
@@ -8297,10 +8303,10 @@
         <v>215</v>
       </c>
       <c r="D123" s="22"/>
-      <c r="E123" s="90" t="s">
+      <c r="E123" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F123" s="91"/>
+      <c r="F123" s="95"/>
       <c r="G123" s="24">
         <v>9</v>
       </c>
@@ -8340,10 +8346,10 @@
         <v>202</v>
       </c>
       <c r="D124" s="22"/>
-      <c r="E124" s="90" t="s">
+      <c r="E124" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F124" s="91"/>
+      <c r="F124" s="95"/>
       <c r="G124" s="24">
         <v>10</v>
       </c>
@@ -8383,10 +8389,10 @@
         <v>47</v>
       </c>
       <c r="D125" s="22"/>
-      <c r="E125" s="90" t="s">
+      <c r="E125" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F125" s="91"/>
+      <c r="F125" s="95"/>
       <c r="G125" s="24">
         <v>11</v>
       </c>
@@ -8426,10 +8432,10 @@
         <v>219</v>
       </c>
       <c r="D126" s="26"/>
-      <c r="E126" s="90" t="s">
+      <c r="E126" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F126" s="91"/>
+      <c r="F126" s="95"/>
       <c r="G126" s="24">
         <v>12</v>
       </c>
@@ -8469,10 +8475,10 @@
         <v>221</v>
       </c>
       <c r="D127" s="26"/>
-      <c r="E127" s="90" t="s">
+      <c r="E127" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F127" s="91"/>
+      <c r="F127" s="95"/>
       <c r="G127" s="24">
         <v>13</v>
       </c>
@@ -8512,10 +8518,10 @@
         <v>223</v>
       </c>
       <c r="D128" s="26"/>
-      <c r="E128" s="90" t="s">
+      <c r="E128" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F128" s="91"/>
+      <c r="F128" s="95"/>
       <c r="G128" s="24">
         <v>14</v>
       </c>
@@ -8555,10 +8561,10 @@
         <v>47</v>
       </c>
       <c r="D129" s="26"/>
-      <c r="E129" s="90" t="s">
+      <c r="E129" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F129" s="91"/>
+      <c r="F129" s="95"/>
       <c r="G129" s="24">
         <v>15</v>
       </c>
@@ -8598,10 +8604,10 @@
         <v>223</v>
       </c>
       <c r="D130" s="26"/>
-      <c r="E130" s="90" t="s">
+      <c r="E130" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F130" s="91"/>
+      <c r="F130" s="95"/>
       <c r="G130" s="24">
         <v>16</v>
       </c>
@@ -8641,10 +8647,10 @@
         <v>227</v>
       </c>
       <c r="D131" s="26"/>
-      <c r="E131" s="90" t="s">
+      <c r="E131" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F131" s="91"/>
+      <c r="F131" s="95"/>
       <c r="G131" s="24">
         <v>17</v>
       </c>
@@ -8684,10 +8690,10 @@
         <v>229</v>
       </c>
       <c r="D132" s="26"/>
-      <c r="E132" s="90" t="s">
+      <c r="E132" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F132" s="91"/>
+      <c r="F132" s="95"/>
       <c r="G132" s="24">
         <v>18</v>
       </c>
@@ -8727,10 +8733,10 @@
         <v>231</v>
       </c>
       <c r="D133" s="26"/>
-      <c r="E133" s="90" t="s">
+      <c r="E133" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F133" s="91"/>
+      <c r="F133" s="95"/>
       <c r="G133" s="24">
         <v>19</v>
       </c>
@@ -8770,10 +8776,10 @@
         <v>233</v>
       </c>
       <c r="D134" s="26"/>
-      <c r="E134" s="90" t="s">
+      <c r="E134" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F134" s="91"/>
+      <c r="F134" s="95"/>
       <c r="G134" s="24">
         <v>20</v>
       </c>
@@ -8815,10 +8821,10 @@
       <c r="D135" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="E135" s="90" t="s">
+      <c r="E135" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F135" s="91"/>
+      <c r="F135" s="95"/>
       <c r="G135" s="24">
         <v>21</v>
       </c>
@@ -8860,10 +8866,10 @@
       <c r="D136" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="E136" s="90" t="s">
+      <c r="E136" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F136" s="91"/>
+      <c r="F136" s="95"/>
       <c r="G136" s="24">
         <v>22</v>
       </c>
@@ -8903,10 +8909,10 @@
         <v>240</v>
       </c>
       <c r="D137" s="26"/>
-      <c r="E137" s="90" t="s">
+      <c r="E137" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F137" s="91"/>
+      <c r="F137" s="95"/>
       <c r="G137" s="24">
         <v>23</v>
       </c>
@@ -8946,10 +8952,10 @@
         <v>242</v>
       </c>
       <c r="D138" s="26"/>
-      <c r="E138" s="90" t="s">
+      <c r="E138" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F138" s="91"/>
+      <c r="F138" s="95"/>
       <c r="G138" s="24">
         <v>24</v>
       </c>
@@ -8989,10 +8995,10 @@
         <v>244</v>
       </c>
       <c r="D139" s="26"/>
-      <c r="E139" s="90" t="s">
+      <c r="E139" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F139" s="91"/>
+      <c r="F139" s="95"/>
       <c r="G139" s="24">
         <v>25</v>
       </c>
@@ -9032,10 +9038,10 @@
         <v>246</v>
       </c>
       <c r="D140" s="26"/>
-      <c r="E140" s="90" t="s">
+      <c r="E140" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F140" s="91"/>
+      <c r="F140" s="95"/>
       <c r="G140" s="24">
         <v>26</v>
       </c>
@@ -9134,10 +9140,10 @@
         <v>249</v>
       </c>
       <c r="D143" s="26"/>
-      <c r="E143" s="90" t="s">
+      <c r="E143" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F143" s="91"/>
+      <c r="F143" s="95"/>
       <c r="G143" s="24">
         <v>1</v>
       </c>
@@ -9177,10 +9183,10 @@
         <v>251</v>
       </c>
       <c r="D144" s="35"/>
-      <c r="E144" s="90" t="s">
+      <c r="E144" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F144" s="91"/>
+      <c r="F144" s="95"/>
       <c r="G144" s="24">
         <v>2</v>
       </c>
@@ -9220,10 +9226,10 @@
         <v>253</v>
       </c>
       <c r="D145" s="35"/>
-      <c r="E145" s="90" t="s">
+      <c r="E145" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F145" s="91"/>
+      <c r="F145" s="95"/>
       <c r="G145" s="24">
         <v>3</v>
       </c>
@@ -9263,10 +9269,10 @@
         <v>255</v>
       </c>
       <c r="D146" s="35"/>
-      <c r="E146" s="90" t="s">
+      <c r="E146" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F146" s="91"/>
+      <c r="F146" s="95"/>
       <c r="G146" s="24">
         <v>4</v>
       </c>
@@ -9306,10 +9312,10 @@
         <v>257</v>
       </c>
       <c r="D147" s="35"/>
-      <c r="E147" s="90" t="s">
+      <c r="E147" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F147" s="91"/>
+      <c r="F147" s="95"/>
       <c r="G147" s="24">
         <v>5</v>
       </c>
@@ -9349,10 +9355,10 @@
         <v>259</v>
       </c>
       <c r="D148" s="35"/>
-      <c r="E148" s="90" t="s">
+      <c r="E148" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F148" s="91"/>
+      <c r="F148" s="95"/>
       <c r="G148" s="24">
         <v>6</v>
       </c>
@@ -9392,10 +9398,10 @@
         <v>261</v>
       </c>
       <c r="D149" s="35"/>
-      <c r="E149" s="90" t="s">
+      <c r="E149" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F149" s="91"/>
+      <c r="F149" s="95"/>
       <c r="G149" s="24">
         <v>7</v>
       </c>
@@ -9435,10 +9441,10 @@
         <v>263</v>
       </c>
       <c r="D150" s="35"/>
-      <c r="E150" s="90" t="s">
+      <c r="E150" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F150" s="91"/>
+      <c r="F150" s="95"/>
       <c r="G150" s="24">
         <v>8</v>
       </c>
@@ -9478,10 +9484,10 @@
         <v>265</v>
       </c>
       <c r="D151" s="35"/>
-      <c r="E151" s="90" t="s">
+      <c r="E151" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F151" s="91"/>
+      <c r="F151" s="95"/>
       <c r="G151" s="24">
         <v>9</v>
       </c>
@@ -9521,10 +9527,10 @@
         <v>267</v>
       </c>
       <c r="D152" s="44"/>
-      <c r="E152" s="90" t="s">
+      <c r="E152" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F152" s="91"/>
+      <c r="F152" s="95"/>
       <c r="G152" s="24">
         <v>10</v>
       </c>
@@ -9564,10 +9570,10 @@
         <v>269</v>
       </c>
       <c r="D153" s="44"/>
-      <c r="E153" s="90" t="s">
+      <c r="E153" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F153" s="91"/>
+      <c r="F153" s="95"/>
       <c r="G153" s="24">
         <v>11</v>
       </c>
@@ -9607,10 +9613,10 @@
         <v>271</v>
       </c>
       <c r="D154" s="44"/>
-      <c r="E154" s="90" t="s">
+      <c r="E154" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F154" s="91"/>
+      <c r="F154" s="95"/>
       <c r="G154" s="24">
         <v>12</v>
       </c>
@@ -9650,10 +9656,10 @@
         <v>47</v>
       </c>
       <c r="D155" s="44"/>
-      <c r="E155" s="90" t="s">
+      <c r="E155" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F155" s="91"/>
+      <c r="F155" s="95"/>
       <c r="G155" s="24">
         <v>13</v>
       </c>
@@ -9693,10 +9699,10 @@
         <v>274</v>
       </c>
       <c r="D156" s="44"/>
-      <c r="E156" s="90" t="s">
+      <c r="E156" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F156" s="91"/>
+      <c r="F156" s="95"/>
       <c r="G156" s="24">
         <v>14</v>
       </c>
@@ -9736,10 +9742,10 @@
         <v>276</v>
       </c>
       <c r="D157" s="44"/>
-      <c r="E157" s="90" t="s">
+      <c r="E157" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F157" s="91"/>
+      <c r="F157" s="95"/>
       <c r="G157" s="24">
         <v>15</v>
       </c>
@@ -9779,10 +9785,10 @@
         <v>278</v>
       </c>
       <c r="D158" s="44"/>
-      <c r="E158" s="90" t="s">
+      <c r="E158" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F158" s="91"/>
+      <c r="F158" s="95"/>
       <c r="G158" s="24">
         <v>16</v>
       </c>
@@ -9822,10 +9828,10 @@
         <v>271</v>
       </c>
       <c r="D159" s="44"/>
-      <c r="E159" s="90" t="s">
+      <c r="E159" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F159" s="91"/>
+      <c r="F159" s="95"/>
       <c r="G159" s="24">
         <v>17</v>
       </c>
@@ -9865,10 +9871,10 @@
         <v>281</v>
       </c>
       <c r="D160" s="44"/>
-      <c r="E160" s="90" t="s">
+      <c r="E160" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F160" s="91"/>
+      <c r="F160" s="95"/>
       <c r="G160" s="24">
         <v>18</v>
       </c>
@@ -9908,10 +9914,10 @@
         <v>253</v>
       </c>
       <c r="D161" s="44"/>
-      <c r="E161" s="90" t="s">
+      <c r="E161" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F161" s="91"/>
+      <c r="F161" s="95"/>
       <c r="G161" s="24">
         <v>19</v>
       </c>
@@ -9951,10 +9957,10 @@
         <v>284</v>
       </c>
       <c r="D162" s="44"/>
-      <c r="E162" s="90" t="s">
+      <c r="E162" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F162" s="91"/>
+      <c r="F162" s="95"/>
       <c r="G162" s="24">
         <v>20</v>
       </c>
@@ -9994,10 +10000,10 @@
         <v>286</v>
       </c>
       <c r="D163" s="44"/>
-      <c r="E163" s="90" t="s">
+      <c r="E163" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F163" s="91"/>
+      <c r="F163" s="95"/>
       <c r="G163" s="24">
         <v>21</v>
       </c>
@@ -10037,10 +10043,10 @@
         <v>197</v>
       </c>
       <c r="D164" s="44"/>
-      <c r="E164" s="90" t="s">
+      <c r="E164" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F164" s="91"/>
+      <c r="F164" s="95"/>
       <c r="G164" s="24">
         <v>22</v>
       </c>
@@ -10080,10 +10086,10 @@
         <v>278</v>
       </c>
       <c r="D165" s="44"/>
-      <c r="E165" s="90" t="s">
+      <c r="E165" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F165" s="91"/>
+      <c r="F165" s="95"/>
       <c r="G165" s="24">
         <v>23</v>
       </c>
@@ -10123,10 +10129,10 @@
         <v>276</v>
       </c>
       <c r="D166" s="44"/>
-      <c r="E166" s="90" t="s">
+      <c r="E166" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F166" s="91"/>
+      <c r="F166" s="95"/>
       <c r="G166" s="24">
         <v>24</v>
       </c>
@@ -10166,10 +10172,10 @@
         <v>291</v>
       </c>
       <c r="D167" s="44"/>
-      <c r="E167" s="90" t="s">
+      <c r="E167" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F167" s="91"/>
+      <c r="F167" s="95"/>
       <c r="G167" s="24">
         <v>25</v>
       </c>
@@ -10209,10 +10215,10 @@
         <v>293</v>
       </c>
       <c r="D168" s="36"/>
-      <c r="E168" s="90" t="s">
+      <c r="E168" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F168" s="91"/>
+      <c r="F168" s="95"/>
       <c r="G168" s="24">
         <v>26</v>
       </c>
@@ -10252,10 +10258,10 @@
         <v>182</v>
       </c>
       <c r="D169" s="36"/>
-      <c r="E169" s="90" t="s">
+      <c r="E169" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F169" s="91"/>
+      <c r="F169" s="95"/>
       <c r="G169" s="24">
         <v>27</v>
       </c>
@@ -10289,8 +10295,8 @@
       <c r="B170" s="53"/>
       <c r="C170" s="41"/>
       <c r="D170" s="37"/>
-      <c r="E170" s="92"/>
-      <c r="F170" s="93"/>
+      <c r="E170" s="96"/>
+      <c r="F170" s="97"/>
       <c r="G170" s="23"/>
       <c r="H170" s="58"/>
       <c r="I170" s="66">
@@ -10320,8 +10326,8 @@
       <c r="B171" s="23"/>
       <c r="C171" s="41"/>
       <c r="D171" s="32"/>
-      <c r="E171" s="92"/>
-      <c r="F171" s="93"/>
+      <c r="E171" s="96"/>
+      <c r="F171" s="97"/>
       <c r="G171" s="23"/>
       <c r="H171" s="58"/>
       <c r="I171" s="66">
@@ -10357,10 +10363,10 @@
         <v>297</v>
       </c>
       <c r="D172" s="26"/>
-      <c r="E172" s="90" t="s">
+      <c r="E172" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F172" s="91"/>
+      <c r="F172" s="95"/>
       <c r="G172" s="24">
         <v>1</v>
       </c>
@@ -10400,10 +10406,10 @@
         <v>299</v>
       </c>
       <c r="D173" s="26"/>
-      <c r="E173" s="90" t="s">
+      <c r="E173" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F173" s="91"/>
+      <c r="F173" s="95"/>
       <c r="G173" s="24">
         <v>2</v>
       </c>
@@ -10443,10 +10449,10 @@
         <v>115</v>
       </c>
       <c r="D174" s="26"/>
-      <c r="E174" s="90" t="s">
+      <c r="E174" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F174" s="91"/>
+      <c r="F174" s="95"/>
       <c r="G174" s="24">
         <v>3</v>
       </c>
@@ -10486,10 +10492,10 @@
         <v>102</v>
       </c>
       <c r="D175" s="26"/>
-      <c r="E175" s="90" t="s">
+      <c r="E175" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F175" s="91"/>
+      <c r="F175" s="95"/>
       <c r="G175" s="24">
         <v>4</v>
       </c>
@@ -10529,10 +10535,10 @@
         <v>303</v>
       </c>
       <c r="D176" s="26"/>
-      <c r="E176" s="90" t="s">
+      <c r="E176" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F176" s="91"/>
+      <c r="F176" s="95"/>
       <c r="G176" s="24">
         <v>5</v>
       </c>
@@ -10570,10 +10576,10 @@
       </c>
       <c r="C177" s="54"/>
       <c r="D177" s="44"/>
-      <c r="E177" s="90" t="s">
+      <c r="E177" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F177" s="91"/>
+      <c r="F177" s="95"/>
       <c r="G177" s="24">
         <v>6</v>
       </c>
@@ -10613,10 +10619,10 @@
         <v>306</v>
       </c>
       <c r="D178" s="44"/>
-      <c r="E178" s="90" t="s">
+      <c r="E178" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F178" s="91"/>
+      <c r="F178" s="95"/>
       <c r="G178" s="24">
         <v>7</v>
       </c>
@@ -10656,10 +10662,10 @@
         <v>308</v>
       </c>
       <c r="D179" s="44"/>
-      <c r="E179" s="90" t="s">
+      <c r="E179" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F179" s="91"/>
+      <c r="F179" s="95"/>
       <c r="G179" s="24">
         <v>8</v>
       </c>
@@ -10697,10 +10703,10 @@
       </c>
       <c r="C180" s="54"/>
       <c r="D180" s="44"/>
-      <c r="E180" s="90" t="s">
+      <c r="E180" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F180" s="91"/>
+      <c r="F180" s="95"/>
       <c r="G180" s="24">
         <v>9</v>
       </c>
@@ -10740,10 +10746,10 @@
         <v>91</v>
       </c>
       <c r="D181" s="44"/>
-      <c r="E181" s="90" t="s">
+      <c r="E181" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F181" s="91"/>
+      <c r="F181" s="95"/>
       <c r="G181" s="24">
         <v>10</v>
       </c>
@@ -10783,10 +10789,10 @@
         <v>312</v>
       </c>
       <c r="D182" s="44"/>
-      <c r="E182" s="90" t="s">
+      <c r="E182" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F182" s="91"/>
+      <c r="F182" s="95"/>
       <c r="G182" s="24">
         <v>11</v>
       </c>
@@ -10826,10 +10832,10 @@
         <v>314</v>
       </c>
       <c r="D183" s="44"/>
-      <c r="E183" s="90" t="s">
+      <c r="E183" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F183" s="91"/>
+      <c r="F183" s="95"/>
       <c r="G183" s="24">
         <v>12</v>
       </c>
@@ -10869,10 +10875,10 @@
         <v>316</v>
       </c>
       <c r="D184" s="44"/>
-      <c r="E184" s="90" t="s">
+      <c r="E184" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F184" s="91"/>
+      <c r="F184" s="95"/>
       <c r="G184" s="24">
         <v>13</v>
       </c>
@@ -10912,10 +10918,10 @@
         <v>115</v>
       </c>
       <c r="D185" s="44"/>
-      <c r="E185" s="90" t="s">
+      <c r="E185" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F185" s="91"/>
+      <c r="F185" s="95"/>
       <c r="G185" s="24">
         <v>14</v>
       </c>
@@ -10955,10 +10961,10 @@
         <v>47</v>
       </c>
       <c r="D186" s="44"/>
-      <c r="E186" s="90" t="s">
+      <c r="E186" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F186" s="91"/>
+      <c r="F186" s="95"/>
       <c r="G186" s="24">
         <v>15</v>
       </c>
@@ -10998,10 +11004,10 @@
         <v>320</v>
       </c>
       <c r="D187" s="44"/>
-      <c r="E187" s="90" t="s">
+      <c r="E187" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F187" s="91"/>
+      <c r="F187" s="95"/>
       <c r="G187" s="24">
         <v>16</v>
       </c>
@@ -11039,10 +11045,10 @@
       </c>
       <c r="C188" s="22"/>
       <c r="D188" s="44"/>
-      <c r="E188" s="90" t="s">
+      <c r="E188" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F188" s="91"/>
+      <c r="F188" s="95"/>
       <c r="G188" s="24">
         <v>17</v>
       </c>
@@ -11082,10 +11088,10 @@
         <v>323</v>
       </c>
       <c r="D189" s="44"/>
-      <c r="E189" s="90" t="s">
+      <c r="E189" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F189" s="91"/>
+      <c r="F189" s="95"/>
       <c r="G189" s="24">
         <v>18</v>
       </c>
@@ -11125,10 +11131,10 @@
         <v>312</v>
       </c>
       <c r="D190" s="44"/>
-      <c r="E190" s="90" t="s">
+      <c r="E190" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F190" s="91"/>
+      <c r="F190" s="95"/>
       <c r="G190" s="24">
         <v>19</v>
       </c>
@@ -11166,10 +11172,10 @@
       </c>
       <c r="C191" s="22"/>
       <c r="D191" s="44"/>
-      <c r="E191" s="90" t="s">
+      <c r="E191" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F191" s="91"/>
+      <c r="F191" s="95"/>
       <c r="G191" s="24">
         <v>20</v>
       </c>
@@ -11207,10 +11213,10 @@
       </c>
       <c r="C192" s="22"/>
       <c r="D192" s="44"/>
-      <c r="E192" s="90" t="s">
+      <c r="E192" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F192" s="91"/>
+      <c r="F192" s="95"/>
       <c r="G192" s="24">
         <v>21</v>
       </c>
@@ -11250,10 +11256,10 @@
         <v>316</v>
       </c>
       <c r="D193" s="44"/>
-      <c r="E193" s="90" t="s">
+      <c r="E193" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F193" s="91"/>
+      <c r="F193" s="95"/>
       <c r="G193" s="24">
         <v>22</v>
       </c>
@@ -11287,8 +11293,8 @@
       <c r="B194" s="23"/>
       <c r="C194" s="41"/>
       <c r="D194" s="32"/>
-      <c r="E194" s="92"/>
-      <c r="F194" s="93"/>
+      <c r="E194" s="96"/>
+      <c r="F194" s="97"/>
       <c r="G194" s="23"/>
       <c r="H194" s="58"/>
       <c r="I194" s="66">
@@ -11318,8 +11324,8 @@
       <c r="B195" s="23"/>
       <c r="C195" s="41"/>
       <c r="D195" s="32"/>
-      <c r="E195" s="92"/>
-      <c r="F195" s="93"/>
+      <c r="E195" s="96"/>
+      <c r="F195" s="97"/>
       <c r="G195" s="23"/>
       <c r="H195" s="58"/>
       <c r="I195" s="66">
@@ -11355,10 +11361,10 @@
         <v>330</v>
       </c>
       <c r="D196" s="26"/>
-      <c r="E196" s="90" t="s">
+      <c r="E196" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F196" s="91"/>
+      <c r="F196" s="95"/>
       <c r="G196" s="24">
         <v>1</v>
       </c>
@@ -11398,10 +11404,10 @@
         <v>332</v>
       </c>
       <c r="D197" s="26"/>
-      <c r="E197" s="90" t="s">
+      <c r="E197" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F197" s="91"/>
+      <c r="F197" s="95"/>
       <c r="G197" s="24">
         <v>2</v>
       </c>
@@ -11441,10 +11447,10 @@
         <v>334</v>
       </c>
       <c r="D198" s="26"/>
-      <c r="E198" s="90" t="s">
+      <c r="E198" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F198" s="91"/>
+      <c r="F198" s="95"/>
       <c r="G198" s="24">
         <v>3</v>
       </c>
@@ -11484,10 +11490,10 @@
         <v>336</v>
       </c>
       <c r="D199" s="26"/>
-      <c r="E199" s="90" t="s">
+      <c r="E199" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F199" s="91"/>
+      <c r="F199" s="95"/>
       <c r="G199" s="24">
         <v>4</v>
       </c>
@@ -11527,10 +11533,10 @@
         <v>338</v>
       </c>
       <c r="D200" s="26"/>
-      <c r="E200" s="90" t="s">
+      <c r="E200" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F200" s="91"/>
+      <c r="F200" s="95"/>
       <c r="G200" s="24">
         <v>5</v>
       </c>
@@ -11570,10 +11576,10 @@
         <v>340</v>
       </c>
       <c r="D201" s="26"/>
-      <c r="E201" s="90" t="s">
+      <c r="E201" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F201" s="91"/>
+      <c r="F201" s="95"/>
       <c r="G201" s="24">
         <v>6</v>
       </c>
@@ -11613,10 +11619,10 @@
         <v>97</v>
       </c>
       <c r="D202" s="44"/>
-      <c r="E202" s="90" t="s">
+      <c r="E202" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F202" s="91"/>
+      <c r="F202" s="95"/>
       <c r="G202" s="24">
         <v>7</v>
       </c>
@@ -11656,10 +11662,10 @@
         <v>343</v>
       </c>
       <c r="D203" s="44"/>
-      <c r="E203" s="90" t="s">
+      <c r="E203" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F203" s="91"/>
+      <c r="F203" s="95"/>
       <c r="G203" s="24">
         <v>8</v>
       </c>
@@ -11699,10 +11705,10 @@
         <v>345</v>
       </c>
       <c r="D204" s="44"/>
-      <c r="E204" s="90" t="s">
+      <c r="E204" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F204" s="91"/>
+      <c r="F204" s="95"/>
       <c r="G204" s="24">
         <v>9</v>
       </c>
@@ -11742,10 +11748,10 @@
         <v>102</v>
       </c>
       <c r="D205" s="44"/>
-      <c r="E205" s="90" t="s">
+      <c r="E205" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F205" s="91"/>
+      <c r="F205" s="95"/>
       <c r="G205" s="24">
         <v>10</v>
       </c>
@@ -11785,10 +11791,10 @@
         <v>348</v>
       </c>
       <c r="D206" s="44"/>
-      <c r="E206" s="90" t="s">
+      <c r="E206" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F206" s="91"/>
+      <c r="F206" s="95"/>
       <c r="G206" s="24">
         <v>11</v>
       </c>
@@ -11828,10 +11834,10 @@
         <v>350</v>
       </c>
       <c r="D207" s="44"/>
-      <c r="E207" s="90" t="s">
+      <c r="E207" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F207" s="91"/>
+      <c r="F207" s="95"/>
       <c r="G207" s="24">
         <v>12</v>
       </c>
@@ -11871,10 +11877,10 @@
         <v>312</v>
       </c>
       <c r="D208" s="44"/>
-      <c r="E208" s="90" t="s">
+      <c r="E208" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F208" s="91"/>
+      <c r="F208" s="95"/>
       <c r="G208" s="24">
         <v>13</v>
       </c>
@@ -11914,10 +11920,10 @@
         <v>291</v>
       </c>
       <c r="D209" s="44"/>
-      <c r="E209" s="90" t="s">
+      <c r="E209" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F209" s="91"/>
+      <c r="F209" s="95"/>
       <c r="G209" s="24">
         <v>14</v>
       </c>
@@ -11957,10 +11963,10 @@
         <v>354</v>
       </c>
       <c r="D210" s="26"/>
-      <c r="E210" s="90" t="s">
+      <c r="E210" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F210" s="91"/>
+      <c r="F210" s="95"/>
       <c r="G210" s="24">
         <v>15</v>
       </c>
@@ -12000,10 +12006,10 @@
         <v>330</v>
       </c>
       <c r="D211" s="26"/>
-      <c r="E211" s="90" t="s">
+      <c r="E211" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F211" s="91"/>
+      <c r="F211" s="95"/>
       <c r="G211" s="24">
         <v>16</v>
       </c>
@@ -12043,10 +12049,10 @@
         <v>357</v>
       </c>
       <c r="D212" s="26"/>
-      <c r="E212" s="90" t="s">
+      <c r="E212" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F212" s="91"/>
+      <c r="F212" s="95"/>
       <c r="G212" s="24">
         <v>17</v>
       </c>
@@ -12086,10 +12092,10 @@
         <v>359</v>
       </c>
       <c r="D213" s="26"/>
-      <c r="E213" s="90" t="s">
+      <c r="E213" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F213" s="91"/>
+      <c r="F213" s="95"/>
       <c r="G213" s="24">
         <v>18</v>
       </c>
@@ -12129,10 +12135,10 @@
         <v>361</v>
       </c>
       <c r="D214" s="26"/>
-      <c r="E214" s="90" t="s">
+      <c r="E214" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F214" s="91"/>
+      <c r="F214" s="95"/>
       <c r="G214" s="24">
         <v>19</v>
       </c>
@@ -12172,10 +12178,10 @@
         <v>312</v>
       </c>
       <c r="D215" s="26"/>
-      <c r="E215" s="90" t="s">
+      <c r="E215" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F215" s="91"/>
+      <c r="F215" s="95"/>
       <c r="G215" s="24">
         <v>20</v>
       </c>
@@ -12215,10 +12221,10 @@
         <v>364</v>
       </c>
       <c r="D216" s="26"/>
-      <c r="E216" s="90" t="s">
+      <c r="E216" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F216" s="91"/>
+      <c r="F216" s="95"/>
       <c r="G216" s="24">
         <v>21</v>
       </c>
@@ -12258,10 +12264,10 @@
         <v>366</v>
       </c>
       <c r="D217" s="26"/>
-      <c r="E217" s="90" t="s">
+      <c r="E217" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F217" s="91"/>
+      <c r="F217" s="95"/>
       <c r="G217" s="24">
         <v>22</v>
       </c>
@@ -12301,10 +12307,10 @@
         <v>368</v>
       </c>
       <c r="D218" s="26"/>
-      <c r="E218" s="90" t="s">
+      <c r="E218" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F218" s="91"/>
+      <c r="F218" s="95"/>
       <c r="G218" s="24">
         <v>23</v>
       </c>
@@ -12344,10 +12350,10 @@
         <v>115</v>
       </c>
       <c r="D219" s="26"/>
-      <c r="E219" s="90" t="s">
+      <c r="E219" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F219" s="91"/>
+      <c r="F219" s="95"/>
       <c r="G219" s="24">
         <v>24</v>
       </c>
@@ -12387,10 +12393,10 @@
         <v>371</v>
       </c>
       <c r="D220" s="26"/>
-      <c r="E220" s="90" t="s">
+      <c r="E220" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F220" s="91"/>
+      <c r="F220" s="95"/>
       <c r="G220" s="24">
         <v>25</v>
       </c>
@@ -12430,10 +12436,10 @@
         <v>373</v>
       </c>
       <c r="D221" s="26"/>
-      <c r="E221" s="90" t="s">
+      <c r="E221" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F221" s="91"/>
+      <c r="F221" s="95"/>
       <c r="G221" s="24">
         <v>26</v>
       </c>
@@ -12473,10 +12479,10 @@
         <v>375</v>
       </c>
       <c r="D222" s="26"/>
-      <c r="E222" s="90" t="s">
+      <c r="E222" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F222" s="91"/>
+      <c r="F222" s="95"/>
       <c r="G222" s="24">
         <v>27</v>
       </c>
@@ -12516,10 +12522,10 @@
         <v>377</v>
       </c>
       <c r="D223" s="26"/>
-      <c r="E223" s="90" t="s">
+      <c r="E223" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F223" s="91"/>
+      <c r="F223" s="95"/>
       <c r="G223" s="24">
         <v>28</v>
       </c>
@@ -12559,10 +12565,10 @@
         <v>379</v>
       </c>
       <c r="D224" s="26"/>
-      <c r="E224" s="90" t="s">
+      <c r="E224" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F224" s="91"/>
+      <c r="F224" s="95"/>
       <c r="G224" s="24">
         <v>29</v>
       </c>
@@ -12602,10 +12608,10 @@
         <v>381</v>
       </c>
       <c r="D225" s="26"/>
-      <c r="E225" s="90" t="s">
+      <c r="E225" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F225" s="91"/>
+      <c r="F225" s="95"/>
       <c r="G225" s="24">
         <v>30</v>
       </c>
@@ -12645,10 +12651,10 @@
         <v>383</v>
       </c>
       <c r="D226" s="26"/>
-      <c r="E226" s="90" t="s">
+      <c r="E226" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F226" s="91"/>
+      <c r="F226" s="95"/>
       <c r="G226" s="24">
         <v>31</v>
       </c>
@@ -12688,10 +12694,10 @@
         <v>385</v>
       </c>
       <c r="D227" s="26"/>
-      <c r="E227" s="90" t="s">
+      <c r="E227" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F227" s="91"/>
+      <c r="F227" s="95"/>
       <c r="G227" s="24">
         <v>32</v>
       </c>
@@ -12731,10 +12737,10 @@
         <v>387</v>
       </c>
       <c r="D228" s="26"/>
-      <c r="E228" s="90" t="s">
+      <c r="E228" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F228" s="91"/>
+      <c r="F228" s="95"/>
       <c r="G228" s="24">
         <v>33</v>
       </c>
@@ -12768,8 +12774,8 @@
       <c r="B229" s="23"/>
       <c r="C229" s="41"/>
       <c r="D229" s="32"/>
-      <c r="E229" s="92"/>
-      <c r="F229" s="93"/>
+      <c r="E229" s="96"/>
+      <c r="F229" s="97"/>
       <c r="G229" s="23"/>
       <c r="H229" s="58"/>
       <c r="I229" s="66">
@@ -12799,8 +12805,8 @@
       <c r="B230" s="23"/>
       <c r="C230" s="41"/>
       <c r="D230" s="32"/>
-      <c r="E230" s="92"/>
-      <c r="F230" s="93"/>
+      <c r="E230" s="96"/>
+      <c r="F230" s="97"/>
       <c r="G230" s="23"/>
       <c r="H230" s="58"/>
       <c r="I230" s="66">
@@ -12836,10 +12842,10 @@
         <v>390</v>
       </c>
       <c r="D231" s="26"/>
-      <c r="E231" s="90" t="s">
+      <c r="E231" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F231" s="91"/>
+      <c r="F231" s="95"/>
       <c r="G231" s="24">
         <v>1</v>
       </c>
@@ -12879,10 +12885,10 @@
         <v>392</v>
       </c>
       <c r="D232" s="26"/>
-      <c r="E232" s="90" t="s">
+      <c r="E232" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F232" s="91"/>
+      <c r="F232" s="95"/>
       <c r="G232" s="24">
         <v>2</v>
       </c>
@@ -12922,10 +12928,10 @@
         <v>91</v>
       </c>
       <c r="D233" s="26"/>
-      <c r="E233" s="90" t="s">
+      <c r="E233" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F233" s="91"/>
+      <c r="F233" s="95"/>
       <c r="G233" s="24">
         <v>3</v>
       </c>
@@ -12965,10 +12971,10 @@
         <v>395</v>
       </c>
       <c r="D234" s="22"/>
-      <c r="E234" s="90" t="s">
+      <c r="E234" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F234" s="91"/>
+      <c r="F234" s="95"/>
       <c r="G234" s="24">
         <v>4</v>
       </c>
@@ -13008,10 +13014,10 @@
         <v>223</v>
       </c>
       <c r="D235" s="22"/>
-      <c r="E235" s="90" t="s">
+      <c r="E235" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F235" s="91"/>
+      <c r="F235" s="95"/>
       <c r="G235" s="24">
         <v>5</v>
       </c>
@@ -13051,10 +13057,10 @@
         <v>398</v>
       </c>
       <c r="D236" s="22"/>
-      <c r="E236" s="90" t="s">
+      <c r="E236" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F236" s="91"/>
+      <c r="F236" s="95"/>
       <c r="G236" s="24">
         <v>6</v>
       </c>
@@ -13094,10 +13100,10 @@
         <v>400</v>
       </c>
       <c r="D237" s="22"/>
-      <c r="E237" s="90" t="s">
+      <c r="E237" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F237" s="91"/>
+      <c r="F237" s="95"/>
       <c r="G237" s="24">
         <v>7</v>
       </c>
@@ -13137,10 +13143,10 @@
         <v>402</v>
       </c>
       <c r="D238" s="22"/>
-      <c r="E238" s="90" t="s">
+      <c r="E238" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F238" s="91"/>
+      <c r="F238" s="95"/>
       <c r="G238" s="24">
         <v>8</v>
       </c>
@@ -13180,10 +13186,10 @@
         <v>404</v>
       </c>
       <c r="D239" s="22"/>
-      <c r="E239" s="90" t="s">
+      <c r="E239" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F239" s="91"/>
+      <c r="F239" s="95"/>
       <c r="G239" s="24">
         <v>9</v>
       </c>
@@ -13223,10 +13229,10 @@
         <v>406</v>
       </c>
       <c r="D240" s="22"/>
-      <c r="E240" s="90" t="s">
+      <c r="E240" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F240" s="91"/>
+      <c r="F240" s="95"/>
       <c r="G240" s="24">
         <v>10</v>
       </c>
@@ -13266,10 +13272,10 @@
         <v>91</v>
       </c>
       <c r="D241" s="22"/>
-      <c r="E241" s="90" t="s">
+      <c r="E241" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F241" s="91"/>
+      <c r="F241" s="95"/>
       <c r="G241" s="24">
         <v>11</v>
       </c>
@@ -13309,10 +13315,10 @@
         <v>409</v>
       </c>
       <c r="D242" s="22"/>
-      <c r="E242" s="90" t="s">
+      <c r="E242" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F242" s="91"/>
+      <c r="F242" s="95"/>
       <c r="G242" s="24">
         <v>12</v>
       </c>
@@ -13352,10 +13358,10 @@
         <v>411</v>
       </c>
       <c r="D243" s="22"/>
-      <c r="E243" s="90" t="s">
+      <c r="E243" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F243" s="91"/>
+      <c r="F243" s="95"/>
       <c r="G243" s="24">
         <v>13</v>
       </c>
@@ -13395,10 +13401,10 @@
         <v>413</v>
       </c>
       <c r="D244" s="22"/>
-      <c r="E244" s="90" t="s">
+      <c r="E244" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F244" s="91"/>
+      <c r="F244" s="95"/>
       <c r="G244" s="24">
         <v>14</v>
       </c>
@@ -13438,10 +13444,10 @@
         <v>238</v>
       </c>
       <c r="D245" s="22"/>
-      <c r="E245" s="90" t="s">
+      <c r="E245" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F245" s="91"/>
+      <c r="F245" s="95"/>
       <c r="G245" s="24">
         <v>15</v>
       </c>
@@ -13481,10 +13487,10 @@
         <v>361</v>
       </c>
       <c r="D246" s="22"/>
-      <c r="E246" s="90" t="s">
+      <c r="E246" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F246" s="91"/>
+      <c r="F246" s="95"/>
       <c r="G246" s="24">
         <v>16</v>
       </c>
@@ -13524,10 +13530,10 @@
         <v>123</v>
       </c>
       <c r="D247" s="22"/>
-      <c r="E247" s="90" t="s">
+      <c r="E247" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F247" s="91"/>
+      <c r="F247" s="95"/>
       <c r="G247" s="24">
         <v>17</v>
       </c>
@@ -13567,10 +13573,10 @@
         <v>123</v>
       </c>
       <c r="D248" s="22"/>
-      <c r="E248" s="90" t="s">
+      <c r="E248" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F248" s="91"/>
+      <c r="F248" s="95"/>
       <c r="G248" s="24">
         <v>18</v>
       </c>
@@ -13610,10 +13616,10 @@
         <v>419</v>
       </c>
       <c r="D249" s="22"/>
-      <c r="E249" s="90" t="s">
+      <c r="E249" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F249" s="91"/>
+      <c r="F249" s="95"/>
       <c r="G249" s="24">
         <v>19</v>
       </c>
@@ -13653,10 +13659,10 @@
         <v>102</v>
       </c>
       <c r="D250" s="26"/>
-      <c r="E250" s="90" t="s">
+      <c r="E250" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F250" s="91"/>
+      <c r="F250" s="95"/>
       <c r="G250" s="24">
         <v>20</v>
       </c>
@@ -13698,10 +13704,10 @@
       <c r="D251" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="E251" s="90" t="s">
+      <c r="E251" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F251" s="91"/>
+      <c r="F251" s="95"/>
       <c r="G251" s="24">
         <v>21</v>
       </c>
@@ -13735,8 +13741,8 @@
       <c r="B252" s="23"/>
       <c r="C252" s="41"/>
       <c r="D252" s="32"/>
-      <c r="E252" s="92"/>
-      <c r="F252" s="93"/>
+      <c r="E252" s="96"/>
+      <c r="F252" s="97"/>
       <c r="G252" s="23"/>
       <c r="H252" s="58"/>
       <c r="I252" s="66">
@@ -13766,8 +13772,8 @@
       <c r="B253" s="23"/>
       <c r="C253" s="41"/>
       <c r="D253" s="32"/>
-      <c r="E253" s="92"/>
-      <c r="F253" s="93"/>
+      <c r="E253" s="96"/>
+      <c r="F253" s="97"/>
       <c r="G253" s="23"/>
       <c r="H253" s="58"/>
       <c r="I253" s="66">
@@ -13801,10 +13807,10 @@
       </c>
       <c r="C254" s="22"/>
       <c r="D254" s="26"/>
-      <c r="E254" s="90" t="s">
+      <c r="E254" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F254" s="91"/>
+      <c r="F254" s="95"/>
       <c r="G254" s="24">
         <v>1</v>
       </c>
@@ -13844,10 +13850,10 @@
         <v>160</v>
       </c>
       <c r="D255" s="35"/>
-      <c r="E255" s="90" t="s">
+      <c r="E255" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F255" s="91"/>
+      <c r="F255" s="95"/>
       <c r="G255" s="24">
         <v>2</v>
       </c>
@@ -13887,10 +13893,10 @@
         <v>312</v>
       </c>
       <c r="D256" s="35"/>
-      <c r="E256" s="90" t="s">
+      <c r="E256" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F256" s="91"/>
+      <c r="F256" s="95"/>
       <c r="G256" s="24">
         <v>3</v>
       </c>
@@ -13930,10 +13936,10 @@
         <v>28</v>
       </c>
       <c r="D257" s="35"/>
-      <c r="E257" s="90" t="s">
+      <c r="E257" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F257" s="91"/>
+      <c r="F257" s="95"/>
       <c r="G257" s="24">
         <v>4</v>
       </c>
@@ -13973,10 +13979,10 @@
         <v>429</v>
       </c>
       <c r="D258" s="35"/>
-      <c r="E258" s="90" t="s">
+      <c r="E258" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F258" s="91"/>
+      <c r="F258" s="95"/>
       <c r="G258" s="24">
         <v>5</v>
       </c>
@@ -14016,10 +14022,10 @@
         <v>13</v>
       </c>
       <c r="D259" s="35"/>
-      <c r="E259" s="90" t="s">
+      <c r="E259" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F259" s="91"/>
+      <c r="F259" s="95"/>
       <c r="G259" s="24">
         <v>6</v>
       </c>
@@ -14059,10 +14065,10 @@
         <v>432</v>
       </c>
       <c r="D260" s="35"/>
-      <c r="E260" s="90" t="s">
+      <c r="E260" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F260" s="91"/>
+      <c r="F260" s="95"/>
       <c r="G260" s="24">
         <v>7</v>
       </c>
@@ -14102,10 +14108,10 @@
         <v>13</v>
       </c>
       <c r="D261" s="35"/>
-      <c r="E261" s="90" t="s">
+      <c r="E261" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F261" s="91"/>
+      <c r="F261" s="95"/>
       <c r="G261" s="24">
         <v>8</v>
       </c>
@@ -14145,10 +14151,10 @@
         <v>435</v>
       </c>
       <c r="D262" s="35"/>
-      <c r="E262" s="90" t="s">
+      <c r="E262" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F262" s="91"/>
+      <c r="F262" s="95"/>
       <c r="G262" s="24">
         <v>9</v>
       </c>
@@ -14188,10 +14194,10 @@
         <v>437</v>
       </c>
       <c r="D263" s="35"/>
-      <c r="E263" s="90" t="s">
+      <c r="E263" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F263" s="91"/>
+      <c r="F263" s="95"/>
       <c r="G263" s="24">
         <v>10</v>
       </c>
@@ -14231,10 +14237,10 @@
         <v>439</v>
       </c>
       <c r="D264" s="35"/>
-      <c r="E264" s="90" t="s">
+      <c r="E264" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F264" s="91"/>
+      <c r="F264" s="95"/>
       <c r="G264" s="24">
         <v>11</v>
       </c>
@@ -14274,10 +14280,10 @@
         <v>441</v>
       </c>
       <c r="D265" s="35"/>
-      <c r="E265" s="90" t="s">
+      <c r="E265" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F265" s="91"/>
+      <c r="F265" s="95"/>
       <c r="G265" s="24">
         <v>12</v>
       </c>
@@ -14317,10 +14323,10 @@
         <v>443</v>
       </c>
       <c r="D266" s="35"/>
-      <c r="E266" s="90" t="s">
+      <c r="E266" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F266" s="91"/>
+      <c r="F266" s="95"/>
       <c r="G266" s="24">
         <v>13</v>
       </c>
@@ -14360,10 +14366,10 @@
         <v>445</v>
       </c>
       <c r="D267" s="35"/>
-      <c r="E267" s="90" t="s">
+      <c r="E267" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F267" s="91"/>
+      <c r="F267" s="95"/>
       <c r="G267" s="24">
         <v>14</v>
       </c>
@@ -14403,10 +14409,10 @@
         <v>354</v>
       </c>
       <c r="D268" s="35"/>
-      <c r="E268" s="90" t="s">
+      <c r="E268" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F268" s="91"/>
+      <c r="F268" s="95"/>
       <c r="G268" s="24">
         <v>15</v>
       </c>
@@ -14446,10 +14452,10 @@
         <v>448</v>
       </c>
       <c r="D269" s="35"/>
-      <c r="E269" s="90" t="s">
+      <c r="E269" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F269" s="91"/>
+      <c r="F269" s="95"/>
       <c r="G269" s="24">
         <v>16</v>
       </c>
@@ -14489,10 +14495,10 @@
         <v>443</v>
       </c>
       <c r="D270" s="35"/>
-      <c r="E270" s="90" t="s">
+      <c r="E270" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F270" s="91"/>
+      <c r="F270" s="95"/>
       <c r="G270" s="24">
         <v>17</v>
       </c>
@@ -14532,10 +14538,10 @@
         <v>451</v>
       </c>
       <c r="D271" s="35"/>
-      <c r="E271" s="90" t="s">
+      <c r="E271" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F271" s="91"/>
+      <c r="F271" s="95"/>
       <c r="G271" s="24">
         <v>18</v>
       </c>
@@ -14575,10 +14581,10 @@
         <v>453</v>
       </c>
       <c r="D272" s="44"/>
-      <c r="E272" s="90" t="s">
+      <c r="E272" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F272" s="91"/>
+      <c r="F272" s="95"/>
       <c r="G272" s="24">
         <v>19</v>
       </c>
@@ -14618,10 +14624,10 @@
         <v>455</v>
       </c>
       <c r="D273" s="44"/>
-      <c r="E273" s="90" t="s">
+      <c r="E273" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F273" s="91"/>
+      <c r="F273" s="95"/>
       <c r="G273" s="24">
         <v>20</v>
       </c>
@@ -14661,10 +14667,10 @@
         <v>457</v>
       </c>
       <c r="D274" s="44"/>
-      <c r="E274" s="90" t="s">
+      <c r="E274" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F274" s="91"/>
+      <c r="F274" s="95"/>
       <c r="G274" s="24">
         <v>21</v>
       </c>
@@ -14704,10 +14710,10 @@
         <v>459</v>
       </c>
       <c r="D275" s="44"/>
-      <c r="E275" s="90" t="s">
+      <c r="E275" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F275" s="91"/>
+      <c r="F275" s="95"/>
       <c r="G275" s="24">
         <v>22</v>
       </c>
@@ -14747,10 +14753,10 @@
         <v>58</v>
       </c>
       <c r="D276" s="44"/>
-      <c r="E276" s="90" t="s">
+      <c r="E276" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F276" s="91"/>
+      <c r="F276" s="95"/>
       <c r="G276" s="24">
         <v>23</v>
       </c>
@@ -14790,10 +14796,10 @@
         <v>462</v>
       </c>
       <c r="D277" s="44"/>
-      <c r="E277" s="90" t="s">
+      <c r="E277" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F277" s="91"/>
+      <c r="F277" s="95"/>
       <c r="G277" s="24">
         <v>24</v>
       </c>
@@ -14833,10 +14839,10 @@
         <v>457</v>
       </c>
       <c r="D278" s="44"/>
-      <c r="E278" s="90" t="s">
+      <c r="E278" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F278" s="91"/>
+      <c r="F278" s="95"/>
       <c r="G278" s="24">
         <v>25</v>
       </c>
@@ -14876,10 +14882,10 @@
         <v>443</v>
       </c>
       <c r="D279" s="44"/>
-      <c r="E279" s="90" t="s">
+      <c r="E279" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F279" s="91"/>
+      <c r="F279" s="95"/>
       <c r="G279" s="24">
         <v>26</v>
       </c>
@@ -14919,10 +14925,10 @@
         <v>466</v>
       </c>
       <c r="D280" s="44"/>
-      <c r="E280" s="90" t="s">
+      <c r="E280" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F280" s="91"/>
+      <c r="F280" s="95"/>
       <c r="G280" s="24">
         <v>27</v>
       </c>
@@ -14962,10 +14968,10 @@
         <v>102</v>
       </c>
       <c r="D281" s="44"/>
-      <c r="E281" s="90" t="s">
+      <c r="E281" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F281" s="91"/>
+      <c r="F281" s="95"/>
       <c r="G281" s="24">
         <v>28</v>
       </c>
@@ -14999,8 +15005,8 @@
       <c r="B282" s="23"/>
       <c r="C282" s="41"/>
       <c r="D282" s="46"/>
-      <c r="E282" s="92"/>
-      <c r="F282" s="93"/>
+      <c r="E282" s="96"/>
+      <c r="F282" s="97"/>
       <c r="G282" s="23"/>
       <c r="H282" s="58"/>
       <c r="I282" s="66">
@@ -15030,8 +15036,8 @@
       <c r="B283" s="23"/>
       <c r="C283" s="41"/>
       <c r="D283" s="32"/>
-      <c r="E283" s="92"/>
-      <c r="F283" s="93"/>
+      <c r="E283" s="96"/>
+      <c r="F283" s="97"/>
       <c r="G283" s="23"/>
       <c r="H283" s="58"/>
       <c r="I283" s="66">
@@ -15067,10 +15073,10 @@
         <v>470</v>
       </c>
       <c r="D284" s="36"/>
-      <c r="E284" s="90" t="s">
+      <c r="E284" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F284" s="91"/>
+      <c r="F284" s="95"/>
       <c r="G284" s="24">
         <v>1</v>
       </c>
@@ -15110,10 +15116,10 @@
         <v>472</v>
       </c>
       <c r="D285" s="36"/>
-      <c r="E285" s="90" t="s">
+      <c r="E285" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F285" s="91"/>
+      <c r="F285" s="95"/>
       <c r="G285" s="24">
         <v>2</v>
       </c>
@@ -15153,10 +15159,10 @@
         <v>474</v>
       </c>
       <c r="D286" s="36"/>
-      <c r="E286" s="90" t="s">
+      <c r="E286" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F286" s="91"/>
+      <c r="F286" s="95"/>
       <c r="G286" s="24">
         <v>3</v>
       </c>
@@ -15196,10 +15202,10 @@
         <v>179</v>
       </c>
       <c r="D287" s="36"/>
-      <c r="E287" s="90" t="s">
+      <c r="E287" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F287" s="91"/>
+      <c r="F287" s="95"/>
       <c r="G287" s="24">
         <v>4</v>
       </c>
@@ -15239,10 +15245,10 @@
         <v>477</v>
       </c>
       <c r="D288" s="36"/>
-      <c r="E288" s="90" t="s">
+      <c r="E288" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F288" s="91"/>
+      <c r="F288" s="95"/>
       <c r="G288" s="24">
         <v>5</v>
       </c>
@@ -15282,10 +15288,10 @@
         <v>123</v>
       </c>
       <c r="D289" s="36"/>
-      <c r="E289" s="90" t="s">
+      <c r="E289" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F289" s="91"/>
+      <c r="F289" s="95"/>
       <c r="G289" s="24">
         <v>6</v>
       </c>
@@ -15325,10 +15331,10 @@
         <v>480</v>
       </c>
       <c r="D290" s="36"/>
-      <c r="E290" s="90" t="s">
+      <c r="E290" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F290" s="91"/>
+      <c r="F290" s="95"/>
       <c r="G290" s="24">
         <v>7</v>
       </c>
@@ -15368,10 +15374,10 @@
         <v>482</v>
       </c>
       <c r="D291" s="36"/>
-      <c r="E291" s="90" t="s">
+      <c r="E291" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F291" s="91"/>
+      <c r="F291" s="95"/>
       <c r="G291" s="24">
         <v>8</v>
       </c>
@@ -15411,10 +15417,10 @@
         <v>484</v>
       </c>
       <c r="D292" s="36"/>
-      <c r="E292" s="90" t="s">
+      <c r="E292" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F292" s="91"/>
+      <c r="F292" s="95"/>
       <c r="G292" s="24">
         <v>9</v>
       </c>
@@ -15454,10 +15460,10 @@
         <v>482</v>
       </c>
       <c r="D293" s="36"/>
-      <c r="E293" s="90" t="s">
+      <c r="E293" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F293" s="91"/>
+      <c r="F293" s="95"/>
       <c r="G293" s="24">
         <v>10</v>
       </c>
@@ -15497,10 +15503,10 @@
         <v>487</v>
       </c>
       <c r="D294" s="36"/>
-      <c r="E294" s="90" t="s">
+      <c r="E294" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F294" s="91"/>
+      <c r="F294" s="95"/>
       <c r="G294" s="24">
         <v>11</v>
       </c>
@@ -15540,10 +15546,10 @@
         <v>489</v>
       </c>
       <c r="D295" s="36"/>
-      <c r="E295" s="90" t="s">
+      <c r="E295" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F295" s="91"/>
+      <c r="F295" s="95"/>
       <c r="G295" s="24">
         <v>12</v>
       </c>
@@ -15583,10 +15589,10 @@
         <v>480</v>
       </c>
       <c r="D296" s="36"/>
-      <c r="E296" s="90" t="s">
+      <c r="E296" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F296" s="91"/>
+      <c r="F296" s="95"/>
       <c r="G296" s="24">
         <v>13</v>
       </c>
@@ -15626,10 +15632,10 @@
         <v>47</v>
       </c>
       <c r="D297" s="36"/>
-      <c r="E297" s="90" t="s">
+      <c r="E297" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F297" s="91"/>
+      <c r="F297" s="95"/>
       <c r="G297" s="24">
         <v>14</v>
       </c>
@@ -15669,10 +15675,10 @@
         <v>493</v>
       </c>
       <c r="D298" s="36"/>
-      <c r="E298" s="90" t="s">
+      <c r="E298" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F298" s="91"/>
+      <c r="F298" s="95"/>
       <c r="G298" s="24">
         <v>15</v>
       </c>
@@ -15712,10 +15718,10 @@
         <v>495</v>
       </c>
       <c r="D299" s="36"/>
-      <c r="E299" s="90" t="s">
+      <c r="E299" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F299" s="91"/>
+      <c r="F299" s="95"/>
       <c r="G299" s="24">
         <v>16</v>
       </c>
@@ -15755,10 +15761,10 @@
         <v>271</v>
       </c>
       <c r="D300" s="36"/>
-      <c r="E300" s="90" t="s">
+      <c r="E300" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F300" s="91"/>
+      <c r="F300" s="95"/>
       <c r="G300" s="24">
         <v>17</v>
       </c>
@@ -15798,10 +15804,10 @@
         <v>47</v>
       </c>
       <c r="D301" s="36"/>
-      <c r="E301" s="90" t="s">
+      <c r="E301" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F301" s="91"/>
+      <c r="F301" s="95"/>
       <c r="G301" s="24">
         <v>18</v>
       </c>
@@ -15841,10 +15847,10 @@
         <v>498</v>
       </c>
       <c r="D302" s="36"/>
-      <c r="E302" s="90" t="s">
+      <c r="E302" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F302" s="91"/>
+      <c r="F302" s="95"/>
       <c r="G302" s="24">
         <v>19</v>
       </c>
@@ -15884,10 +15890,10 @@
         <v>231</v>
       </c>
       <c r="D303" s="36"/>
-      <c r="E303" s="90" t="s">
+      <c r="E303" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F303" s="91"/>
+      <c r="F303" s="95"/>
       <c r="G303" s="24">
         <v>20</v>
       </c>
@@ -15927,10 +15933,10 @@
         <v>501</v>
       </c>
       <c r="D304" s="36"/>
-      <c r="E304" s="90" t="s">
+      <c r="E304" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F304" s="91"/>
+      <c r="F304" s="95"/>
       <c r="G304" s="24">
         <v>21</v>
       </c>
@@ -15970,10 +15976,10 @@
         <v>503</v>
       </c>
       <c r="D305" s="36"/>
-      <c r="E305" s="90" t="s">
+      <c r="E305" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F305" s="91"/>
+      <c r="F305" s="95"/>
       <c r="G305" s="24">
         <v>22</v>
       </c>
@@ -16013,10 +16019,10 @@
         <v>505</v>
       </c>
       <c r="D306" s="36"/>
-      <c r="E306" s="90" t="s">
+      <c r="E306" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F306" s="91"/>
+      <c r="F306" s="95"/>
       <c r="G306" s="24">
         <v>23</v>
       </c>
@@ -16056,10 +16062,10 @@
         <v>507</v>
       </c>
       <c r="D307" s="36"/>
-      <c r="E307" s="90" t="s">
+      <c r="E307" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F307" s="91"/>
+      <c r="F307" s="95"/>
       <c r="G307" s="24">
         <v>24</v>
       </c>
@@ -16099,10 +16105,10 @@
         <v>182</v>
       </c>
       <c r="D308" s="36"/>
-      <c r="E308" s="90" t="s">
+      <c r="E308" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F308" s="91"/>
+      <c r="F308" s="95"/>
       <c r="G308" s="24">
         <v>25</v>
       </c>
@@ -16142,10 +16148,10 @@
         <v>509</v>
       </c>
       <c r="D309" s="36"/>
-      <c r="E309" s="90" t="s">
+      <c r="E309" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F309" s="91"/>
+      <c r="F309" s="95"/>
       <c r="G309" s="24">
         <v>26</v>
       </c>
@@ -16185,10 +16191,10 @@
         <v>511</v>
       </c>
       <c r="D310" s="36"/>
-      <c r="E310" s="90" t="s">
+      <c r="E310" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F310" s="91"/>
+      <c r="F310" s="95"/>
       <c r="G310" s="24">
         <v>27</v>
       </c>
@@ -16228,10 +16234,10 @@
         <v>480</v>
       </c>
       <c r="D311" s="36"/>
-      <c r="E311" s="90" t="s">
+      <c r="E311" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F311" s="91"/>
+      <c r="F311" s="95"/>
       <c r="G311" s="24">
         <v>28</v>
       </c>
@@ -16271,10 +16277,10 @@
         <v>514</v>
       </c>
       <c r="D312" s="36"/>
-      <c r="E312" s="90" t="s">
+      <c r="E312" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F312" s="91"/>
+      <c r="F312" s="95"/>
       <c r="G312" s="24">
         <v>29</v>
       </c>
@@ -16314,10 +16320,10 @@
         <v>55</v>
       </c>
       <c r="D313" s="36"/>
-      <c r="E313" s="90" t="s">
+      <c r="E313" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F313" s="91"/>
+      <c r="F313" s="95"/>
       <c r="G313" s="24">
         <v>30</v>
       </c>
@@ -16357,10 +16363,10 @@
         <v>123</v>
       </c>
       <c r="D314" s="36"/>
-      <c r="E314" s="90" t="s">
+      <c r="E314" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F314" s="91"/>
+      <c r="F314" s="95"/>
       <c r="G314" s="24">
         <v>31</v>
       </c>
@@ -16402,10 +16408,10 @@
       <c r="D315" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="E315" s="90" t="s">
+      <c r="E315" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F315" s="91"/>
+      <c r="F315" s="95"/>
       <c r="G315" s="24">
         <v>32</v>
       </c>
@@ -16445,10 +16451,10 @@
         <v>520</v>
       </c>
       <c r="D316" s="36"/>
-      <c r="E316" s="90" t="s">
+      <c r="E316" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F316" s="91"/>
+      <c r="F316" s="95"/>
       <c r="G316" s="24">
         <v>33</v>
       </c>
@@ -16490,10 +16496,10 @@
       <c r="D317" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="E317" s="90" t="s">
+      <c r="E317" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F317" s="91"/>
+      <c r="F317" s="95"/>
       <c r="G317" s="24">
         <v>34</v>
       </c>
@@ -16533,10 +16539,10 @@
         <v>190</v>
       </c>
       <c r="D318" s="36"/>
-      <c r="E318" s="90" t="s">
+      <c r="E318" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F318" s="91"/>
+      <c r="F318" s="95"/>
       <c r="G318" s="24">
         <v>35</v>
       </c>
@@ -16576,10 +16582,10 @@
         <v>55</v>
       </c>
       <c r="D319" s="36"/>
-      <c r="E319" s="90" t="s">
+      <c r="E319" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F319" s="91"/>
+      <c r="F319" s="95"/>
       <c r="G319" s="24">
         <v>36</v>
       </c>
@@ -16619,10 +16625,10 @@
         <v>526</v>
       </c>
       <c r="D320" s="36"/>
-      <c r="E320" s="90" t="s">
+      <c r="E320" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F320" s="91"/>
+      <c r="F320" s="95"/>
       <c r="G320" s="24">
         <v>37</v>
       </c>
@@ -16662,10 +16668,10 @@
         <v>507</v>
       </c>
       <c r="D321" s="36"/>
-      <c r="E321" s="90" t="s">
+      <c r="E321" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F321" s="91"/>
+      <c r="F321" s="95"/>
       <c r="G321" s="24">
         <v>38</v>
       </c>
@@ -16705,10 +16711,10 @@
         <v>526</v>
       </c>
       <c r="D322" s="36"/>
-      <c r="E322" s="90" t="s">
+      <c r="E322" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F322" s="91"/>
+      <c r="F322" s="95"/>
       <c r="G322" s="24">
         <v>39</v>
       </c>
@@ -16748,10 +16754,10 @@
         <v>530</v>
       </c>
       <c r="D323" s="36"/>
-      <c r="E323" s="90" t="s">
+      <c r="E323" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F323" s="91"/>
+      <c r="F323" s="95"/>
       <c r="G323" s="24">
         <v>40</v>
       </c>
@@ -16785,8 +16791,8 @@
       <c r="B324" s="23"/>
       <c r="C324" s="55"/>
       <c r="D324" s="37"/>
-      <c r="E324" s="92"/>
-      <c r="F324" s="93"/>
+      <c r="E324" s="96"/>
+      <c r="F324" s="97"/>
       <c r="G324" s="23"/>
       <c r="H324" s="58"/>
       <c r="I324" s="66">
@@ -16816,8 +16822,8 @@
       <c r="B325" s="23"/>
       <c r="C325" s="55"/>
       <c r="D325" s="32"/>
-      <c r="E325" s="92"/>
-      <c r="F325" s="93"/>
+      <c r="E325" s="96"/>
+      <c r="F325" s="97"/>
       <c r="G325" s="23"/>
       <c r="H325" s="58"/>
       <c r="I325" s="66">
@@ -16853,10 +16859,10 @@
         <v>533</v>
       </c>
       <c r="D326" s="26"/>
-      <c r="E326" s="90" t="s">
+      <c r="E326" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F326" s="91"/>
+      <c r="F326" s="95"/>
       <c r="G326" s="24">
         <v>1</v>
       </c>
@@ -16896,10 +16902,10 @@
         <v>535</v>
       </c>
       <c r="D327" s="26"/>
-      <c r="E327" s="90" t="s">
+      <c r="E327" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F327" s="91"/>
+      <c r="F327" s="95"/>
       <c r="G327" s="24">
         <v>2</v>
       </c>
@@ -16939,10 +16945,10 @@
         <v>537</v>
       </c>
       <c r="D328" s="26"/>
-      <c r="E328" s="90" t="s">
+      <c r="E328" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F328" s="91"/>
+      <c r="F328" s="95"/>
       <c r="G328" s="24">
         <v>3</v>
       </c>
@@ -16982,10 +16988,10 @@
         <v>539</v>
       </c>
       <c r="D329" s="26"/>
-      <c r="E329" s="90" t="s">
+      <c r="E329" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F329" s="91"/>
+      <c r="F329" s="95"/>
       <c r="G329" s="24">
         <v>4</v>
       </c>
@@ -17025,10 +17031,10 @@
         <v>541</v>
       </c>
       <c r="D330" s="26"/>
-      <c r="E330" s="90" t="s">
+      <c r="E330" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F330" s="91"/>
+      <c r="F330" s="95"/>
       <c r="G330" s="24">
         <v>5</v>
       </c>
@@ -17068,10 +17074,10 @@
         <v>543</v>
       </c>
       <c r="D331" s="26"/>
-      <c r="E331" s="90" t="s">
+      <c r="E331" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F331" s="91"/>
+      <c r="F331" s="95"/>
       <c r="G331" s="24">
         <v>6</v>
       </c>
@@ -17105,8 +17111,8 @@
       <c r="B332" s="23"/>
       <c r="C332" s="41"/>
       <c r="D332" s="32"/>
-      <c r="E332" s="92"/>
-      <c r="F332" s="93"/>
+      <c r="E332" s="96"/>
+      <c r="F332" s="97"/>
       <c r="G332" s="23"/>
       <c r="H332" s="58"/>
       <c r="I332" s="66">
@@ -17136,8 +17142,8 @@
       <c r="B333" s="23"/>
       <c r="C333" s="41"/>
       <c r="D333" s="32"/>
-      <c r="E333" s="92"/>
-      <c r="F333" s="93"/>
+      <c r="E333" s="96"/>
+      <c r="F333" s="97"/>
       <c r="G333" s="23"/>
       <c r="H333" s="58"/>
       <c r="I333" s="66">
@@ -17173,10 +17179,10 @@
         <v>47</v>
       </c>
       <c r="D334" s="26"/>
-      <c r="E334" s="90" t="s">
+      <c r="E334" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F334" s="91"/>
+      <c r="F334" s="95"/>
       <c r="G334" s="24">
         <v>1</v>
       </c>
@@ -17216,10 +17222,10 @@
         <v>55</v>
       </c>
       <c r="D335" s="26"/>
-      <c r="E335" s="90" t="s">
+      <c r="E335" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F335" s="91"/>
+      <c r="F335" s="95"/>
       <c r="G335" s="24">
         <v>2</v>
       </c>
@@ -17259,10 +17265,10 @@
         <v>123</v>
       </c>
       <c r="D336" s="26"/>
-      <c r="E336" s="90" t="s">
+      <c r="E336" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F336" s="91"/>
+      <c r="F336" s="95"/>
       <c r="G336" s="24">
         <v>3</v>
       </c>
@@ -17302,10 +17308,10 @@
         <v>377</v>
       </c>
       <c r="D337" s="26"/>
-      <c r="E337" s="90" t="s">
+      <c r="E337" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F337" s="91"/>
+      <c r="F337" s="95"/>
       <c r="G337" s="24">
         <v>4</v>
       </c>
@@ -17345,10 +17351,10 @@
         <v>507</v>
       </c>
       <c r="D338" s="26"/>
-      <c r="E338" s="90" t="s">
+      <c r="E338" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F338" s="91"/>
+      <c r="F338" s="95"/>
       <c r="G338" s="24">
         <v>5</v>
       </c>
@@ -17388,10 +17394,10 @@
         <v>47</v>
       </c>
       <c r="D339" s="26"/>
-      <c r="E339" s="90" t="s">
+      <c r="E339" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F339" s="91"/>
+      <c r="F339" s="95"/>
       <c r="G339" s="24">
         <v>6</v>
       </c>
@@ -17431,10 +17437,10 @@
         <v>552</v>
       </c>
       <c r="D340" s="26"/>
-      <c r="E340" s="90" t="s">
+      <c r="E340" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F340" s="91"/>
+      <c r="F340" s="95"/>
       <c r="G340" s="24">
         <v>7</v>
       </c>
@@ -17474,10 +17480,10 @@
         <v>377</v>
       </c>
       <c r="D341" s="26"/>
-      <c r="E341" s="90" t="s">
+      <c r="E341" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F341" s="91"/>
+      <c r="F341" s="95"/>
       <c r="G341" s="24">
         <v>8</v>
       </c>
@@ -17517,10 +17523,10 @@
         <v>47</v>
       </c>
       <c r="D342" s="26"/>
-      <c r="E342" s="90" t="s">
+      <c r="E342" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F342" s="91"/>
+      <c r="F342" s="95"/>
       <c r="G342" s="24">
         <v>9</v>
       </c>
@@ -17560,10 +17566,10 @@
         <v>556</v>
       </c>
       <c r="D343" s="26"/>
-      <c r="E343" s="90" t="s">
+      <c r="E343" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F343" s="91"/>
+      <c r="F343" s="95"/>
       <c r="G343" s="24">
         <v>10</v>
       </c>
@@ -17603,10 +17609,10 @@
         <v>558</v>
       </c>
       <c r="D344" s="26"/>
-      <c r="E344" s="90" t="s">
+      <c r="E344" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F344" s="91"/>
+      <c r="F344" s="95"/>
       <c r="G344" s="24">
         <v>11</v>
       </c>
@@ -17646,10 +17652,10 @@
         <v>560</v>
       </c>
       <c r="D345" s="26"/>
-      <c r="E345" s="90" t="s">
+      <c r="E345" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F345" s="91"/>
+      <c r="F345" s="95"/>
       <c r="G345" s="24">
         <v>12</v>
       </c>
@@ -17689,10 +17695,10 @@
         <v>562</v>
       </c>
       <c r="D346" s="26"/>
-      <c r="E346" s="90" t="s">
+      <c r="E346" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F346" s="91"/>
+      <c r="F346" s="95"/>
       <c r="G346" s="24">
         <v>13</v>
       </c>
@@ -17732,10 +17738,10 @@
         <v>564</v>
       </c>
       <c r="D347" s="26"/>
-      <c r="E347" s="90" t="s">
+      <c r="E347" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F347" s="91"/>
+      <c r="F347" s="95"/>
       <c r="G347" s="24">
         <v>14</v>
       </c>
@@ -17775,10 +17781,10 @@
         <v>566</v>
       </c>
       <c r="D348" s="26"/>
-      <c r="E348" s="90" t="s">
+      <c r="E348" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F348" s="91"/>
+      <c r="F348" s="95"/>
       <c r="G348" s="24">
         <v>15</v>
       </c>
@@ -17818,10 +17824,10 @@
         <v>568</v>
       </c>
       <c r="D349" s="26"/>
-      <c r="E349" s="90" t="s">
+      <c r="E349" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F349" s="91"/>
+      <c r="F349" s="95"/>
       <c r="G349" s="24">
         <v>16</v>
       </c>
@@ -17861,10 +17867,10 @@
         <v>570</v>
       </c>
       <c r="D350" s="26"/>
-      <c r="E350" s="90" t="s">
+      <c r="E350" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F350" s="91"/>
+      <c r="F350" s="95"/>
       <c r="G350" s="24">
         <v>17</v>
       </c>
@@ -17904,10 +17910,10 @@
         <v>572</v>
       </c>
       <c r="D351" s="26"/>
-      <c r="E351" s="90" t="s">
+      <c r="E351" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F351" s="91"/>
+      <c r="F351" s="95"/>
       <c r="G351" s="24">
         <v>18</v>
       </c>
@@ -17947,10 +17953,10 @@
         <v>574</v>
       </c>
       <c r="D352" s="26"/>
-      <c r="E352" s="90" t="s">
+      <c r="E352" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F352" s="91"/>
+      <c r="F352" s="95"/>
       <c r="G352" s="24">
         <v>19</v>
       </c>
@@ -17990,10 +17996,10 @@
         <v>576</v>
       </c>
       <c r="D353" s="26"/>
-      <c r="E353" s="90" t="s">
+      <c r="E353" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F353" s="91"/>
+      <c r="F353" s="95"/>
       <c r="G353" s="24">
         <v>20</v>
       </c>
@@ -18033,10 +18039,10 @@
         <v>190</v>
       </c>
       <c r="D354" s="26"/>
-      <c r="E354" s="90" t="s">
+      <c r="E354" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F354" s="91"/>
+      <c r="F354" s="95"/>
       <c r="G354" s="24">
         <v>21</v>
       </c>
@@ -18076,10 +18082,10 @@
         <v>156</v>
       </c>
       <c r="D355" s="26"/>
-      <c r="E355" s="90" t="s">
+      <c r="E355" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F355" s="91"/>
+      <c r="F355" s="95"/>
       <c r="G355" s="24">
         <v>22</v>
       </c>
@@ -18119,10 +18125,10 @@
         <v>580</v>
       </c>
       <c r="D356" s="26"/>
-      <c r="E356" s="90" t="s">
+      <c r="E356" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F356" s="91"/>
+      <c r="F356" s="95"/>
       <c r="G356" s="24">
         <v>23</v>
       </c>
@@ -18162,10 +18168,10 @@
         <v>156</v>
       </c>
       <c r="D357" s="26"/>
-      <c r="E357" s="90" t="s">
+      <c r="E357" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F357" s="91"/>
+      <c r="F357" s="95"/>
       <c r="G357" s="24">
         <v>24</v>
       </c>
@@ -18205,10 +18211,10 @@
         <v>123</v>
       </c>
       <c r="D358" s="26"/>
-      <c r="E358" s="90" t="s">
+      <c r="E358" s="94" t="s">
         <v>691</v>
       </c>
-      <c r="F358" s="91"/>
+      <c r="F358" s="95"/>
       <c r="G358" s="24">
         <v>25</v>
       </c>
@@ -18248,10 +18254,10 @@
         <v>193</v>
       </c>
       <c r="D359" s="26"/>
-      <c r="E359" s="87" t="s">
+      <c r="E359" s="100" t="s">
         <v>691</v>
       </c>
-      <c r="F359" s="87"/>
+      <c r="F359" s="100"/>
       <c r="G359" s="24">
         <v>26</v>
       </c>
@@ -18291,10 +18297,10 @@
         <v>585</v>
       </c>
       <c r="D360" s="26"/>
-      <c r="E360" s="87" t="s">
+      <c r="E360" s="100" t="s">
         <v>691</v>
       </c>
-      <c r="F360" s="87"/>
+      <c r="F360" s="100"/>
       <c r="G360" s="24">
         <v>27</v>
       </c>
@@ -18334,10 +18340,10 @@
         <v>587</v>
       </c>
       <c r="D361" s="26"/>
-      <c r="E361" s="87" t="s">
+      <c r="E361" s="100" t="s">
         <v>691</v>
       </c>
-      <c r="F361" s="87"/>
+      <c r="F361" s="100"/>
       <c r="G361" s="24">
         <v>28</v>
       </c>
@@ -18377,10 +18383,10 @@
         <v>589</v>
       </c>
       <c r="D362" s="26"/>
-      <c r="E362" s="87" t="s">
+      <c r="E362" s="100" t="s">
         <v>691</v>
       </c>
-      <c r="F362" s="87"/>
+      <c r="F362" s="100"/>
       <c r="G362" s="24">
         <v>29</v>
       </c>
@@ -18420,10 +18426,10 @@
         <v>587</v>
       </c>
       <c r="D363" s="26"/>
-      <c r="E363" s="87" t="s">
+      <c r="E363" s="100" t="s">
         <v>691</v>
       </c>
-      <c r="F363" s="87"/>
+      <c r="F363" s="100"/>
       <c r="G363" s="24">
         <v>30</v>
       </c>
@@ -18463,10 +18469,10 @@
         <v>592</v>
       </c>
       <c r="D364" s="26"/>
-      <c r="E364" s="87" t="s">
+      <c r="E364" s="100" t="s">
         <v>691</v>
       </c>
-      <c r="F364" s="87"/>
+      <c r="F364" s="100"/>
       <c r="G364" s="24">
         <v>31</v>
       </c>
@@ -18506,10 +18512,10 @@
         <v>312</v>
       </c>
       <c r="D365" s="26"/>
-      <c r="E365" s="87" t="s">
+      <c r="E365" s="100" t="s">
         <v>691</v>
       </c>
-      <c r="F365" s="87"/>
+      <c r="F365" s="100"/>
       <c r="G365" s="24">
         <v>32</v>
       </c>
@@ -18549,10 +18555,10 @@
         <v>595</v>
       </c>
       <c r="D366" s="26"/>
-      <c r="E366" s="87" t="s">
+      <c r="E366" s="100" t="s">
         <v>691</v>
       </c>
-      <c r="F366" s="87"/>
+      <c r="F366" s="100"/>
       <c r="G366" s="24">
         <v>33</v>
       </c>
@@ -18592,10 +18598,10 @@
         <v>597</v>
       </c>
       <c r="D367" s="26"/>
-      <c r="E367" s="87" t="s">
+      <c r="E367" s="100" t="s">
         <v>691</v>
       </c>
-      <c r="F367" s="87"/>
+      <c r="F367" s="100"/>
       <c r="G367" s="24">
         <v>34</v>
       </c>
@@ -18635,10 +18641,10 @@
         <v>599</v>
       </c>
       <c r="D368" s="26"/>
-      <c r="E368" s="87" t="s">
+      <c r="E368" s="100" t="s">
         <v>691</v>
       </c>
-      <c r="F368" s="87"/>
+      <c r="F368" s="100"/>
       <c r="G368" s="24">
         <v>35</v>
       </c>
@@ -18678,10 +18684,10 @@
         <v>102</v>
       </c>
       <c r="D369" s="26"/>
-      <c r="E369" s="87" t="s">
+      <c r="E369" s="100" t="s">
         <v>691</v>
       </c>
-      <c r="F369" s="87"/>
+      <c r="F369" s="100"/>
       <c r="G369" s="24">
         <v>36</v>
       </c>
@@ -18721,10 +18727,10 @@
         <v>602</v>
       </c>
       <c r="D370" s="26"/>
-      <c r="E370" s="87" t="s">
+      <c r="E370" s="100" t="s">
         <v>691</v>
       </c>
-      <c r="F370" s="87"/>
+      <c r="F370" s="100"/>
       <c r="G370" s="24">
         <v>37</v>
       </c>
@@ -18764,10 +18770,10 @@
         <v>603</v>
       </c>
       <c r="D371" s="26"/>
-      <c r="E371" s="87" t="s">
+      <c r="E371" s="100" t="s">
         <v>691</v>
       </c>
-      <c r="F371" s="87"/>
+      <c r="F371" s="100"/>
       <c r="G371" s="24">
         <v>38</v>
       </c>
@@ -18807,10 +18813,10 @@
         <v>74</v>
       </c>
       <c r="D372" s="26"/>
-      <c r="E372" s="87" t="s">
+      <c r="E372" s="100" t="s">
         <v>691</v>
       </c>
-      <c r="F372" s="87"/>
+      <c r="F372" s="100"/>
       <c r="G372" s="24">
         <v>39</v>
       </c>
@@ -18850,10 +18856,10 @@
         <v>606</v>
       </c>
       <c r="D373" s="26"/>
-      <c r="E373" s="87" t="s">
+      <c r="E373" s="100" t="s">
         <v>691</v>
       </c>
-      <c r="F373" s="87"/>
+      <c r="F373" s="100"/>
       <c r="G373" s="24">
         <v>40</v>
       </c>
@@ -18893,10 +18899,10 @@
         <v>607</v>
       </c>
       <c r="D374" s="26"/>
-      <c r="E374" s="87" t="s">
+      <c r="E374" s="100" t="s">
         <v>691</v>
       </c>
-      <c r="F374" s="87"/>
+      <c r="F374" s="100"/>
       <c r="G374" s="24">
         <v>41</v>
       </c>
@@ -18936,10 +18942,10 @@
         <v>377</v>
       </c>
       <c r="D375" s="26"/>
-      <c r="E375" s="87" t="s">
+      <c r="E375" s="100" t="s">
         <v>691</v>
       </c>
-      <c r="F375" s="87"/>
+      <c r="F375" s="100"/>
       <c r="G375" s="24">
         <v>42</v>
       </c>
@@ -18979,10 +18985,10 @@
         <v>507</v>
       </c>
       <c r="D376" s="26"/>
-      <c r="E376" s="87" t="s">
+      <c r="E376" s="100" t="s">
         <v>691</v>
       </c>
-      <c r="F376" s="87"/>
+      <c r="F376" s="100"/>
       <c r="G376" s="24">
         <v>43</v>
       </c>
@@ -19022,10 +19028,10 @@
         <v>611</v>
       </c>
       <c r="D377" s="26"/>
-      <c r="E377" s="87" t="s">
+      <c r="E377" s="100" t="s">
         <v>691</v>
       </c>
-      <c r="F377" s="87"/>
+      <c r="F377" s="100"/>
       <c r="G377" s="24">
         <v>44</v>
       </c>
@@ -19065,10 +19071,10 @@
         <v>377</v>
       </c>
       <c r="D378" s="26"/>
-      <c r="E378" s="87" t="s">
+      <c r="E378" s="100" t="s">
         <v>691</v>
       </c>
-      <c r="F378" s="87"/>
+      <c r="F378" s="100"/>
       <c r="G378" s="24">
         <v>45</v>
       </c>
@@ -19108,10 +19114,10 @@
         <v>614</v>
       </c>
       <c r="D379" s="26"/>
-      <c r="E379" s="87" t="s">
+      <c r="E379" s="100" t="s">
         <v>691</v>
       </c>
-      <c r="F379" s="87"/>
+      <c r="F379" s="100"/>
       <c r="G379" s="24">
         <v>46</v>
       </c>
@@ -19151,10 +19157,10 @@
         <v>55</v>
       </c>
       <c r="D380" s="26"/>
-      <c r="E380" s="87" t="s">
+      <c r="E380" s="100" t="s">
         <v>691</v>
       </c>
-      <c r="F380" s="87"/>
+      <c r="F380" s="100"/>
       <c r="G380" s="24">
         <v>47</v>
       </c>
@@ -19194,10 +19200,10 @@
         <v>312</v>
       </c>
       <c r="D381" s="26"/>
-      <c r="E381" s="87" t="s">
+      <c r="E381" s="100" t="s">
         <v>691</v>
       </c>
-      <c r="F381" s="87"/>
+      <c r="F381" s="100"/>
       <c r="G381" s="24">
         <v>48</v>
       </c>
@@ -19237,10 +19243,10 @@
         <v>312</v>
       </c>
       <c r="D382" s="26"/>
-      <c r="E382" s="87" t="s">
+      <c r="E382" s="100" t="s">
         <v>691</v>
       </c>
-      <c r="F382" s="87"/>
+      <c r="F382" s="100"/>
       <c r="G382" s="24">
         <v>49</v>
       </c>
@@ -19280,10 +19286,10 @@
         <v>618</v>
       </c>
       <c r="D383" s="26"/>
-      <c r="E383" s="87" t="s">
+      <c r="E383" s="100" t="s">
         <v>691</v>
       </c>
-      <c r="F383" s="87"/>
+      <c r="F383" s="100"/>
       <c r="G383" s="24">
         <v>50</v>
       </c>
@@ -19323,10 +19329,10 @@
         <v>354</v>
       </c>
       <c r="D384" s="26"/>
-      <c r="E384" s="87" t="s">
+      <c r="E384" s="100" t="s">
         <v>691</v>
       </c>
-      <c r="F384" s="87"/>
+      <c r="F384" s="100"/>
       <c r="G384" s="24">
         <v>51</v>
       </c>
@@ -19366,10 +19372,10 @@
         <v>190</v>
       </c>
       <c r="D385" s="26"/>
-      <c r="E385" s="87" t="s">
+      <c r="E385" s="100" t="s">
         <v>691</v>
       </c>
-      <c r="F385" s="87"/>
+      <c r="F385" s="100"/>
       <c r="G385" s="24">
         <v>52</v>
       </c>
@@ -19409,10 +19415,10 @@
         <v>445</v>
       </c>
       <c r="D386" s="26"/>
-      <c r="E386" s="87" t="s">
+      <c r="E386" s="100" t="s">
         <v>691</v>
       </c>
-      <c r="F386" s="87"/>
+      <c r="F386" s="100"/>
       <c r="G386" s="24">
         <v>53</v>
       </c>
@@ -19452,10 +19458,10 @@
         <v>623</v>
       </c>
       <c r="D387" s="26"/>
-      <c r="E387" s="87" t="s">
+      <c r="E387" s="100" t="s">
         <v>691</v>
       </c>
-      <c r="F387" s="87"/>
+      <c r="F387" s="100"/>
       <c r="G387" s="24">
         <v>54</v>
       </c>
@@ -19489,8 +19495,8 @@
       <c r="B388" s="53"/>
       <c r="C388" s="41"/>
       <c r="D388" s="32"/>
-      <c r="E388" s="88"/>
-      <c r="F388" s="88"/>
+      <c r="E388" s="102"/>
+      <c r="F388" s="102"/>
       <c r="G388" s="23"/>
       <c r="H388" s="58"/>
       <c r="I388" s="66">
@@ -19520,8 +19526,8 @@
       <c r="B389" s="23"/>
       <c r="C389" s="41"/>
       <c r="D389" s="32"/>
-      <c r="E389" s="88"/>
-      <c r="F389" s="88"/>
+      <c r="E389" s="102"/>
+      <c r="F389" s="102"/>
       <c r="G389" s="23"/>
       <c r="H389" s="58"/>
       <c r="I389" s="66">
@@ -19557,10 +19563,10 @@
         <v>626</v>
       </c>
       <c r="D390" s="44"/>
-      <c r="E390" s="87" t="s">
+      <c r="E390" s="100" t="s">
         <v>691</v>
       </c>
-      <c r="F390" s="87"/>
+      <c r="F390" s="100"/>
       <c r="G390" s="24">
         <v>1</v>
       </c>
@@ -19600,10 +19606,10 @@
         <v>628</v>
       </c>
       <c r="D391" s="44"/>
-      <c r="E391" s="87" t="s">
+      <c r="E391" s="100" t="s">
         <v>691</v>
       </c>
-      <c r="F391" s="87"/>
+      <c r="F391" s="100"/>
       <c r="G391" s="24">
         <v>2</v>
       </c>
@@ -19643,10 +19649,10 @@
         <v>160</v>
       </c>
       <c r="D392" s="44"/>
-      <c r="E392" s="87" t="s">
+      <c r="E392" s="100" t="s">
         <v>691</v>
       </c>
-      <c r="F392" s="87"/>
+      <c r="F392" s="100"/>
       <c r="G392" s="24">
         <v>3</v>
       </c>
@@ -19686,10 +19692,10 @@
         <v>55</v>
       </c>
       <c r="D393" s="44"/>
-      <c r="E393" s="87" t="s">
+      <c r="E393" s="100" t="s">
         <v>691</v>
       </c>
-      <c r="F393" s="87"/>
+      <c r="F393" s="100"/>
       <c r="G393" s="24">
         <v>4</v>
       </c>
@@ -19729,10 +19735,10 @@
         <v>632</v>
       </c>
       <c r="D394" s="44"/>
-      <c r="E394" s="87" t="s">
+      <c r="E394" s="100" t="s">
         <v>691</v>
       </c>
-      <c r="F394" s="87"/>
+      <c r="F394" s="100"/>
       <c r="G394" s="24">
         <v>5</v>
       </c>
@@ -19772,10 +19778,10 @@
         <v>55</v>
       </c>
       <c r="D395" s="44"/>
-      <c r="E395" s="87" t="s">
+      <c r="E395" s="100" t="s">
         <v>691</v>
       </c>
-      <c r="F395" s="87"/>
+      <c r="F395" s="100"/>
       <c r="G395" s="24">
         <v>6</v>
       </c>
@@ -19815,10 +19821,10 @@
         <v>253</v>
       </c>
       <c r="D396" s="44"/>
-      <c r="E396" s="87" t="s">
+      <c r="E396" s="100" t="s">
         <v>691</v>
       </c>
-      <c r="F396" s="87"/>
+      <c r="F396" s="100"/>
       <c r="G396" s="24">
         <v>7</v>
       </c>
@@ -19858,10 +19864,10 @@
         <v>47</v>
       </c>
       <c r="D397" s="44"/>
-      <c r="E397" s="87" t="s">
+      <c r="E397" s="100" t="s">
         <v>691</v>
       </c>
-      <c r="F397" s="87"/>
+      <c r="F397" s="100"/>
       <c r="G397" s="24">
         <v>8</v>
       </c>
@@ -19901,10 +19907,10 @@
         <v>55</v>
       </c>
       <c r="D398" s="44"/>
-      <c r="E398" s="87" t="s">
+      <c r="E398" s="100" t="s">
         <v>691</v>
       </c>
-      <c r="F398" s="87"/>
+      <c r="F398" s="100"/>
       <c r="G398" s="24">
         <v>9</v>
       </c>
@@ -19944,10 +19950,10 @@
         <v>638</v>
       </c>
       <c r="D399" s="44"/>
-      <c r="E399" s="87" t="s">
+      <c r="E399" s="100" t="s">
         <v>691</v>
       </c>
-      <c r="F399" s="87"/>
+      <c r="F399" s="100"/>
       <c r="G399" s="24">
         <v>10</v>
       </c>
@@ -19981,8 +19987,8 @@
       <c r="B400" s="23"/>
       <c r="C400" s="41"/>
       <c r="D400" s="46"/>
-      <c r="E400" s="88"/>
-      <c r="F400" s="88"/>
+      <c r="E400" s="102"/>
+      <c r="F400" s="102"/>
       <c r="G400" s="23">
         <v>11</v>
       </c>
@@ -20014,8 +20020,8 @@
       <c r="B401" s="23"/>
       <c r="C401" s="41"/>
       <c r="D401" s="46"/>
-      <c r="E401" s="88"/>
-      <c r="F401" s="88"/>
+      <c r="E401" s="102"/>
+      <c r="F401" s="102"/>
       <c r="G401" s="23"/>
       <c r="H401" s="58"/>
       <c r="I401" s="66">
@@ -20049,10 +20055,10 @@
       </c>
       <c r="C402" s="22"/>
       <c r="D402" s="44"/>
-      <c r="E402" s="87" t="s">
+      <c r="E402" s="100" t="s">
         <v>691</v>
       </c>
-      <c r="F402" s="87"/>
+      <c r="F402" s="100"/>
       <c r="G402" s="24">
         <v>1</v>
       </c>
@@ -20092,10 +20098,10 @@
         <v>45</v>
       </c>
       <c r="D403" s="44"/>
-      <c r="E403" s="87" t="s">
+      <c r="E403" s="100" t="s">
         <v>691</v>
       </c>
-      <c r="F403" s="87"/>
+      <c r="F403" s="100"/>
       <c r="G403" s="24">
         <v>2</v>
       </c>
@@ -20135,10 +20141,10 @@
         <v>643</v>
       </c>
       <c r="D404" s="44"/>
-      <c r="E404" s="87" t="s">
+      <c r="E404" s="100" t="s">
         <v>691</v>
       </c>
-      <c r="F404" s="87"/>
+      <c r="F404" s="100"/>
       <c r="G404" s="24">
         <v>3</v>
       </c>
@@ -20178,10 +20184,10 @@
         <v>645</v>
       </c>
       <c r="D405" s="44"/>
-      <c r="E405" s="87" t="s">
+      <c r="E405" s="100" t="s">
         <v>691</v>
       </c>
-      <c r="F405" s="87"/>
+      <c r="F405" s="100"/>
       <c r="G405" s="24">
         <v>4</v>
       </c>
@@ -20221,10 +20227,10 @@
         <v>223</v>
       </c>
       <c r="D406" s="26"/>
-      <c r="E406" s="87" t="s">
+      <c r="E406" s="100" t="s">
         <v>691</v>
       </c>
-      <c r="F406" s="87"/>
+      <c r="F406" s="100"/>
       <c r="G406" s="24">
         <v>5</v>
       </c>
@@ -20253,7 +20259,7 @@
       <c r="Y406" s="30"/>
       <c r="Z406" s="30"/>
     </row>
-    <row r="407" spans="1:26" ht="17.399999999999999">
+    <row r="407" spans="1:26" ht="15.6">
       <c r="A407" s="19" t="s">
         <v>639</v>
       </c>
@@ -20264,10 +20270,10 @@
         <v>648</v>
       </c>
       <c r="D407" s="26"/>
-      <c r="E407" s="87" t="s">
+      <c r="E407" s="100" t="s">
         <v>691</v>
       </c>
-      <c r="F407" s="87"/>
+      <c r="F407" s="100"/>
       <c r="G407" s="24">
         <v>6</v>
       </c>
@@ -20296,7 +20302,7 @@
       <c r="Y407" s="30"/>
       <c r="Z407" s="30"/>
     </row>
-    <row r="408" spans="1:26" s="50" customFormat="1" ht="17.399999999999999">
+    <row r="408" spans="1:26" s="50" customFormat="1" ht="15.6">
       <c r="H408" s="58"/>
       <c r="I408" s="66"/>
       <c r="J408" s="34"/>
@@ -20511,8 +20517,8 @@
       <c r="B418" s="34"/>
       <c r="C418" s="56"/>
       <c r="D418" s="34"/>
-      <c r="E418" s="89"/>
-      <c r="F418" s="89"/>
+      <c r="E418" s="101"/>
+      <c r="F418" s="101"/>
       <c r="G418" s="34"/>
       <c r="H418" s="58"/>
       <c r="I418" s="66"/>
@@ -34592,24 +34598,415 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{D81AFC7C-3E13-42F5-9951-ED21F0A4BFD9}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{9757AB7B-9CD0-4C18-B841-847CE545533D}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{68B1EEE2-F3B4-459E-BD83-B5FD4FB3F0C1}"/>
+      <autoFilter ref="A11:C37" xr:uid="{33D40E6B-370A-4DF9-B730-B372B94F3F8D}"/>
+    </customSheetView>
+    <customSheetView guid="{0112C507-3E33-4AF5-84E8-B9519F068338}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:D37" xr:uid="{C4BDA374-A403-4283-96FB-6D0EA3D244EA}"/>
     </customSheetView>
     <customSheetView guid="{75E94446-E183-4110-91B1-B47AD553172E}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{4F8A4DAD-BC3F-4E9D-9418-8C696FBB6DF7}"/>
+      <autoFilter ref="A11:D37" xr:uid="{2016B79C-8C44-407F-B32C-AECAB3762F84}"/>
     </customSheetView>
-    <customSheetView guid="{0112C507-3E33-4AF5-84E8-B9519F068338}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{D81AFC7C-3E13-42F5-9951-ED21F0A4BFD9}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{B884B94F-1670-445F-931B-19288B6BC02B}"/>
-    </customSheetView>
-    <customSheetView guid="{9757AB7B-9CD0-4C18-B841-847CE545533D}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{4B2C7184-565A-4752-ADB1-8CC502AE55AF}"/>
+      <autoFilter ref="A293:C332" xr:uid="{1B935AD9-CA24-4D4E-9857-A26AB51776FE}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="409">
+    <mergeCell ref="E393:F393"/>
+    <mergeCell ref="E394:F394"/>
+    <mergeCell ref="E395:F395"/>
+    <mergeCell ref="E396:F396"/>
+    <mergeCell ref="E397:F397"/>
+    <mergeCell ref="E388:F388"/>
+    <mergeCell ref="E389:F389"/>
+    <mergeCell ref="E390:F390"/>
+    <mergeCell ref="E391:F391"/>
+    <mergeCell ref="E392:F392"/>
+    <mergeCell ref="E418:F418"/>
+    <mergeCell ref="E403:F403"/>
+    <mergeCell ref="E404:F404"/>
+    <mergeCell ref="E405:F405"/>
+    <mergeCell ref="E406:F406"/>
+    <mergeCell ref="E407:F407"/>
+    <mergeCell ref="E398:F398"/>
+    <mergeCell ref="E399:F399"/>
+    <mergeCell ref="E400:F400"/>
+    <mergeCell ref="E401:F401"/>
+    <mergeCell ref="E402:F402"/>
+    <mergeCell ref="E384:F384"/>
+    <mergeCell ref="E385:F385"/>
+    <mergeCell ref="E386:F386"/>
+    <mergeCell ref="E387:F387"/>
+    <mergeCell ref="E378:F378"/>
+    <mergeCell ref="E379:F379"/>
+    <mergeCell ref="E380:F380"/>
+    <mergeCell ref="E381:F381"/>
+    <mergeCell ref="E382:F382"/>
+    <mergeCell ref="E383:F383"/>
+    <mergeCell ref="E373:F373"/>
+    <mergeCell ref="E374:F374"/>
+    <mergeCell ref="E375:F375"/>
+    <mergeCell ref="E376:F376"/>
+    <mergeCell ref="E377:F377"/>
+    <mergeCell ref="E368:F368"/>
+    <mergeCell ref="E369:F369"/>
+    <mergeCell ref="E370:F370"/>
+    <mergeCell ref="E371:F371"/>
+    <mergeCell ref="E372:F372"/>
+    <mergeCell ref="E363:F363"/>
+    <mergeCell ref="E364:F364"/>
+    <mergeCell ref="E365:F365"/>
+    <mergeCell ref="E366:F366"/>
+    <mergeCell ref="E367:F367"/>
+    <mergeCell ref="E358:F358"/>
+    <mergeCell ref="E359:F359"/>
+    <mergeCell ref="E360:F360"/>
+    <mergeCell ref="E361:F361"/>
+    <mergeCell ref="E362:F362"/>
+    <mergeCell ref="E353:F353"/>
+    <mergeCell ref="E354:F354"/>
+    <mergeCell ref="E355:F355"/>
+    <mergeCell ref="E356:F356"/>
+    <mergeCell ref="E357:F357"/>
+    <mergeCell ref="E348:F348"/>
+    <mergeCell ref="E349:F349"/>
+    <mergeCell ref="E350:F350"/>
+    <mergeCell ref="E351:F351"/>
+    <mergeCell ref="E352:F352"/>
+    <mergeCell ref="E343:F343"/>
+    <mergeCell ref="E344:F344"/>
+    <mergeCell ref="E345:F345"/>
+    <mergeCell ref="E346:F346"/>
+    <mergeCell ref="E347:F347"/>
+    <mergeCell ref="E338:F338"/>
+    <mergeCell ref="E339:F339"/>
+    <mergeCell ref="E340:F340"/>
+    <mergeCell ref="E341:F341"/>
+    <mergeCell ref="E342:F342"/>
+    <mergeCell ref="E333:F333"/>
+    <mergeCell ref="E334:F334"/>
+    <mergeCell ref="E335:F335"/>
+    <mergeCell ref="E336:F336"/>
+    <mergeCell ref="E337:F337"/>
+    <mergeCell ref="E328:F328"/>
+    <mergeCell ref="E329:F329"/>
+    <mergeCell ref="E330:F330"/>
+    <mergeCell ref="E331:F331"/>
+    <mergeCell ref="E332:F332"/>
+    <mergeCell ref="E323:F323"/>
+    <mergeCell ref="E324:F324"/>
+    <mergeCell ref="E325:F325"/>
+    <mergeCell ref="E326:F326"/>
+    <mergeCell ref="E327:F327"/>
+    <mergeCell ref="E318:F318"/>
+    <mergeCell ref="E319:F319"/>
+    <mergeCell ref="E320:F320"/>
+    <mergeCell ref="E321:F321"/>
+    <mergeCell ref="E322:F322"/>
+    <mergeCell ref="E313:F313"/>
+    <mergeCell ref="E314:F314"/>
+    <mergeCell ref="E315:F315"/>
+    <mergeCell ref="E316:F316"/>
+    <mergeCell ref="E317:F317"/>
+    <mergeCell ref="E308:F308"/>
+    <mergeCell ref="E309:F309"/>
+    <mergeCell ref="E310:F310"/>
+    <mergeCell ref="E311:F311"/>
+    <mergeCell ref="E312:F312"/>
+    <mergeCell ref="E303:F303"/>
+    <mergeCell ref="E304:F304"/>
+    <mergeCell ref="E305:F305"/>
+    <mergeCell ref="E306:F306"/>
+    <mergeCell ref="E307:F307"/>
+    <mergeCell ref="E298:F298"/>
+    <mergeCell ref="E299:F299"/>
+    <mergeCell ref="E300:F300"/>
+    <mergeCell ref="E301:F301"/>
+    <mergeCell ref="E302:F302"/>
+    <mergeCell ref="E293:F293"/>
+    <mergeCell ref="E294:F294"/>
+    <mergeCell ref="E295:F295"/>
+    <mergeCell ref="E296:F296"/>
+    <mergeCell ref="E297:F297"/>
+    <mergeCell ref="E288:F288"/>
+    <mergeCell ref="E289:F289"/>
+    <mergeCell ref="E290:F290"/>
+    <mergeCell ref="E291:F291"/>
+    <mergeCell ref="E292:F292"/>
+    <mergeCell ref="E283:F283"/>
+    <mergeCell ref="E284:F284"/>
+    <mergeCell ref="E285:F285"/>
+    <mergeCell ref="E286:F286"/>
+    <mergeCell ref="E287:F287"/>
+    <mergeCell ref="E278:F278"/>
+    <mergeCell ref="E279:F279"/>
+    <mergeCell ref="E280:F280"/>
+    <mergeCell ref="E281:F281"/>
+    <mergeCell ref="E282:F282"/>
+    <mergeCell ref="E273:F273"/>
+    <mergeCell ref="E274:F274"/>
+    <mergeCell ref="E275:F275"/>
+    <mergeCell ref="E276:F276"/>
+    <mergeCell ref="E277:F277"/>
+    <mergeCell ref="E268:F268"/>
+    <mergeCell ref="E269:F269"/>
+    <mergeCell ref="E270:F270"/>
+    <mergeCell ref="E271:F271"/>
+    <mergeCell ref="E272:F272"/>
+    <mergeCell ref="E263:F263"/>
+    <mergeCell ref="E264:F264"/>
+    <mergeCell ref="E265:F265"/>
+    <mergeCell ref="E266:F266"/>
+    <mergeCell ref="E267:F267"/>
+    <mergeCell ref="E258:F258"/>
+    <mergeCell ref="E259:F259"/>
+    <mergeCell ref="E260:F260"/>
+    <mergeCell ref="E261:F261"/>
+    <mergeCell ref="E262:F262"/>
+    <mergeCell ref="E253:F253"/>
+    <mergeCell ref="E254:F254"/>
+    <mergeCell ref="E255:F255"/>
+    <mergeCell ref="E256:F256"/>
+    <mergeCell ref="E257:F257"/>
+    <mergeCell ref="E248:F248"/>
+    <mergeCell ref="E249:F249"/>
+    <mergeCell ref="E250:F250"/>
+    <mergeCell ref="E251:F251"/>
+    <mergeCell ref="E252:F252"/>
+    <mergeCell ref="E243:F243"/>
+    <mergeCell ref="E244:F244"/>
+    <mergeCell ref="E245:F245"/>
+    <mergeCell ref="E246:F246"/>
+    <mergeCell ref="E247:F247"/>
+    <mergeCell ref="E238:F238"/>
+    <mergeCell ref="E239:F239"/>
+    <mergeCell ref="E240:F240"/>
+    <mergeCell ref="E241:F241"/>
+    <mergeCell ref="E242:F242"/>
+    <mergeCell ref="E233:F233"/>
+    <mergeCell ref="E234:F234"/>
+    <mergeCell ref="E235:F235"/>
+    <mergeCell ref="E236:F236"/>
+    <mergeCell ref="E237:F237"/>
+    <mergeCell ref="E228:F228"/>
+    <mergeCell ref="E229:F229"/>
+    <mergeCell ref="E230:F230"/>
+    <mergeCell ref="E231:F231"/>
+    <mergeCell ref="E232:F232"/>
+    <mergeCell ref="E223:F223"/>
+    <mergeCell ref="E224:F224"/>
+    <mergeCell ref="E225:F225"/>
+    <mergeCell ref="E226:F226"/>
+    <mergeCell ref="E227:F227"/>
+    <mergeCell ref="E218:F218"/>
+    <mergeCell ref="E219:F219"/>
+    <mergeCell ref="E220:F220"/>
+    <mergeCell ref="E221:F221"/>
+    <mergeCell ref="E222:F222"/>
+    <mergeCell ref="E213:F213"/>
+    <mergeCell ref="E214:F214"/>
+    <mergeCell ref="E215:F215"/>
+    <mergeCell ref="E216:F216"/>
+    <mergeCell ref="E217:F217"/>
+    <mergeCell ref="E208:F208"/>
+    <mergeCell ref="E209:F209"/>
+    <mergeCell ref="E210:F210"/>
+    <mergeCell ref="E211:F211"/>
+    <mergeCell ref="E212:F212"/>
+    <mergeCell ref="E203:F203"/>
+    <mergeCell ref="E204:F204"/>
+    <mergeCell ref="E205:F205"/>
+    <mergeCell ref="E206:F206"/>
+    <mergeCell ref="E207:F207"/>
+    <mergeCell ref="E198:F198"/>
+    <mergeCell ref="E199:F199"/>
+    <mergeCell ref="E200:F200"/>
+    <mergeCell ref="E201:F201"/>
+    <mergeCell ref="E202:F202"/>
+    <mergeCell ref="E193:F193"/>
+    <mergeCell ref="E194:F194"/>
+    <mergeCell ref="E195:F195"/>
+    <mergeCell ref="E196:F196"/>
+    <mergeCell ref="E197:F197"/>
+    <mergeCell ref="E188:F188"/>
+    <mergeCell ref="E189:F189"/>
+    <mergeCell ref="E190:F190"/>
+    <mergeCell ref="E191:F191"/>
+    <mergeCell ref="E192:F192"/>
+    <mergeCell ref="E183:F183"/>
+    <mergeCell ref="E184:F184"/>
+    <mergeCell ref="E185:F185"/>
+    <mergeCell ref="E186:F186"/>
+    <mergeCell ref="E187:F187"/>
+    <mergeCell ref="E178:F178"/>
+    <mergeCell ref="E179:F179"/>
+    <mergeCell ref="E180:F180"/>
+    <mergeCell ref="E181:F181"/>
+    <mergeCell ref="E182:F182"/>
+    <mergeCell ref="E173:F173"/>
+    <mergeCell ref="E174:F174"/>
+    <mergeCell ref="E175:F175"/>
+    <mergeCell ref="E176:F176"/>
+    <mergeCell ref="E177:F177"/>
+    <mergeCell ref="E168:F168"/>
+    <mergeCell ref="E169:F169"/>
+    <mergeCell ref="E170:F170"/>
+    <mergeCell ref="E171:F171"/>
+    <mergeCell ref="E172:F172"/>
+    <mergeCell ref="E163:F163"/>
+    <mergeCell ref="E164:F164"/>
+    <mergeCell ref="E165:F165"/>
+    <mergeCell ref="E166:F166"/>
+    <mergeCell ref="E167:F167"/>
+    <mergeCell ref="E158:F158"/>
+    <mergeCell ref="E159:F159"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="E161:F161"/>
+    <mergeCell ref="E162:F162"/>
+    <mergeCell ref="E154:F154"/>
+    <mergeCell ref="E155:F155"/>
+    <mergeCell ref="E156:F156"/>
+    <mergeCell ref="E157:F157"/>
+    <mergeCell ref="E148:F148"/>
+    <mergeCell ref="E149:F149"/>
+    <mergeCell ref="E150:F150"/>
+    <mergeCell ref="E151:F151"/>
+    <mergeCell ref="E152:F152"/>
+    <mergeCell ref="E143:F143"/>
+    <mergeCell ref="E144:F144"/>
+    <mergeCell ref="E145:F145"/>
+    <mergeCell ref="E146:F146"/>
+    <mergeCell ref="E147:F147"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="E153:F153"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="E137:F137"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
     <mergeCell ref="K5:L7"/>
     <mergeCell ref="K3:L4"/>
     <mergeCell ref="M3:N4"/>
@@ -34628,397 +35025,6 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="E115:F115"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="E127:F127"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="E121:F121"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="E135:F135"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="E137:F137"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="E129:F129"/>
-    <mergeCell ref="E130:F130"/>
-    <mergeCell ref="E131:F131"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="E143:F143"/>
-    <mergeCell ref="E144:F144"/>
-    <mergeCell ref="E145:F145"/>
-    <mergeCell ref="E146:F146"/>
-    <mergeCell ref="E147:F147"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="E139:F139"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="E153:F153"/>
-    <mergeCell ref="E154:F154"/>
-    <mergeCell ref="E155:F155"/>
-    <mergeCell ref="E156:F156"/>
-    <mergeCell ref="E157:F157"/>
-    <mergeCell ref="E148:F148"/>
-    <mergeCell ref="E149:F149"/>
-    <mergeCell ref="E150:F150"/>
-    <mergeCell ref="E151:F151"/>
-    <mergeCell ref="E152:F152"/>
-    <mergeCell ref="E163:F163"/>
-    <mergeCell ref="E164:F164"/>
-    <mergeCell ref="E165:F165"/>
-    <mergeCell ref="E166:F166"/>
-    <mergeCell ref="E167:F167"/>
-    <mergeCell ref="E158:F158"/>
-    <mergeCell ref="E159:F159"/>
-    <mergeCell ref="E160:F160"/>
-    <mergeCell ref="E161:F161"/>
-    <mergeCell ref="E162:F162"/>
-    <mergeCell ref="E173:F173"/>
-    <mergeCell ref="E174:F174"/>
-    <mergeCell ref="E175:F175"/>
-    <mergeCell ref="E176:F176"/>
-    <mergeCell ref="E177:F177"/>
-    <mergeCell ref="E168:F168"/>
-    <mergeCell ref="E169:F169"/>
-    <mergeCell ref="E170:F170"/>
-    <mergeCell ref="E171:F171"/>
-    <mergeCell ref="E172:F172"/>
-    <mergeCell ref="E183:F183"/>
-    <mergeCell ref="E184:F184"/>
-    <mergeCell ref="E185:F185"/>
-    <mergeCell ref="E186:F186"/>
-    <mergeCell ref="E187:F187"/>
-    <mergeCell ref="E178:F178"/>
-    <mergeCell ref="E179:F179"/>
-    <mergeCell ref="E180:F180"/>
-    <mergeCell ref="E181:F181"/>
-    <mergeCell ref="E182:F182"/>
-    <mergeCell ref="E193:F193"/>
-    <mergeCell ref="E194:F194"/>
-    <mergeCell ref="E195:F195"/>
-    <mergeCell ref="E196:F196"/>
-    <mergeCell ref="E197:F197"/>
-    <mergeCell ref="E188:F188"/>
-    <mergeCell ref="E189:F189"/>
-    <mergeCell ref="E190:F190"/>
-    <mergeCell ref="E191:F191"/>
-    <mergeCell ref="E192:F192"/>
-    <mergeCell ref="E203:F203"/>
-    <mergeCell ref="E204:F204"/>
-    <mergeCell ref="E205:F205"/>
-    <mergeCell ref="E206:F206"/>
-    <mergeCell ref="E207:F207"/>
-    <mergeCell ref="E198:F198"/>
-    <mergeCell ref="E199:F199"/>
-    <mergeCell ref="E200:F200"/>
-    <mergeCell ref="E201:F201"/>
-    <mergeCell ref="E202:F202"/>
-    <mergeCell ref="E213:F213"/>
-    <mergeCell ref="E214:F214"/>
-    <mergeCell ref="E215:F215"/>
-    <mergeCell ref="E216:F216"/>
-    <mergeCell ref="E217:F217"/>
-    <mergeCell ref="E208:F208"/>
-    <mergeCell ref="E209:F209"/>
-    <mergeCell ref="E210:F210"/>
-    <mergeCell ref="E211:F211"/>
-    <mergeCell ref="E212:F212"/>
-    <mergeCell ref="E223:F223"/>
-    <mergeCell ref="E224:F224"/>
-    <mergeCell ref="E225:F225"/>
-    <mergeCell ref="E226:F226"/>
-    <mergeCell ref="E227:F227"/>
-    <mergeCell ref="E218:F218"/>
-    <mergeCell ref="E219:F219"/>
-    <mergeCell ref="E220:F220"/>
-    <mergeCell ref="E221:F221"/>
-    <mergeCell ref="E222:F222"/>
-    <mergeCell ref="E233:F233"/>
-    <mergeCell ref="E234:F234"/>
-    <mergeCell ref="E235:F235"/>
-    <mergeCell ref="E236:F236"/>
-    <mergeCell ref="E237:F237"/>
-    <mergeCell ref="E228:F228"/>
-    <mergeCell ref="E229:F229"/>
-    <mergeCell ref="E230:F230"/>
-    <mergeCell ref="E231:F231"/>
-    <mergeCell ref="E232:F232"/>
-    <mergeCell ref="E243:F243"/>
-    <mergeCell ref="E244:F244"/>
-    <mergeCell ref="E245:F245"/>
-    <mergeCell ref="E246:F246"/>
-    <mergeCell ref="E247:F247"/>
-    <mergeCell ref="E238:F238"/>
-    <mergeCell ref="E239:F239"/>
-    <mergeCell ref="E240:F240"/>
-    <mergeCell ref="E241:F241"/>
-    <mergeCell ref="E242:F242"/>
-    <mergeCell ref="E253:F253"/>
-    <mergeCell ref="E254:F254"/>
-    <mergeCell ref="E255:F255"/>
-    <mergeCell ref="E256:F256"/>
-    <mergeCell ref="E257:F257"/>
-    <mergeCell ref="E248:F248"/>
-    <mergeCell ref="E249:F249"/>
-    <mergeCell ref="E250:F250"/>
-    <mergeCell ref="E251:F251"/>
-    <mergeCell ref="E252:F252"/>
-    <mergeCell ref="E263:F263"/>
-    <mergeCell ref="E264:F264"/>
-    <mergeCell ref="E265:F265"/>
-    <mergeCell ref="E266:F266"/>
-    <mergeCell ref="E267:F267"/>
-    <mergeCell ref="E258:F258"/>
-    <mergeCell ref="E259:F259"/>
-    <mergeCell ref="E260:F260"/>
-    <mergeCell ref="E261:F261"/>
-    <mergeCell ref="E262:F262"/>
-    <mergeCell ref="E273:F273"/>
-    <mergeCell ref="E274:F274"/>
-    <mergeCell ref="E275:F275"/>
-    <mergeCell ref="E276:F276"/>
-    <mergeCell ref="E277:F277"/>
-    <mergeCell ref="E268:F268"/>
-    <mergeCell ref="E269:F269"/>
-    <mergeCell ref="E270:F270"/>
-    <mergeCell ref="E271:F271"/>
-    <mergeCell ref="E272:F272"/>
-    <mergeCell ref="E283:F283"/>
-    <mergeCell ref="E284:F284"/>
-    <mergeCell ref="E285:F285"/>
-    <mergeCell ref="E286:F286"/>
-    <mergeCell ref="E287:F287"/>
-    <mergeCell ref="E278:F278"/>
-    <mergeCell ref="E279:F279"/>
-    <mergeCell ref="E280:F280"/>
-    <mergeCell ref="E281:F281"/>
-    <mergeCell ref="E282:F282"/>
-    <mergeCell ref="E293:F293"/>
-    <mergeCell ref="E294:F294"/>
-    <mergeCell ref="E295:F295"/>
-    <mergeCell ref="E296:F296"/>
-    <mergeCell ref="E297:F297"/>
-    <mergeCell ref="E288:F288"/>
-    <mergeCell ref="E289:F289"/>
-    <mergeCell ref="E290:F290"/>
-    <mergeCell ref="E291:F291"/>
-    <mergeCell ref="E292:F292"/>
-    <mergeCell ref="E303:F303"/>
-    <mergeCell ref="E304:F304"/>
-    <mergeCell ref="E305:F305"/>
-    <mergeCell ref="E306:F306"/>
-    <mergeCell ref="E307:F307"/>
-    <mergeCell ref="E298:F298"/>
-    <mergeCell ref="E299:F299"/>
-    <mergeCell ref="E300:F300"/>
-    <mergeCell ref="E301:F301"/>
-    <mergeCell ref="E302:F302"/>
-    <mergeCell ref="E313:F313"/>
-    <mergeCell ref="E314:F314"/>
-    <mergeCell ref="E315:F315"/>
-    <mergeCell ref="E316:F316"/>
-    <mergeCell ref="E317:F317"/>
-    <mergeCell ref="E308:F308"/>
-    <mergeCell ref="E309:F309"/>
-    <mergeCell ref="E310:F310"/>
-    <mergeCell ref="E311:F311"/>
-    <mergeCell ref="E312:F312"/>
-    <mergeCell ref="E323:F323"/>
-    <mergeCell ref="E324:F324"/>
-    <mergeCell ref="E325:F325"/>
-    <mergeCell ref="E326:F326"/>
-    <mergeCell ref="E327:F327"/>
-    <mergeCell ref="E318:F318"/>
-    <mergeCell ref="E319:F319"/>
-    <mergeCell ref="E320:F320"/>
-    <mergeCell ref="E321:F321"/>
-    <mergeCell ref="E322:F322"/>
-    <mergeCell ref="E333:F333"/>
-    <mergeCell ref="E334:F334"/>
-    <mergeCell ref="E335:F335"/>
-    <mergeCell ref="E336:F336"/>
-    <mergeCell ref="E337:F337"/>
-    <mergeCell ref="E328:F328"/>
-    <mergeCell ref="E329:F329"/>
-    <mergeCell ref="E330:F330"/>
-    <mergeCell ref="E331:F331"/>
-    <mergeCell ref="E332:F332"/>
-    <mergeCell ref="E343:F343"/>
-    <mergeCell ref="E344:F344"/>
-    <mergeCell ref="E345:F345"/>
-    <mergeCell ref="E346:F346"/>
-    <mergeCell ref="E347:F347"/>
-    <mergeCell ref="E338:F338"/>
-    <mergeCell ref="E339:F339"/>
-    <mergeCell ref="E340:F340"/>
-    <mergeCell ref="E341:F341"/>
-    <mergeCell ref="E342:F342"/>
-    <mergeCell ref="E353:F353"/>
-    <mergeCell ref="E354:F354"/>
-    <mergeCell ref="E355:F355"/>
-    <mergeCell ref="E356:F356"/>
-    <mergeCell ref="E357:F357"/>
-    <mergeCell ref="E348:F348"/>
-    <mergeCell ref="E349:F349"/>
-    <mergeCell ref="E350:F350"/>
-    <mergeCell ref="E351:F351"/>
-    <mergeCell ref="E352:F352"/>
-    <mergeCell ref="E363:F363"/>
-    <mergeCell ref="E364:F364"/>
-    <mergeCell ref="E365:F365"/>
-    <mergeCell ref="E366:F366"/>
-    <mergeCell ref="E367:F367"/>
-    <mergeCell ref="E358:F358"/>
-    <mergeCell ref="E359:F359"/>
-    <mergeCell ref="E360:F360"/>
-    <mergeCell ref="E361:F361"/>
-    <mergeCell ref="E362:F362"/>
-    <mergeCell ref="E373:F373"/>
-    <mergeCell ref="E374:F374"/>
-    <mergeCell ref="E375:F375"/>
-    <mergeCell ref="E376:F376"/>
-    <mergeCell ref="E377:F377"/>
-    <mergeCell ref="E368:F368"/>
-    <mergeCell ref="E369:F369"/>
-    <mergeCell ref="E370:F370"/>
-    <mergeCell ref="E371:F371"/>
-    <mergeCell ref="E372:F372"/>
-    <mergeCell ref="E384:F384"/>
-    <mergeCell ref="E385:F385"/>
-    <mergeCell ref="E386:F386"/>
-    <mergeCell ref="E387:F387"/>
-    <mergeCell ref="E378:F378"/>
-    <mergeCell ref="E379:F379"/>
-    <mergeCell ref="E380:F380"/>
-    <mergeCell ref="E381:F381"/>
-    <mergeCell ref="E382:F382"/>
-    <mergeCell ref="E383:F383"/>
-    <mergeCell ref="E418:F418"/>
-    <mergeCell ref="E403:F403"/>
-    <mergeCell ref="E404:F404"/>
-    <mergeCell ref="E405:F405"/>
-    <mergeCell ref="E406:F406"/>
-    <mergeCell ref="E407:F407"/>
-    <mergeCell ref="E398:F398"/>
-    <mergeCell ref="E399:F399"/>
-    <mergeCell ref="E400:F400"/>
-    <mergeCell ref="E401:F401"/>
-    <mergeCell ref="E402:F402"/>
-    <mergeCell ref="E393:F393"/>
-    <mergeCell ref="E394:F394"/>
-    <mergeCell ref="E395:F395"/>
-    <mergeCell ref="E396:F396"/>
-    <mergeCell ref="E397:F397"/>
-    <mergeCell ref="E388:F388"/>
-    <mergeCell ref="E389:F389"/>
-    <mergeCell ref="E390:F390"/>
-    <mergeCell ref="E391:F391"/>
-    <mergeCell ref="E392:F392"/>
   </mergeCells>
   <conditionalFormatting sqref="B143:B407 C142 B2:B140">
     <cfRule type="expression" dxfId="3" priority="7">
@@ -35439,28 +35445,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24.6">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
     </row>
     <row r="2" spans="1:3" ht="13.2">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A3" s="103"/>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
+      <c r="A3" s="104"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A4" s="103"/>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
+      <c r="A4" s="104"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="104"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="6"/>
@@ -35537,7 +35543,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="17.399999999999999">
+    <row r="17" spans="1:2" ht="15.6">
       <c r="A17" s="10" t="s">
         <v>121</v>
       </c>
@@ -35545,7 +35551,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="17.399999999999999">
+    <row r="18" spans="1:2" ht="15.6">
       <c r="A18" s="10" t="s">
         <v>121</v>
       </c>
@@ -35553,7 +35559,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="17.399999999999999">
+    <row r="19" spans="1:2" ht="15.6">
       <c r="A19" s="12" t="s">
         <v>121</v>
       </c>
@@ -35561,7 +35567,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="17.399999999999999">
+    <row r="20" spans="1:2" ht="15.6">
       <c r="A20" s="12" t="s">
         <v>121</v>
       </c>
@@ -35569,7 +35575,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="17.399999999999999">
+    <row r="21" spans="1:2" ht="15.6">
       <c r="A21" s="12" t="s">
         <v>121</v>
       </c>
